--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -103,22 +103,22 @@
     <t>Cyprus Division 1</t>
   </si>
   <si>
+    <t>Enosis Paralimni</t>
+  </si>
+  <si>
     <t>Apollon Limassol</t>
   </si>
   <si>
-    <t>Enosis Paralimni</t>
+    <t>Doxa Katokopias</t>
   </si>
   <si>
     <t>Apoel Nicosia</t>
   </si>
   <si>
-    <t>Doxa Katokopias</t>
+    <t>Akritas Chlorakas</t>
   </si>
   <si>
     <t>AEK Larnaca</t>
-  </si>
-  <si>
-    <t>Akritas Chlorakas</t>
   </si>
   <si>
     <t>APK Karmotissa</t>
@@ -154,10 +154,10 @@
     <t>Ethnikos Achnas</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5270157</v>
+        <v>5270156</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,73 +634,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M2">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5270156</v>
+        <v>5270157</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N3">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>1.65</v>
+        <v>8</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5269222</v>
+        <v>5270160</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,73 +812,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="N4">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>13</v>
+        <v>1.85</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
+        <v>1.975</v>
+      </c>
+      <c r="S4">
         <v>1.825</v>
       </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5270160</v>
+        <v>5269222</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,73 +901,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M5">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="N5">
+        <v>1.285</v>
+      </c>
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="O5">
-        <v>3.2</v>
-      </c>
       <c r="P5">
-        <v>1.85</v>
+        <v>13</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
+        <v>1.825</v>
+      </c>
+      <c r="S5">
         <v>1.975</v>
       </c>
-      <c r="S5">
-        <v>1.825</v>
-      </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X5">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5270158</v>
+        <v>5270159</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -999,47 +999,47 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
+        <v>4.2</v>
+      </c>
+      <c r="L6">
+        <v>3.4</v>
+      </c>
+      <c r="M6">
+        <v>1.909</v>
+      </c>
+      <c r="N6">
+        <v>5.5</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
+        <v>1.666</v>
+      </c>
+      <c r="Q6">
+        <v>0.75</v>
+      </c>
+      <c r="R6">
+        <v>1.975</v>
+      </c>
+      <c r="S6">
+        <v>1.825</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>1.8</v>
       </c>
-      <c r="L6">
-        <v>3.5</v>
-      </c>
-      <c r="M6">
+      <c r="W6">
         <v>4.5</v>
       </c>
-      <c r="N6">
-        <v>2.875</v>
-      </c>
-      <c r="O6">
-        <v>3.1</v>
-      </c>
-      <c r="P6">
-        <v>2.55</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>2.025</v>
-      </c>
-      <c r="S6">
-        <v>1.775</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.975</v>
-      </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
-      <c r="W6">
-        <v>1.875</v>
-      </c>
       <c r="X6">
         <v>-1</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1056,7 +1056,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5270159</v>
+        <v>5270158</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,7 +1079,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1088,46 +1088,46 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N7">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>2.025</v>
+      </c>
+      <c r="S7">
+        <v>1.775</v>
+      </c>
+      <c r="T7">
+        <v>2.25</v>
+      </c>
+      <c r="U7">
         <v>1.975</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.8</v>
-      </c>
       <c r="W7">
-        <v>4.5</v>
+        <v>1.875</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1136,7 +1136,7 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1145,7 +1145,7 @@
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.909</v>
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>1.45</v>
@@ -1435,7 +1435,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1613,7 +1613,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>3.8</v>
@@ -1702,7 +1702,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>44939.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1889,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>4.75</v>
@@ -1966,7 +1966,7 @@
         <v>44939.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>2.4</v>
@@ -2058,7 +2058,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>4.75</v>
@@ -2144,7 +2144,7 @@
         <v>44941.5</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -2156,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>1.909</v>
@@ -2233,7 +2233,7 @@
         <v>44941.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>1.85</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>1.65</v>
@@ -2411,7 +2411,7 @@
         <v>44943.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>2.7</v>
@@ -2503,7 +2503,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
         <v>6.5</v>
@@ -2592,7 +2592,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>1.25</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2767,10 +2767,10 @@
         <v>44948.5</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>1.166</v>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>3.75</v>
@@ -2948,7 +2948,7 @@
         <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>1.95</v>
@@ -3037,7 +3037,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>1.533</v>
@@ -3123,7 +3123,7 @@
         <v>44953.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>1.333</v>
@@ -3212,7 +3212,7 @@
         <v>44953.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3224,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>2.875</v>
@@ -3301,10 +3301,10 @@
         <v>44954.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>2.55</v>
@@ -3390,7 +3390,7 @@
         <v>44954.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>2.875</v>
@@ -3657,7 +3657,7 @@
         <v>44956.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>5.5</v>
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>2.7</v>
@@ -3838,7 +3838,7 @@
         <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>1.5</v>
@@ -3936,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <v>1.45</v>
@@ -4013,10 +4013,10 @@
         <v>44960.625</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>1.65</v>
@@ -4105,7 +4105,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>4.75</v>
@@ -4194,7 +4194,7 @@
         <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4203,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>1.333</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>1.55</v>
@@ -4458,7 +4458,7 @@
         <v>44966.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4470,7 +4470,7 @@
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>1.45</v>
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>2.45</v>
@@ -4636,10 +4636,10 @@
         <v>44967.54166666666</v>
       </c>
       <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
         <v>33</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4737,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>2.15</v>
@@ -4802,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5270182</v>
+        <v>5269232</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,40 +4814,40 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
         <v>32</v>
       </c>
-      <c r="G49" t="s">
-        <v>42</v>
-      </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P49">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
         <v>1.95</v>
@@ -4859,31 +4859,31 @@
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA49">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5269232</v>
+        <v>5270182</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N50">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O50">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q50">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
         <v>1.95</v>
@@ -4948,31 +4948,31 @@
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y50">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>1.45</v>
@@ -5170,10 +5170,10 @@
         <v>44975.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>5.25</v>
@@ -5262,7 +5262,7 @@
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>3.8</v>
@@ -5348,10 +5348,10 @@
         <v>44976.54166666666</v>
       </c>
       <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5270189</v>
+        <v>5270188</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,13 +5437,13 @@
         <v>44977.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5452,61 +5452,61 @@
         <v>46</v>
       </c>
       <c r="K56">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N56">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O56">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T56">
         <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5270188</v>
+        <v>5270189</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,13 +5526,13 @@
         <v>44977.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5541,61 +5541,61 @@
         <v>47</v>
       </c>
       <c r="K57">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M57">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N57">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O57">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P57">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="Q57">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5603,7 +5603,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5269235</v>
+        <v>5269371</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,76 +5615,76 @@
         <v>44981.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L58">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X58">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5692,7 +5692,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5269371</v>
+        <v>5269235</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5704,76 +5704,76 @@
         <v>44981.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M59">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>2.9</v>
@@ -5971,10 +5971,10 @@
         <v>44983.5</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>1.75</v>
@@ -6149,10 +6149,10 @@
         <v>44984.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6161,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6238,10 +6238,10 @@
         <v>44989.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>1.25</v>
@@ -6339,7 +6339,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K66">
         <v>3.75</v>
@@ -6416,10 +6416,10 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6428,7 +6428,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.6</v>
@@ -6508,7 +6508,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>2.55</v>
@@ -6594,7 +6594,7 @@
         <v>44991.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>36</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>1.25</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
         <v>1.666</v>
@@ -6864,7 +6864,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>2.3</v>
@@ -6953,7 +6953,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>1.666</v>
@@ -7042,7 +7042,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>4</v>
@@ -7229,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>1.833</v>
@@ -7395,10 +7395,10 @@
         <v>44998.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7484,7 +7484,7 @@
         <v>45001.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7573,10 +7573,10 @@
         <v>45002.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7662,7 +7662,7 @@
         <v>45002.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7751,7 +7751,7 @@
         <v>45003.5</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7852,7 +7852,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>2.375</v>
@@ -7941,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -8021,7 +8021,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>2.2</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K87">
         <v>2.375</v>
@@ -8288,7 +8288,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.625</v>
@@ -8463,7 +8463,7 @@
         <v>45018.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>41</v>
@@ -8475,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K90">
         <v>2.7</v>
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6396768</v>
+        <v>6397233</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,73 +8552,73 @@
         <v>45019.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L91">
+        <v>3.25</v>
+      </c>
+      <c r="M91">
+        <v>3.1</v>
+      </c>
+      <c r="N91">
+        <v>2.6</v>
+      </c>
+      <c r="O91">
         <v>3.2</v>
       </c>
-      <c r="M91">
-        <v>2.75</v>
-      </c>
-      <c r="N91">
-        <v>2.75</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
       <c r="P91">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6397233</v>
+        <v>6396768</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,73 +8641,73 @@
         <v>45019.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M92">
+        <v>2.75</v>
+      </c>
+      <c r="N92">
+        <v>2.75</v>
+      </c>
+      <c r="O92">
         <v>3.1</v>
       </c>
-      <c r="N92">
-        <v>2.6</v>
-      </c>
-      <c r="O92">
-        <v>3.2</v>
-      </c>
       <c r="P92">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y92">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8819,10 +8819,10 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8831,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>3.8</v>
@@ -8911,7 +8911,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>2.3</v>
@@ -9086,10 +9086,10 @@
         <v>45026.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6396769</v>
+        <v>6396778</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,40 +9175,40 @@
         <v>45027.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
         <v>46</v>
       </c>
       <c r="K98">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
         <v>1.85</v>
@@ -9217,7 +9217,7 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
         <v>1.925</v>
@@ -9226,19 +9226,19 @@
         <v>1.875</v>
       </c>
       <c r="W98">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
         <v>0.925</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6396778</v>
+        <v>6396769</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,40 +9264,40 @@
         <v>45027.54166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
+        <v>2.25</v>
+      </c>
+      <c r="L99">
+        <v>3.25</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>2.1</v>
+      </c>
+      <c r="O99">
         <v>3.4</v>
       </c>
-      <c r="L99">
-        <v>3.4</v>
-      </c>
-      <c r="M99">
-        <v>2</v>
-      </c>
-      <c r="N99">
-        <v>4.333</v>
-      </c>
-      <c r="O99">
-        <v>3.8</v>
-      </c>
       <c r="P99">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="Q99">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
         <v>1.85</v>
@@ -9306,7 +9306,7 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
         <v>1.925</v>
@@ -9315,19 +9315,19 @@
         <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>0.925</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9445,7 +9445,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9454,7 +9454,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>1.3</v>
@@ -9531,7 +9531,7 @@
         <v>45029.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9620,7 +9620,7 @@
         <v>45029.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.1</v>
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6397240</v>
+        <v>6397217</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45034.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K104">
+        <v>2.25</v>
+      </c>
+      <c r="L104">
         <v>3.1</v>
       </c>
-      <c r="L104">
-        <v>3.25</v>
-      </c>
       <c r="M104">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O104">
         <v>3.4</v>
       </c>
       <c r="P104">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
         <v>2.4</v>
       </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6397217</v>
+        <v>6397240</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9798,76 +9798,76 @@
         <v>45034.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N105">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O105">
         <v>3.4</v>
       </c>
       <c r="P105">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X105">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA105">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9899,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -10065,7 +10065,7 @@
         <v>45037.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10077,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>2.8</v>
@@ -10154,7 +10154,7 @@
         <v>45037.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>1.727</v>
@@ -10243,7 +10243,7 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>40</v>
@@ -10344,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
         <v>2.4</v>
@@ -10421,7 +10421,7 @@
         <v>45039.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>38</v>
@@ -10513,7 +10513,7 @@
         <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>1.7</v>
@@ -10688,7 +10688,7 @@
         <v>45044.54166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>36</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>3.2</v>
@@ -10777,7 +10777,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
         <v>35</v>
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>2.45</v>
@@ -10866,7 +10866,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
         <v>38</v>
@@ -10878,7 +10878,7 @@
         <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K117">
         <v>2.8</v>
@@ -10955,10 +10955,10 @@
         <v>45046.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
         <v>2.625</v>
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6397228</v>
+        <v>6396779</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45047.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N120">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O120">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11210,7 +11210,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6396779</v>
+        <v>6397228</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11222,76 +11222,76 @@
         <v>45047.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11323,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11400,10 +11400,10 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>5</v>
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>1.8</v>
@@ -11590,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>1.6</v>
@@ -11655,7 +11655,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6396772</v>
+        <v>6397211</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11667,10 +11667,10 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11682,19 +11682,19 @@
         <v>48</v>
       </c>
       <c r="K126">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M126">
         <v>2.8</v>
       </c>
       <c r="N126">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O126">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
         <v>2.7</v>
@@ -11709,19 +11709,19 @@
         <v>1.925</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -11733,10 +11733,10 @@
         <v>-0</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11744,7 +11744,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6397211</v>
+        <v>6396772</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11756,10 +11756,10 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11771,19 +11771,19 @@
         <v>48</v>
       </c>
       <c r="K127">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
         <v>2.8</v>
       </c>
       <c r="N127">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
         <v>2.7</v>
@@ -11798,19 +11798,19 @@
         <v>1.925</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y127">
         <v>-1</v>
@@ -11822,10 +11822,10 @@
         <v>-0</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11857,7 +11857,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K128">
         <v>2.15</v>
@@ -11937,7 +11937,7 @@
         <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11946,7 +11946,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>3</v>
@@ -12035,7 +12035,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>1.95</v>
@@ -12112,10 +12112,10 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>1.909</v>
@@ -12201,7 +12201,7 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>40</v>
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12379,7 +12379,7 @@
         <v>45058.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>1.909</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
         <v>1.8</v>
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
         <v>1.6</v>
@@ -12646,10 +12646,10 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12658,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K137">
         <v>1.8</v>
@@ -12738,7 +12738,7 @@
         <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>1.75</v>
@@ -12824,10 +12824,10 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12836,7 +12836,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
         <v>1.533</v>
@@ -12925,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
         <v>2.6</v>
@@ -13005,7 +13005,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13014,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>2.25</v>
@@ -13094,7 +13094,7 @@
         <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13103,7 +13103,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K142">
         <v>7</v>
@@ -13180,7 +13180,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13192,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K143">
         <v>3.75</v>
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K144">
         <v>1.363</v>
@@ -13346,7 +13346,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6396774</v>
+        <v>6397212</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13358,76 +13358,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
+        <v>2.7</v>
+      </c>
+      <c r="L145">
+        <v>3.1</v>
+      </c>
+      <c r="M145">
+        <v>2.375</v>
+      </c>
+      <c r="N145">
+        <v>3.4</v>
+      </c>
+      <c r="O145">
+        <v>3.2</v>
+      </c>
+      <c r="P145">
+        <v>2.2</v>
+      </c>
+      <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
         <v>1.85</v>
-      </c>
-      <c r="L145">
-        <v>3.3</v>
-      </c>
-      <c r="M145">
-        <v>3.75</v>
-      </c>
-      <c r="N145">
-        <v>2.3</v>
-      </c>
-      <c r="O145">
-        <v>3.25</v>
-      </c>
-      <c r="P145">
-        <v>3.25</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
-      <c r="R145">
-        <v>2</v>
-      </c>
-      <c r="S145">
-        <v>1.8</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
+        <v>2.025</v>
+      </c>
+      <c r="V145">
         <v>1.775</v>
       </c>
-      <c r="V145">
-        <v>2.025</v>
-      </c>
       <c r="W145">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X145">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC145">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13435,7 +13435,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6397212</v>
+        <v>6396774</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13447,76 +13447,76 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L146">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M146">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N146">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P146">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
+        <v>1.775</v>
+      </c>
+      <c r="V146">
         <v>2.025</v>
       </c>
-      <c r="V146">
-        <v>1.775</v>
-      </c>
       <c r="W146">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13548,7 +13548,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
         <v>2.6</v>
@@ -13625,7 +13625,7 @@
         <v>45069.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13637,7 +13637,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>1.666</v>
@@ -13726,7 +13726,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>1.615</v>
@@ -13803,7 +13803,7 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13815,7 +13815,7 @@
         <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K150">
         <v>2.15</v>
@@ -13892,7 +13892,7 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>35</v>
@@ -13984,7 +13984,7 @@
         <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14073,7 +14073,7 @@
         <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14082,7 +14082,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K153">
         <v>5</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6397265</v>
+        <v>6397264</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,76 +14159,76 @@
         <v>45075.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="L154">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M154">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="N154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P154">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R154">
+        <v>1.875</v>
+      </c>
+      <c r="S154">
+        <v>1.925</v>
+      </c>
+      <c r="T154">
+        <v>2.5</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
         <v>1.8</v>
       </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>1.9</v>
-      </c>
-      <c r="V154">
-        <v>1.9</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X154">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
+        <v>0.875</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.8</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>-0.5</v>
-      </c>
-      <c r="AC154">
-        <v>0.45</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6397264</v>
+        <v>6397265</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,76 +14248,76 @@
         <v>45075.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K155">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M155">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="N155">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O155">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC155">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
         <v>1.4</v>
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K157">
         <v>1.6</v>
@@ -14515,7 +14515,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>44</v>
@@ -14607,7 +14607,7 @@
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14616,7 +14616,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K159">
         <v>10</v>
@@ -14705,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K160">
         <v>1.7</v>
@@ -14782,7 +14782,7 @@
         <v>45159.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>40</v>
@@ -14794,7 +14794,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K161">
         <v>3.1</v>
@@ -14874,7 +14874,7 @@
         <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14883,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>2.2</v>
@@ -14972,7 +14972,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K163">
         <v>3.25</v>
@@ -15150,7 +15150,7 @@
         <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>1.6</v>
@@ -15230,7 +15230,7 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15316,7 +15316,7 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
         <v>45</v>
@@ -15408,7 +15408,7 @@
         <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K168">
         <v>1.45</v>
@@ -15583,10 +15583,10 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15595,7 +15595,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K170">
         <v>5</v>
@@ -15684,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>1.4</v>
@@ -15862,7 +15862,7 @@
         <v>5</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K173">
         <v>6</v>
@@ -15939,7 +15939,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>35</v>
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
         <v>1.4</v>
@@ -16031,7 +16031,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16040,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K175">
         <v>3.3</v>
@@ -16117,7 +16117,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
         <v>43</v>
@@ -16129,7 +16129,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176">
         <v>1.95</v>
@@ -16206,7 +16206,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
         <v>44</v>
@@ -16218,7 +16218,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K177">
         <v>1.4</v>
@@ -16396,7 +16396,7 @@
         <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K179">
         <v>3.1</v>
@@ -16562,10 +16562,10 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16654,7 +16654,7 @@
         <v>43</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16663,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K182">
         <v>9</v>
@@ -16743,7 +16743,7 @@
         <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16752,7 +16752,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K183">
         <v>1.363</v>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K184">
         <v>2.3</v>
@@ -16921,7 +16921,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17019,7 +17019,7 @@
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K186">
         <v>3</v>
@@ -17096,7 +17096,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
         <v>40</v>
@@ -17108,7 +17108,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K187">
         <v>1.615</v>
@@ -17274,7 +17274,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
         <v>39</v>
@@ -17286,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
         <v>2.6</v>
@@ -17363,7 +17363,7 @@
         <v>45199.5</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
@@ -17544,7 +17544,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17553,7 +17553,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K192">
         <v>1.909</v>
@@ -17630,7 +17630,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
         <v>37</v>
@@ -17642,7 +17642,7 @@
         <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K193">
         <v>4</v>
@@ -17731,7 +17731,7 @@
         <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K194">
         <v>3.1</v>
@@ -17820,7 +17820,7 @@
         <v>4</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K195">
         <v>9</v>
@@ -17897,7 +17897,7 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
         <v>45</v>
@@ -17909,7 +17909,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K196">
         <v>1.3</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K197">
         <v>2.05</v>
@@ -18078,7 +18078,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18087,7 +18087,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K198">
         <v>7.5</v>
@@ -18256,7 +18256,7 @@
         <v>39</v>
       </c>
       <c r="G200" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18354,7 +18354,7 @@
         <v>3</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K201">
         <v>3.4</v>
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K202">
         <v>3.1</v>
@@ -18520,10 +18520,10 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H203">
         <v>4</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K203">
         <v>1.363</v>
@@ -18597,7 +18597,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6943340</v>
+        <v>6943343</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18609,58 +18609,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="L204">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M204">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N204">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O204">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P204">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q204">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T204">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18669,16 +18669,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18686,7 +18686,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6943343</v>
+        <v>6943340</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18698,58 +18698,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="L205">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M205">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N205">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O205">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P205">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R205">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W205">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18758,16 +18758,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA205">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
         <v>35</v>
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K206">
         <v>1.363</v>
@@ -18888,7 +18888,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K207">
         <v>1.571</v>
@@ -18953,7 +18953,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6943342</v>
+        <v>6943341</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18965,55 +18965,55 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>0</v>
       </c>
       <c r="I208">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K208">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
+        <v>1.571</v>
+      </c>
+      <c r="N208">
+        <v>6.5</v>
+      </c>
+      <c r="O208">
         <v>4</v>
       </c>
-      <c r="M208">
-        <v>1.5</v>
-      </c>
-      <c r="N208">
-        <v>8</v>
-      </c>
-      <c r="O208">
-        <v>5</v>
-      </c>
       <c r="P208">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q208">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
         <v>-1</v>
@@ -19022,19 +19022,19 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19042,7 +19042,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6943341</v>
+        <v>6943342</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19054,76 +19054,76 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K209">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L209">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="N209">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P209">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q209">
+        <v>1.5</v>
+      </c>
+      <c r="R209">
+        <v>1.8</v>
+      </c>
+      <c r="S209">
+        <v>2</v>
+      </c>
+      <c r="T209">
+        <v>3.25</v>
+      </c>
+      <c r="U209">
+        <v>1.95</v>
+      </c>
+      <c r="V209">
+        <v>1.85</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
         <v>1</v>
       </c>
-      <c r="R209">
-        <v>1.85</v>
-      </c>
-      <c r="S209">
-        <v>1.95</v>
-      </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>1.925</v>
-      </c>
-      <c r="V209">
-        <v>1.875</v>
-      </c>
-      <c r="W209">
-        <v>-1</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
-      <c r="Y209">
-        <v>0.55</v>
-      </c>
-      <c r="Z209">
-        <v>-1</v>
-      </c>
-      <c r="AA209">
+      <c r="AB209">
         <v>0.95</v>
       </c>
-      <c r="AB209">
-        <v>-1</v>
-      </c>
       <c r="AC209">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19155,7 +19155,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K210">
         <v>1.909</v>
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K211">
         <v>2.25</v>
@@ -19324,7 +19324,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19333,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19422,7 +19422,7 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K213">
         <v>8</v>
@@ -19511,7 +19511,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.25</v>
@@ -19591,7 +19591,7 @@
         <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19677,7 +19677,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
         <v>39</v>
@@ -19689,7 +19689,7 @@
         <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K216">
         <v>2.5</v>
@@ -19867,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K218">
         <v>6.5</v>
@@ -20033,7 +20033,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20045,7 +20045,7 @@
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K220">
         <v>2.8</v>
@@ -20125,7 +20125,7 @@
         <v>37</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20134,7 +20134,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K221">
         <v>2.25</v>
@@ -20223,7 +20223,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K222">
         <v>1.45</v>
@@ -20288,7 +20288,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6942193</v>
+        <v>6943357</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20300,76 +20300,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J223" t="s">
         <v>46</v>
       </c>
       <c r="K223">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L223">
+        <v>3.3</v>
+      </c>
+      <c r="M223">
+        <v>2.4</v>
+      </c>
+      <c r="N223">
+        <v>2.4</v>
+      </c>
+      <c r="O223">
         <v>3.4</v>
       </c>
-      <c r="M223">
-        <v>3.4</v>
-      </c>
-      <c r="N223">
-        <v>1.75</v>
-      </c>
-      <c r="O223">
-        <v>3.8</v>
-      </c>
       <c r="P223">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R223">
+        <v>1.725</v>
+      </c>
+      <c r="S223">
+        <v>2.075</v>
+      </c>
+      <c r="T223">
+        <v>2.25</v>
+      </c>
+      <c r="U223">
         <v>1.875</v>
       </c>
-      <c r="S223">
+      <c r="V223">
         <v>1.925</v>
       </c>
-      <c r="T223">
-        <v>2.75</v>
-      </c>
-      <c r="U223">
-        <v>2</v>
-      </c>
-      <c r="V223">
-        <v>1.8</v>
-      </c>
       <c r="W223">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z223">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20377,7 +20377,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6943357</v>
+        <v>6942193</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20389,76 +20389,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>47</v>
       </c>
       <c r="K224">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L224">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N224">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O224">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P224">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S224">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V224">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA224">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20490,7 +20490,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K225">
         <v>1.7</v>
@@ -20579,7 +20579,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>36</v>
       </c>
       <c r="G227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -20668,7 +20668,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K227">
         <v>1.5</v>
@@ -20757,7 +20757,7 @@
         <v>4</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K228">
         <v>5.5</v>
@@ -20834,7 +20834,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20846,7 +20846,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K229">
         <v>1.4</v>
@@ -20935,7 +20935,7 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K230">
         <v>2.375</v>
@@ -21024,7 +21024,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K231">
         <v>10</v>
@@ -21101,10 +21101,10 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21113,7 +21113,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K232">
         <v>2.05</v>
@@ -21193,7 +21193,7 @@
         <v>41</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21202,7 +21202,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K233">
         <v>2.45</v>
@@ -21291,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K234">
         <v>1.222</v>
@@ -21469,7 +21469,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K236">
         <v>1.3</v>
@@ -21546,7 +21546,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G237" t="s">
         <v>38</v>
@@ -21558,7 +21558,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K237">
         <v>2.15</v>
@@ -21623,7 +21623,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6943365</v>
+        <v>6943369</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21635,73 +21635,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N238">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O238">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P238">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
+        <v>1.95</v>
+      </c>
+      <c r="V238">
         <v>1.85</v>
       </c>
-      <c r="V238">
-        <v>1.95</v>
-      </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X238">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21712,7 +21712,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6943369</v>
+        <v>6943365</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21724,73 +21724,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K239">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M239">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N239">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O239">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P239">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q239">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T239">
         <v>2.5</v>
       </c>
       <c r="U239">
+        <v>1.85</v>
+      </c>
+      <c r="V239">
         <v>1.95</v>
       </c>
-      <c r="V239">
-        <v>1.85</v>
-      </c>
       <c r="W239">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB239">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21825,7 +21825,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K240">
         <v>4.75</v>
@@ -21905,7 +21905,7 @@
         <v>45</v>
       </c>
       <c r="G241" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -21994,7 +21994,7 @@
         <v>38</v>
       </c>
       <c r="G242" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22169,10 +22169,10 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F244" t="s">
+        <v>32</v>
+      </c>
+      <c r="G244" t="s">
         <v>31</v>
-      </c>
-      <c r="G244" t="s">
-        <v>32</v>
       </c>
       <c r="H244">
         <v>5</v>
@@ -22181,7 +22181,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K244">
         <v>1.2</v>
@@ -22270,7 +22270,7 @@
         <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K245">
         <v>5</v>
@@ -22359,7 +22359,7 @@
         <v>4</v>
       </c>
       <c r="J246" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K246">
         <v>4</v>
@@ -22439,7 +22439,7 @@
         <v>44</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -22448,7 +22448,7 @@
         <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K247">
         <v>6.5</v>
@@ -22525,7 +22525,7 @@
         <v>45269.5</v>
       </c>
       <c r="F248" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G248" t="s">
         <v>41</v>
@@ -22537,7 +22537,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K248">
         <v>2.8</v>
@@ -22614,7 +22614,7 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F249" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G249" t="s">
         <v>43</v>
@@ -22626,7 +22626,7 @@
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K249">
         <v>1.166</v>
@@ -22706,7 +22706,7 @@
         <v>40</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H250">
         <v>2</v>
@@ -22715,7 +22715,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K250">
         <v>1.5</v>
@@ -22804,7 +22804,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K251">
         <v>4</v>
@@ -22893,7 +22893,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K252">
         <v>11</v>
@@ -22982,7 +22982,7 @@
         <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K253">
         <v>4</v>
@@ -23062,7 +23062,7 @@
         <v>45</v>
       </c>
       <c r="G254" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>3</v>
       </c>
       <c r="J254" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K254">
         <v>4.75</v>
@@ -23160,7 +23160,7 @@
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K255">
         <v>1.25</v>
@@ -23249,7 +23249,7 @@
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K256">
         <v>1.3</v>
@@ -23338,7 +23338,7 @@
         <v>4</v>
       </c>
       <c r="J257" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K257">
         <v>3.2</v>
@@ -23418,7 +23418,7 @@
         <v>39</v>
       </c>
       <c r="G258" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K258">
         <v>2.25</v>
@@ -23504,7 +23504,7 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G259" t="s">
         <v>36</v>
@@ -23516,7 +23516,7 @@
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K259">
         <v>1.45</v>
@@ -23593,7 +23593,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G260" t="s">
         <v>41</v>
@@ -23605,7 +23605,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K260">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K261">
         <v>2.375</v>
@@ -23759,7 +23759,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6943388</v>
+        <v>6943387</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23771,58 +23771,58 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G262" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H262">
+        <v>2</v>
+      </c>
+      <c r="I262">
         <v>1</v>
       </c>
-      <c r="I262">
-        <v>0</v>
-      </c>
       <c r="J262" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K262">
-        <v>1.166</v>
+        <v>1.25</v>
       </c>
       <c r="L262">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="M262">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N262">
-        <v>1.111</v>
+        <v>1.222</v>
       </c>
       <c r="O262">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P262">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q262">
-        <v>-2.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R262">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S262">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U262">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V262">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W262">
-        <v>0.111</v>
+        <v>0.222</v>
       </c>
       <c r="X262">
         <v>-1</v>
@@ -23834,13 +23834,13 @@
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC262">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23848,7 +23848,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6943390</v>
+        <v>6943388</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23860,76 +23860,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G263" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
         <v>47</v>
       </c>
       <c r="K263">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="L263">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M263">
-        <v>1.571</v>
+        <v>12</v>
       </c>
       <c r="N263">
-        <v>6.5</v>
+        <v>1.111</v>
       </c>
       <c r="O263">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="P263">
-        <v>1.666</v>
+        <v>19</v>
       </c>
       <c r="Q263">
-        <v>0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R263">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S263">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U263">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V263">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB263">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23937,7 +23937,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6943387</v>
+        <v>6943390</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23949,76 +23949,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J264" t="s">
         <v>46</v>
       </c>
       <c r="K264">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="L264">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="M264">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="N264">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="O264">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P264">
-        <v>11</v>
+        <v>1.666</v>
       </c>
       <c r="Q264">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R264">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S264">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U264">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V264">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W264">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA264">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24050,7 +24050,7 @@
         <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K265">
         <v>5.5</v>
@@ -24127,7 +24127,7 @@
         <v>45283.5</v>
       </c>
       <c r="F266" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G266" t="s">
         <v>37</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K266">
         <v>1.952</v>
@@ -24228,7 +24228,7 @@
         <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K267">
         <v>3.6</v>
@@ -24305,10 +24305,10 @@
         <v>45293.5</v>
       </c>
       <c r="F268" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G268" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24406,7 +24406,7 @@
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K269">
         <v>1.6</v>
@@ -24495,7 +24495,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K270">
         <v>1.4</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K271">
         <v>2.45</v>
@@ -24673,7 +24673,7 @@
         <v>3</v>
       </c>
       <c r="J272" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K272">
         <v>2.8</v>
@@ -24753,7 +24753,7 @@
         <v>44</v>
       </c>
       <c r="G273" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>43</v>
       </c>
       <c r="G274" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H274">
         <v>1</v>
@@ -24928,7 +24928,7 @@
         <v>45297.5</v>
       </c>
       <c r="F275" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G275" t="s">
         <v>38</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K275">
         <v>1.85</v>
@@ -25020,7 +25020,7 @@
         <v>40</v>
       </c>
       <c r="G276" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         <v>3</v>
       </c>
       <c r="J276" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K276">
         <v>4.2</v>
@@ -25207,7 +25207,7 @@
         <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K278">
         <v>1.75</v>
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K279">
         <v>1.95</v>
@@ -25361,7 +25361,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6943399</v>
+        <v>6942201</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25373,58 +25373,58 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G280" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280">
         <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K280">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="L280">
         <v>5.5</v>
       </c>
       <c r="M280">
-        <v>13</v>
+        <v>1.285</v>
       </c>
       <c r="N280">
+        <v>11</v>
+      </c>
+      <c r="O280">
+        <v>6.5</v>
+      </c>
+      <c r="P280">
         <v>1.222</v>
       </c>
-      <c r="O280">
-        <v>6</v>
-      </c>
-      <c r="P280">
-        <v>15</v>
-      </c>
       <c r="Q280">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R280">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S280">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T280">
         <v>3.25</v>
       </c>
       <c r="U280">
+        <v>1.975</v>
+      </c>
+      <c r="V280">
         <v>1.825</v>
       </c>
-      <c r="V280">
-        <v>1.975</v>
-      </c>
       <c r="W280">
-        <v>0.222</v>
+        <v>10</v>
       </c>
       <c r="X280">
         <v>-1</v>
@@ -25433,16 +25433,16 @@
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA280">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
         <v>-1</v>
       </c>
       <c r="AC280">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25450,7 +25450,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6942201</v>
+        <v>6943399</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25462,58 +25462,58 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G281" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281">
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K281">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L281">
         <v>5.5</v>
       </c>
       <c r="M281">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="N281">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="O281">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P281">
-        <v>1.222</v>
+        <v>15</v>
       </c>
       <c r="Q281">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R281">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S281">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T281">
         <v>3.25</v>
       </c>
       <c r="U281">
+        <v>1.825</v>
+      </c>
+      <c r="V281">
         <v>1.975</v>
       </c>
-      <c r="V281">
-        <v>1.825</v>
-      </c>
       <c r="W281">
-        <v>10</v>
+        <v>0.222</v>
       </c>
       <c r="X281">
         <v>-1</v>
@@ -25522,16 +25522,16 @@
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25554,7 +25554,7 @@
         <v>36</v>
       </c>
       <c r="G282" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K282">
         <v>3.25</v>
@@ -25643,7 +25643,7 @@
         <v>45</v>
       </c>
       <c r="G283" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -25652,7 +25652,7 @@
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K283">
         <v>6</v>
@@ -25741,7 +25741,7 @@
         <v>3</v>
       </c>
       <c r="J284" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K284">
         <v>2.55</v>
@@ -25821,7 +25821,7 @@
         <v>37</v>
       </c>
       <c r="G285" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H285">
         <v>5</v>
@@ -25830,7 +25830,7 @@
         <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K285">
         <v>1.2</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K286">
         <v>1.5</v>
@@ -26008,7 +26008,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K287">
         <v>1.181</v>
@@ -26085,7 +26085,7 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G288" t="s">
         <v>41</v>
@@ -26097,7 +26097,7 @@
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K288">
         <v>2.9</v>
@@ -26174,10 +26174,10 @@
         <v>45311.5</v>
       </c>
       <c r="F289" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G289" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -26186,7 +26186,7 @@
         <v>3</v>
       </c>
       <c r="J289" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K289">
         <v>8</v>
@@ -26352,7 +26352,7 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F291" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G291" t="s">
         <v>44</v>
@@ -26364,7 +26364,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K291">
         <v>1.222</v>
@@ -26453,7 +26453,7 @@
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K292">
         <v>3</v>
@@ -26631,7 +26631,7 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K294">
         <v>2</v>
@@ -26708,7 +26708,7 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F295" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G295" t="s">
         <v>39</v>
@@ -26720,7 +26720,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K295">
         <v>2.6</v>
@@ -26800,7 +26800,7 @@
         <v>36</v>
       </c>
       <c r="G296" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -26809,7 +26809,7 @@
         <v>4</v>
       </c>
       <c r="J296" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K296">
         <v>5.75</v>
@@ -26889,7 +26889,7 @@
         <v>35</v>
       </c>
       <c r="G297" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -26898,7 +26898,7 @@
         <v>3</v>
       </c>
       <c r="J297" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K297">
         <v>5.75</v>
@@ -26987,7 +26987,7 @@
         <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K298">
         <v>2.5</v>
@@ -27067,7 +27067,7 @@
         <v>38</v>
       </c>
       <c r="G299" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27076,7 +27076,7 @@
         <v>2</v>
       </c>
       <c r="J299" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K299">
         <v>1.166</v>
@@ -27153,7 +27153,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G300" t="s">
         <v>43</v>
@@ -27254,7 +27254,7 @@
         <v>6</v>
       </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K301">
         <v>7</v>
@@ -27334,7 +27334,7 @@
         <v>39</v>
       </c>
       <c r="G302" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -27408,7 +27408,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6943423</v>
+        <v>6943426</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27420,58 +27420,58 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G303" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K303">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="L303">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M303">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N303">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="O303">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P303">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q303">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R303">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S303">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T303">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U303">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V303">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W303">
-        <v>0.75</v>
+        <v>0.181</v>
       </c>
       <c r="X303">
         <v>-1</v>
@@ -27480,13 +27480,13 @@
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA303">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27497,7 +27497,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6943426</v>
+        <v>6943423</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27509,58 +27509,58 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G304" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H304">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K304">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="L304">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M304">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N304">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O304">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P304">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q304">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R304">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S304">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T304">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U304">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W304">
-        <v>0.181</v>
+        <v>0.75</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27569,13 +27569,13 @@
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB304">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>45323.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G305" t="s">
         <v>35</v>
@@ -27610,7 +27610,7 @@
         <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K305">
         <v>1.2</v>
@@ -27675,7 +27675,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6943425</v>
+        <v>6943427</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27687,76 +27687,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F306" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
         <v>47</v>
       </c>
       <c r="K306">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L306">
         <v>3.4</v>
       </c>
       <c r="M306">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N306">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O306">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P306">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q306">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R306">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T306">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U306">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V306">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W306">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X306">
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA306">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC306">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27764,7 +27764,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6943427</v>
+        <v>6943425</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27776,76 +27776,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>46</v>
       </c>
       <c r="K307">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L307">
         <v>3.4</v>
       </c>
       <c r="M307">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N307">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O307">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P307">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R307">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S307">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T307">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W307">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X307">
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z307">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB307">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27954,7 +27954,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G309" t="s">
         <v>37</v>
@@ -27966,7 +27966,7 @@
         <v>2</v>
       </c>
       <c r="J309" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K309">
         <v>2.3</v>
@@ -28046,7 +28046,7 @@
         <v>44</v>
       </c>
       <c r="G310" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -28132,10 +28132,10 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G311" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H311">
         <v>2</v>
@@ -28233,7 +28233,7 @@
         <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K312">
         <v>1.85</v>
@@ -28322,7 +28322,7 @@
         <v>3</v>
       </c>
       <c r="J313" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K313">
         <v>2.8</v>
@@ -28411,7 +28411,7 @@
         <v>3</v>
       </c>
       <c r="J314" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K314">
         <v>6</v>
@@ -28589,7 +28589,7 @@
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K316">
         <v>2.25</v>
@@ -28678,7 +28678,7 @@
         <v>3</v>
       </c>
       <c r="J317" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K317">
         <v>1.222</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K318">
         <v>1.125</v>
@@ -28844,10 +28844,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G319" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -28856,7 +28856,7 @@
         <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K319">
         <v>1.75</v>
@@ -28933,7 +28933,7 @@
         <v>45333.5</v>
       </c>
       <c r="F320" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G320" t="s">
         <v>36</v>
@@ -28945,7 +28945,7 @@
         <v>3</v>
       </c>
       <c r="J320" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K320">
         <v>4.333</v>
@@ -29025,7 +29025,7 @@
         <v>40</v>
       </c>
       <c r="G321" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29123,7 +29123,7 @@
         <v>3</v>
       </c>
       <c r="J322" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K322">
         <v>9</v>
@@ -29188,7 +29188,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6943444</v>
+        <v>6943445</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29200,76 +29200,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F323" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G323" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H323">
         <v>2</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J323" t="s">
         <v>46</v>
       </c>
       <c r="K323">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="L323">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M323">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="N323">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="O323">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P323">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R323">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S323">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T323">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V323">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W323">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z323">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB323">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC323">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29277,7 +29277,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6943445</v>
+        <v>6943444</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29289,76 +29289,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F324" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G324" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H324">
         <v>2</v>
       </c>
       <c r="I324">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J324" t="s">
         <v>47</v>
       </c>
       <c r="K324">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="L324">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M324">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N324">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O324">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P324">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R324">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S324">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T324">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U324">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V324">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA324">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC324">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>35</v>
       </c>
       <c r="G326" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -29479,7 +29479,7 @@
         <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K326">
         <v>1.666</v>
@@ -29645,7 +29645,7 @@
         <v>45337.625</v>
       </c>
       <c r="F328" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G328" t="s">
         <v>41</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K328">
         <v>1.7</v>
@@ -29752,28 +29752,28 @@
         <v>1.222</v>
       </c>
       <c r="O329">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P329">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q329">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R329">
+        <v>2</v>
+      </c>
+      <c r="S329">
         <v>1.8</v>
-      </c>
-      <c r="S329">
-        <v>2</v>
       </c>
       <c r="T329">
         <v>3.25</v>
       </c>
       <c r="U329">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V329">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G330" t="s">
         <v>38</v>
@@ -29823,10 +29823,10 @@
         <v>4.333</v>
       </c>
       <c r="N330">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O330">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P330">
         <v>4.333</v>
@@ -29835,10 +29835,10 @@
         <v>-0.75</v>
       </c>
       <c r="R330">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S330">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T330">
         <v>2.5</v>
@@ -29882,7 +29882,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G331" t="s">
         <v>45</v>
@@ -29897,31 +29897,31 @@
         <v>5.5</v>
       </c>
       <c r="N331">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O331">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P331">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q331">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R331">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S331">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T331">
         <v>3</v>
       </c>
       <c r="U331">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V331">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29971,13 +29971,13 @@
         <v>2.5</v>
       </c>
       <c r="N332">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O332">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P332">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q332">
         <v>0</v>
@@ -30018,7 +30018,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6943450</v>
+        <v>6943451</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30030,31 +30030,31 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G333" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K333">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="L333">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M333">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="N333">
-        <v>8</v>
+        <v>1.333</v>
       </c>
       <c r="O333">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P333">
-        <v>1.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q333">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R333">
         <v>1.925</v>
@@ -30063,13 +30063,13 @@
         <v>1.875</v>
       </c>
       <c r="T333">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V333">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W333">
         <v>0</v>
@@ -30092,7 +30092,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6943451</v>
+        <v>6943450</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30104,46 +30104,46 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G334" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K334">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="L334">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M334">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="N334">
-        <v>1.333</v>
+        <v>10</v>
       </c>
       <c r="O334">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P334">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="Q334">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R334">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S334">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T334">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U334">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V334">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W334">
         <v>0</v>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,22 +103,22 @@
     <t>Cyprus Division 1</t>
   </si>
   <si>
+    <t>Apollon Limassol</t>
+  </si>
+  <si>
     <t>Enosis Paralimni</t>
   </si>
   <si>
-    <t>Apollon Limassol</t>
+    <t>Apoel Nicosia</t>
   </si>
   <si>
     <t>Doxa Katokopias</t>
   </si>
   <si>
-    <t>Apoel Nicosia</t>
+    <t>AEK Larnaca</t>
   </si>
   <si>
     <t>Akritas Chlorakas</t>
-  </si>
-  <si>
-    <t>AEK Larnaca</t>
   </si>
   <si>
     <t>APK Karmotissa</t>
@@ -154,10 +154,10 @@
     <t>Ethnikos Achnas</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC334"/>
+  <dimension ref="A1:AC332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5270156</v>
+        <v>5270157</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,73 +634,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>0</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="L2">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N2">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>1.65</v>
+        <v>8</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5270157</v>
+        <v>5270156</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
       <c r="K3">
-        <v>1.533</v>
+        <v>3.6</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5270160</v>
+        <v>5269222</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,73 +812,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M4">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="N4">
+        <v>1.285</v>
+      </c>
+      <c r="O4">
         <v>5</v>
       </c>
-      <c r="O4">
-        <v>3.2</v>
-      </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>13</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R4">
+        <v>1.825</v>
+      </c>
+      <c r="S4">
         <v>1.975</v>
       </c>
-      <c r="S4">
-        <v>1.825</v>
-      </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5269222</v>
+        <v>5270160</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,73 +901,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>2.25</v>
       </c>
       <c r="N5">
-        <v>1.285</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P5">
-        <v>13</v>
+        <v>1.85</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
+        <v>1.975</v>
+      </c>
+      <c r="S5">
         <v>1.825</v>
       </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5270159</v>
+        <v>5270158</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -999,46 +999,46 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N6">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R6">
+        <v>2.025</v>
+      </c>
+      <c r="S6">
+        <v>1.775</v>
+      </c>
+      <c r="T6">
+        <v>2.25</v>
+      </c>
+      <c r="U6">
         <v>1.975</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>1.825</v>
       </c>
-      <c r="T6">
-        <v>2.5</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>1.8</v>
-      </c>
       <c r="W6">
-        <v>4.5</v>
+        <v>1.875</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,7 +1047,7 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1056,7 +1056,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5270158</v>
+        <v>5270159</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,7 +1079,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1088,47 +1088,47 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
+        <v>4.2</v>
+      </c>
+      <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>1.909</v>
+      </c>
+      <c r="N7">
+        <v>5.5</v>
+      </c>
+      <c r="O7">
+        <v>3.6</v>
+      </c>
+      <c r="P7">
+        <v>1.666</v>
+      </c>
+      <c r="Q7">
+        <v>0.75</v>
+      </c>
+      <c r="R7">
+        <v>1.975</v>
+      </c>
+      <c r="S7">
+        <v>1.825</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
         <v>1.8</v>
       </c>
-      <c r="L7">
-        <v>3.5</v>
-      </c>
-      <c r="M7">
+      <c r="W7">
         <v>4.5</v>
       </c>
-      <c r="N7">
-        <v>2.875</v>
-      </c>
-      <c r="O7">
-        <v>3.1</v>
-      </c>
-      <c r="P7">
-        <v>2.55</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>2.025</v>
-      </c>
-      <c r="S7">
-        <v>1.775</v>
-      </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
-      <c r="W7">
-        <v>1.875</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1145,7 +1145,7 @@
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>1.909</v>
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>1.45</v>
@@ -1435,7 +1435,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1613,7 +1613,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>3.8</v>
@@ -1702,7 +1702,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>44939.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1889,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>4.75</v>
@@ -1966,7 +1966,7 @@
         <v>44939.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>2.4</v>
@@ -2058,7 +2058,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>4.75</v>
@@ -2144,7 +2144,7 @@
         <v>44941.5</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -2156,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>1.909</v>
@@ -2233,7 +2233,7 @@
         <v>44941.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>1.85</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>1.65</v>
@@ -2411,7 +2411,7 @@
         <v>44943.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
         <v>2.7</v>
@@ -2503,7 +2503,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>6.5</v>
@@ -2592,7 +2592,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>1.25</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2767,10 +2767,10 @@
         <v>44948.5</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>1.166</v>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>3.75</v>
@@ -2948,7 +2948,7 @@
         <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>1.95</v>
@@ -3037,7 +3037,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>1.533</v>
@@ -3123,7 +3123,7 @@
         <v>44953.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>1.333</v>
@@ -3212,7 +3212,7 @@
         <v>44953.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3224,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.875</v>
@@ -3301,10 +3301,10 @@
         <v>44954.5</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>2.55</v>
@@ -3390,7 +3390,7 @@
         <v>44954.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
         <v>2.875</v>
@@ -3657,7 +3657,7 @@
         <v>44956.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>5.5</v>
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>2.7</v>
@@ -3838,7 +3838,7 @@
         <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>1.5</v>
@@ -3936,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>1.45</v>
@@ -4013,10 +4013,10 @@
         <v>44960.625</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>1.65</v>
@@ -4105,7 +4105,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41">
         <v>4.75</v>
@@ -4194,7 +4194,7 @@
         <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4203,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>1.333</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.55</v>
@@ -4458,7 +4458,7 @@
         <v>44966.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4470,7 +4470,7 @@
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>1.45</v>
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>2.45</v>
@@ -4636,10 +4636,10 @@
         <v>44967.54166666666</v>
       </c>
       <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
         <v>34</v>
-      </c>
-      <c r="G47" t="s">
-        <v>33</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4737,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>2.15</v>
@@ -4802,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5269232</v>
+        <v>5270182</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,40 +4814,40 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
         <v>1.95</v>
@@ -4859,31 +4859,31 @@
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y49">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5270182</v>
+        <v>5269232</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,40 +4903,40 @@
         <v>44968.41666666666</v>
       </c>
       <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
         <v>31</v>
       </c>
-      <c r="G50" t="s">
-        <v>42</v>
-      </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P50">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R50">
         <v>1.95</v>
@@ -4948,31 +4948,31 @@
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>1.45</v>
@@ -5170,10 +5170,10 @@
         <v>44975.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>5.25</v>
@@ -5262,7 +5262,7 @@
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>3.8</v>
@@ -5348,10 +5348,10 @@
         <v>44976.54166666666</v>
       </c>
       <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
         <v>32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5270188</v>
+        <v>5270189</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,13 +5437,13 @@
         <v>44977.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5452,61 +5452,61 @@
         <v>46</v>
       </c>
       <c r="K56">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O56">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
         <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA56">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5270189</v>
+        <v>5270188</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,13 +5526,13 @@
         <v>44977.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5541,61 +5541,61 @@
         <v>47</v>
       </c>
       <c r="K57">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="L57">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="N57">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O57">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z57">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5603,7 +5603,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5269371</v>
+        <v>5269235</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,76 +5615,76 @@
         <v>44981.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M58">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5692,7 +5692,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5269235</v>
+        <v>5269371</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5704,76 +5704,76 @@
         <v>44981.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L59">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X59">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
         <v>2.9</v>
@@ -5971,10 +5971,10 @@
         <v>44983.5</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>1.75</v>
@@ -6149,10 +6149,10 @@
         <v>44984.4375</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6161,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>2.8</v>
@@ -6238,10 +6238,10 @@
         <v>44989.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>1.25</v>
@@ -6339,7 +6339,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
         <v>3.75</v>
@@ -6416,10 +6416,10 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6428,7 +6428,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>2.6</v>
@@ -6508,7 +6508,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>2.55</v>
@@ -6594,7 +6594,7 @@
         <v>44991.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>36</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>1.25</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
         <v>1.666</v>
@@ -6864,7 +6864,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>2.3</v>
@@ -6953,7 +6953,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
         <v>1.666</v>
@@ -7042,7 +7042,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>4</v>
@@ -7229,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
         <v>1.833</v>
@@ -7395,10 +7395,10 @@
         <v>44998.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7484,7 +7484,7 @@
         <v>45001.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7561,7 +7561,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6396852</v>
+        <v>6396713</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7573,76 +7573,76 @@
         <v>45002.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>48</v>
       </c>
       <c r="K80">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="L80">
+        <v>2.9</v>
+      </c>
+      <c r="M80">
         <v>3.4</v>
       </c>
-      <c r="M80">
-        <v>1.8</v>
-      </c>
       <c r="N80">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
         <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7650,7 +7650,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6396713</v>
+        <v>6396852</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7662,76 +7662,76 @@
         <v>45002.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>48</v>
       </c>
       <c r="K81">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="L81">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P81">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
+        <v>0.4</v>
+      </c>
+      <c r="AA81">
         <v>-0.5</v>
       </c>
-      <c r="AA81">
-        <v>0.4375</v>
-      </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7751,7 +7751,7 @@
         <v>45003.5</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -7852,7 +7852,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>2.375</v>
@@ -7941,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -8021,7 +8021,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>2.2</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
         <v>2.375</v>
@@ -8288,7 +8288,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
         <v>2.625</v>
@@ -8463,7 +8463,7 @@
         <v>45018.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>41</v>
@@ -8475,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>2.7</v>
@@ -8552,10 +8552,10 @@
         <v>45019.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8564,7 +8564,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>2.15</v>
@@ -8641,10 +8641,10 @@
         <v>45019.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>2.1</v>
@@ -8819,10 +8819,10 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8831,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
         <v>3.8</v>
@@ -8911,7 +8911,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>2.3</v>
@@ -9086,10 +9086,10 @@
         <v>45026.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6396778</v>
+        <v>6396769</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,40 +9175,40 @@
         <v>45027.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
         <v>0</v>
-      </c>
-      <c r="I98">
-        <v>3</v>
       </c>
       <c r="J98" t="s">
         <v>46</v>
       </c>
       <c r="K98">
+        <v>2.25</v>
+      </c>
+      <c r="L98">
+        <v>3.25</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>2.1</v>
+      </c>
+      <c r="O98">
         <v>3.4</v>
       </c>
-      <c r="L98">
-        <v>3.4</v>
-      </c>
-      <c r="M98">
-        <v>2</v>
-      </c>
-      <c r="N98">
-        <v>4.333</v>
-      </c>
-      <c r="O98">
-        <v>3.8</v>
-      </c>
       <c r="P98">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
         <v>1.85</v>
@@ -9217,7 +9217,7 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
@@ -9226,19 +9226,19 @@
         <v>1.875</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>0.925</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6396769</v>
+        <v>6396778</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,40 +9264,40 @@
         <v>45027.54166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O99">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R99">
         <v>1.85</v>
@@ -9306,7 +9306,7 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
         <v>1.925</v>
@@ -9315,19 +9315,19 @@
         <v>1.875</v>
       </c>
       <c r="W99">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
         <v>0.925</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>2.4</v>
@@ -9445,7 +9445,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9454,7 +9454,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101">
         <v>1.3</v>
@@ -9531,7 +9531,7 @@
         <v>45029.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9620,7 +9620,7 @@
         <v>45029.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K103">
         <v>2.1</v>
@@ -9712,7 +9712,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9798,7 +9798,7 @@
         <v>45034.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
         <v>42</v>
@@ -9810,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>3.1</v>
@@ -9890,7 +9890,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9899,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -10065,7 +10065,7 @@
         <v>45037.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10077,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K108">
         <v>2.8</v>
@@ -10154,7 +10154,7 @@
         <v>45037.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>1.727</v>
@@ -10243,7 +10243,7 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
         <v>40</v>
@@ -10344,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
         <v>2.4</v>
@@ -10421,7 +10421,7 @@
         <v>45039.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>38</v>
@@ -10513,7 +10513,7 @@
         <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>1.7</v>
@@ -10688,7 +10688,7 @@
         <v>45044.54166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
         <v>36</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>3.2</v>
@@ -10777,7 +10777,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
         <v>35</v>
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
         <v>2.45</v>
@@ -10866,7 +10866,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
         <v>38</v>
@@ -10878,7 +10878,7 @@
         <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K117">
         <v>2.8</v>
@@ -10955,10 +10955,10 @@
         <v>45046.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
         <v>2.625</v>
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6396779</v>
+        <v>6397228</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45047.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N120">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X120">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11210,7 +11210,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6397228</v>
+        <v>6396779</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11222,76 +11222,76 @@
         <v>45047.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N121">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11323,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11400,10 +11400,10 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>5</v>
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>1.8</v>
@@ -11590,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K125">
         <v>1.6</v>
@@ -11670,7 +11670,7 @@
         <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11756,7 +11756,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11833,7 +11833,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6397221</v>
+        <v>6396780</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11845,56 +11845,56 @@
         <v>45053.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N128">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
+        <v>1.9</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.925</v>
       </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.5</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11902,19 +11902,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB128">
         <v>0.875</v>
       </c>
-      <c r="AB128">
-        <v>-1</v>
-      </c>
       <c r="AC128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11922,7 +11922,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6396780</v>
+        <v>6397221</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11934,55 +11934,55 @@
         <v>45053.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M129">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P129">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11991,19 +11991,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12035,7 +12035,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>1.95</v>
@@ -12112,10 +12112,10 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
         <v>1.909</v>
@@ -12201,7 +12201,7 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
         <v>40</v>
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12379,7 +12379,7 @@
         <v>45058.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
         <v>1.909</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>1.8</v>
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>1.6</v>
@@ -12646,10 +12646,10 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12658,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K137">
         <v>1.8</v>
@@ -12738,7 +12738,7 @@
         <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>1.75</v>
@@ -12824,10 +12824,10 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12836,7 +12836,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K139">
         <v>1.533</v>
@@ -12925,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
         <v>2.6</v>
@@ -13005,7 +13005,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13014,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>2.25</v>
@@ -13094,7 +13094,7 @@
         <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13103,7 +13103,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142">
         <v>7</v>
@@ -13180,7 +13180,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13192,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K143">
         <v>3.75</v>
@@ -13281,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K144">
         <v>1.363</v>
@@ -13358,10 +13358,10 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13370,7 +13370,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K145">
         <v>2.7</v>
@@ -13447,7 +13447,7 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
         <v>39</v>
@@ -13548,7 +13548,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>2.6</v>
@@ -13625,7 +13625,7 @@
         <v>45069.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13637,7 +13637,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>1.666</v>
@@ -13726,7 +13726,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>1.615</v>
@@ -13803,7 +13803,7 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13815,7 +13815,7 @@
         <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K150">
         <v>2.15</v>
@@ -13892,7 +13892,7 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
         <v>35</v>
@@ -13984,7 +13984,7 @@
         <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14073,7 +14073,7 @@
         <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14082,7 +14082,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K153">
         <v>5</v>
@@ -14162,7 +14162,7 @@
         <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K154">
         <v>2.9</v>
@@ -14251,7 +14251,7 @@
         <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K156">
         <v>1.4</v>
@@ -14438,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K157">
         <v>1.6</v>
@@ -14515,7 +14515,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>44</v>
@@ -14607,7 +14607,7 @@
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14616,7 +14616,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>10</v>
@@ -14705,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K160">
         <v>1.7</v>
@@ -14782,7 +14782,7 @@
         <v>45159.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
         <v>40</v>
@@ -14794,7 +14794,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K161">
         <v>3.1</v>
@@ -14874,7 +14874,7 @@
         <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14883,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K162">
         <v>2.2</v>
@@ -14972,7 +14972,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K163">
         <v>3.25</v>
@@ -15150,7 +15150,7 @@
         <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K165">
         <v>1.6</v>
@@ -15230,7 +15230,7 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6943309</v>
+        <v>6943305</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,73 +15316,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>46</v>
+      </c>
+      <c r="K167">
+        <v>1.45</v>
+      </c>
+      <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>6</v>
+      </c>
+      <c r="N167">
+        <v>1.4</v>
+      </c>
+      <c r="O167">
         <v>5</v>
       </c>
-      <c r="I167">
-        <v>5</v>
-      </c>
-      <c r="J167" t="s">
-        <v>48</v>
-      </c>
-      <c r="K167">
-        <v>1.285</v>
-      </c>
-      <c r="L167">
-        <v>4.6</v>
-      </c>
-      <c r="M167">
-        <v>9</v>
-      </c>
-      <c r="N167">
-        <v>1.333</v>
-      </c>
-      <c r="O167">
-        <v>4.5</v>
-      </c>
       <c r="P167">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X167">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB167">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6943305</v>
+        <v>6943309</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,73 +15405,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I168">
+        <v>5</v>
+      </c>
+      <c r="J168" t="s">
+        <v>48</v>
+      </c>
+      <c r="K168">
+        <v>1.285</v>
+      </c>
+      <c r="L168">
+        <v>4.6</v>
+      </c>
+      <c r="M168">
+        <v>9</v>
+      </c>
+      <c r="N168">
+        <v>1.333</v>
+      </c>
+      <c r="O168">
+        <v>4.5</v>
+      </c>
+      <c r="P168">
+        <v>10</v>
+      </c>
+      <c r="Q168">
+        <v>-1.5</v>
+      </c>
+      <c r="R168">
+        <v>1.95</v>
+      </c>
+      <c r="S168">
+        <v>1.85</v>
+      </c>
+      <c r="T168">
+        <v>2.75</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168">
+        <v>1.8</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>3.5</v>
+      </c>
+      <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB168">
         <v>1</v>
-      </c>
-      <c r="J168" t="s">
-        <v>47</v>
-      </c>
-      <c r="K168">
-        <v>1.45</v>
-      </c>
-      <c r="L168">
-        <v>4</v>
-      </c>
-      <c r="M168">
-        <v>6</v>
-      </c>
-      <c r="N168">
-        <v>1.4</v>
-      </c>
-      <c r="O168">
-        <v>5</v>
-      </c>
-      <c r="P168">
-        <v>7.5</v>
-      </c>
-      <c r="Q168">
-        <v>-1.25</v>
-      </c>
-      <c r="R168">
-        <v>1.825</v>
-      </c>
-      <c r="S168">
-        <v>1.975</v>
-      </c>
-      <c r="T168">
-        <v>2.5</v>
-      </c>
-      <c r="U168">
-        <v>1.8</v>
-      </c>
-      <c r="V168">
-        <v>2</v>
-      </c>
-      <c r="W168">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X168">
-        <v>-1</v>
-      </c>
-      <c r="Y168">
-        <v>-1</v>
-      </c>
-      <c r="Z168">
-        <v>-0.5</v>
-      </c>
-      <c r="AA168">
-        <v>0.4875</v>
-      </c>
-      <c r="AB168">
-        <v>0.8</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15583,10 +15583,10 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15595,7 +15595,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K170">
         <v>5</v>
@@ -15684,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K171">
         <v>1.4</v>
@@ -15862,7 +15862,7 @@
         <v>5</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K173">
         <v>6</v>
@@ -15939,7 +15939,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>35</v>
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K174">
         <v>1.4</v>
@@ -16031,7 +16031,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16040,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
         <v>3.3</v>
@@ -16117,7 +16117,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
         <v>43</v>
@@ -16129,7 +16129,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
         <v>1.95</v>
@@ -16206,7 +16206,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
         <v>44</v>
@@ -16218,7 +16218,7 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K177">
         <v>1.4</v>
@@ -16396,7 +16396,7 @@
         <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K179">
         <v>3.1</v>
@@ -16562,10 +16562,10 @@
         <v>45186.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16654,7 +16654,7 @@
         <v>43</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16663,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K182">
         <v>9</v>
@@ -16743,7 +16743,7 @@
         <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16752,7 +16752,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K183">
         <v>1.363</v>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K184">
         <v>2.3</v>
@@ -16921,7 +16921,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17019,7 +17019,7 @@
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K186">
         <v>3</v>
@@ -17096,7 +17096,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
         <v>40</v>
@@ -17108,7 +17108,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K187">
         <v>1.615</v>
@@ -17274,7 +17274,7 @@
         <v>45196.54166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
         <v>39</v>
@@ -17286,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K189">
         <v>2.6</v>
@@ -17363,7 +17363,7 @@
         <v>45199.5</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
@@ -17544,7 +17544,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17553,7 +17553,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>1.909</v>
@@ -17630,7 +17630,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G193" t="s">
         <v>37</v>
@@ -17642,7 +17642,7 @@
         <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K193">
         <v>4</v>
@@ -17731,7 +17731,7 @@
         <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K194">
         <v>3.1</v>
@@ -17820,7 +17820,7 @@
         <v>4</v>
       </c>
       <c r="J195" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K195">
         <v>9</v>
@@ -17897,7 +17897,7 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
         <v>45</v>
@@ -17909,7 +17909,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K196">
         <v>1.3</v>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K197">
         <v>2.05</v>
@@ -18063,7 +18063,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6943338</v>
+        <v>6942190</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18075,46 +18075,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K198">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="L198">
+        <v>3.25</v>
+      </c>
+      <c r="M198">
+        <v>3.1</v>
+      </c>
+      <c r="N198">
+        <v>1.833</v>
+      </c>
+      <c r="O198">
+        <v>3.5</v>
+      </c>
+      <c r="P198">
         <v>4.5</v>
       </c>
-      <c r="M198">
-        <v>1.363</v>
-      </c>
-      <c r="N198">
-        <v>7.5</v>
-      </c>
-      <c r="O198">
-        <v>4.2</v>
-      </c>
-      <c r="P198">
-        <v>1.5</v>
-      </c>
       <c r="Q198">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
         <v>2.5</v>
@@ -18129,16 +18129,16 @@
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y198">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB198">
         <v>-1</v>
@@ -18152,7 +18152,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6943334</v>
+        <v>6943338</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18164,76 +18164,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K199">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="L199">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M199">
-        <v>8</v>
+        <v>1.363</v>
       </c>
       <c r="N199">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="O199">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P199">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q199">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T199">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA199">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18241,7 +18241,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6942190</v>
+        <v>6943334</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18253,40 +18253,40 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J200" t="s">
         <v>48</v>
       </c>
       <c r="K200">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M200">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N200">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O200">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P200">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R200">
         <v>2</v>
@@ -18295,19 +18295,19 @@
         <v>1.8</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Y200">
         <v>-1</v>
@@ -18319,10 +18319,10 @@
         <v>0.8</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC200">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18354,7 +18354,7 @@
         <v>3</v>
       </c>
       <c r="J201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K201">
         <v>3.4</v>
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K202">
         <v>3.1</v>
@@ -18520,10 +18520,10 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H203">
         <v>4</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K203">
         <v>1.363</v>
@@ -18597,7 +18597,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6943343</v>
+        <v>6943340</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18609,58 +18609,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G204" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K204">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="L204">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M204">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N204">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O204">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P204">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R204">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S204">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18669,16 +18669,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA204">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18686,7 +18686,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6943340</v>
+        <v>6943343</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18698,58 +18698,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K205">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="L205">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M205">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N205">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O205">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P205">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q205">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S205">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18758,16 +18758,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
         <v>35</v>
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K206">
         <v>1.363</v>
@@ -18888,7 +18888,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K207">
         <v>1.571</v>
@@ -18965,7 +18965,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
         <v>38</v>
@@ -18977,7 +18977,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K208">
         <v>4.75</v>
@@ -19057,7 +19057,7 @@
         <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19066,7 +19066,7 @@
         <v>5</v>
       </c>
       <c r="J209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K209">
         <v>5</v>
@@ -19155,7 +19155,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>1.909</v>
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K211">
         <v>2.25</v>
@@ -19324,7 +19324,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19333,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19422,7 +19422,7 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K213">
         <v>8</v>
@@ -19511,7 +19511,7 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K214">
         <v>2.25</v>
@@ -19591,7 +19591,7 @@
         <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19677,7 +19677,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>39</v>
@@ -19689,7 +19689,7 @@
         <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K216">
         <v>2.5</v>
@@ -19867,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>6.5</v>
@@ -20033,7 +20033,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20045,7 +20045,7 @@
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>2.8</v>
@@ -20125,7 +20125,7 @@
         <v>37</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20134,7 +20134,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K221">
         <v>2.25</v>
@@ -20223,7 +20223,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K222">
         <v>1.45</v>
@@ -20300,10 +20300,10 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -20312,7 +20312,7 @@
         <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K223">
         <v>2.875</v>
@@ -20401,7 +20401,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K224">
         <v>2.05</v>
@@ -20490,7 +20490,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K225">
         <v>1.7</v>
@@ -20579,7 +20579,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>36</v>
       </c>
       <c r="G227" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -20668,7 +20668,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K227">
         <v>1.5</v>
@@ -20757,7 +20757,7 @@
         <v>4</v>
       </c>
       <c r="J228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K228">
         <v>5.5</v>
@@ -20834,7 +20834,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20846,7 +20846,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K229">
         <v>1.4</v>
@@ -20935,7 +20935,7 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K230">
         <v>2.375</v>
@@ -21024,7 +21024,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K231">
         <v>10</v>
@@ -21101,10 +21101,10 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21113,7 +21113,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K232">
         <v>2.05</v>
@@ -21193,7 +21193,7 @@
         <v>41</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21202,7 +21202,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K233">
         <v>2.45</v>
@@ -21291,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K234">
         <v>1.222</v>
@@ -21469,7 +21469,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K236">
         <v>1.3</v>
@@ -21546,7 +21546,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
         <v>38</v>
@@ -21558,7 +21558,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K237">
         <v>2.15</v>
@@ -21635,7 +21635,7 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
         <v>40</v>
@@ -21647,7 +21647,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K238">
         <v>1.615</v>
@@ -21724,7 +21724,7 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
         <v>35</v>
@@ -21825,7 +21825,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K240">
         <v>4.75</v>
@@ -21905,7 +21905,7 @@
         <v>45</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -21994,7 +21994,7 @@
         <v>38</v>
       </c>
       <c r="G242" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -22169,10 +22169,10 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F244" t="s">
+        <v>31</v>
+      </c>
+      <c r="G244" t="s">
         <v>32</v>
-      </c>
-      <c r="G244" t="s">
-        <v>31</v>
       </c>
       <c r="H244">
         <v>5</v>
@@ -22181,7 +22181,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K244">
         <v>1.2</v>
@@ -22270,7 +22270,7 @@
         <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K245">
         <v>5</v>
@@ -22359,7 +22359,7 @@
         <v>4</v>
       </c>
       <c r="J246" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K246">
         <v>4</v>
@@ -22439,7 +22439,7 @@
         <v>44</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -22448,7 +22448,7 @@
         <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K247">
         <v>6.5</v>
@@ -22525,7 +22525,7 @@
         <v>45269.5</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G248" t="s">
         <v>41</v>
@@ -22537,7 +22537,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K248">
         <v>2.8</v>
@@ -22602,7 +22602,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6943378</v>
+        <v>6943377</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22614,58 +22614,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F249" t="s">
+        <v>40</v>
+      </c>
+      <c r="G249" t="s">
         <v>32</v>
       </c>
-      <c r="G249" t="s">
-        <v>43</v>
-      </c>
       <c r="H249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K249">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="L249">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M249">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N249">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O249">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P249">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q249">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R249">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S249">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T249">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U249">
+        <v>1.95</v>
+      </c>
+      <c r="V249">
         <v>1.85</v>
       </c>
-      <c r="V249">
-        <v>1.95</v>
-      </c>
       <c r="W249">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22674,16 +22674,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA249">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB249">
+        <v>-1</v>
+      </c>
+      <c r="AC249">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC249">
-        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22691,7 +22691,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6943377</v>
+        <v>6943378</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22703,58 +22703,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F250" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G250" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K250">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L250">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M250">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N250">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O250">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P250">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q250">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R250">
+        <v>2</v>
+      </c>
+      <c r="S250">
         <v>1.8</v>
       </c>
-      <c r="S250">
-        <v>2</v>
-      </c>
       <c r="T250">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U250">
+        <v>1.85</v>
+      </c>
+      <c r="V250">
         <v>1.95</v>
       </c>
-      <c r="V250">
-        <v>1.85</v>
-      </c>
       <c r="W250">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X250">
         <v>-1</v>
@@ -22763,16 +22763,16 @@
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC250">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22804,7 +22804,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K251">
         <v>4</v>
@@ -22893,7 +22893,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K252">
         <v>11</v>
@@ -22982,7 +22982,7 @@
         <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K253">
         <v>4</v>
@@ -23062,7 +23062,7 @@
         <v>45</v>
       </c>
       <c r="G254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>3</v>
       </c>
       <c r="J254" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K254">
         <v>4.75</v>
@@ -23160,7 +23160,7 @@
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K255">
         <v>1.25</v>
@@ -23249,7 +23249,7 @@
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K256">
         <v>1.3</v>
@@ -23338,7 +23338,7 @@
         <v>4</v>
       </c>
       <c r="J257" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K257">
         <v>3.2</v>
@@ -23418,7 +23418,7 @@
         <v>39</v>
       </c>
       <c r="G258" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K258">
         <v>2.25</v>
@@ -23504,7 +23504,7 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G259" t="s">
         <v>36</v>
@@ -23516,7 +23516,7 @@
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K259">
         <v>1.45</v>
@@ -23593,7 +23593,7 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G260" t="s">
         <v>41</v>
@@ -23605,7 +23605,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K260">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K261">
         <v>2.375</v>
@@ -23771,10 +23771,10 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H262">
         <v>2</v>
@@ -23783,7 +23783,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K262">
         <v>1.25</v>
@@ -23848,7 +23848,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6943388</v>
+        <v>6943390</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23860,76 +23860,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G263" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J263" t="s">
         <v>47</v>
       </c>
       <c r="K263">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="L263">
+        <v>3.8</v>
+      </c>
+      <c r="M263">
+        <v>1.571</v>
+      </c>
+      <c r="N263">
         <v>6.5</v>
       </c>
-      <c r="M263">
-        <v>12</v>
-      </c>
-      <c r="N263">
-        <v>1.111</v>
-      </c>
       <c r="O263">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="P263">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q263">
-        <v>-2.75</v>
+        <v>0.75</v>
       </c>
       <c r="R263">
+        <v>1.95</v>
+      </c>
+      <c r="S263">
+        <v>1.85</v>
+      </c>
+      <c r="T263">
+        <v>2</v>
+      </c>
+      <c r="U263">
+        <v>1.825</v>
+      </c>
+      <c r="V263">
         <v>1.975</v>
       </c>
-      <c r="S263">
-        <v>1.825</v>
-      </c>
-      <c r="T263">
-        <v>4</v>
-      </c>
-      <c r="U263">
-        <v>1.925</v>
-      </c>
-      <c r="V263">
-        <v>1.875</v>
-      </c>
       <c r="W263">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA263">
+        <v>0.425</v>
+      </c>
+      <c r="AB263">
         <v>0.825</v>
       </c>
-      <c r="AB263">
-        <v>-1</v>
-      </c>
       <c r="AC263">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23937,7 +23937,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6943390</v>
+        <v>6943388</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23949,76 +23949,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G264" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
         <v>46</v>
       </c>
       <c r="K264">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="L264">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M264">
-        <v>1.571</v>
+        <v>12</v>
       </c>
       <c r="N264">
-        <v>6.5</v>
+        <v>1.111</v>
       </c>
       <c r="O264">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="P264">
-        <v>1.666</v>
+        <v>19</v>
       </c>
       <c r="Q264">
-        <v>0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R264">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S264">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U264">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V264">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB264">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24050,7 +24050,7 @@
         <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K265">
         <v>5.5</v>
@@ -24127,7 +24127,7 @@
         <v>45283.5</v>
       </c>
       <c r="F266" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G266" t="s">
         <v>37</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K266">
         <v>1.952</v>
@@ -24228,7 +24228,7 @@
         <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K267">
         <v>3.6</v>
@@ -24305,10 +24305,10 @@
         <v>45293.5</v>
       </c>
       <c r="F268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G268" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24406,7 +24406,7 @@
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K269">
         <v>1.6</v>
@@ -24495,7 +24495,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K270">
         <v>1.4</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K271">
         <v>2.45</v>
@@ -24673,7 +24673,7 @@
         <v>3</v>
       </c>
       <c r="J272" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K272">
         <v>2.8</v>
@@ -24753,7 +24753,7 @@
         <v>44</v>
       </c>
       <c r="G273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>43</v>
       </c>
       <c r="G274" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H274">
         <v>1</v>
@@ -24928,7 +24928,7 @@
         <v>45297.5</v>
       </c>
       <c r="F275" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G275" t="s">
         <v>38</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K275">
         <v>1.85</v>
@@ -25020,7 +25020,7 @@
         <v>40</v>
       </c>
       <c r="G276" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         <v>3</v>
       </c>
       <c r="J276" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K276">
         <v>4.2</v>
@@ -25207,7 +25207,7 @@
         <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K278">
         <v>1.75</v>
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K279">
         <v>1.95</v>
@@ -25361,7 +25361,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6942201</v>
+        <v>6943399</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25373,58 +25373,58 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G280" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280">
         <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K280">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L280">
         <v>5.5</v>
       </c>
       <c r="M280">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="N280">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="O280">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P280">
-        <v>1.222</v>
+        <v>15</v>
       </c>
       <c r="Q280">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R280">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S280">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T280">
         <v>3.25</v>
       </c>
       <c r="U280">
+        <v>1.825</v>
+      </c>
+      <c r="V280">
         <v>1.975</v>
       </c>
-      <c r="V280">
-        <v>1.825</v>
-      </c>
       <c r="W280">
-        <v>10</v>
+        <v>0.222</v>
       </c>
       <c r="X280">
         <v>-1</v>
@@ -25433,16 +25433,16 @@
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB280">
         <v>-1</v>
       </c>
       <c r="AC280">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25450,7 +25450,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6943399</v>
+        <v>6942201</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25462,58 +25462,58 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
         <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K281">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="L281">
         <v>5.5</v>
       </c>
       <c r="M281">
-        <v>13</v>
+        <v>1.285</v>
       </c>
       <c r="N281">
+        <v>11</v>
+      </c>
+      <c r="O281">
+        <v>6.5</v>
+      </c>
+      <c r="P281">
         <v>1.222</v>
       </c>
-      <c r="O281">
-        <v>6</v>
-      </c>
-      <c r="P281">
-        <v>15</v>
-      </c>
       <c r="Q281">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R281">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S281">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T281">
         <v>3.25</v>
       </c>
       <c r="U281">
+        <v>1.975</v>
+      </c>
+      <c r="V281">
         <v>1.825</v>
       </c>
-      <c r="V281">
-        <v>1.975</v>
-      </c>
       <c r="W281">
-        <v>0.222</v>
+        <v>10</v>
       </c>
       <c r="X281">
         <v>-1</v>
@@ -25522,16 +25522,16 @@
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA281">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25554,7 +25554,7 @@
         <v>36</v>
       </c>
       <c r="G282" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K282">
         <v>3.25</v>
@@ -25643,7 +25643,7 @@
         <v>45</v>
       </c>
       <c r="G283" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -25652,7 +25652,7 @@
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K283">
         <v>6</v>
@@ -25741,7 +25741,7 @@
         <v>3</v>
       </c>
       <c r="J284" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K284">
         <v>2.55</v>
@@ -25821,7 +25821,7 @@
         <v>37</v>
       </c>
       <c r="G285" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H285">
         <v>5</v>
@@ -25830,7 +25830,7 @@
         <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K285">
         <v>1.2</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K286">
         <v>1.5</v>
@@ -26008,7 +26008,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K287">
         <v>1.181</v>
@@ -26085,7 +26085,7 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G288" t="s">
         <v>41</v>
@@ -26097,7 +26097,7 @@
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K288">
         <v>2.9</v>
@@ -26174,10 +26174,10 @@
         <v>45311.5</v>
       </c>
       <c r="F289" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G289" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -26186,7 +26186,7 @@
         <v>3</v>
       </c>
       <c r="J289" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K289">
         <v>8</v>
@@ -26352,7 +26352,7 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F291" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G291" t="s">
         <v>44</v>
@@ -26364,7 +26364,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K291">
         <v>1.222</v>
@@ -26453,7 +26453,7 @@
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K292">
         <v>3</v>
@@ -26631,7 +26631,7 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K294">
         <v>2</v>
@@ -26708,7 +26708,7 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F295" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G295" t="s">
         <v>39</v>
@@ -26720,7 +26720,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K295">
         <v>2.6</v>
@@ -26800,7 +26800,7 @@
         <v>36</v>
       </c>
       <c r="G296" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -26809,7 +26809,7 @@
         <v>4</v>
       </c>
       <c r="J296" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K296">
         <v>5.75</v>
@@ -26889,7 +26889,7 @@
         <v>35</v>
       </c>
       <c r="G297" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -26898,7 +26898,7 @@
         <v>3</v>
       </c>
       <c r="J297" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K297">
         <v>5.75</v>
@@ -26987,7 +26987,7 @@
         <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K298">
         <v>2.5</v>
@@ -27067,7 +27067,7 @@
         <v>38</v>
       </c>
       <c r="G299" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27076,7 +27076,7 @@
         <v>2</v>
       </c>
       <c r="J299" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K299">
         <v>1.166</v>
@@ -27153,7 +27153,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G300" t="s">
         <v>43</v>
@@ -27254,7 +27254,7 @@
         <v>6</v>
       </c>
       <c r="J301" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K301">
         <v>7</v>
@@ -27334,7 +27334,7 @@
         <v>39</v>
       </c>
       <c r="G302" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K303">
         <v>1.222</v>
@@ -27509,7 +27509,7 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G304" t="s">
         <v>37</v>
@@ -27521,7 +27521,7 @@
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K304">
         <v>1.7</v>
@@ -27598,7 +27598,7 @@
         <v>45323.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
         <v>35</v>
@@ -27610,7 +27610,7 @@
         <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K305">
         <v>1.2</v>
@@ -27675,7 +27675,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6943427</v>
+        <v>6943425</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27687,76 +27687,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F306" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G306" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H306">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J306" t="s">
         <v>47</v>
       </c>
       <c r="K306">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L306">
         <v>3.4</v>
       </c>
       <c r="M306">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N306">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O306">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P306">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q306">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R306">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S306">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T306">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U306">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V306">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W306">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X306">
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z306">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB306">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27764,7 +27764,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6943425</v>
+        <v>6943427</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27776,76 +27776,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G307" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J307" t="s">
         <v>46</v>
       </c>
       <c r="K307">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L307">
         <v>3.4</v>
       </c>
       <c r="M307">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N307">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O307">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P307">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q307">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S307">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U307">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V307">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W307">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X307">
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA307">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC307">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27954,7 +27954,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G309" t="s">
         <v>37</v>
@@ -27966,7 +27966,7 @@
         <v>2</v>
       </c>
       <c r="J309" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K309">
         <v>2.3</v>
@@ -28046,7 +28046,7 @@
         <v>44</v>
       </c>
       <c r="G310" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -28132,10 +28132,10 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G311" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H311">
         <v>2</v>
@@ -28233,7 +28233,7 @@
         <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K312">
         <v>1.85</v>
@@ -28322,7 +28322,7 @@
         <v>3</v>
       </c>
       <c r="J313" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K313">
         <v>2.8</v>
@@ -28411,7 +28411,7 @@
         <v>3</v>
       </c>
       <c r="J314" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K314">
         <v>6</v>
@@ -28589,7 +28589,7 @@
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K316">
         <v>2.25</v>
@@ -28678,7 +28678,7 @@
         <v>3</v>
       </c>
       <c r="J317" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K317">
         <v>1.222</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K318">
         <v>1.125</v>
@@ -28844,10 +28844,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -28856,7 +28856,7 @@
         <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K319">
         <v>1.75</v>
@@ -28933,7 +28933,7 @@
         <v>45333.5</v>
       </c>
       <c r="F320" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G320" t="s">
         <v>36</v>
@@ -28945,7 +28945,7 @@
         <v>3</v>
       </c>
       <c r="J320" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K320">
         <v>4.333</v>
@@ -29025,7 +29025,7 @@
         <v>40</v>
       </c>
       <c r="G321" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29123,7 +29123,7 @@
         <v>3</v>
       </c>
       <c r="J322" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K322">
         <v>9</v>
@@ -29188,7 +29188,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6943445</v>
+        <v>6943444</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29200,76 +29200,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F323" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G323" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H323">
         <v>2</v>
       </c>
       <c r="I323">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
         <v>46</v>
       </c>
       <c r="K323">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="L323">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M323">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N323">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O323">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P323">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R323">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S323">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T323">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U323">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V323">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA323">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC323">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29277,7 +29277,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6943444</v>
+        <v>6943445</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29289,76 +29289,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F324" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G324" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H324">
         <v>2</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J324" t="s">
         <v>47</v>
       </c>
       <c r="K324">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="L324">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M324">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="N324">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="O324">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P324">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="Q324">
+        <v>1</v>
+      </c>
+      <c r="R324">
+        <v>1.875</v>
+      </c>
+      <c r="S324">
+        <v>1.925</v>
+      </c>
+      <c r="T324">
+        <v>2.75</v>
+      </c>
+      <c r="U324">
+        <v>1.825</v>
+      </c>
+      <c r="V324">
+        <v>1.975</v>
+      </c>
+      <c r="W324">
+        <v>-1</v>
+      </c>
+      <c r="X324">
+        <v>-1</v>
+      </c>
+      <c r="Y324">
+        <v>0.571</v>
+      </c>
+      <c r="Z324">
         <v>0</v>
       </c>
-      <c r="R324">
-        <v>1.725</v>
-      </c>
-      <c r="S324">
-        <v>2.075</v>
-      </c>
-      <c r="T324">
-        <v>2.25</v>
-      </c>
-      <c r="U324">
-        <v>1.95</v>
-      </c>
-      <c r="V324">
-        <v>1.85</v>
-      </c>
-      <c r="W324">
-        <v>1.5</v>
-      </c>
-      <c r="X324">
-        <v>-1</v>
-      </c>
-      <c r="Y324">
-        <v>-1</v>
-      </c>
-      <c r="Z324">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AA324">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB324">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC324">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29470,7 +29470,7 @@
         <v>35</v>
       </c>
       <c r="G326" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -29479,7 +29479,7 @@
         <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K326">
         <v>1.666</v>
@@ -29645,7 +29645,7 @@
         <v>45337.625</v>
       </c>
       <c r="F328" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G328" t="s">
         <v>41</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K328">
         <v>1.7</v>
@@ -29722,7 +29722,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6943448</v>
+        <v>6943449</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29731,49 +29731,49 @@
         <v>28</v>
       </c>
       <c r="E329" s="2">
-        <v>45339.47916666666</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F329" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G329" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K329">
-        <v>1.222</v>
+        <v>2.5</v>
       </c>
       <c r="L329">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M329">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N329">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="O329">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P329">
-        <v>11</v>
+        <v>2.55</v>
       </c>
       <c r="Q329">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R329">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S329">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T329">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U329">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V329">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29796,7 +29796,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6943446</v>
+        <v>6943451</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29805,49 +29805,49 @@
         <v>28</v>
       </c>
       <c r="E330" s="2">
-        <v>45339.58333333334</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G330" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K330">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="L330">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M330">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="N330">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="O330">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P330">
-        <v>4.333</v>
+        <v>8.5</v>
       </c>
       <c r="Q330">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R330">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S330">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T330">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U330">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V330">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W330">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6943447</v>
+        <v>6943450</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29879,49 +29879,49 @@
         <v>28</v>
       </c>
       <c r="E331" s="2">
-        <v>45339.58333333334</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G331" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K331">
-        <v>1.45</v>
+        <v>9.5</v>
       </c>
       <c r="L331">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M331">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="N331">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="O331">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P331">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q331">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R331">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S331">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T331">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U331">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V331">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29944,7 +29944,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6943449</v>
+        <v>6942209</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29953,49 +29953,49 @@
         <v>28</v>
       </c>
       <c r="E332" s="2">
-        <v>45340.45833333334</v>
+        <v>45341.58333333334</v>
       </c>
       <c r="F332" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K332">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L332">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M332">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N332">
-        <v>2.55</v>
+        <v>1.363</v>
       </c>
       <c r="O332">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P332">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="Q332">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R332">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S332">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T332">
         <v>2.75</v>
       </c>
       <c r="U332">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V332">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30010,154 +30010,6 @@
         <v>0</v>
       </c>
       <c r="AA332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:29">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333">
-        <v>6943451</v>
-      </c>
-      <c r="C333" t="s">
-        <v>28</v>
-      </c>
-      <c r="D333" t="s">
-        <v>28</v>
-      </c>
-      <c r="E333" s="2">
-        <v>45340.58333333334</v>
-      </c>
-      <c r="F333" t="s">
-        <v>41</v>
-      </c>
-      <c r="G333" t="s">
-        <v>40</v>
-      </c>
-      <c r="K333">
-        <v>1.333</v>
-      </c>
-      <c r="L333">
-        <v>5</v>
-      </c>
-      <c r="M333">
-        <v>7.5</v>
-      </c>
-      <c r="N333">
-        <v>1.333</v>
-      </c>
-      <c r="O333">
-        <v>5.25</v>
-      </c>
-      <c r="P333">
-        <v>8.5</v>
-      </c>
-      <c r="Q333">
-        <v>-1.5</v>
-      </c>
-      <c r="R333">
-        <v>1.925</v>
-      </c>
-      <c r="S333">
-        <v>1.875</v>
-      </c>
-      <c r="T333">
-        <v>3</v>
-      </c>
-      <c r="U333">
-        <v>2.025</v>
-      </c>
-      <c r="V333">
-        <v>1.775</v>
-      </c>
-      <c r="W333">
-        <v>0</v>
-      </c>
-      <c r="X333">
-        <v>0</v>
-      </c>
-      <c r="Y333">
-        <v>0</v>
-      </c>
-      <c r="Z333">
-        <v>0</v>
-      </c>
-      <c r="AA333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:29">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334">
-        <v>6943450</v>
-      </c>
-      <c r="C334" t="s">
-        <v>28</v>
-      </c>
-      <c r="D334" t="s">
-        <v>28</v>
-      </c>
-      <c r="E334" s="2">
-        <v>45340.58333333334</v>
-      </c>
-      <c r="F334" t="s">
-        <v>31</v>
-      </c>
-      <c r="G334" t="s">
-        <v>32</v>
-      </c>
-      <c r="K334">
-        <v>9.5</v>
-      </c>
-      <c r="L334">
-        <v>6.5</v>
-      </c>
-      <c r="M334">
-        <v>1.2</v>
-      </c>
-      <c r="N334">
-        <v>10</v>
-      </c>
-      <c r="O334">
-        <v>6</v>
-      </c>
-      <c r="P334">
-        <v>1.25</v>
-      </c>
-      <c r="Q334">
-        <v>1.75</v>
-      </c>
-      <c r="R334">
-        <v>1.925</v>
-      </c>
-      <c r="S334">
-        <v>1.875</v>
-      </c>
-      <c r="T334">
-        <v>3.25</v>
-      </c>
-      <c r="U334">
-        <v>2</v>
-      </c>
-      <c r="V334">
-        <v>1.8</v>
-      </c>
-      <c r="W334">
-        <v>0</v>
-      </c>
-      <c r="X334">
-        <v>0</v>
-      </c>
-      <c r="Y334">
-        <v>0</v>
-      </c>
-      <c r="Z334">
-        <v>0</v>
-      </c>
-      <c r="AA334">
         <v>0</v>
       </c>
     </row>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Doxa Katokopias</t>
   </si>
   <si>
-    <t>AEK Larnaca</t>
+    <t>Akritas Chlorakas</t>
   </si>
   <si>
-    <t>Akritas Chlorakas</t>
+    <t>AEK Larnaca</t>
   </si>
   <si>
     <t>APK Karmotissa</t>
@@ -139,10 +139,10 @@
     <t>AEL Limassol</t>
   </si>
   <si>
-    <t>Aris Limassol</t>
+    <t>Olympiakos Nicosia</t>
   </si>
   <si>
-    <t>Olympiakos Nicosia</t>
+    <t>Aris Limassol</t>
   </si>
   <si>
     <t>AE Zakakiou</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC343"/>
+  <dimension ref="A1:AC342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5270158</v>
+        <v>5270159</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,7 +990,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1002,44 +1002,44 @@
         <v>47</v>
       </c>
       <c r="K6">
+        <v>4.2</v>
+      </c>
+      <c r="L6">
+        <v>3.4</v>
+      </c>
+      <c r="M6">
+        <v>1.909</v>
+      </c>
+      <c r="N6">
+        <v>5.5</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
+        <v>1.666</v>
+      </c>
+      <c r="Q6">
+        <v>0.75</v>
+      </c>
+      <c r="R6">
+        <v>1.975</v>
+      </c>
+      <c r="S6">
+        <v>1.825</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>1.8</v>
       </c>
-      <c r="L6">
-        <v>3.5</v>
-      </c>
-      <c r="M6">
+      <c r="W6">
         <v>4.5</v>
       </c>
-      <c r="N6">
-        <v>2.875</v>
-      </c>
-      <c r="O6">
-        <v>3.1</v>
-      </c>
-      <c r="P6">
-        <v>2.55</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>2.025</v>
-      </c>
-      <c r="S6">
-        <v>1.775</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.975</v>
-      </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
-      <c r="W6">
-        <v>1.875</v>
-      </c>
       <c r="X6">
         <v>-1</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1056,7 +1056,7 @@
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5270159</v>
+        <v>5270158</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,7 +1079,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1091,43 +1091,43 @@
         <v>47</v>
       </c>
       <c r="K7">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N7">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>2.025</v>
+      </c>
+      <c r="S7">
+        <v>1.775</v>
+      </c>
+      <c r="T7">
+        <v>2.25</v>
+      </c>
+      <c r="U7">
         <v>1.975</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.8</v>
-      </c>
       <c r="W7">
-        <v>4.5</v>
+        <v>1.875</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1136,7 +1136,7 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1145,7 +1145,7 @@
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5271449</v>
+        <v>5269366</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,7 +1702,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1714,61 +1714,61 @@
         <v>48</v>
       </c>
       <c r="K14">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="N14">
-        <v>1.181</v>
+        <v>2.55</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P14">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5269366</v>
+        <v>5271449</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,7 +1791,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1803,61 +1803,61 @@
         <v>48</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="M15">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="N15">
-        <v>2.55</v>
+        <v>1.181</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="P15">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <v>-2</v>
+      </c>
+      <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>1.8</v>
-      </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5270167</v>
+        <v>5270165</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>44939.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
       </c>
       <c r="K16">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="N16">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,19 +1934,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.55</v>
+        <v>2.5</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5270165</v>
+        <v>5270167</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>44939.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="N17">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,19 +2023,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.5</v>
+        <v>0.55</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2144,10 +2144,10 @@
         <v>44941.5</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2500,10 +2500,10 @@
         <v>44946.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2945,7 +2945,7 @@
         <v>44949.5</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5271447</v>
+        <v>5270174</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,76 +3123,76 @@
         <v>44953.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>2.875</v>
+        <v>1.333</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P30">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
         <v>1.825</v>
       </c>
-      <c r="V30">
-        <v>1.975</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5270174</v>
+        <v>5271447</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,76 +3212,76 @@
         <v>44953.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>1.333</v>
+        <v>2.875</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="N31">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O31">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P31">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q31">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>1.8</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>1.825</v>
+      </c>
+      <c r="V31">
         <v>1.975</v>
       </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>2.5</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
-      <c r="V31">
-        <v>1.825</v>
-      </c>
       <c r="W31">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3301,7 +3301,7 @@
         <v>44954.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -3660,7 +3660,7 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4105,7 +4105,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>44961.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4280,7 +4280,7 @@
         <v>44963.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -4636,10 +4636,10 @@
         <v>44967.54166666666</v>
       </c>
       <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
         <v>33</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4728,7 +4728,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>44975.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5170,7 +5170,7 @@
         <v>44975.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
@@ -5262,7 +5262,7 @@
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5437,7 +5437,7 @@
         <v>44977.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
         <v>37</v>
@@ -5618,7 +5618,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5974,7 +5974,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -6063,7 +6063,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6238,7 +6238,7 @@
         <v>44989.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6416,7 +6416,7 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -6683,7 +6683,7 @@
         <v>44992.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
@@ -6772,7 +6772,7 @@
         <v>44992.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
         <v>39</v>
@@ -7131,7 +7131,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7220,7 +7220,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>4</v>
@@ -7309,7 +7309,7 @@
         <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>44998.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
@@ -7573,7 +7573,7 @@
         <v>45002.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>29</v>
@@ -7929,7 +7929,7 @@
         <v>45004.5</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
         <v>38</v>
@@ -8018,10 +8018,10 @@
         <v>45005.5</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8199,7 +8199,7 @@
         <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8466,7 +8466,7 @@
         <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>45019.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -8819,7 +8819,7 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>32</v>
@@ -8908,7 +8908,7 @@
         <v>45025.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
         <v>29</v>
@@ -9178,7 +9178,7 @@
         <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9267,7 +9267,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9445,7 +9445,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9623,7 +9623,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9709,10 +9709,10 @@
         <v>45034.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10065,7 +10065,7 @@
         <v>45037.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>
@@ -10243,7 +10243,7 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
         <v>36</v>
@@ -10510,7 +10510,7 @@
         <v>45039.54166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
         <v>31</v>
@@ -10602,7 +10602,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>45044.54166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>36</v>
@@ -10958,7 +10958,7 @@
         <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>45046.54166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11133,7 +11133,7 @@
         <v>45047.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
         <v>39</v>
@@ -11314,7 +11314,7 @@
         <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H122">
         <v>5</v>
@@ -11492,7 +11492,7 @@
         <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -11667,10 +11667,10 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12011,7 +12011,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6397253</v>
+        <v>6397254</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12023,55 +12023,55 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
         <v>1</v>
-      </c>
-      <c r="I130">
-        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>46</v>
       </c>
       <c r="K130">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
+        <v>3.6</v>
+      </c>
+      <c r="N130">
+        <v>2.15</v>
+      </c>
+      <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
         <v>3.5</v>
       </c>
-      <c r="N130">
-        <v>3.2</v>
-      </c>
-      <c r="O130">
-        <v>3.3</v>
-      </c>
-      <c r="P130">
-        <v>2.25</v>
-      </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
         <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12080,19 +12080,19 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12100,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6397254</v>
+        <v>6397253</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,55 +12112,55 @@
         <v>45054.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>46</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N131">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
         <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12169,19 +12169,19 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>45055.54166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>40</v>
@@ -12293,7 +12293,7 @@
         <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12649,7 +12649,7 @@
         <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12735,7 +12735,7 @@
         <v>45060.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12827,7 +12827,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13091,7 +13091,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
         <v>32</v>
@@ -13180,7 +13180,7 @@
         <v>45065.54166666666</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13269,7 +13269,7 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
         <v>37</v>
@@ -13358,7 +13358,7 @@
         <v>45067.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>39</v>
@@ -13717,7 +13717,7 @@
         <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13803,7 +13803,7 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13895,7 +13895,7 @@
         <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -13984,7 +13984,7 @@
         <v>37</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6397265</v>
+        <v>6397264</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,76 +14159,76 @@
         <v>45075.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="L154">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M154">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="N154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P154">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="Q154">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R154">
+        <v>1.875</v>
+      </c>
+      <c r="S154">
+        <v>1.925</v>
+      </c>
+      <c r="T154">
+        <v>2.5</v>
+      </c>
+      <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
         <v>1.8</v>
       </c>
-      <c r="S154">
-        <v>2</v>
-      </c>
-      <c r="T154">
-        <v>2.25</v>
-      </c>
-      <c r="U154">
-        <v>1.9</v>
-      </c>
-      <c r="V154">
-        <v>1.9</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X154">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
+        <v>0.875</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>0.8</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>-0.5</v>
-      </c>
-      <c r="AC154">
-        <v>0.45</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6397264</v>
+        <v>6397265</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,76 +14248,76 @@
         <v>45075.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K155">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M155">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="N155">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O155">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W155">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC155">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14782,10 +14782,10 @@
         <v>45159.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -15316,7 +15316,7 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
         <v>45</v>
@@ -15405,7 +15405,7 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -15838,7 +15838,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6943313</v>
+        <v>6943311</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15850,76 +15850,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K173">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="L173">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="N173">
-        <v>1.45</v>
+        <v>15</v>
       </c>
       <c r="O173">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P173">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>2.425</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>1.525</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W173">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.425</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15927,7 +15927,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6943311</v>
+        <v>6943313</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15939,76 +15939,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M174">
+        <v>6.5</v>
+      </c>
+      <c r="N174">
         <v>1.45</v>
       </c>
-      <c r="N174">
-        <v>15</v>
-      </c>
       <c r="O174">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P174">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="Q174">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R174">
-        <v>2.425</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>1.525</v>
+        <v>1.85</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>0.5249999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16473,7 +16473,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
         <v>39</v>
@@ -16654,7 +16654,7 @@
         <v>43</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -17188,7 +17188,7 @@
         <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17363,7 +17363,7 @@
         <v>45199.5</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
@@ -17440,7 +17440,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6943328</v>
+        <v>6943330</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17452,34 +17452,34 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K191">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L191">
         <v>3.4</v>
       </c>
       <c r="M191">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N191">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O191">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
         <v>4</v>
@@ -17488,40 +17488,40 @@
         <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y191">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17529,7 +17529,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6943330</v>
+        <v>6943328</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17541,34 +17541,34 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K192">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L192">
         <v>3.4</v>
       </c>
       <c r="M192">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
         <v>4</v>
@@ -17577,40 +17577,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -18078,7 +18078,7 @@
         <v>39</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18434,7 +18434,7 @@
         <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -18686,7 +18686,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6943340</v>
+        <v>6943345</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18698,13 +18698,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18713,43 +18713,43 @@
         <v>47</v>
       </c>
       <c r="K205">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L205">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M205">
         <v>6</v>
       </c>
       <c r="N205">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="O205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P205">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q205">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
         <v>3</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
-        <v>0.3</v>
+        <v>0.444</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18758,16 +18758,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18775,7 +18775,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6943345</v>
+        <v>6943340</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18787,13 +18787,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H206">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -18802,43 +18802,43 @@
         <v>47</v>
       </c>
       <c r="K206">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="L206">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M206">
         <v>6</v>
       </c>
       <c r="N206">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="O206">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P206">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T206">
         <v>3</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
-        <v>0.444</v>
+        <v>0.3</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18847,16 +18847,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19665,7 +19665,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6942192</v>
+        <v>6943347</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19677,76 +19677,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K216">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M216">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N216">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O216">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P216">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R216">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y216">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB216">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19754,7 +19754,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6943347</v>
+        <v>6942192</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19766,76 +19766,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K217">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L217">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M217">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N217">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O217">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q217">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S217">
+        <v>1.95</v>
+      </c>
+      <c r="T217">
+        <v>2.25</v>
+      </c>
+      <c r="U217">
+        <v>1.875</v>
+      </c>
+      <c r="V217">
+        <v>1.925</v>
+      </c>
+      <c r="W217">
+        <v>-1</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
         <v>1.8</v>
       </c>
-      <c r="T217">
-        <v>3.5</v>
-      </c>
-      <c r="U217">
-        <v>1.9</v>
-      </c>
-      <c r="V217">
-        <v>1.9</v>
-      </c>
-      <c r="W217">
-        <v>-1</v>
-      </c>
-      <c r="X217">
-        <v>5.5</v>
-      </c>
-      <c r="Y217">
-        <v>-1</v>
-      </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC217">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19858,7 +19858,7 @@
         <v>44</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20122,7 +20122,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
         <v>36</v>
@@ -20288,7 +20288,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6942193</v>
+        <v>6943357</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20300,76 +20300,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K223">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L223">
+        <v>3.3</v>
+      </c>
+      <c r="M223">
+        <v>2.4</v>
+      </c>
+      <c r="N223">
+        <v>2.4</v>
+      </c>
+      <c r="O223">
         <v>3.4</v>
       </c>
-      <c r="M223">
-        <v>3.4</v>
-      </c>
-      <c r="N223">
-        <v>1.75</v>
-      </c>
-      <c r="O223">
-        <v>3.8</v>
-      </c>
       <c r="P223">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R223">
+        <v>1.725</v>
+      </c>
+      <c r="S223">
+        <v>2.075</v>
+      </c>
+      <c r="T223">
+        <v>2.25</v>
+      </c>
+      <c r="U223">
         <v>1.875</v>
       </c>
-      <c r="S223">
+      <c r="V223">
         <v>1.925</v>
       </c>
-      <c r="T223">
-        <v>2.75</v>
-      </c>
-      <c r="U223">
-        <v>2</v>
-      </c>
-      <c r="V223">
-        <v>1.8</v>
-      </c>
       <c r="W223">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z223">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20377,7 +20377,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6943357</v>
+        <v>6942193</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20389,76 +20389,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K224">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L224">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N224">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O224">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P224">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S224">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V224">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA224">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -21015,7 +21015,7 @@
         <v>30</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21104,7 +21104,7 @@
         <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H232">
         <v>4</v>
@@ -21190,7 +21190,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
         <v>31</v>
@@ -21724,7 +21724,7 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
         <v>40</v>
@@ -21905,7 +21905,7 @@
         <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -22157,7 +22157,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6942196</v>
+        <v>6943374</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22169,49 +22169,49 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G244" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K244">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="L244">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M244">
-        <v>1.571</v>
+        <v>13</v>
       </c>
       <c r="N244">
-        <v>7.5</v>
+        <v>1.166</v>
       </c>
       <c r="O244">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P244">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="Q244">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R244">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S244">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T244">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U244">
         <v>1.85</v>
@@ -22220,25 +22220,25 @@
         <v>1.95</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA244">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC244">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22246,7 +22246,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6943374</v>
+        <v>6942196</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22258,49 +22258,49 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>2</v>
+      </c>
+      <c r="J245" t="s">
+        <v>46</v>
+      </c>
+      <c r="K245">
         <v>5</v>
       </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-      <c r="J245" t="s">
-        <v>47</v>
-      </c>
-      <c r="K245">
-        <v>1.2</v>
-      </c>
       <c r="L245">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M245">
-        <v>13</v>
+        <v>1.571</v>
       </c>
       <c r="N245">
-        <v>1.166</v>
+        <v>7.5</v>
       </c>
       <c r="O245">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P245">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="Q245">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R245">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S245">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
         <v>1.85</v>
@@ -22309,25 +22309,25 @@
         <v>1.95</v>
       </c>
       <c r="W245">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z245">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB245">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22350,7 +22350,7 @@
         <v>40</v>
       </c>
       <c r="G246" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22525,10 +22525,10 @@
         <v>45269.5</v>
       </c>
       <c r="F248" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -23151,7 +23151,7 @@
         <v>45</v>
       </c>
       <c r="G255" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -23596,7 +23596,7 @@
         <v>32</v>
       </c>
       <c r="G260" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H260">
         <v>2</v>
@@ -23759,7 +23759,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6943390</v>
+        <v>6943388</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23771,76 +23771,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G262" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262" t="s">
+        <v>47</v>
+      </c>
+      <c r="K262">
+        <v>1.166</v>
+      </c>
+      <c r="L262">
+        <v>6.5</v>
+      </c>
+      <c r="M262">
+        <v>12</v>
+      </c>
+      <c r="N262">
+        <v>1.111</v>
+      </c>
+      <c r="O262">
+        <v>9.5</v>
+      </c>
+      <c r="P262">
+        <v>19</v>
+      </c>
+      <c r="Q262">
+        <v>-2.75</v>
+      </c>
+      <c r="R262">
+        <v>1.975</v>
+      </c>
+      <c r="S262">
+        <v>1.825</v>
+      </c>
+      <c r="T262">
         <v>4</v>
       </c>
-      <c r="J262" t="s">
-        <v>46</v>
-      </c>
-      <c r="K262">
-        <v>5</v>
-      </c>
-      <c r="L262">
-        <v>3.8</v>
-      </c>
-      <c r="M262">
-        <v>1.571</v>
-      </c>
-      <c r="N262">
-        <v>6.5</v>
-      </c>
-      <c r="O262">
-        <v>3.4</v>
-      </c>
-      <c r="P262">
-        <v>1.666</v>
-      </c>
-      <c r="Q262">
-        <v>0.75</v>
-      </c>
-      <c r="R262">
-        <v>1.95</v>
-      </c>
-      <c r="S262">
-        <v>1.85</v>
-      </c>
-      <c r="T262">
-        <v>2</v>
-      </c>
       <c r="U262">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V262">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB262">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23860,7 +23860,7 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G263" t="s">
         <v>32</v>
@@ -23937,7 +23937,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6943388</v>
+        <v>6943390</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23949,76 +23949,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G264" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J264" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K264">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="L264">
+        <v>3.8</v>
+      </c>
+      <c r="M264">
+        <v>1.571</v>
+      </c>
+      <c r="N264">
         <v>6.5</v>
       </c>
-      <c r="M264">
-        <v>12</v>
-      </c>
-      <c r="N264">
-        <v>1.111</v>
-      </c>
       <c r="O264">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="P264">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q264">
-        <v>-2.75</v>
+        <v>0.75</v>
       </c>
       <c r="R264">
+        <v>1.95</v>
+      </c>
+      <c r="S264">
+        <v>1.85</v>
+      </c>
+      <c r="T264">
+        <v>2</v>
+      </c>
+      <c r="U264">
+        <v>1.825</v>
+      </c>
+      <c r="V264">
         <v>1.975</v>
       </c>
-      <c r="S264">
-        <v>1.825</v>
-      </c>
-      <c r="T264">
-        <v>4</v>
-      </c>
-      <c r="U264">
-        <v>1.925</v>
-      </c>
-      <c r="V264">
-        <v>1.875</v>
-      </c>
       <c r="W264">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA264">
+        <v>0.425</v>
+      </c>
+      <c r="AB264">
         <v>0.825</v>
       </c>
-      <c r="AB264">
-        <v>-1</v>
-      </c>
       <c r="AC264">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24575,7 +24575,7 @@
         <v>39</v>
       </c>
       <c r="G271" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -24664,7 +24664,7 @@
         <v>44</v>
       </c>
       <c r="G272" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -25284,7 +25284,7 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G279" t="s">
         <v>37</v>
@@ -25462,7 +25462,7 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G281" t="s">
         <v>43</v>
@@ -25539,7 +25539,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6943408</v>
+        <v>6943410</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25551,76 +25551,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G282" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282">
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K282">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L282">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M282">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N282">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="O282">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P282">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q282">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R282">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T282">
         <v>2.75</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V282">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W282">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z282">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB282">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25628,7 +25628,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6943410</v>
+        <v>6943408</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25640,76 +25640,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G283" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283">
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K283">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L283">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M283">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="N283">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="O283">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P283">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q283">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R283">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S283">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T283">
         <v>2.75</v>
       </c>
       <c r="U283">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V283">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA283">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC283">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26088,7 +26088,7 @@
         <v>30</v>
       </c>
       <c r="G288" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -26607,7 +26607,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6942203</v>
+        <v>6943413</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26619,58 +26619,58 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F294" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G294" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H294">
+        <v>2</v>
+      </c>
+      <c r="I294">
         <v>1</v>
-      </c>
-      <c r="I294">
-        <v>0</v>
       </c>
       <c r="J294" t="s">
         <v>47</v>
       </c>
       <c r="K294">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L294">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M294">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="N294">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O294">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P294">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q294">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R294">
+        <v>2.025</v>
+      </c>
+      <c r="S294">
+        <v>1.775</v>
+      </c>
+      <c r="T294">
+        <v>2</v>
+      </c>
+      <c r="U294">
+        <v>1.75</v>
+      </c>
+      <c r="V294">
         <v>2.05</v>
       </c>
-      <c r="S294">
-        <v>1.75</v>
-      </c>
-      <c r="T294">
-        <v>2.25</v>
-      </c>
-      <c r="U294">
-        <v>1.925</v>
-      </c>
-      <c r="V294">
-        <v>1.875</v>
-      </c>
       <c r="W294">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="X294">
         <v>-1</v>
@@ -26679,16 +26679,16 @@
         <v>-1</v>
       </c>
       <c r="Z294">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC294">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:29">
@@ -26696,7 +26696,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6943413</v>
+        <v>6942203</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26708,76 +26708,76 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F295" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
         <v>47</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L295">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M295">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="N295">
+        <v>2.5</v>
+      </c>
+      <c r="O295">
+        <v>3.2</v>
+      </c>
+      <c r="P295">
+        <v>3</v>
+      </c>
+      <c r="Q295">
+        <v>-0.25</v>
+      </c>
+      <c r="R295">
         <v>2.05</v>
       </c>
-      <c r="O295">
-        <v>3.3</v>
-      </c>
-      <c r="P295">
-        <v>3.75</v>
-      </c>
-      <c r="Q295">
-        <v>-0.5</v>
-      </c>
-      <c r="R295">
-        <v>2.025</v>
-      </c>
       <c r="S295">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U295">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
+        <v>1.5</v>
+      </c>
+      <c r="X295">
+        <v>-1</v>
+      </c>
+      <c r="Y295">
+        <v>-1</v>
+      </c>
+      <c r="Z295">
         <v>1.05</v>
       </c>
-      <c r="X295">
-        <v>-1</v>
-      </c>
-      <c r="Y295">
-        <v>-1</v>
-      </c>
-      <c r="Z295">
-        <v>1.025</v>
-      </c>
       <c r="AA295">
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26800,7 +26800,7 @@
         <v>35</v>
       </c>
       <c r="G296" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H296">
         <v>1</v>
@@ -27245,7 +27245,7 @@
         <v>45</v>
       </c>
       <c r="G301" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H301">
         <v>2</v>
@@ -27331,7 +27331,7 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G302" t="s">
         <v>44</v>
@@ -27420,7 +27420,7 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G303" t="s">
         <v>37</v>
@@ -27675,7 +27675,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6943425</v>
+        <v>6943427</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27687,76 +27687,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F306" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K306">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L306">
         <v>3.4</v>
       </c>
       <c r="M306">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N306">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O306">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P306">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q306">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R306">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T306">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U306">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V306">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W306">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X306">
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA306">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC306">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27764,7 +27764,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6943427</v>
+        <v>6943425</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27776,76 +27776,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>2</v>
+      </c>
+      <c r="J307" t="s">
+        <v>46</v>
+      </c>
+      <c r="K307">
         <v>3</v>
-      </c>
-      <c r="I307">
-        <v>1</v>
-      </c>
-      <c r="J307" t="s">
-        <v>47</v>
-      </c>
-      <c r="K307">
-        <v>2.5</v>
       </c>
       <c r="L307">
         <v>3.4</v>
       </c>
       <c r="M307">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N307">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O307">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P307">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R307">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S307">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T307">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W307">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X307">
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z307">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB307">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -28224,7 +28224,7 @@
         <v>31</v>
       </c>
       <c r="G312" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H312">
         <v>2</v>
@@ -28298,7 +28298,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6943433</v>
+        <v>7647734</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28310,13 +28310,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G313" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313">
         <v>3</v>
@@ -28325,40 +28325,40 @@
         <v>46</v>
       </c>
       <c r="K313">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="L313">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M313">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N313">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O313">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P313">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q313">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R313">
+        <v>2.025</v>
+      </c>
+      <c r="S313">
+        <v>1.775</v>
+      </c>
+      <c r="T313">
+        <v>2.75</v>
+      </c>
+      <c r="U313">
         <v>1.8</v>
       </c>
-      <c r="S313">
-        <v>2</v>
-      </c>
-      <c r="T313">
-        <v>2.5</v>
-      </c>
-      <c r="U313">
-        <v>1.85</v>
-      </c>
       <c r="V313">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28367,19 +28367,19 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB313">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC313">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28387,7 +28387,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7647734</v>
+        <v>6943433</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28399,13 +28399,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F314" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G314" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I314">
         <v>3</v>
@@ -28414,40 +28414,40 @@
         <v>46</v>
       </c>
       <c r="K314">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="L314">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M314">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N314">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O314">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P314">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q314">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R314">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S314">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T314">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V314">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W314">
         <v>-1</v>
@@ -28456,19 +28456,19 @@
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z314">
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB314">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC314">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28755,7 +28755,7 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F318" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G318" t="s">
         <v>35</v>
@@ -28844,7 +28844,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G319" t="s">
         <v>30</v>
@@ -29292,7 +29292,7 @@
         <v>40</v>
       </c>
       <c r="G324" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H324">
         <v>2</v>
@@ -29648,7 +29648,7 @@
         <v>31</v>
       </c>
       <c r="G328" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H328">
         <v>1</v>
@@ -29811,7 +29811,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6943446</v>
+        <v>6943447</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29823,76 +29823,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G330" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330">
         <v>0</v>
       </c>
       <c r="J330" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K330">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L330">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M330">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N330">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="O330">
+        <v>4.75</v>
+      </c>
+      <c r="P330">
+        <v>5</v>
+      </c>
+      <c r="Q330">
+        <v>-1</v>
+      </c>
+      <c r="R330">
+        <v>1.85</v>
+      </c>
+      <c r="S330">
+        <v>1.95</v>
+      </c>
+      <c r="T330">
+        <v>3</v>
+      </c>
+      <c r="U330">
+        <v>1.9</v>
+      </c>
+      <c r="V330">
+        <v>1.9</v>
+      </c>
+      <c r="W330">
+        <v>-1</v>
+      </c>
+      <c r="X330">
         <v>3.75</v>
       </c>
-      <c r="P330">
-        <v>4.75</v>
-      </c>
-      <c r="Q330">
-        <v>-0.75</v>
-      </c>
-      <c r="R330">
-        <v>1.9</v>
-      </c>
-      <c r="S330">
-        <v>1.9</v>
-      </c>
-      <c r="T330">
-        <v>2.5</v>
-      </c>
-      <c r="U330">
-        <v>2</v>
-      </c>
-      <c r="V330">
-        <v>1.8</v>
-      </c>
-      <c r="W330">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X330">
-        <v>-1</v>
-      </c>
       <c r="Y330">
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA330">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB330">
         <v>-1</v>
       </c>
       <c r="AC330">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29900,7 +29900,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6943447</v>
+        <v>6943446</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29912,76 +29912,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G331" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331">
         <v>0</v>
       </c>
       <c r="J331" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K331">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L331">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M331">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N331">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="O331">
+        <v>3.75</v>
+      </c>
+      <c r="P331">
         <v>4.75</v>
       </c>
-      <c r="P331">
-        <v>5</v>
-      </c>
       <c r="Q331">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R331">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S331">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T331">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V331">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X331">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA331">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB331">
         <v>-1</v>
       </c>
       <c r="AC331">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30090,7 +30090,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F333" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G333" t="s">
         <v>40</v>
@@ -30434,7 +30434,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7864516</v>
+        <v>7864522</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30443,49 +30443,49 @@
         <v>28</v>
       </c>
       <c r="E337" s="2">
-        <v>45346.47916666666</v>
+        <v>45346.54166666666</v>
       </c>
       <c r="F337" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G337" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K337">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L337">
         <v>3.75</v>
       </c>
       <c r="M337">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N337">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O337">
         <v>3.75</v>
       </c>
       <c r="P337">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q337">
         <v>-0.5</v>
       </c>
       <c r="R337">
+        <v>1.825</v>
+      </c>
+      <c r="S337">
         <v>1.975</v>
-      </c>
-      <c r="S337">
-        <v>1.825</v>
       </c>
       <c r="T337">
         <v>2.75</v>
       </c>
       <c r="U337">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V337">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W337">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7864522</v>
+        <v>7864517</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30517,49 +30517,49 @@
         <v>28</v>
       </c>
       <c r="E338" s="2">
-        <v>45346.54166666666</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G338" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K338">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L338">
         <v>3.75</v>
       </c>
       <c r="M338">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N338">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O338">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P338">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q338">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R338">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S338">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T338">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U338">
+        <v>1.85</v>
+      </c>
+      <c r="V338">
         <v>1.95</v>
-      </c>
-      <c r="V338">
-        <v>1.85</v>
       </c>
       <c r="W338">
         <v>0</v>
@@ -30582,7 +30582,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7864517</v>
+        <v>7864514</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30591,34 +30591,34 @@
         <v>28</v>
       </c>
       <c r="E339" s="2">
-        <v>45346.58333333334</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F339" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G339" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K339">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="L339">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M339">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N339">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O339">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P339">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q339">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R339">
         <v>2</v>
@@ -30627,13 +30627,13 @@
         <v>1.8</v>
       </c>
       <c r="T339">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U339">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V339">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W339">
         <v>0</v>
@@ -30656,7 +30656,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7864514</v>
+        <v>7864515</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30665,49 +30665,49 @@
         <v>28</v>
       </c>
       <c r="E340" s="2">
-        <v>45347.45833333334</v>
+        <v>45347.58333333334</v>
       </c>
       <c r="F340" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G340" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K340">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="L340">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M340">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N340">
+        <v>2.15</v>
+      </c>
+      <c r="O340">
         <v>3.5</v>
       </c>
-      <c r="O340">
-        <v>3.4</v>
-      </c>
       <c r="P340">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="Q340">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R340">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S340">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T340">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U340">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V340">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W340">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F341" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G341" t="s">
         <v>37</v>
@@ -30763,16 +30763,16 @@
         <v>3.8</v>
       </c>
       <c r="P341">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q341">
         <v>-0.75</v>
       </c>
       <c r="R341">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S341">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T341">
         <v>2.5</v>
@@ -30804,7 +30804,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7864515</v>
+        <v>7864518</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30813,49 +30813,49 @@
         <v>28</v>
       </c>
       <c r="E342" s="2">
-        <v>45347.58333333334</v>
+        <v>45348.58333333334</v>
       </c>
       <c r="F342" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G342" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K342">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="L342">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M342">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N342">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O342">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P342">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q342">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R342">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S342">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T342">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U342">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V342">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -30870,80 +30870,6 @@
         <v>0</v>
       </c>
       <c r="AA342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:27">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343">
-        <v>7864518</v>
-      </c>
-      <c r="C343" t="s">
-        <v>28</v>
-      </c>
-      <c r="D343" t="s">
-        <v>28</v>
-      </c>
-      <c r="E343" s="2">
-        <v>45348.58333333334</v>
-      </c>
-      <c r="F343" t="s">
-        <v>30</v>
-      </c>
-      <c r="G343" t="s">
-        <v>32</v>
-      </c>
-      <c r="K343">
-        <v>1.55</v>
-      </c>
-      <c r="L343">
-        <v>4.2</v>
-      </c>
-      <c r="M343">
-        <v>5.5</v>
-      </c>
-      <c r="N343">
-        <v>1.55</v>
-      </c>
-      <c r="O343">
-        <v>4.2</v>
-      </c>
-      <c r="P343">
-        <v>5.5</v>
-      </c>
-      <c r="Q343">
-        <v>-1</v>
-      </c>
-      <c r="R343">
-        <v>1.9</v>
-      </c>
-      <c r="S343">
-        <v>1.9</v>
-      </c>
-      <c r="T343">
-        <v>2.75</v>
-      </c>
-      <c r="U343">
-        <v>1.95</v>
-      </c>
-      <c r="V343">
-        <v>1.85</v>
-      </c>
-      <c r="W343">
-        <v>0</v>
-      </c>
-      <c r="X343">
-        <v>0</v>
-      </c>
-      <c r="Y343">
-        <v>0</v>
-      </c>
-      <c r="Z343">
-        <v>0</v>
-      </c>
-      <c r="AA343">
         <v>0</v>
       </c>
     </row>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -27319,7 +27319,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6942205</v>
+        <v>6943423</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27331,76 +27331,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G302" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K302">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L302">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M302">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N302">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O302">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P302">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q302">
+        <v>-0.75</v>
+      </c>
+      <c r="R302">
+        <v>1.925</v>
+      </c>
+      <c r="S302">
+        <v>1.875</v>
+      </c>
+      <c r="T302">
+        <v>2.5</v>
+      </c>
+      <c r="U302">
+        <v>1.925</v>
+      </c>
+      <c r="V302">
+        <v>1.875</v>
+      </c>
+      <c r="W302">
+        <v>0.75</v>
+      </c>
+      <c r="X302">
+        <v>-1</v>
+      </c>
+      <c r="Y302">
+        <v>-1</v>
+      </c>
+      <c r="Z302">
+        <v>0.4625</v>
+      </c>
+      <c r="AA302">
         <v>-0.5</v>
       </c>
-      <c r="R302">
-        <v>1.9</v>
-      </c>
-      <c r="S302">
-        <v>1.9</v>
-      </c>
-      <c r="T302">
-        <v>2.25</v>
-      </c>
-      <c r="U302">
-        <v>1.85</v>
-      </c>
-      <c r="V302">
-        <v>1.95</v>
-      </c>
-      <c r="W302">
-        <v>-1</v>
-      </c>
-      <c r="X302">
-        <v>2.5</v>
-      </c>
-      <c r="Y302">
-        <v>-1</v>
-      </c>
-      <c r="Z302">
-        <v>-1</v>
-      </c>
-      <c r="AA302">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC302">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27408,7 +27408,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6943426</v>
+        <v>6942205</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27420,76 +27420,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F303" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G303" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H303">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K303">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="L303">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M303">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N303">
-        <v>1.181</v>
+        <v>1.85</v>
       </c>
       <c r="O303">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P303">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="Q303">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R303">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S303">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U303">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V303">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W303">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB303">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27497,7 +27497,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6943423</v>
+        <v>6943426</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27509,58 +27509,58 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G304" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="s">
         <v>47</v>
       </c>
       <c r="K304">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="L304">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M304">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N304">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P304">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R304">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S304">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U304">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V304">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W304">
-        <v>0.75</v>
+        <v>0.181</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27569,13 +27569,13 @@
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA304">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27675,7 +27675,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6943425</v>
+        <v>6943427</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27687,76 +27687,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F306" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K306">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L306">
         <v>3.4</v>
       </c>
       <c r="M306">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N306">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O306">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P306">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q306">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R306">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T306">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U306">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V306">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W306">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X306">
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA306">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC306">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27764,7 +27764,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6943427</v>
+        <v>6943425</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27776,76 +27776,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>2</v>
+      </c>
+      <c r="J307" t="s">
+        <v>46</v>
+      </c>
+      <c r="K307">
         <v>3</v>
-      </c>
-      <c r="I307">
-        <v>1</v>
-      </c>
-      <c r="J307" t="s">
-        <v>47</v>
-      </c>
-      <c r="K307">
-        <v>2.5</v>
       </c>
       <c r="L307">
         <v>3.4</v>
       </c>
       <c r="M307">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N307">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O307">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P307">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R307">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S307">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T307">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W307">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X307">
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z307">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB307">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -28031,7 +28031,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6943434</v>
+        <v>6943430</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28043,55 +28043,55 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G310" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
         <v>48</v>
       </c>
       <c r="K310">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L310">
         <v>3.4</v>
       </c>
       <c r="M310">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N310">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O310">
         <v>3.4</v>
       </c>
       <c r="P310">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q310">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S310">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T310">
         <v>2.5</v>
       </c>
       <c r="U310">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V310">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W310">
         <v>-1</v>
@@ -28103,16 +28103,16 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA310">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB310">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28120,7 +28120,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6943430</v>
+        <v>6943431</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28132,40 +28132,40 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G311" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K311">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L311">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M311">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N311">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O311">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P311">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R311">
         <v>1.9</v>
@@ -28174,34 +28174,34 @@
         <v>1.9</v>
       </c>
       <c r="T311">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U311">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V311">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X311">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA311">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC311">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28209,7 +28209,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6943431</v>
+        <v>6943434</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28221,34 +28221,34 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F312" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G312" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H312">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K312">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L312">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M312">
         <v>4</v>
       </c>
       <c r="N312">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O312">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P312">
         <v>3.8</v>
@@ -28257,37 +28257,37 @@
         <v>-0.5</v>
       </c>
       <c r="R312">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S312">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T312">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U312">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V312">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W312">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X312">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y312">
         <v>-1</v>
       </c>
       <c r="Z312">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB312">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28298,7 +28298,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7647734</v>
+        <v>6943433</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28310,13 +28310,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G313" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313">
         <v>3</v>
@@ -28325,40 +28325,40 @@
         <v>46</v>
       </c>
       <c r="K313">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="L313">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M313">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N313">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O313">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P313">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q313">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R313">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S313">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T313">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U313">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V313">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28367,19 +28367,19 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB313">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC313">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28387,7 +28387,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6943433</v>
+        <v>7647734</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28399,13 +28399,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G314" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314">
         <v>3</v>
@@ -28414,40 +28414,40 @@
         <v>46</v>
       </c>
       <c r="K314">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="L314">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M314">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N314">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O314">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P314">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q314">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R314">
+        <v>2.025</v>
+      </c>
+      <c r="S314">
+        <v>1.775</v>
+      </c>
+      <c r="T314">
+        <v>2.75</v>
+      </c>
+      <c r="U314">
         <v>1.8</v>
       </c>
-      <c r="S314">
-        <v>2</v>
-      </c>
-      <c r="T314">
-        <v>2.5</v>
-      </c>
-      <c r="U314">
-        <v>1.85</v>
-      </c>
       <c r="V314">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W314">
         <v>-1</v>
@@ -28456,19 +28456,19 @@
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z314">
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB314">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="315" spans="1:29">

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,22 +106,22 @@
     <t>Pafos FC</t>
   </si>
   <si>
+    <t>Apollon Limassol</t>
+  </si>
+  <si>
     <t>Anorthosis Famagusta</t>
   </si>
   <si>
-    <t>Apollon Limassol</t>
+    <t>AE Zakakiou</t>
   </si>
   <si>
-    <t>AE Zakakiou</t>
+    <t>Omonia Nicosia</t>
   </si>
   <si>
     <t>Aris Limassol</t>
   </si>
   <si>
     <t>Doxa Katokopias</t>
-  </si>
-  <si>
-    <t>Omonia Nicosia</t>
   </si>
   <si>
     <t>APK Karmotissa</t>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6997345</v>
+        <v>6997344</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L3">
+        <v>4.75</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>1.363</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <v>-1.5</v>
+      </c>
+      <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
+        <v>1.975</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>5.5</v>
-      </c>
-      <c r="N3">
-        <v>1.75</v>
-      </c>
-      <c r="O3">
-        <v>3.8</v>
-      </c>
-      <c r="P3">
-        <v>4.75</v>
-      </c>
-      <c r="Q3">
-        <v>-0.75</v>
-      </c>
-      <c r="R3">
-        <v>1.925</v>
-      </c>
-      <c r="S3">
-        <v>1.875</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6997344</v>
+        <v>6997345</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5.5</v>
+      </c>
+      <c r="N4">
+        <v>1.75</v>
+      </c>
+      <c r="O4">
+        <v>3.8</v>
+      </c>
+      <c r="P4">
         <v>4.75</v>
       </c>
-      <c r="M4">
-        <v>11</v>
-      </c>
-      <c r="N4">
-        <v>1.363</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997341</v>
+        <v>6997355</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,10 +981,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -993,43 +993,43 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6997342</v>
+        <v>6997341</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,73 +1070,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6997355</v>
+        <v>6997342</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,73 +1159,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N8">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6943305</v>
+        <v>6943309</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1601,73 +1601,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>1.285</v>
+      </c>
+      <c r="L13">
+        <v>4.6</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>1.333</v>
+      </c>
+      <c r="O13">
+        <v>4.5</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>-1.5</v>
+      </c>
+      <c r="R13">
+        <v>1.95</v>
+      </c>
+      <c r="S13">
+        <v>1.85</v>
+      </c>
+      <c r="T13">
+        <v>2.75</v>
+      </c>
+      <c r="U13">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="V13">
+        <v>1.8</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>3.5</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB13">
         <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13">
-        <v>1.45</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>1.4</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>7.5</v>
-      </c>
-      <c r="Q13">
-        <v>-1.25</v>
-      </c>
-      <c r="R13">
-        <v>1.825</v>
-      </c>
-      <c r="S13">
-        <v>1.975</v>
-      </c>
-      <c r="T13">
-        <v>2.5</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-      <c r="W13">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0.4875</v>
-      </c>
-      <c r="AB13">
-        <v>0.8</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6943309</v>
+        <v>6943305</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1690,73 +1690,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>1.45</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>1.4</v>
+      </c>
+      <c r="O14">
         <v>5</v>
       </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14">
-        <v>1.285</v>
-      </c>
-      <c r="L14">
-        <v>4.6</v>
-      </c>
-      <c r="M14">
-        <v>9</v>
-      </c>
-      <c r="N14">
-        <v>1.333</v>
-      </c>
-      <c r="O14">
-        <v>4.5</v>
-      </c>
       <c r="P14">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
+        <v>1.8</v>
+      </c>
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="V14">
-        <v>1.8</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X14">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1779,7 +1779,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>39</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6943315</v>
+        <v>6943310</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>3.4</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>3.6</v>
+      </c>
+      <c r="P16">
+        <v>1.75</v>
+      </c>
+      <c r="Q16">
+        <v>0.75</v>
+      </c>
+      <c r="R16">
+        <v>1.875</v>
+      </c>
+      <c r="S16">
+        <v>1.925</v>
+      </c>
+      <c r="T16">
+        <v>2.5</v>
+      </c>
+      <c r="U16">
+        <v>1.8</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>0.75</v>
+      </c>
+      <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.925</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16">
-        <v>1.909</v>
-      </c>
-      <c r="L16">
-        <v>3.25</v>
-      </c>
-      <c r="M16">
-        <v>3.75</v>
-      </c>
-      <c r="N16">
-        <v>1.85</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
-      <c r="P16">
-        <v>4.333</v>
-      </c>
-      <c r="Q16">
-        <v>-0.5</v>
-      </c>
-      <c r="R16">
-        <v>1.8</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
-      <c r="U16">
-        <v>1.925</v>
-      </c>
-      <c r="V16">
-        <v>1.875</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>2.5</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6942186</v>
+        <v>6943315</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,49 +1957,49 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N17">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="O17">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q17">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
         <v>2</v>
       </c>
-      <c r="S17">
-        <v>1.8</v>
-      </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
         <v>1.925</v>
@@ -2008,25 +2008,25 @@
         <v>1.875</v>
       </c>
       <c r="W17">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
         <v>1</v>
       </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6943310</v>
+        <v>6942186</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,76 +2046,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>1.4</v>
+      </c>
+      <c r="L18">
+        <v>4.2</v>
+      </c>
+      <c r="M18">
+        <v>6.5</v>
+      </c>
+      <c r="N18">
+        <v>1.444</v>
+      </c>
+      <c r="O18">
+        <v>4.5</v>
+      </c>
+      <c r="P18">
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>-1.25</v>
+      </c>
+      <c r="R18">
         <v>2</v>
       </c>
-      <c r="J18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>3.4</v>
-      </c>
-      <c r="M18">
-        <v>1.666</v>
-      </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>1.75</v>
-      </c>
-      <c r="Q18">
-        <v>0.75</v>
-      </c>
-      <c r="R18">
-        <v>1.875</v>
-      </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
         <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
         <v>0.925</v>
       </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6943311</v>
+        <v>6943313</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
+        <v>6.5</v>
+      </c>
+      <c r="N19">
         <v>1.45</v>
       </c>
-      <c r="N19">
-        <v>15</v>
-      </c>
       <c r="O19">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="Q19">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R19">
-        <v>2.425</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.525</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.5249999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6943313</v>
+        <v>6943311</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,76 +2224,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="N20">
-        <v>1.45</v>
+        <v>15</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P20">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>2.425</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.525</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.425</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>45172.625</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7168377</v>
+        <v>7168372</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,73 +2402,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22">
+        <v>1.95</v>
+      </c>
+      <c r="L22">
+        <v>3.1</v>
+      </c>
+      <c r="M22">
+        <v>3.8</v>
+      </c>
+      <c r="N22">
         <v>2</v>
       </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>1.4</v>
-      </c>
-      <c r="L22">
-        <v>4.333</v>
-      </c>
-      <c r="M22">
-        <v>6.5</v>
-      </c>
-      <c r="N22">
-        <v>1.285</v>
-      </c>
       <c r="O22">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q22">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7168372</v>
+        <v>7168377</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2491,73 +2491,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>1.4</v>
+      </c>
+      <c r="L23">
+        <v>4.333</v>
+      </c>
+      <c r="M23">
+        <v>6.5</v>
+      </c>
+      <c r="N23">
+        <v>1.285</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>-1.75</v>
+      </c>
+      <c r="R23">
+        <v>1.975</v>
+      </c>
+      <c r="S23">
+        <v>1.825</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>1.95</v>
-      </c>
-      <c r="L23">
-        <v>3.1</v>
-      </c>
-      <c r="M23">
-        <v>3.8</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>3.8</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.9</v>
-      </c>
-      <c r="S23">
-        <v>1.9</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2583,7 +2583,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2850,7 +2850,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3203,7 +3203,7 @@
         <v>45192.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6943324</v>
+        <v>6943327</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3292,49 +3292,49 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3.3</v>
+      </c>
+      <c r="M32">
+        <v>2.2</v>
+      </c>
+      <c r="N32">
+        <v>2.75</v>
+      </c>
+      <c r="O32">
+        <v>3.25</v>
+      </c>
+      <c r="P32">
+        <v>2.625</v>
+      </c>
+      <c r="Q32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32">
-        <v>1.615</v>
-      </c>
-      <c r="L32">
-        <v>3.6</v>
-      </c>
-      <c r="M32">
-        <v>4.5</v>
-      </c>
-      <c r="N32">
-        <v>1.833</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
-      <c r="P32">
-        <v>4.5</v>
-      </c>
-      <c r="Q32">
-        <v>-0.5</v>
-      </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
         <v>1.825</v>
@@ -3343,25 +3343,25 @@
         <v>1.975</v>
       </c>
       <c r="W32">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6943327</v>
+        <v>6943324</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,49 +3381,49 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N33">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.825</v>
@@ -3432,25 +3432,25 @@
         <v>1.975</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,10 +3470,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6943330</v>
+        <v>6943328</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,34 +3737,34 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L37">
         <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
         <v>4</v>
@@ -3773,40 +3773,40 @@
         <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
         <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6943328</v>
+        <v>6943330</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,34 +3826,34 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N38">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
         <v>4</v>
@@ -3862,40 +3862,40 @@
         <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y38">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6943329</v>
+        <v>6943332</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,10 +3915,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3930,25 +3930,25 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
         <v>1.95</v>
@@ -3957,13 +3957,13 @@
         <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3972,7 +3972,7 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z39">
         <v>-1</v>
@@ -3981,7 +3981,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6943332</v>
+        <v>6943329</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,10 +4004,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4019,25 +4019,25 @@
         <v>45</v>
       </c>
       <c r="K40">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N40">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>1.95</v>
@@ -4046,13 +4046,13 @@
         <v>1.85</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4061,7 +4061,7 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="Z40">
         <v>-1</v>
@@ -4070,7 +4070,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4449,7 +4449,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943336</v>
+        <v>6943335</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,37 +4630,37 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N47">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P47">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R47">
         <v>1.925</v>
@@ -4672,28 +4672,28 @@
         <v>2.75</v>
       </c>
       <c r="U47">
+        <v>1.825</v>
+      </c>
+      <c r="V47">
         <v>1.975</v>
       </c>
-      <c r="V47">
-        <v>1.825</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6943337</v>
+        <v>6943336</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,76 +4716,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
         <v>2.1</v>
       </c>
       <c r="N48">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z48">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6943335</v>
+        <v>6943337</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,13 +4805,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4820,43 +4820,43 @@
         <v>43</v>
       </c>
       <c r="K49">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N49">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O49">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P49">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q49">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R49">
+        <v>1.775</v>
+      </c>
+      <c r="S49">
+        <v>2.025</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
         <v>1.925</v>
       </c>
-      <c r="S49">
+      <c r="V49">
         <v>1.875</v>
       </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.825</v>
-      </c>
-      <c r="V49">
-        <v>1.975</v>
-      </c>
       <c r="W49">
-        <v>0.333</v>
+        <v>1.6</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4865,16 +4865,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4882,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6943343</v>
+        <v>6943345</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4894,13 +4894,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4909,43 +4909,43 @@
         <v>43</v>
       </c>
       <c r="K50">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L50">
         <v>4.75</v>
       </c>
       <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>1.444</v>
+      </c>
+      <c r="O50">
+        <v>5</v>
+      </c>
+      <c r="P50">
         <v>6.5</v>
-      </c>
-      <c r="N50">
-        <v>1.363</v>
-      </c>
-      <c r="O50">
-        <v>4.75</v>
-      </c>
-      <c r="P50">
-        <v>10</v>
       </c>
       <c r="Q50">
         <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.363</v>
+        <v>0.444</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4954,16 +4954,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6943345</v>
+        <v>6943343</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,13 +4983,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4998,43 +4998,43 @@
         <v>43</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L51">
         <v>4.75</v>
       </c>
       <c r="M51">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N51">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q51">
         <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5043,16 +5043,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5238,7 +5238,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6943341</v>
+        <v>6943342</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5250,7 +5250,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
@@ -5259,67 +5259,67 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q54">
+        <v>1.5</v>
+      </c>
+      <c r="R54">
+        <v>1.8</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>3.25</v>
+      </c>
+      <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
+        <v>1.85</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
         <v>1</v>
       </c>
-      <c r="R54">
-        <v>1.85</v>
-      </c>
-      <c r="S54">
-        <v>1.95</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
-      <c r="V54">
-        <v>1.875</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
-      <c r="Y54">
-        <v>0.55</v>
-      </c>
-      <c r="Z54">
-        <v>-1</v>
-      </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>0.95</v>
       </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
       <c r="AC54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5327,7 +5327,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6943342</v>
+        <v>6943341</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5339,7 +5339,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -5348,46 +5348,46 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>1.571</v>
+      </c>
+      <c r="N55">
+        <v>6.5</v>
+      </c>
+      <c r="O55">
         <v>4</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>8</v>
-      </c>
-      <c r="O55">
-        <v>5</v>
-      </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q55">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5396,19 +5396,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5873,7 +5873,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -5950,7 +5950,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6943347</v>
+        <v>6942192</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5965,73 +5965,73 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K62">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N62">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O62">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
+        <v>1.95</v>
+      </c>
+      <c r="T62">
+        <v>2.25</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
+        <v>1.925</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
         <v>1.8</v>
       </c>
-      <c r="T62">
-        <v>3.5</v>
-      </c>
-      <c r="U62">
-        <v>1.9</v>
-      </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>5.5</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6942192</v>
+        <v>6943347</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6054,73 +6054,73 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M63">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N63">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P63">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y63">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6143,7 +6143,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
         <v>37</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6943352</v>
+        <v>6943355</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,55 +6410,55 @@
         <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6467,16 +6467,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6943355</v>
+        <v>6943352</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,58 +6496,58 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N68">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6556,16 +6556,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6852,10 +6852,10 @@
         <v>45240.625</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6944,7 +6944,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7297,7 +7297,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7389,7 +7389,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7475,7 +7475,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>42</v>
@@ -7742,7 +7742,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>41</v>
@@ -7831,10 +7831,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>36</v>
@@ -8101,7 +8101,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6943370</v>
+        <v>6943371</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
         <v>30</v>
       </c>
-      <c r="G87" t="s">
-        <v>40</v>
-      </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N87">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
         <v>1.925</v>
       </c>
-      <c r="S87">
-        <v>1.875</v>
-      </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6943371</v>
+        <v>6943370</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
         <v>1.875</v>
       </c>
-      <c r="S88">
+      <c r="T88">
+        <v>2.5</v>
+      </c>
+      <c r="U88">
         <v>1.925</v>
       </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>-0.5</v>
+      </c>
+      <c r="AA88">
+        <v>0.4375</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.875</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>5</v>
@@ -8635,7 +8635,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8902,7 +8902,7 @@
         <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9080,7 +9080,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6943386</v>
+        <v>6943455</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9344,73 +9344,73 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M100">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="N100">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>1.571</v>
+        <v>9.5</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AC100">
         <v>-0.5</v>
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6943455</v>
+        <v>6943386</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,73 +9433,73 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>45</v>
+      </c>
+      <c r="K101">
+        <v>4.75</v>
+      </c>
+      <c r="L101">
+        <v>3.75</v>
+      </c>
+      <c r="M101">
+        <v>1.615</v>
+      </c>
+      <c r="N101">
+        <v>5.75</v>
+      </c>
+      <c r="O101">
+        <v>4.2</v>
+      </c>
+      <c r="P101">
+        <v>1.571</v>
+      </c>
+      <c r="Q101">
         <v>1</v>
       </c>
-      <c r="J101" t="s">
-        <v>43</v>
-      </c>
-      <c r="K101">
-        <v>1.25</v>
-      </c>
-      <c r="L101">
-        <v>5.25</v>
-      </c>
-      <c r="M101">
-        <v>10</v>
-      </c>
-      <c r="N101">
-        <v>1.333</v>
-      </c>
-      <c r="O101">
-        <v>5</v>
-      </c>
-      <c r="P101">
-        <v>9.5</v>
-      </c>
-      <c r="Q101">
-        <v>-1.25</v>
-      </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AC101">
         <v>-0.5</v>
@@ -9522,7 +9522,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9789,7 +9789,7 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
         <v>39</v>
@@ -9878,10 +9878,10 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s">
         <v>34</v>
-      </c>
-      <c r="G106" t="s">
-        <v>33</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6943390</v>
+        <v>6943388</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108">
+        <v>1.166</v>
+      </c>
+      <c r="L108">
+        <v>6.5</v>
+      </c>
+      <c r="M108">
+        <v>12</v>
+      </c>
+      <c r="N108">
+        <v>1.111</v>
+      </c>
+      <c r="O108">
+        <v>9.5</v>
+      </c>
+      <c r="P108">
+        <v>19</v>
+      </c>
+      <c r="Q108">
+        <v>-2.75</v>
+      </c>
+      <c r="R108">
+        <v>1.975</v>
+      </c>
+      <c r="S108">
+        <v>1.825</v>
+      </c>
+      <c r="T108">
         <v>4</v>
       </c>
-      <c r="J108" t="s">
-        <v>45</v>
-      </c>
-      <c r="K108">
-        <v>5</v>
-      </c>
-      <c r="L108">
-        <v>3.8</v>
-      </c>
-      <c r="M108">
-        <v>1.571</v>
-      </c>
-      <c r="N108">
-        <v>6.5</v>
-      </c>
-      <c r="O108">
-        <v>3.4</v>
-      </c>
-      <c r="P108">
-        <v>1.666</v>
-      </c>
-      <c r="Q108">
-        <v>0.75</v>
-      </c>
-      <c r="R108">
-        <v>1.95</v>
-      </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
-      <c r="T108">
-        <v>2</v>
-      </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6943388</v>
+        <v>6943387</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,58 +10145,58 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
         <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
       </c>
       <c r="K109">
-        <v>1.166</v>
+        <v>1.25</v>
       </c>
       <c r="L109">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="M109">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N109">
-        <v>1.111</v>
+        <v>1.222</v>
       </c>
       <c r="O109">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q109">
-        <v>-2.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>0.111</v>
+        <v>0.222</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10208,13 +10208,13 @@
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6943387</v>
+        <v>6943390</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
+        <v>4</v>
+      </c>
+      <c r="J110" t="s">
+        <v>45</v>
+      </c>
+      <c r="K110">
+        <v>5</v>
+      </c>
+      <c r="L110">
+        <v>3.8</v>
+      </c>
+      <c r="M110">
+        <v>1.571</v>
+      </c>
+      <c r="N110">
+        <v>6.5</v>
+      </c>
+      <c r="O110">
+        <v>3.4</v>
+      </c>
+      <c r="P110">
+        <v>1.666</v>
+      </c>
+      <c r="Q110">
+        <v>0.75</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>1.85</v>
+      </c>
+      <c r="T110">
         <v>2</v>
       </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-      <c r="J110" t="s">
-        <v>43</v>
-      </c>
-      <c r="K110">
-        <v>1.25</v>
-      </c>
-      <c r="L110">
-        <v>5.2</v>
-      </c>
-      <c r="M110">
-        <v>10</v>
-      </c>
-      <c r="N110">
-        <v>1.222</v>
-      </c>
-      <c r="O110">
-        <v>7</v>
-      </c>
-      <c r="P110">
-        <v>11</v>
-      </c>
-      <c r="Q110">
-        <v>-1.75</v>
-      </c>
-      <c r="R110">
-        <v>1.8</v>
-      </c>
-      <c r="S110">
-        <v>2</v>
-      </c>
-      <c r="T110">
-        <v>3</v>
-      </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6943389</v>
+        <v>6942199</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45283.5</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>1.952</v>
+        <v>5.5</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M111">
-        <v>3.9</v>
+        <v>1.533</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P111">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q111">
+        <v>1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
+        <v>1.825</v>
+      </c>
+      <c r="V111">
+        <v>1.975</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>0.5</v>
+      </c>
+      <c r="Z111">
+        <v>0.4</v>
+      </c>
+      <c r="AA111">
         <v>-0.5</v>
       </c>
-      <c r="R111">
-        <v>2</v>
-      </c>
-      <c r="S111">
-        <v>1.8</v>
-      </c>
-      <c r="T111">
-        <v>2.25</v>
-      </c>
-      <c r="U111">
-        <v>1.975</v>
-      </c>
-      <c r="V111">
-        <v>1.825</v>
-      </c>
-      <c r="W111">
-        <v>1.05</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>1</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6942199</v>
+        <v>6943389</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45283.5</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <v>1.952</v>
+      </c>
+      <c r="L112">
+        <v>3.3</v>
+      </c>
+      <c r="M112">
+        <v>3.9</v>
+      </c>
+      <c r="N112">
+        <v>2.05</v>
+      </c>
+      <c r="O112">
+        <v>3.4</v>
+      </c>
+      <c r="P112">
+        <v>3.75</v>
+      </c>
+      <c r="Q112">
+        <v>-0.5</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
+        <v>1.975</v>
+      </c>
+      <c r="V112">
+        <v>1.825</v>
+      </c>
+      <c r="W112">
+        <v>1.05</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
-      <c r="J112" t="s">
-        <v>45</v>
-      </c>
-      <c r="K112">
-        <v>5.5</v>
-      </c>
-      <c r="L112">
-        <v>3.8</v>
-      </c>
-      <c r="M112">
-        <v>1.533</v>
-      </c>
-      <c r="N112">
-        <v>6.5</v>
-      </c>
-      <c r="O112">
-        <v>4.333</v>
-      </c>
-      <c r="P112">
-        <v>1.5</v>
-      </c>
-      <c r="Q112">
-        <v>1.25</v>
-      </c>
-      <c r="R112">
-        <v>1.8</v>
-      </c>
-      <c r="S112">
-        <v>2</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>0.5</v>
-      </c>
-      <c r="Z112">
-        <v>0.4</v>
-      </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>45293.5</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6943397</v>
+        <v>6943395</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,58 +10679,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>43</v>
       </c>
       <c r="K115">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L115">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N115">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P115">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.5329999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10739,16 +10739,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6943395</v>
+        <v>6943397</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,58 +10768,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>1</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L116">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M116">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N116">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="O116">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q116">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.333</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10828,16 +10828,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6942200</v>
+        <v>6943394</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L118">
         <v>3.3</v>
       </c>
       <c r="M118">
+        <v>2.55</v>
+      </c>
+      <c r="N118">
+        <v>2.875</v>
+      </c>
+      <c r="O118">
         <v>2.9</v>
       </c>
-      <c r="N118">
-        <v>2.2</v>
-      </c>
-      <c r="O118">
-        <v>3.4</v>
-      </c>
       <c r="P118">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6943394</v>
+        <v>6942200</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L119">
         <v>3.3</v>
       </c>
       <c r="M119">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O119">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11216,7 +11216,7 @@
         <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11305,7 +11305,7 @@
         <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11569,10 +11569,10 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
         <v>33</v>
-      </c>
-      <c r="G125" t="s">
-        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11646,7 +11646,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6942201</v>
+        <v>6943399</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11658,13 +11658,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11673,43 +11673,43 @@
         <v>43</v>
       </c>
       <c r="K126">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L126">
         <v>5.5</v>
       </c>
       <c r="M126">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="N126">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="O126">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P126">
-        <v>1.222</v>
+        <v>15</v>
       </c>
       <c r="Q126">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
+        <v>1.825</v>
+      </c>
+      <c r="V126">
         <v>1.975</v>
       </c>
-      <c r="V126">
-        <v>1.825</v>
-      </c>
       <c r="W126">
-        <v>10</v>
+        <v>0.222</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,16 +11718,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11735,7 +11735,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6943399</v>
+        <v>6942201</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11747,13 +11747,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11762,43 +11762,43 @@
         <v>43</v>
       </c>
       <c r="K127">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="L127">
         <v>5.5</v>
       </c>
       <c r="M127">
-        <v>13</v>
+        <v>1.285</v>
       </c>
       <c r="N127">
+        <v>11</v>
+      </c>
+      <c r="O127">
+        <v>6.5</v>
+      </c>
+      <c r="P127">
         <v>1.222</v>
       </c>
-      <c r="O127">
-        <v>6</v>
-      </c>
-      <c r="P127">
-        <v>15</v>
-      </c>
       <c r="Q127">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R127">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
+        <v>1.975</v>
+      </c>
+      <c r="V127">
         <v>1.825</v>
       </c>
-      <c r="V127">
-        <v>1.975</v>
-      </c>
       <c r="W127">
-        <v>0.222</v>
+        <v>10</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,16 +11807,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11824,7 +11824,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6943410</v>
+        <v>6943408</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11836,76 +11836,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="N128">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P128">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11913,7 +11913,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6943408</v>
+        <v>6943410</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11925,76 +11925,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K129">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N129">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="O129">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q129">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W129">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12103,10 +12103,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F131" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" t="s">
         <v>35</v>
-      </c>
-      <c r="G131" t="s">
-        <v>34</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12192,7 +12192,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>38</v>
@@ -12370,10 +12370,10 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12459,10 +12459,10 @@
         <v>45311.5</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12818,7 +12818,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12993,10 +12993,10 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13260,7 +13260,7 @@
         <v>45318.5</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13349,10 +13349,10 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>32</v>
@@ -13530,7 +13530,7 @@
         <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6943426</v>
+        <v>6943423</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,58 +13616,58 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F148" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" t="s">
         <v>33</v>
       </c>
-      <c r="G148" t="s">
-        <v>37</v>
-      </c>
       <c r="H148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>43</v>
       </c>
       <c r="K148">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="L148">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N148">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O148">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q148">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>0.181</v>
+        <v>0.75</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13676,13 +13676,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13708,7 +13708,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13782,7 +13782,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6943423</v>
+        <v>6943426</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13794,58 +13794,58 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>43</v>
       </c>
       <c r="K150">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="L150">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M150">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N150">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P150">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.75</v>
+        <v>0.181</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13854,13 +13854,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -14061,7 +14061,7 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>41</v>
@@ -14150,7 +14150,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14239,10 +14239,10 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6943434</v>
+        <v>6943430</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,55 +14328,55 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>44</v>
       </c>
       <c r="K156">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
         <v>3.4</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N156">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O156">
         <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14388,16 +14388,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14494,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6943430</v>
+        <v>6943434</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14506,55 +14506,55 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="K158">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L158">
         <v>3.4</v>
       </c>
       <c r="M158">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O158">
         <v>3.4</v>
       </c>
       <c r="P158">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14566,16 +14566,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14583,7 +14583,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6943433</v>
+        <v>7647734</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14595,13 +14595,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>3</v>
@@ -14610,41 +14610,41 @@
         <v>45</v>
       </c>
       <c r="K159">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M159">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N159">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R159">
+        <v>2.025</v>
+      </c>
+      <c r="S159">
+        <v>1.775</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
         <v>1.8</v>
       </c>
-      <c r="S159">
+      <c r="V159">
         <v>2</v>
       </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.85</v>
-      </c>
-      <c r="V159">
-        <v>1.95</v>
-      </c>
       <c r="W159">
         <v>-1</v>
       </c>
@@ -14652,19 +14652,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14672,7 +14672,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7647734</v>
+        <v>6943433</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14684,13 +14684,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>3</v>
@@ -14699,40 +14699,40 @@
         <v>45</v>
       </c>
       <c r="K160">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="L160">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M160">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N160">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q160">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14741,19 +14741,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB160">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14761,7 +14761,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6943436</v>
+        <v>6943437</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14773,73 +14773,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>3</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O161">
         <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
+        <v>1.8</v>
+      </c>
+      <c r="V161">
         <v>2</v>
       </c>
-      <c r="V161">
-        <v>1.8</v>
-      </c>
       <c r="W161">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14850,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6943437</v>
+        <v>6943436</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14862,73 +14862,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K162">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
         <v>3.4</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N162">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O162">
         <v>3.4</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
         <v>1.8</v>
       </c>
-      <c r="V162">
-        <v>2</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X162">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15040,7 +15040,7 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>36</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15218,7 +15218,7 @@
         <v>45333.5</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>39</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943445</v>
+        <v>6943443</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,73 +15485,73 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>44</v>
+      </c>
+      <c r="K169">
+        <v>5</v>
+      </c>
+      <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>1.571</v>
+      </c>
+      <c r="N169">
+        <v>4.333</v>
+      </c>
+      <c r="O169">
+        <v>3.75</v>
+      </c>
+      <c r="P169">
+        <v>1.8</v>
+      </c>
+      <c r="Q169">
+        <v>0.75</v>
+      </c>
+      <c r="R169">
+        <v>1.825</v>
+      </c>
+      <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
         <v>3</v>
       </c>
-      <c r="J169" t="s">
-        <v>45</v>
-      </c>
-      <c r="K169">
-        <v>4</v>
-      </c>
-      <c r="L169">
-        <v>3.75</v>
-      </c>
-      <c r="M169">
-        <v>1.75</v>
-      </c>
-      <c r="N169">
-        <v>5.5</v>
-      </c>
-      <c r="O169">
-        <v>4.2</v>
-      </c>
-      <c r="P169">
-        <v>1.571</v>
-      </c>
-      <c r="Q169">
+      <c r="U169">
+        <v>2</v>
+      </c>
+      <c r="V169">
+        <v>1.8</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>2.75</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>0.825</v>
+      </c>
+      <c r="AA169">
+        <v>-1</v>
+      </c>
+      <c r="AB169">
         <v>1</v>
-      </c>
-      <c r="R169">
-        <v>1.875</v>
-      </c>
-      <c r="S169">
-        <v>1.925</v>
-      </c>
-      <c r="T169">
-        <v>2.75</v>
-      </c>
-      <c r="U169">
-        <v>1.825</v>
-      </c>
-      <c r="V169">
-        <v>1.975</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>0.571</v>
-      </c>
-      <c r="Z169">
-        <v>0</v>
-      </c>
-      <c r="AA169">
-        <v>-0</v>
-      </c>
-      <c r="AB169">
-        <v>0.825</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943444</v>
+        <v>6943445</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
+        <v>3</v>
+      </c>
+      <c r="J170" t="s">
+        <v>45</v>
+      </c>
+      <c r="K170">
+        <v>4</v>
+      </c>
+      <c r="L170">
+        <v>3.75</v>
+      </c>
+      <c r="M170">
+        <v>1.75</v>
+      </c>
+      <c r="N170">
+        <v>5.5</v>
+      </c>
+      <c r="O170">
+        <v>4.2</v>
+      </c>
+      <c r="P170">
+        <v>1.571</v>
+      </c>
+      <c r="Q170">
+        <v>1</v>
+      </c>
+      <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
+        <v>1.925</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
+        <v>1.825</v>
+      </c>
+      <c r="V170">
+        <v>1.975</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>0.571</v>
+      </c>
+      <c r="Z170">
         <v>0</v>
       </c>
-      <c r="J170" t="s">
-        <v>43</v>
-      </c>
-      <c r="K170">
-        <v>2.45</v>
-      </c>
-      <c r="L170">
-        <v>3</v>
-      </c>
-      <c r="M170">
-        <v>2.8</v>
-      </c>
-      <c r="N170">
-        <v>2.5</v>
-      </c>
-      <c r="O170">
-        <v>3.1</v>
-      </c>
-      <c r="P170">
-        <v>3</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>1.725</v>
-      </c>
-      <c r="S170">
-        <v>2.075</v>
-      </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.95</v>
-      </c>
-      <c r="V170">
-        <v>1.85</v>
-      </c>
-      <c r="W170">
-        <v>1.5</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943443</v>
+        <v>6943444</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N171">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O171">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P171">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q171">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T171">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X171">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15755,7 +15755,7 @@
         <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15933,7 +15933,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16019,7 +16019,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
         <v>37</v>
@@ -16096,7 +16096,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6943446</v>
+        <v>6943447</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16108,76 +16108,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K176">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N176">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="O176">
+        <v>4.75</v>
+      </c>
+      <c r="P176">
+        <v>5</v>
+      </c>
+      <c r="Q176">
+        <v>-1</v>
+      </c>
+      <c r="R176">
+        <v>1.85</v>
+      </c>
+      <c r="S176">
+        <v>1.95</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>1.9</v>
+      </c>
+      <c r="V176">
+        <v>1.9</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>3.75</v>
       </c>
-      <c r="P176">
-        <v>4.75</v>
-      </c>
-      <c r="Q176">
-        <v>-0.75</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>1.9</v>
-      </c>
-      <c r="T176">
-        <v>2.5</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.8</v>
-      </c>
-      <c r="W176">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6943447</v>
+        <v>6943446</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,76 +16197,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F177" t="s">
+        <v>40</v>
+      </c>
+      <c r="G177" t="s">
         <v>31</v>
       </c>
-      <c r="G177" t="s">
-        <v>41</v>
-      </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L177">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="O177">
+        <v>3.75</v>
+      </c>
+      <c r="P177">
         <v>4.75</v>
       </c>
-      <c r="P177">
-        <v>5</v>
-      </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X177">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6943450</v>
+        <v>6943451</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16378,73 +16378,73 @@
         <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H179">
+        <v>4</v>
+      </c>
+      <c r="I179">
         <v>0</v>
       </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K179">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>10</v>
+        <v>1.363</v>
       </c>
       <c r="O179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P179">
-        <v>1.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q179">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6943451</v>
+        <v>6943450</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K180">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="L180">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M180">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="N180">
-        <v>1.363</v>
+        <v>10</v>
       </c>
       <c r="O180">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P180">
-        <v>8.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q180">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W180">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z180">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16645,7 +16645,7 @@
         <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16998,7 +16998,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17087,10 +17087,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F187" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" t="s">
         <v>33</v>
-      </c>
-      <c r="G187" t="s">
-        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17265,10 +17265,19 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>45</v>
       </c>
       <c r="K189">
         <v>1.55</v>
@@ -17280,46 +17289,52 @@
         <v>5.5</v>
       </c>
       <c r="N189">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O189">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
         <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Othellos Athienou</t>
   </si>
   <si>
-    <t>AEL Limassol</t>
+    <t>Nea Salamis Famagusta</t>
   </si>
   <si>
-    <t>Nea Salamis Famagusta</t>
+    <t>AEL Limassol</t>
   </si>
   <si>
     <t>AEK Larnaca</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC189"/>
+  <dimension ref="A1:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6943308</v>
+        <v>6943307</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,46 +1426,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>3.4</v>
+      </c>
+      <c r="L11">
+        <v>3.25</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>4.75</v>
+      </c>
+      <c r="O11">
         <v>4</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11">
-        <v>1.6</v>
-      </c>
-      <c r="L11">
-        <v>3.6</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>1.4</v>
-      </c>
-      <c r="O11">
-        <v>4.5</v>
-      </c>
       <c r="P11">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -1474,25 +1474,25 @@
         <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6943307</v>
+        <v>6943308</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,46 +1515,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L12">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>1.4</v>
+      </c>
+      <c r="O12">
+        <v>4.5</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>-1.25</v>
+      </c>
+      <c r="R12">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>4.75</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>1.7</v>
-      </c>
-      <c r="Q12">
-        <v>0.75</v>
-      </c>
-      <c r="R12">
-        <v>1.95</v>
-      </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -1563,25 +1563,25 @@
         <v>1.8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6943309</v>
+        <v>6943305</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1601,73 +1601,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>1.45</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>1.4</v>
+      </c>
+      <c r="O13">
         <v>5</v>
       </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13">
-        <v>1.285</v>
-      </c>
-      <c r="L13">
-        <v>4.6</v>
-      </c>
-      <c r="M13">
-        <v>9</v>
-      </c>
-      <c r="N13">
-        <v>1.333</v>
-      </c>
-      <c r="O13">
-        <v>4.5</v>
-      </c>
       <c r="P13">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
+        <v>1.8</v>
+      </c>
+      <c r="V13">
         <v>2</v>
       </c>
-      <c r="V13">
-        <v>1.8</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X13">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6943305</v>
+        <v>6943309</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1690,73 +1690,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>1.285</v>
+      </c>
+      <c r="L14">
+        <v>4.6</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>1.333</v>
+      </c>
+      <c r="O14">
+        <v>4.5</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>-1.5</v>
+      </c>
+      <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
+        <v>1.85</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="V14">
+        <v>1.8</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>3.5</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB14">
         <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14">
-        <v>1.45</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="N14">
-        <v>1.4</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>7.5</v>
-      </c>
-      <c r="Q14">
-        <v>-1.25</v>
-      </c>
-      <c r="R14">
-        <v>1.825</v>
-      </c>
-      <c r="S14">
-        <v>1.975</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.4875</v>
-      </c>
-      <c r="AB14">
-        <v>0.8</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1782,7 +1782,7 @@
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2049,7 +2049,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2580,7 +2580,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3651,7 +3651,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6943332</v>
+        <v>6943329</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,10 +3915,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3930,25 +3930,25 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N39">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>1.95</v>
@@ -3957,13 +3957,13 @@
         <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3972,7 +3972,7 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="Z39">
         <v>-1</v>
@@ -3981,7 +3981,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6943329</v>
+        <v>6943332</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,10 +4004,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4019,25 +4019,25 @@
         <v>45</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O40">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
         <v>1.95</v>
@@ -4046,13 +4046,13 @@
         <v>1.85</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4061,7 +4061,7 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z40">
         <v>-1</v>
@@ -4070,7 +4070,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
         <v>36</v>
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943335</v>
+        <v>6943336</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,40 +4627,40 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N47">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q47">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
         <v>1.925</v>
@@ -4672,28 +4672,28 @@
         <v>2.75</v>
       </c>
       <c r="U47">
+        <v>1.975</v>
+      </c>
+      <c r="V47">
         <v>1.825</v>
       </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
       <c r="W47">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6943336</v>
+        <v>6943337</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,76 +4716,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48">
+        <v>3.1</v>
+      </c>
+      <c r="L48">
         <v>3.4</v>
-      </c>
-      <c r="L48">
-        <v>3.2</v>
       </c>
       <c r="M48">
         <v>2.1</v>
       </c>
       <c r="N48">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
+        <v>1.775</v>
+      </c>
+      <c r="S48">
+        <v>2.025</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.825</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA48">
+        <v>-1</v>
+      </c>
+      <c r="AB48">
+        <v>-1</v>
+      </c>
+      <c r="AC48">
         <v>0.875</v>
-      </c>
-      <c r="AB48">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC48">
-        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6943337</v>
+        <v>6943335</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,13 +4805,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4820,43 +4820,43 @@
         <v>43</v>
       </c>
       <c r="K49">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M49">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N49">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>1.6</v>
+        <v>0.333</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4865,16 +4865,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4986,7 +4986,7 @@
         <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
         <v>37</v>
@@ -5517,7 +5517,7 @@
         <v>45224.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6943351</v>
+        <v>6943350</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="I59">
+      <c r="J59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59">
+        <v>2.25</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>3.2</v>
+      </c>
+      <c r="N59">
+        <v>2.5</v>
+      </c>
+      <c r="O59">
+        <v>3.3</v>
+      </c>
+      <c r="P59">
+        <v>2.875</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>1.775</v>
+      </c>
+      <c r="S59">
+        <v>2.025</v>
+      </c>
+      <c r="T59">
+        <v>2.5</v>
+      </c>
+      <c r="U59">
         <v>2</v>
       </c>
-      <c r="J59" t="s">
-        <v>45</v>
-      </c>
-      <c r="K59">
-        <v>8</v>
-      </c>
-      <c r="L59">
-        <v>4.6</v>
-      </c>
-      <c r="M59">
-        <v>1.333</v>
-      </c>
-      <c r="N59">
-        <v>8</v>
-      </c>
-      <c r="O59">
-        <v>5</v>
-      </c>
-      <c r="P59">
-        <v>1.363</v>
-      </c>
-      <c r="Q59">
-        <v>1.25</v>
-      </c>
-      <c r="R59">
-        <v>2</v>
-      </c>
-      <c r="S59">
+      <c r="V59">
         <v>1.8</v>
       </c>
-      <c r="T59">
-        <v>2.75</v>
-      </c>
-      <c r="U59">
-        <v>1.95</v>
-      </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5772,7 +5772,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6943350</v>
+        <v>6943351</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5784,76 +5784,76 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>2</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="M60">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="N60">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P60">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z60">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5950,7 +5950,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6942192</v>
+        <v>6943347</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5962,76 +5962,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M62">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N62">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P62">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y62">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6943347</v>
+        <v>6942192</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N63">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O63">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q63">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
+        <v>1.95</v>
+      </c>
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
+        <v>1.925</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
         <v>1.8</v>
       </c>
-      <c r="T63">
-        <v>3.5</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>5.5</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6943355</v>
+        <v>6943352</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,58 +6407,58 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N67">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6467,16 +6467,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6943352</v>
+        <v>6943355</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,58 +6496,58 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6556,16 +6556,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6943357</v>
+        <v>6942193</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,76 +6585,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA69">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6942193</v>
+        <v>6943357</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,76 +6674,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70">
+        <v>2.875</v>
+      </c>
+      <c r="L70">
+        <v>3.3</v>
+      </c>
+      <c r="M70">
+        <v>2.4</v>
+      </c>
+      <c r="N70">
+        <v>2.4</v>
+      </c>
+      <c r="O70">
+        <v>3.4</v>
+      </c>
+      <c r="P70">
+        <v>2.875</v>
+      </c>
+      <c r="Q70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>43</v>
-      </c>
-      <c r="K70">
-        <v>2.05</v>
-      </c>
-      <c r="L70">
-        <v>3.4</v>
-      </c>
-      <c r="M70">
-        <v>3.4</v>
-      </c>
-      <c r="N70">
-        <v>1.75</v>
-      </c>
-      <c r="O70">
-        <v>3.8</v>
-      </c>
-      <c r="P70">
-        <v>4.5</v>
-      </c>
-      <c r="Q70">
-        <v>-0.75</v>
-      </c>
       <c r="R70">
+        <v>1.725</v>
+      </c>
+      <c r="S70">
+        <v>2.075</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
         <v>1.875</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.925</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>2</v>
-      </c>
-      <c r="V70">
-        <v>1.8</v>
-      </c>
       <c r="W70">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
@@ -6941,7 +6941,7 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
         <v>35</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6943363</v>
+        <v>6942194</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,46 +7030,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N74">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>9.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>2.5</v>
@@ -7081,25 +7081,25 @@
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6942194</v>
+        <v>6943363</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,46 +7119,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>1.533</v>
+        <v>9.5</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
         <v>2.5</v>
@@ -7170,25 +7170,25 @@
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7285,7 +7285,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6943358</v>
+        <v>6943362</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7297,76 +7297,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M77">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="N77">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6943362</v>
+        <v>6943358</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7386,76 +7386,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="L78">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="N78">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="O78">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="Q78">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6943364</v>
+        <v>6942195</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7490,43 +7490,43 @@
         <v>43</v>
       </c>
       <c r="K79">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M79">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N79">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P79">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W79">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6942195</v>
+        <v>6943364</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7579,43 +7579,43 @@
         <v>43</v>
       </c>
       <c r="K80">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L80">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N80">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q80">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>0.181</v>
+        <v>1.25</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7656,7 +7656,7 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6943369</v>
+        <v>6943365</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M84">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N84">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
         <v>1.95</v>
       </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
       <c r="W84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6943365</v>
+        <v>6943369</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,73 +8009,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>43</v>
+      </c>
+      <c r="K85">
+        <v>1.615</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.75</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <v>4.2</v>
+      </c>
+      <c r="P85">
+        <v>7</v>
+      </c>
+      <c r="Q85">
+        <v>-1</v>
+      </c>
+      <c r="R85">
+        <v>1.8</v>
+      </c>
+      <c r="S85">
         <v>2</v>
-      </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85" t="s">
-        <v>44</v>
-      </c>
-      <c r="K85">
-        <v>2.625</v>
-      </c>
-      <c r="L85">
-        <v>3.25</v>
-      </c>
-      <c r="M85">
-        <v>2.45</v>
-      </c>
-      <c r="N85">
-        <v>3.6</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>2.1</v>
-      </c>
-      <c r="Q85">
-        <v>0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.975</v>
-      </c>
-      <c r="S85">
-        <v>1.825</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6943371</v>
+        <v>6943370</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
+        <v>1.925</v>
+      </c>
+      <c r="S87">
         <v>1.875</v>
       </c>
-      <c r="S87">
+      <c r="T87">
+        <v>2.5</v>
+      </c>
+      <c r="U87">
         <v>1.925</v>
       </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.975</v>
-      </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>-0.5</v>
+      </c>
+      <c r="AA87">
+        <v>0.4375</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.875</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6943370</v>
+        <v>6943371</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N88">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
         <v>1.925</v>
       </c>
-      <c r="S88">
-        <v>1.875</v>
-      </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8632,7 +8632,7 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
         <v>34</v>
@@ -8899,7 +8899,7 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
         <v>35</v>
@@ -9255,7 +9255,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9614,7 +9614,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9792,7 +9792,7 @@
         <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6943388</v>
+        <v>6943390</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="L108">
+        <v>3.8</v>
+      </c>
+      <c r="M108">
+        <v>1.571</v>
+      </c>
+      <c r="N108">
         <v>6.5</v>
       </c>
-      <c r="M108">
-        <v>12</v>
-      </c>
-      <c r="N108">
-        <v>1.111</v>
-      </c>
       <c r="O108">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q108">
-        <v>-2.75</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>1.85</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.825</v>
+      </c>
+      <c r="V108">
         <v>1.975</v>
       </c>
-      <c r="S108">
-        <v>1.825</v>
-      </c>
-      <c r="T108">
-        <v>4</v>
-      </c>
-      <c r="U108">
-        <v>1.925</v>
-      </c>
-      <c r="V108">
-        <v>1.875</v>
-      </c>
       <c r="W108">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
+        <v>0.425</v>
+      </c>
+      <c r="AB108">
         <v>0.825</v>
       </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6943387</v>
+        <v>6943388</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,58 +10145,58 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
       </c>
       <c r="K109">
-        <v>1.25</v>
+        <v>1.166</v>
       </c>
       <c r="L109">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="M109">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N109">
-        <v>1.222</v>
+        <v>1.111</v>
       </c>
       <c r="O109">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P109">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q109">
-        <v>-1.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>0.222</v>
+        <v>0.111</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10208,13 +10208,13 @@
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6943390</v>
+        <v>6943387</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110">
+        <v>1.25</v>
+      </c>
+      <c r="L110">
+        <v>5.2</v>
+      </c>
+      <c r="M110">
+        <v>10</v>
+      </c>
+      <c r="N110">
+        <v>1.222</v>
+      </c>
+      <c r="O110">
+        <v>7</v>
+      </c>
+      <c r="P110">
+        <v>11</v>
+      </c>
+      <c r="Q110">
+        <v>-1.75</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>4</v>
-      </c>
-      <c r="J110" t="s">
-        <v>45</v>
-      </c>
-      <c r="K110">
-        <v>5</v>
-      </c>
-      <c r="L110">
-        <v>3.8</v>
-      </c>
-      <c r="M110">
-        <v>1.571</v>
-      </c>
-      <c r="N110">
-        <v>6.5</v>
-      </c>
-      <c r="O110">
-        <v>3.4</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.95</v>
-      </c>
-      <c r="S110">
-        <v>1.85</v>
-      </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
       <c r="U110">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6942199</v>
+        <v>6943389</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45283.5</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>1.952</v>
+      </c>
+      <c r="L111">
+        <v>3.3</v>
+      </c>
+      <c r="M111">
+        <v>3.9</v>
+      </c>
+      <c r="N111">
+        <v>2.05</v>
+      </c>
+      <c r="O111">
+        <v>3.4</v>
+      </c>
+      <c r="P111">
+        <v>3.75</v>
+      </c>
+      <c r="Q111">
+        <v>-0.5</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>1.8</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
+        <v>1.975</v>
+      </c>
+      <c r="V111">
+        <v>1.825</v>
+      </c>
+      <c r="W111">
+        <v>1.05</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>2</v>
-      </c>
-      <c r="J111" t="s">
-        <v>45</v>
-      </c>
-      <c r="K111">
-        <v>5.5</v>
-      </c>
-      <c r="L111">
-        <v>3.8</v>
-      </c>
-      <c r="M111">
-        <v>1.533</v>
-      </c>
-      <c r="N111">
-        <v>6.5</v>
-      </c>
-      <c r="O111">
-        <v>4.333</v>
-      </c>
-      <c r="P111">
-        <v>1.5</v>
-      </c>
-      <c r="Q111">
-        <v>1.25</v>
-      </c>
-      <c r="R111">
-        <v>1.8</v>
-      </c>
-      <c r="S111">
-        <v>2</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.825</v>
-      </c>
-      <c r="V111">
-        <v>1.975</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>0.5</v>
-      </c>
-      <c r="Z111">
-        <v>0.4</v>
-      </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6943389</v>
+        <v>6942199</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45283.5</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>1.952</v>
+        <v>5.5</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>3.9</v>
+        <v>1.533</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P112">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q112">
+        <v>1.25</v>
+      </c>
+      <c r="R112">
+        <v>1.8</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>1.825</v>
+      </c>
+      <c r="V112">
+        <v>1.975</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>0.5</v>
+      </c>
+      <c r="Z112">
+        <v>0.4</v>
+      </c>
+      <c r="AA112">
         <v>-0.5</v>
       </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>1.8</v>
-      </c>
-      <c r="T112">
-        <v>2.25</v>
-      </c>
-      <c r="U112">
-        <v>1.975</v>
-      </c>
-      <c r="V112">
-        <v>1.825</v>
-      </c>
-      <c r="W112">
-        <v>1.05</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>1</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
         <v>31</v>
@@ -10771,7 +10771,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6943398</v>
+        <v>6942200</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,67 +10857,67 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="L117">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M117">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="N117">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
+        <v>1.85</v>
+      </c>
+      <c r="V117">
         <v>1.95</v>
       </c>
-      <c r="V117">
-        <v>1.85</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X117">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10926,7 +10926,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6943394</v>
+        <v>6943398</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M118">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="O118">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="P118">
+        <v>1.55</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
         <v>2.75</v>
       </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>2</v>
-      </c>
-      <c r="S118">
-        <v>1.8</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6942200</v>
+        <v>6943394</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L119">
         <v>3.3</v>
       </c>
       <c r="M119">
+        <v>2.55</v>
+      </c>
+      <c r="N119">
+        <v>2.875</v>
+      </c>
+      <c r="O119">
         <v>2.9</v>
       </c>
-      <c r="N119">
-        <v>2.2</v>
-      </c>
-      <c r="O119">
-        <v>3.4</v>
-      </c>
       <c r="P119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W119">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
         <v>30</v>
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6943403</v>
+        <v>6943404</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,76 +11391,76 @@
         <v>45298.5</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L123">
         <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N123">
+        <v>1.8</v>
+      </c>
+      <c r="O123">
+        <v>3.6</v>
+      </c>
+      <c r="P123">
+        <v>4.75</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>3.6</v>
-      </c>
-      <c r="Q123">
+      <c r="W123">
+        <v>0.8</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.5</v>
+      </c>
+      <c r="AA123">
         <v>-0.5</v>
       </c>
-      <c r="R123">
-        <v>1.925</v>
-      </c>
-      <c r="S123">
-        <v>1.875</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>1.825</v>
-      </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>2.75</v>
-      </c>
-      <c r="Y123">
-        <v>-1</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
-      <c r="AA123">
-        <v>0.875</v>
-      </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6943404</v>
+        <v>6943403</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,76 +11480,76 @@
         <v>45298.5</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
         <v>3.6</v>
       </c>
-      <c r="P124">
-        <v>4.75</v>
-      </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11646,7 +11646,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6943399</v>
+        <v>6942201</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11658,13 +11658,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11673,43 +11673,43 @@
         <v>43</v>
       </c>
       <c r="K126">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="L126">
         <v>5.5</v>
       </c>
       <c r="M126">
-        <v>13</v>
+        <v>1.285</v>
       </c>
       <c r="N126">
+        <v>11</v>
+      </c>
+      <c r="O126">
+        <v>6.5</v>
+      </c>
+      <c r="P126">
         <v>1.222</v>
       </c>
-      <c r="O126">
-        <v>6</v>
-      </c>
-      <c r="P126">
-        <v>15</v>
-      </c>
       <c r="Q126">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
+        <v>1.975</v>
+      </c>
+      <c r="V126">
         <v>1.825</v>
       </c>
-      <c r="V126">
-        <v>1.975</v>
-      </c>
       <c r="W126">
-        <v>0.222</v>
+        <v>10</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,16 +11718,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11735,7 +11735,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6942201</v>
+        <v>6943399</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11747,13 +11747,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11762,43 +11762,43 @@
         <v>43</v>
       </c>
       <c r="K127">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L127">
         <v>5.5</v>
       </c>
       <c r="M127">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="N127">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="O127">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P127">
-        <v>1.222</v>
+        <v>15</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
+        <v>1.825</v>
+      </c>
+      <c r="V127">
         <v>1.975</v>
       </c>
-      <c r="V127">
-        <v>1.825</v>
-      </c>
       <c r="W127">
-        <v>10</v>
+        <v>0.222</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,16 +11807,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -12195,7 +12195,7 @@
         <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12548,7 +12548,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -12729,7 +12729,7 @@
         <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -13082,7 +13082,7 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6943423</v>
+        <v>6942205</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L148">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N148">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.85</v>
+      </c>
+      <c r="V148">
+        <v>1.95</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
         <v>2.5</v>
       </c>
-      <c r="U148">
-        <v>1.925</v>
-      </c>
-      <c r="V148">
-        <v>1.875</v>
-      </c>
-      <c r="W148">
-        <v>0.75</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB148">
         <v>-0.5</v>
       </c>
-      <c r="AB148">
-        <v>0.925</v>
-      </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6942205</v>
+        <v>6943423</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,76 +13705,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L149">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N149">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q149">
+        <v>-0.75</v>
+      </c>
+      <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
+        <v>1.875</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>1.925</v>
+      </c>
+      <c r="V149">
+        <v>1.875</v>
+      </c>
+      <c r="W149">
+        <v>0.75</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
+        <v>0.4625</v>
+      </c>
+      <c r="AA149">
         <v>-0.5</v>
       </c>
-      <c r="R149">
-        <v>1.9</v>
-      </c>
-      <c r="S149">
-        <v>1.9</v>
-      </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
-        <v>1.85</v>
-      </c>
-      <c r="V149">
-        <v>1.95</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>2.5</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
-      <c r="Z149">
-        <v>-1</v>
-      </c>
-      <c r="AA149">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13972,10 +13972,10 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F152" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" t="s">
         <v>38</v>
-      </c>
-      <c r="G152" t="s">
-        <v>39</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6943430</v>
+        <v>6943434</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,55 +14328,55 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>44</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L156">
         <v>3.4</v>
       </c>
       <c r="M156">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N156">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O156">
         <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14388,16 +14388,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14494,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6943434</v>
+        <v>6943430</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14506,55 +14506,55 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L158">
         <v>3.4</v>
       </c>
       <c r="M158">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N158">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
         <v>3.4</v>
       </c>
       <c r="P158">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14566,16 +14566,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14583,7 +14583,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7647734</v>
+        <v>6943433</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14595,13 +14595,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F159" t="s">
+        <v>36</v>
+      </c>
+      <c r="G159" t="s">
         <v>39</v>
       </c>
-      <c r="G159" t="s">
-        <v>34</v>
-      </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>3</v>
@@ -14610,40 +14610,40 @@
         <v>45</v>
       </c>
       <c r="K159">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="L159">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q159">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14652,19 +14652,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB159">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14672,7 +14672,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6943433</v>
+        <v>7647734</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14684,13 +14684,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>3</v>
@@ -14699,41 +14699,41 @@
         <v>45</v>
       </c>
       <c r="K160">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M160">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N160">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
+        <v>1.775</v>
+      </c>
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
         <v>1.8</v>
       </c>
-      <c r="S160">
+      <c r="V160">
         <v>2</v>
       </c>
-      <c r="T160">
-        <v>2.5</v>
-      </c>
-      <c r="U160">
-        <v>1.85</v>
-      </c>
-      <c r="V160">
-        <v>1.95</v>
-      </c>
       <c r="W160">
         <v>-1</v>
       </c>
@@ -14741,19 +14741,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB160">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15221,7 +15221,7 @@
         <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
         <v>42</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943443</v>
+        <v>6943444</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,76 +15485,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K169">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N169">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O169">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X169">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
         <v>40</v>
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943444</v>
+        <v>6943443</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K171">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="L171">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>1.571</v>
+      </c>
+      <c r="N171">
+        <v>4.333</v>
+      </c>
+      <c r="O171">
+        <v>3.75</v>
+      </c>
+      <c r="P171">
+        <v>1.8</v>
+      </c>
+      <c r="Q171">
+        <v>0.75</v>
+      </c>
+      <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
         <v>3</v>
       </c>
-      <c r="M171">
-        <v>2.8</v>
-      </c>
-      <c r="N171">
-        <v>2.5</v>
-      </c>
-      <c r="O171">
-        <v>3.1</v>
-      </c>
-      <c r="P171">
-        <v>3</v>
-      </c>
-      <c r="Q171">
-        <v>0</v>
-      </c>
-      <c r="R171">
-        <v>1.725</v>
-      </c>
-      <c r="S171">
-        <v>2.075</v>
-      </c>
-      <c r="T171">
-        <v>2.25</v>
-      </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>45337.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
         <v>32</v>
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6943451</v>
+        <v>6943450</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="N179">
-        <v>1.363</v>
+        <v>10</v>
       </c>
       <c r="O179">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P179">
-        <v>8.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z179">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6943450</v>
+        <v>6943451</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H180">
+        <v>4</v>
+      </c>
+      <c r="I180">
         <v>0</v>
       </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="L180">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M180">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="N180">
-        <v>10</v>
+        <v>1.363</v>
       </c>
       <c r="O180">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P180">
-        <v>1.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q180">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16556,7 +16556,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16909,7 +16909,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
         <v>37</v>
@@ -17075,7 +17075,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7864306</v>
+        <v>7864515</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17087,55 +17087,55 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
         <v>1</v>
-      </c>
-      <c r="I187">
-        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>45</v>
       </c>
       <c r="K187">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N187">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O187">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17144,19 +17144,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB187">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17164,7 +17164,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7864515</v>
+        <v>7864306</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17176,55 +17176,55 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>45</v>
       </c>
       <c r="K188">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N188">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17233,19 +17233,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17335,6 +17335,524 @@
       </c>
       <c r="AC189">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7879052</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45353.54166666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>35</v>
+      </c>
+      <c r="G190" t="s">
+        <v>36</v>
+      </c>
+      <c r="K190">
+        <v>3</v>
+      </c>
+      <c r="L190">
+        <v>3.4</v>
+      </c>
+      <c r="M190">
+        <v>2.15</v>
+      </c>
+      <c r="N190">
+        <v>2.7</v>
+      </c>
+      <c r="O190">
+        <v>3.3</v>
+      </c>
+      <c r="P190">
+        <v>2.375</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>2.05</v>
+      </c>
+      <c r="S190">
+        <v>1.75</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.85</v>
+      </c>
+      <c r="V190">
+        <v>1.95</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>7879053</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45353.58333333334</v>
+      </c>
+      <c r="F191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G191" t="s">
+        <v>39</v>
+      </c>
+      <c r="K191">
+        <v>3.2</v>
+      </c>
+      <c r="L191">
+        <v>3.3</v>
+      </c>
+      <c r="M191">
+        <v>2.1</v>
+      </c>
+      <c r="N191">
+        <v>3.2</v>
+      </c>
+      <c r="O191">
+        <v>3.3</v>
+      </c>
+      <c r="P191">
+        <v>2.1</v>
+      </c>
+      <c r="Q191">
+        <v>0.25</v>
+      </c>
+      <c r="R191">
+        <v>1.95</v>
+      </c>
+      <c r="S191">
+        <v>1.85</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>1.875</v>
+      </c>
+      <c r="V191">
+        <v>1.925</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7879043</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45354.5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>42</v>
+      </c>
+      <c r="G192" t="s">
+        <v>29</v>
+      </c>
+      <c r="K192">
+        <v>1.95</v>
+      </c>
+      <c r="L192">
+        <v>3.3</v>
+      </c>
+      <c r="M192">
+        <v>3.6</v>
+      </c>
+      <c r="N192">
+        <v>2.05</v>
+      </c>
+      <c r="O192">
+        <v>3.3</v>
+      </c>
+      <c r="P192">
+        <v>3.4</v>
+      </c>
+      <c r="Q192">
+        <v>-0.25</v>
+      </c>
+      <c r="R192">
+        <v>1.8</v>
+      </c>
+      <c r="S192">
+        <v>2</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>1.8</v>
+      </c>
+      <c r="V192">
+        <v>2</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7879054</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45354.58333333334</v>
+      </c>
+      <c r="F193" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193" t="s">
+        <v>41</v>
+      </c>
+      <c r="K193">
+        <v>2.9</v>
+      </c>
+      <c r="L193">
+        <v>3.5</v>
+      </c>
+      <c r="M193">
+        <v>2.15</v>
+      </c>
+      <c r="N193">
+        <v>2.9</v>
+      </c>
+      <c r="O193">
+        <v>3.5</v>
+      </c>
+      <c r="P193">
+        <v>2.15</v>
+      </c>
+      <c r="Q193">
+        <v>0.25</v>
+      </c>
+      <c r="R193">
+        <v>1.875</v>
+      </c>
+      <c r="S193">
+        <v>1.925</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
+        <v>1.8</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>7879044</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45355.54166666666</v>
+      </c>
+      <c r="F194" t="s">
+        <v>40</v>
+      </c>
+      <c r="G194" t="s">
+        <v>34</v>
+      </c>
+      <c r="K194">
+        <v>2.2</v>
+      </c>
+      <c r="L194">
+        <v>3.3</v>
+      </c>
+      <c r="M194">
+        <v>2.9</v>
+      </c>
+      <c r="N194">
+        <v>2.5</v>
+      </c>
+      <c r="O194">
+        <v>3.3</v>
+      </c>
+      <c r="P194">
+        <v>2.6</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>1.85</v>
+      </c>
+      <c r="S194">
+        <v>1.95</v>
+      </c>
+      <c r="T194">
+        <v>2.5</v>
+      </c>
+      <c r="U194">
+        <v>1.875</v>
+      </c>
+      <c r="V194">
+        <v>1.925</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>7879055</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45355.58333333334</v>
+      </c>
+      <c r="F195" t="s">
+        <v>30</v>
+      </c>
+      <c r="G195" t="s">
+        <v>38</v>
+      </c>
+      <c r="K195">
+        <v>1.5</v>
+      </c>
+      <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>6</v>
+      </c>
+      <c r="N195">
+        <v>1.5</v>
+      </c>
+      <c r="O195">
+        <v>4</v>
+      </c>
+      <c r="P195">
+        <v>6</v>
+      </c>
+      <c r="Q195">
+        <v>-1</v>
+      </c>
+      <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
+        <v>1.95</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>1.975</v>
+      </c>
+      <c r="V195">
+        <v>1.825</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7879045</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45355.64583333334</v>
+      </c>
+      <c r="F196" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196" t="s">
+        <v>31</v>
+      </c>
+      <c r="K196">
+        <v>2.15</v>
+      </c>
+      <c r="L196">
+        <v>3.3</v>
+      </c>
+      <c r="M196">
+        <v>3.1</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196">
+        <v>3.4</v>
+      </c>
+      <c r="P196">
+        <v>3.4</v>
+      </c>
+      <c r="Q196">
+        <v>-0.5</v>
+      </c>
+      <c r="R196">
+        <v>2.025</v>
+      </c>
+      <c r="S196">
+        <v>1.775</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.95</v>
+      </c>
+      <c r="V196">
+        <v>1.85</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -106,10 +106,10 @@
     <t>Pafos FC</t>
   </si>
   <si>
-    <t>Apollon Limassol</t>
+    <t>Anorthosis Famagusta</t>
   </si>
   <si>
-    <t>Anorthosis Famagusta</t>
+    <t>Apollon Limassol</t>
   </si>
   <si>
     <t>AE Zakakiou</t>
@@ -118,22 +118,22 @@
     <t>Omonia Nicosia</t>
   </si>
   <si>
+    <t>Doxa Katokopias</t>
+  </si>
+  <si>
     <t>Aris Limassol</t>
   </si>
   <si>
-    <t>Doxa Katokopias</t>
+    <t>Othellos Athienou</t>
   </si>
   <si>
     <t>APK Karmotissa</t>
   </si>
   <si>
-    <t>Othellos Athienou</t>
+    <t>AEL Limassol</t>
   </si>
   <si>
     <t>Nea Salamis Famagusta</t>
-  </si>
-  <si>
-    <t>AEL Limassol</t>
   </si>
   <si>
     <t>AEK Larnaca</t>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6997344</v>
+        <v>6997345</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>5.5</v>
+      </c>
+      <c r="N3">
+        <v>1.75</v>
+      </c>
+      <c r="O3">
+        <v>3.8</v>
+      </c>
+      <c r="P3">
         <v>4.75</v>
       </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>1.363</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6997345</v>
+        <v>6997344</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L4">
+        <v>4.75</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>1.363</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>-1.5</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
+        <v>1.825</v>
+      </c>
+      <c r="V4">
+        <v>1.975</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>5.5</v>
-      </c>
-      <c r="N4">
-        <v>1.75</v>
-      </c>
-      <c r="O4">
-        <v>3.8</v>
-      </c>
-      <c r="P4">
-        <v>4.75</v>
-      </c>
-      <c r="Q4">
-        <v>-0.75</v>
-      </c>
-      <c r="R4">
-        <v>1.925</v>
-      </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>0.75</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6997341</v>
+        <v>6997342</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,73 +1070,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6997342</v>
+        <v>6997341</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,73 +1159,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7105152</v>
+        <v>6943306</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6943306</v>
+        <v>7105152</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="N10">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6943307</v>
+        <v>6943308</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,46 +1426,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>1.4</v>
+      </c>
+      <c r="O11">
+        <v>4.5</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>-1.25</v>
+      </c>
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="N11">
-        <v>4.75</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>1.7</v>
-      </c>
-      <c r="Q11">
-        <v>0.75</v>
-      </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -1474,25 +1474,25 @@
         <v>1.8</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6943308</v>
+        <v>6943307</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,46 +1515,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>3.4</v>
+      </c>
+      <c r="L12">
+        <v>3.25</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>4.75</v>
+      </c>
+      <c r="O12">
         <v>4</v>
       </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12">
-        <v>1.6</v>
-      </c>
-      <c r="L12">
-        <v>3.6</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>1.4</v>
-      </c>
-      <c r="O12">
-        <v>4.5</v>
-      </c>
       <c r="P12">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -1563,25 +1563,25 @@
         <v>1.8</v>
       </c>
       <c r="W12">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1601,10 +1601,10 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1779,10 +1779,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1868,7 +1868,7 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>40</v>
@@ -1960,7 +1960,7 @@
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6943313</v>
+        <v>6943311</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="N19">
-        <v>1.45</v>
+        <v>15</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P19">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>2.425</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.525</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.425</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6943311</v>
+        <v>6943313</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,76 +2224,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
+        <v>6.5</v>
+      </c>
+      <c r="N20">
         <v>1.45</v>
       </c>
-      <c r="N20">
-        <v>15</v>
-      </c>
       <c r="O20">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P20">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="Q20">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2.425</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.525</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.5249999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2402,7 +2402,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2580,7 +2580,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2669,10 +2669,10 @@
         <v>45186.5</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2850,7 +2850,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3117,7 +3117,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3203,7 +3203,7 @@
         <v>45192.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6943327</v>
+        <v>6943324</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3292,7 +3292,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -3301,40 +3301,40 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N32">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="O32">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
         <v>1.825</v>
@@ -3343,25 +3343,25 @@
         <v>1.975</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6943324</v>
+        <v>6943327</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,7 +3381,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3390,40 +3390,40 @@
         <v>2</v>
       </c>
       <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>3.3</v>
+      </c>
+      <c r="M33">
+        <v>2.2</v>
+      </c>
+      <c r="N33">
+        <v>2.75</v>
+      </c>
+      <c r="O33">
+        <v>3.25</v>
+      </c>
+      <c r="P33">
+        <v>2.625</v>
+      </c>
+      <c r="Q33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33">
-        <v>1.615</v>
-      </c>
-      <c r="L33">
-        <v>3.6</v>
-      </c>
-      <c r="M33">
-        <v>4.5</v>
-      </c>
-      <c r="N33">
-        <v>1.833</v>
-      </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
-      <c r="P33">
-        <v>4.5</v>
-      </c>
-      <c r="Q33">
-        <v>-0.5</v>
-      </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
         <v>1.825</v>
@@ -3432,25 +3432,25 @@
         <v>1.975</v>
       </c>
       <c r="W33">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC33">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3473,7 +3473,7 @@
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3651,7 +3651,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3737,10 +3737,10 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3826,10 +3826,10 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
         <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -4004,10 +4004,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4271,10 +4271,10 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6942190</v>
+        <v>6943334</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,40 +4360,40 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
         <v>44</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L44">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N44">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P44">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4402,19 +4402,19 @@
         <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4426,10 +4426,10 @@
         <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6943334</v>
+        <v>6942190</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,40 +4449,40 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>44</v>
       </c>
       <c r="K45">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N45">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O45">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q45">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4491,19 +4491,19 @@
         <v>1.8</v>
       </c>
       <c r="T45">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4515,10 +4515,10 @@
         <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>42</v>
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943336</v>
+        <v>6943335</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,34 +4633,34 @@
         <v>34</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N47">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P47">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R47">
         <v>1.925</v>
@@ -4672,28 +4672,28 @@
         <v>2.75</v>
       </c>
       <c r="U47">
+        <v>1.825</v>
+      </c>
+      <c r="V47">
         <v>1.975</v>
       </c>
-      <c r="V47">
-        <v>1.825</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6943337</v>
+        <v>6943336</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,76 +4716,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
         <v>2.1</v>
       </c>
       <c r="N48">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z48">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6943335</v>
+        <v>6943337</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,13 +4805,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4820,43 +4820,43 @@
         <v>43</v>
       </c>
       <c r="K49">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N49">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O49">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P49">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q49">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R49">
+        <v>1.775</v>
+      </c>
+      <c r="S49">
+        <v>2.025</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
         <v>1.925</v>
       </c>
-      <c r="S49">
+      <c r="V49">
         <v>1.875</v>
       </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.825</v>
-      </c>
-      <c r="V49">
-        <v>1.975</v>
-      </c>
       <c r="W49">
-        <v>0.333</v>
+        <v>1.6</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4865,16 +4865,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4882,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6943345</v>
+        <v>6943343</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4894,13 +4894,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4909,43 +4909,43 @@
         <v>43</v>
       </c>
       <c r="K50">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L50">
         <v>4.75</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N50">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q50">
         <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4954,16 +4954,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6943343</v>
+        <v>6943345</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,13 +4983,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4998,43 +4998,43 @@
         <v>43</v>
       </c>
       <c r="K51">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L51">
         <v>4.75</v>
       </c>
       <c r="M51">
+        <v>6</v>
+      </c>
+      <c r="N51">
+        <v>1.444</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51">
         <v>6.5</v>
-      </c>
-      <c r="N51">
-        <v>1.363</v>
-      </c>
-      <c r="O51">
-        <v>4.75</v>
-      </c>
-      <c r="P51">
-        <v>10</v>
       </c>
       <c r="Q51">
         <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.363</v>
+        <v>0.444</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5043,16 +5043,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5072,7 +5072,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5161,10 +5161,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5238,7 +5238,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6943342</v>
+        <v>6943341</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5250,7 +5250,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
@@ -5259,46 +5259,46 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>1.571</v>
+      </c>
+      <c r="N54">
+        <v>6.5</v>
+      </c>
+      <c r="O54">
         <v>4</v>
       </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
-        <v>8</v>
-      </c>
-      <c r="O54">
-        <v>5</v>
-      </c>
       <c r="P54">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q54">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5307,19 +5307,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5327,7 +5327,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6943341</v>
+        <v>6943342</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5339,7 +5339,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -5348,67 +5348,67 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="N55">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q55">
+        <v>1.5</v>
+      </c>
+      <c r="R55">
+        <v>1.8</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>3.25</v>
+      </c>
+      <c r="U55">
+        <v>1.95</v>
+      </c>
+      <c r="V55">
+        <v>1.85</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
         <v>1</v>
       </c>
-      <c r="R55">
-        <v>1.85</v>
-      </c>
-      <c r="S55">
-        <v>1.95</v>
-      </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
-      <c r="V55">
-        <v>1.875</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
-      <c r="Y55">
-        <v>0.55</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>0.95</v>
       </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
       <c r="AC55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>45224.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -5609,7 +5609,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5695,10 +5695,10 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s">
         <v>38</v>
-      </c>
-      <c r="G59" t="s">
-        <v>39</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5784,7 +5784,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
         <v>42</v>
@@ -5962,7 +5962,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6051,7 +6051,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -6140,10 +6140,10 @@
         <v>45229.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6318,10 +6318,10 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6943352</v>
+        <v>6943355</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,58 +6407,58 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6467,16 +6467,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6943355</v>
+        <v>6943352</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,58 +6496,58 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N68">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6556,16 +6556,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6763,10 +6763,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6852,7 +6852,7 @@
         <v>45240.625</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -6941,10 +6941,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7122,7 +7122,7 @@
         <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7208,7 +7208,7 @@
         <v>45242.5</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
@@ -7297,10 +7297,10 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7386,7 +7386,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>40</v>
@@ -7478,7 +7478,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7564,7 +7564,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>42</v>
@@ -7656,7 +7656,7 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7831,10 +7831,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
         <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6943365</v>
+        <v>6943369</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>43</v>
+      </c>
+      <c r="K84">
+        <v>1.615</v>
+      </c>
+      <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
+        <v>4.75</v>
+      </c>
+      <c r="N84">
+        <v>1.5</v>
+      </c>
+      <c r="O84">
+        <v>4.2</v>
+      </c>
+      <c r="P84">
+        <v>7</v>
+      </c>
+      <c r="Q84">
+        <v>-1</v>
+      </c>
+      <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
         <v>2</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84" t="s">
-        <v>44</v>
-      </c>
-      <c r="K84">
-        <v>2.625</v>
-      </c>
-      <c r="L84">
-        <v>3.25</v>
-      </c>
-      <c r="M84">
-        <v>2.45</v>
-      </c>
-      <c r="N84">
-        <v>3.6</v>
-      </c>
-      <c r="O84">
-        <v>3.4</v>
-      </c>
-      <c r="P84">
-        <v>2.1</v>
-      </c>
-      <c r="Q84">
-        <v>0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
+        <v>1.95</v>
+      </c>
+      <c r="V84">
         <v>1.85</v>
       </c>
-      <c r="V84">
-        <v>1.95</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6943369</v>
+        <v>6943365</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,73 +8009,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
       <c r="W85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8098,7 +8098,7 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -8187,7 +8187,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>40</v>
@@ -8279,7 +8279,7 @@
         <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8365,7 +8365,7 @@
         <v>45263.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6943374</v>
+        <v>6942196</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,49 +8454,49 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90" t="s">
+        <v>45</v>
+      </c>
+      <c r="K90">
         <v>5</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s">
-        <v>43</v>
-      </c>
-      <c r="K90">
-        <v>1.2</v>
-      </c>
       <c r="L90">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M90">
-        <v>13</v>
+        <v>1.571</v>
       </c>
       <c r="N90">
-        <v>1.166</v>
+        <v>7.5</v>
       </c>
       <c r="O90">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="Q90">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
         <v>1.85</v>
@@ -8505,25 +8505,25 @@
         <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6942196</v>
+        <v>6943374</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,49 +8543,49 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
         <v>0</v>
       </c>
-      <c r="I91">
+      <c r="J91" t="s">
+        <v>43</v>
+      </c>
+      <c r="K91">
+        <v>1.2</v>
+      </c>
+      <c r="L91">
+        <v>5.5</v>
+      </c>
+      <c r="M91">
+        <v>13</v>
+      </c>
+      <c r="N91">
+        <v>1.166</v>
+      </c>
+      <c r="O91">
+        <v>8</v>
+      </c>
+      <c r="P91">
+        <v>17</v>
+      </c>
+      <c r="Q91">
+        <v>-2</v>
+      </c>
+      <c r="R91">
+        <v>1.8</v>
+      </c>
+      <c r="S91">
         <v>2</v>
       </c>
-      <c r="J91" t="s">
-        <v>45</v>
-      </c>
-      <c r="K91">
-        <v>5</v>
-      </c>
-      <c r="L91">
-        <v>3.8</v>
-      </c>
-      <c r="M91">
-        <v>1.571</v>
-      </c>
-      <c r="N91">
-        <v>7.5</v>
-      </c>
-      <c r="O91">
-        <v>4.2</v>
-      </c>
-      <c r="P91">
-        <v>1.5</v>
-      </c>
-      <c r="Q91">
-        <v>1.25</v>
-      </c>
-      <c r="R91">
-        <v>1.75</v>
-      </c>
-      <c r="S91">
-        <v>2.05</v>
-      </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
         <v>1.85</v>
@@ -8594,25 +8594,25 @@
         <v>1.95</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,10 +8632,10 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8721,10 +8721,10 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8899,10 +8899,10 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9080,7 +9080,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9255,7 +9255,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9347,7 +9347,7 @@
         <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9522,10 +9522,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9614,7 +9614,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9789,10 +9789,10 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
         <v>35</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>41</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6943390</v>
+        <v>6943387</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108">
+        <v>1.25</v>
+      </c>
+      <c r="L108">
+        <v>5.2</v>
+      </c>
+      <c r="M108">
+        <v>10</v>
+      </c>
+      <c r="N108">
+        <v>1.222</v>
+      </c>
+      <c r="O108">
+        <v>7</v>
+      </c>
+      <c r="P108">
+        <v>11</v>
+      </c>
+      <c r="Q108">
+        <v>-1.75</v>
+      </c>
+      <c r="R108">
+        <v>1.8</v>
+      </c>
+      <c r="S108">
+        <v>2</v>
+      </c>
+      <c r="T108">
         <v>3</v>
       </c>
-      <c r="I108">
-        <v>4</v>
-      </c>
-      <c r="J108" t="s">
-        <v>45</v>
-      </c>
-      <c r="K108">
-        <v>5</v>
-      </c>
-      <c r="L108">
-        <v>3.8</v>
-      </c>
-      <c r="M108">
-        <v>1.571</v>
-      </c>
-      <c r="N108">
-        <v>6.5</v>
-      </c>
-      <c r="O108">
-        <v>3.4</v>
-      </c>
-      <c r="P108">
-        <v>1.666</v>
-      </c>
-      <c r="Q108">
-        <v>0.75</v>
-      </c>
-      <c r="R108">
-        <v>1.95</v>
-      </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
-      <c r="T108">
-        <v>2</v>
-      </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6943388</v>
+        <v>6943390</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="L109">
+        <v>3.8</v>
+      </c>
+      <c r="M109">
+        <v>1.571</v>
+      </c>
+      <c r="N109">
         <v>6.5</v>
       </c>
-      <c r="M109">
-        <v>12</v>
-      </c>
-      <c r="N109">
-        <v>1.111</v>
-      </c>
       <c r="O109">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q109">
-        <v>-2.75</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
+        <v>1.85</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
+        <v>1.825</v>
+      </c>
+      <c r="V109">
         <v>1.975</v>
       </c>
-      <c r="S109">
-        <v>1.825</v>
-      </c>
-      <c r="T109">
-        <v>4</v>
-      </c>
-      <c r="U109">
-        <v>1.925</v>
-      </c>
-      <c r="V109">
-        <v>1.875</v>
-      </c>
       <c r="W109">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
+        <v>0.425</v>
+      </c>
+      <c r="AB109">
         <v>0.825</v>
       </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6943387</v>
+        <v>6943388</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,58 +10234,58 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>43</v>
       </c>
       <c r="K110">
-        <v>1.25</v>
+        <v>1.166</v>
       </c>
       <c r="L110">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N110">
-        <v>1.222</v>
+        <v>1.111</v>
       </c>
       <c r="O110">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P110">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>0.222</v>
+        <v>0.111</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10297,13 +10297,13 @@
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>45283.5</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
         <v>29</v>
@@ -10501,10 +10501,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>45293.5</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10679,10 +10679,10 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10771,7 +10771,7 @@
         <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6942200</v>
+        <v>6943398</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,67 +10857,67 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="L117">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M117">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="N117">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
         <v>1.85</v>
       </c>
-      <c r="V117">
-        <v>1.95</v>
-      </c>
       <c r="W117">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10926,7 +10926,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6943398</v>
+        <v>6943394</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118" t="s">
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <v>2.8</v>
+      </c>
+      <c r="L118">
+        <v>3.3</v>
+      </c>
+      <c r="M118">
+        <v>2.55</v>
+      </c>
+      <c r="N118">
+        <v>2.875</v>
+      </c>
+      <c r="O118">
+        <v>2.9</v>
+      </c>
+      <c r="P118">
+        <v>2.75</v>
+      </c>
+      <c r="Q118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>44</v>
-      </c>
-      <c r="K118">
-        <v>6.5</v>
-      </c>
-      <c r="L118">
-        <v>4.75</v>
-      </c>
-      <c r="M118">
-        <v>1.45</v>
-      </c>
-      <c r="N118">
-        <v>5.25</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
-      <c r="P118">
-        <v>1.55</v>
-      </c>
-      <c r="Q118">
-        <v>1</v>
-      </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6943394</v>
+        <v>6942200</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L119">
         <v>3.3</v>
       </c>
       <c r="M119">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O119">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11216,7 +11216,7 @@
         <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11302,10 +11302,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6943404</v>
+        <v>6943403</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,76 +11391,76 @@
         <v>45298.5</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
         <v>3.4</v>
       </c>
       <c r="M123">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O123">
+        <v>3.75</v>
+      </c>
+      <c r="P123">
         <v>3.6</v>
       </c>
-      <c r="P123">
-        <v>4.75</v>
-      </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6943403</v>
+        <v>6943404</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,76 +11480,76 @@
         <v>45298.5</v>
       </c>
       <c r="F124" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124" t="s">
         <v>36</v>
       </c>
-      <c r="G124" t="s">
-        <v>41</v>
-      </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L124">
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N124">
+        <v>1.8</v>
+      </c>
+      <c r="O124">
+        <v>3.6</v>
+      </c>
+      <c r="P124">
+        <v>4.75</v>
+      </c>
+      <c r="Q124">
+        <v>-0.75</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
         <v>1.95</v>
       </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>3.6</v>
-      </c>
-      <c r="Q124">
+      <c r="W124">
+        <v>0.8</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.5</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>1.825</v>
-      </c>
-      <c r="V124">
-        <v>1.975</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>2.75</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.875</v>
-      </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -11646,7 +11646,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6942201</v>
+        <v>6943399</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11658,13 +11658,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11673,43 +11673,43 @@
         <v>43</v>
       </c>
       <c r="K126">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L126">
         <v>5.5</v>
       </c>
       <c r="M126">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="N126">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="O126">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P126">
-        <v>1.222</v>
+        <v>15</v>
       </c>
       <c r="Q126">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
+        <v>1.825</v>
+      </c>
+      <c r="V126">
         <v>1.975</v>
       </c>
-      <c r="V126">
-        <v>1.825</v>
-      </c>
       <c r="W126">
-        <v>10</v>
+        <v>0.222</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,16 +11718,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11735,7 +11735,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6943399</v>
+        <v>6942201</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11747,13 +11747,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11762,43 +11762,43 @@
         <v>43</v>
       </c>
       <c r="K127">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="L127">
         <v>5.5</v>
       </c>
       <c r="M127">
-        <v>13</v>
+        <v>1.285</v>
       </c>
       <c r="N127">
+        <v>11</v>
+      </c>
+      <c r="O127">
+        <v>6.5</v>
+      </c>
+      <c r="P127">
         <v>1.222</v>
       </c>
-      <c r="O127">
-        <v>6</v>
-      </c>
-      <c r="P127">
-        <v>15</v>
-      </c>
       <c r="Q127">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R127">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
+        <v>1.975</v>
+      </c>
+      <c r="V127">
         <v>1.825</v>
       </c>
-      <c r="V127">
-        <v>1.975</v>
-      </c>
       <c r="W127">
-        <v>0.222</v>
+        <v>10</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,16 +11807,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -12014,10 +12014,10 @@
         <v>45304.5</v>
       </c>
       <c r="F130" t="s">
+        <v>36</v>
+      </c>
+      <c r="G130" t="s">
         <v>37</v>
-      </c>
-      <c r="G130" t="s">
-        <v>36</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12106,7 +12106,7 @@
         <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12192,10 +12192,10 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12370,10 +12370,10 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12459,10 +12459,10 @@
         <v>45311.5</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -12640,7 +12640,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>6</v>
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6943416</v>
+        <v>6943411</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,76 +12726,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M138">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="N138">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P138">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R138">
+        <v>1.8</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>3.25</v>
+      </c>
+      <c r="U138">
+        <v>2.025</v>
+      </c>
+      <c r="V138">
         <v>1.775</v>
       </c>
-      <c r="S138">
-        <v>2.025</v>
-      </c>
-      <c r="T138">
-        <v>2.5</v>
-      </c>
-      <c r="U138">
-        <v>1.8</v>
-      </c>
-      <c r="V138">
-        <v>2</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y138">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA138">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12803,7 +12803,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6943411</v>
+        <v>6943416</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12815,76 +12815,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>45</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
+        <v>3.3</v>
+      </c>
+      <c r="M139">
+        <v>2.4</v>
+      </c>
+      <c r="N139">
+        <v>2.45</v>
+      </c>
+      <c r="O139">
+        <v>3.3</v>
+      </c>
+      <c r="P139">
+        <v>2.9</v>
+      </c>
+      <c r="Q139">
         <v>0</v>
       </c>
-      <c r="J139" t="s">
-        <v>44</v>
-      </c>
-      <c r="K139">
-        <v>7</v>
-      </c>
-      <c r="L139">
-        <v>4.5</v>
-      </c>
-      <c r="M139">
-        <v>1.444</v>
-      </c>
-      <c r="N139">
-        <v>8</v>
-      </c>
-      <c r="O139">
-        <v>4.75</v>
-      </c>
-      <c r="P139">
-        <v>1.4</v>
-      </c>
-      <c r="Q139">
-        <v>1.5</v>
-      </c>
       <c r="R139">
+        <v>1.775</v>
+      </c>
+      <c r="S139">
+        <v>2.025</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
         <v>1.8</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>2</v>
       </c>
-      <c r="T139">
-        <v>3.25</v>
-      </c>
-      <c r="U139">
-        <v>2.025</v>
-      </c>
-      <c r="V139">
-        <v>1.775</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12993,10 +12993,10 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13082,7 +13082,7 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
         <v>42</v>
@@ -13171,7 +13171,7 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
         <v>40</v>
@@ -13349,10 +13349,10 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
         <v>32</v>
@@ -13530,7 +13530,7 @@
         <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6942205</v>
+        <v>6943426</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
-        <v>1.85</v>
+        <v>1.222</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M148">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N148">
-        <v>1.85</v>
+        <v>1.181</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X148">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13782,7 +13782,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6943426</v>
+        <v>6942205</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13794,76 +13794,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K150">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N150">
-        <v>1.181</v>
+        <v>1.85</v>
       </c>
       <c r="O150">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="Q150">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13886,7 +13886,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -13960,7 +13960,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6943427</v>
+        <v>6943425</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13972,76 +13972,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>45</v>
+      </c>
+      <c r="K152">
         <v>3</v>
-      </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-      <c r="J152" t="s">
-        <v>43</v>
-      </c>
-      <c r="K152">
-        <v>2.5</v>
       </c>
       <c r="L152">
         <v>3.4</v>
       </c>
       <c r="M152">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N152">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P152">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S152">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W152">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14049,7 +14049,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6943425</v>
+        <v>6943427</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14061,76 +14061,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K153">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L153">
         <v>3.4</v>
       </c>
       <c r="M153">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N153">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14239,7 +14239,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6943434</v>
+        <v>6943431</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,34 +14328,34 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
         <v>4</v>
       </c>
       <c r="N156">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P156">
         <v>3.8</v>
@@ -14364,37 +14364,37 @@
         <v>-0.5</v>
       </c>
       <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>1.9</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
+        <v>1.775</v>
+      </c>
+      <c r="V156">
         <v>2.025</v>
       </c>
-      <c r="S156">
-        <v>1.775</v>
-      </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
-      <c r="U156">
-        <v>1.85</v>
-      </c>
-      <c r="V156">
-        <v>1.95</v>
-      </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X156">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB156">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14405,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6943431</v>
+        <v>6943434</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,34 +14417,34 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K157">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
         <v>4</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
         <v>3.8</v>
@@ -14453,37 +14453,37 @@
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB157">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14506,10 +14506,10 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14595,10 +14595,10 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14684,10 +14684,10 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14776,7 +14776,7 @@
         <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14865,7 +14865,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -15040,10 +15040,10 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15218,10 +15218,10 @@
         <v>45333.5</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>42</v>
@@ -15396,7 +15396,7 @@
         <v>45335.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943444</v>
+        <v>6943445</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,76 +15485,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169" t="s">
+        <v>45</v>
+      </c>
+      <c r="K169">
+        <v>4</v>
+      </c>
+      <c r="L169">
+        <v>3.75</v>
+      </c>
+      <c r="M169">
+        <v>1.75</v>
+      </c>
+      <c r="N169">
+        <v>5.5</v>
+      </c>
+      <c r="O169">
+        <v>4.2</v>
+      </c>
+      <c r="P169">
+        <v>1.571</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
+        <v>1.925</v>
+      </c>
+      <c r="T169">
+        <v>2.75</v>
+      </c>
+      <c r="U169">
+        <v>1.825</v>
+      </c>
+      <c r="V169">
+        <v>1.975</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>0.571</v>
+      </c>
+      <c r="Z169">
         <v>0</v>
       </c>
-      <c r="J169" t="s">
-        <v>43</v>
-      </c>
-      <c r="K169">
-        <v>2.45</v>
-      </c>
-      <c r="L169">
-        <v>3</v>
-      </c>
-      <c r="M169">
-        <v>2.8</v>
-      </c>
-      <c r="N169">
-        <v>2.5</v>
-      </c>
-      <c r="O169">
-        <v>3.1</v>
-      </c>
-      <c r="P169">
-        <v>3</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>1.725</v>
-      </c>
-      <c r="S169">
-        <v>2.075</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
-      <c r="U169">
-        <v>1.95</v>
-      </c>
-      <c r="V169">
-        <v>1.85</v>
-      </c>
-      <c r="W169">
-        <v>1.5</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC169">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943445</v>
+        <v>6943444</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>43</v>
+      </c>
+      <c r="K170">
+        <v>2.45</v>
+      </c>
+      <c r="L170">
         <v>3</v>
       </c>
-      <c r="J170" t="s">
-        <v>45</v>
-      </c>
-      <c r="K170">
-        <v>4</v>
-      </c>
-      <c r="L170">
-        <v>3.75</v>
-      </c>
       <c r="M170">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N170">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P170">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15752,10 +15752,10 @@
         <v>45337.5</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15841,7 +15841,7 @@
         <v>45337.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
         <v>32</v>
@@ -15933,7 +15933,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16022,7 +16022,7 @@
         <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16096,7 +16096,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6943447</v>
+        <v>6943446</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16108,76 +16108,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F176" t="s">
+        <v>40</v>
+      </c>
+      <c r="G176" t="s">
         <v>30</v>
       </c>
-      <c r="G176" t="s">
-        <v>41</v>
-      </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K176">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L176">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="O176">
+        <v>3.75</v>
+      </c>
+      <c r="P176">
         <v>4.75</v>
       </c>
-      <c r="P176">
-        <v>5</v>
-      </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X176">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6943446</v>
+        <v>6943447</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,76 +16197,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K177">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N177">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="O177">
+        <v>4.75</v>
+      </c>
+      <c r="P177">
+        <v>5</v>
+      </c>
+      <c r="Q177">
+        <v>-1</v>
+      </c>
+      <c r="R177">
+        <v>1.85</v>
+      </c>
+      <c r="S177">
+        <v>1.95</v>
+      </c>
+      <c r="T177">
+        <v>3</v>
+      </c>
+      <c r="U177">
+        <v>1.9</v>
+      </c>
+      <c r="V177">
+        <v>1.9</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
         <v>3.75</v>
       </c>
-      <c r="P177">
-        <v>4.75</v>
-      </c>
-      <c r="Q177">
-        <v>-0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>2</v>
-      </c>
-      <c r="V177">
-        <v>1.8</v>
-      </c>
-      <c r="W177">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16289,7 +16289,7 @@
         <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16375,7 +16375,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16464,10 +16464,10 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H180">
         <v>4</v>
@@ -16556,7 +16556,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16645,7 +16645,7 @@
         <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16734,7 +16734,7 @@
         <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H183">
         <v>2</v>
@@ -16820,7 +16820,7 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16909,10 +16909,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16998,7 +16998,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17075,7 +17075,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7864515</v>
+        <v>7864306</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17087,55 +17087,55 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>45</v>
       </c>
       <c r="K187">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N187">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P187">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17144,19 +17144,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17164,7 +17164,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7864306</v>
+        <v>7864515</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17176,55 +17176,55 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>1</v>
-      </c>
-      <c r="I188">
-        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>45</v>
       </c>
       <c r="K188">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N188">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17233,19 +17233,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB188">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,10 +17265,10 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17354,10 +17354,10 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K190">
         <v>3</v>
@@ -17369,31 +17369,31 @@
         <v>2.15</v>
       </c>
       <c r="N190">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O190">
         <v>3.3</v>
       </c>
       <c r="P190">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S190">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
+        <v>1.95</v>
+      </c>
+      <c r="V190">
         <v>1.85</v>
-      </c>
-      <c r="V190">
-        <v>1.95</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17428,10 +17428,10 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K191">
         <v>3.2</v>
@@ -17443,13 +17443,13 @@
         <v>2.1</v>
       </c>
       <c r="N191">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O191">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q191">
         <v>0.25</v>
@@ -17464,10 +17464,10 @@
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17517,31 +17517,31 @@
         <v>3.6</v>
       </c>
       <c r="N192">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O192">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
         <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -17591,31 +17591,31 @@
         <v>2.15</v>
       </c>
       <c r="N193">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O193">
         <v>3.5</v>
       </c>
       <c r="P193">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q193">
         <v>0.25</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
         <v>3</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17653,7 +17653,7 @@
         <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K194">
         <v>2.2</v>
@@ -17665,31 +17665,31 @@
         <v>2.9</v>
       </c>
       <c r="N194">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O194">
         <v>3.3</v>
       </c>
       <c r="P194">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q194">
         <v>0</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
         <v>0</v>
@@ -17724,10 +17724,10 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K195">
         <v>1.5</v>
@@ -17742,19 +17742,19 @@
         <v>1.5</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q195">
         <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
         <v>2.75</v>
@@ -17801,7 +17801,7 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K196">
         <v>2.15</v>
@@ -17813,22 +17813,22 @@
         <v>3.1</v>
       </c>
       <c r="N196">
+        <v>2.375</v>
+      </c>
+      <c r="O196">
+        <v>3.5</v>
+      </c>
+      <c r="P196">
+        <v>2.9</v>
+      </c>
+      <c r="Q196">
+        <v>-0.25</v>
+      </c>
+      <c r="R196">
         <v>2</v>
       </c>
-      <c r="O196">
-        <v>3.4</v>
-      </c>
-      <c r="P196">
-        <v>3.4</v>
-      </c>
-      <c r="Q196">
-        <v>-0.5</v>
-      </c>
-      <c r="R196">
-        <v>2.025</v>
-      </c>
       <c r="S196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T196">
         <v>2.5</v>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,16 +106,13 @@
     <t>Pafos FC</t>
   </si>
   <si>
+    <t>Apollon Limassol</t>
+  </si>
+  <si>
     <t>Anorthosis Famagusta</t>
   </si>
   <si>
-    <t>Apollon Limassol</t>
-  </si>
-  <si>
     <t>AE Zakakiou</t>
-  </si>
-  <si>
-    <t>Omonia Nicosia</t>
   </si>
   <si>
     <t>Doxa Katokopias</t>
@@ -124,16 +121,19 @@
     <t>Aris Limassol</t>
   </si>
   <si>
+    <t>Omonia Nicosia</t>
+  </si>
+  <si>
     <t>Othellos Athienou</t>
   </si>
   <si>
     <t>APK Karmotissa</t>
   </si>
   <si>
-    <t>AEL Limassol</t>
+    <t>Nea Salamis Famagusta</t>
   </si>
   <si>
-    <t>Nea Salamis Famagusta</t>
+    <t>AEL Limassol</t>
   </si>
   <si>
     <t>AEK Larnaca</t>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6997345</v>
+        <v>6997344</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L3">
+        <v>4.75</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>1.363</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <v>-1.5</v>
+      </c>
+      <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
+        <v>1.975</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>5.5</v>
-      </c>
-      <c r="N3">
-        <v>1.75</v>
-      </c>
-      <c r="O3">
-        <v>3.8</v>
-      </c>
-      <c r="P3">
-        <v>4.75</v>
-      </c>
-      <c r="Q3">
-        <v>-0.75</v>
-      </c>
-      <c r="R3">
-        <v>1.925</v>
-      </c>
-      <c r="S3">
-        <v>1.875</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6997344</v>
+        <v>6997345</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5.5</v>
+      </c>
+      <c r="N4">
+        <v>1.75</v>
+      </c>
+      <c r="O4">
+        <v>3.8</v>
+      </c>
+      <c r="P4">
         <v>4.75</v>
       </c>
-      <c r="M4">
-        <v>11</v>
-      </c>
-      <c r="N4">
-        <v>1.363</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997355</v>
+        <v>6997342</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,70 +984,70 @@
         <v>39</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6997342</v>
+        <v>6997341</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,73 +1070,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6997341</v>
+        <v>6997355</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,10 +1159,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1171,43 +1171,43 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1216,16 +1216,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6943308</v>
+        <v>6943307</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,46 +1426,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>3.4</v>
+      </c>
+      <c r="L11">
+        <v>3.25</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>4.75</v>
+      </c>
+      <c r="O11">
         <v>4</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11">
-        <v>1.6</v>
-      </c>
-      <c r="L11">
-        <v>3.6</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>1.4</v>
-      </c>
-      <c r="O11">
-        <v>4.5</v>
-      </c>
       <c r="P11">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -1474,25 +1474,25 @@
         <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6943307</v>
+        <v>6943308</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,46 +1515,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L12">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>1.4</v>
+      </c>
+      <c r="O12">
+        <v>4.5</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>-1.25</v>
+      </c>
+      <c r="R12">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>4.75</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>1.7</v>
-      </c>
-      <c r="Q12">
-        <v>0.75</v>
-      </c>
-      <c r="R12">
-        <v>1.95</v>
-      </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -1563,25 +1563,25 @@
         <v>1.8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6943305</v>
+        <v>6943309</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1601,73 +1601,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>1.285</v>
+      </c>
+      <c r="L13">
+        <v>4.6</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>1.333</v>
+      </c>
+      <c r="O13">
+        <v>4.5</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>-1.5</v>
+      </c>
+      <c r="R13">
+        <v>1.95</v>
+      </c>
+      <c r="S13">
+        <v>1.85</v>
+      </c>
+      <c r="T13">
+        <v>2.75</v>
+      </c>
+      <c r="U13">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="V13">
+        <v>1.8</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>3.5</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB13">
         <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13">
-        <v>1.45</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>1.4</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>7.5</v>
-      </c>
-      <c r="Q13">
-        <v>-1.25</v>
-      </c>
-      <c r="R13">
-        <v>1.825</v>
-      </c>
-      <c r="S13">
-        <v>1.975</v>
-      </c>
-      <c r="T13">
-        <v>2.5</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-      <c r="W13">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0.4875</v>
-      </c>
-      <c r="AB13">
-        <v>0.8</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6943309</v>
+        <v>6943305</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1690,73 +1690,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>1.45</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>1.4</v>
+      </c>
+      <c r="O14">
         <v>5</v>
       </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14">
-        <v>1.285</v>
-      </c>
-      <c r="L14">
-        <v>4.6</v>
-      </c>
-      <c r="M14">
-        <v>9</v>
-      </c>
-      <c r="N14">
-        <v>1.333</v>
-      </c>
-      <c r="O14">
-        <v>4.5</v>
-      </c>
       <c r="P14">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
+        <v>1.8</v>
+      </c>
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="V14">
-        <v>1.8</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X14">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1779,10 +1779,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1868,7 +1868,7 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>40</v>
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6943315</v>
+        <v>6942186</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,49 +1957,49 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M17">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N17">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P17">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
         <v>1.925</v>
@@ -2008,25 +2008,25 @@
         <v>1.875</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6942186</v>
+        <v>6943315</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,49 +2046,49 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N18">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q18">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
         <v>2</v>
       </c>
-      <c r="S18">
-        <v>1.8</v>
-      </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2097,25 +2097,25 @@
         <v>1.875</v>
       </c>
       <c r="W18">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
         <v>1</v>
       </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -2313,7 +2313,7 @@
         <v>45172.625</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -2402,7 +2402,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -2580,10 +2580,10 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2850,7 +2850,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3203,7 +3203,7 @@
         <v>45192.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -3292,10 +3292,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3470,10 +3470,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3651,7 +3651,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6943328</v>
+        <v>6943330</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,34 +3737,34 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L37">
         <v>3.4</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N37">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
         <v>4</v>
@@ -3773,40 +3773,40 @@
         <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
         <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y37">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6943330</v>
+        <v>6943328</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,34 +3826,34 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
         <v>4</v>
@@ -3862,40 +3862,40 @@
         <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3915,10 +3915,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4004,10 +4004,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
         <v>37</v>
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6943334</v>
+        <v>6942190</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,40 +4360,40 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>44</v>
       </c>
       <c r="K44">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N44">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O44">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q44">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4402,19 +4402,19 @@
         <v>1.8</v>
       </c>
       <c r="T44">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4426,10 +4426,10 @@
         <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6942190</v>
+        <v>6943334</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,40 +4449,40 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>44</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M45">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N45">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P45">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4491,19 +4491,19 @@
         <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4515,10 +4515,10 @@
         <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943335</v>
+        <v>6943337</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,13 +4627,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4642,43 +4642,43 @@
         <v>43</v>
       </c>
       <c r="K47">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L47">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N47">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R47">
+        <v>1.775</v>
+      </c>
+      <c r="S47">
+        <v>2.025</v>
+      </c>
+      <c r="T47">
+        <v>2.5</v>
+      </c>
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.825</v>
-      </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
       <c r="W47">
-        <v>0.333</v>
+        <v>1.6</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4687,16 +4687,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6943336</v>
+        <v>6943335</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4719,37 +4719,37 @@
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M48">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N48">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P48">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R48">
         <v>1.925</v>
@@ -4761,28 +4761,28 @@
         <v>2.75</v>
       </c>
       <c r="U48">
+        <v>1.825</v>
+      </c>
+      <c r="V48">
         <v>1.975</v>
       </c>
-      <c r="V48">
-        <v>1.825</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6943337</v>
+        <v>6943336</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,76 +4805,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
         <v>2.1</v>
       </c>
       <c r="N49">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z49">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4882,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6943343</v>
+        <v>6943340</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4894,13 +4894,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4909,43 +4909,43 @@
         <v>43</v>
       </c>
       <c r="K50">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="L50">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M50">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N50">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P50">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4954,16 +4954,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA50">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6943345</v>
+        <v>6943343</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,13 +4983,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4998,43 +4998,43 @@
         <v>43</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L51">
         <v>4.75</v>
       </c>
       <c r="M51">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N51">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q51">
         <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5043,16 +5043,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6943340</v>
+        <v>6943345</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,13 +5072,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5087,43 +5087,43 @@
         <v>43</v>
       </c>
       <c r="K52">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M52">
         <v>6</v>
       </c>
       <c r="N52">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>0.444</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5132,16 +5132,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
         <v>36</v>
@@ -5250,10 +5250,10 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45224.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -5609,7 +5609,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5695,10 +5695,10 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" t="s">
         <v>39</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5873,7 +5873,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -5962,7 +5962,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6051,7 +6051,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
         <v>36</v>
@@ -6407,10 +6407,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6496,10 +6496,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6942193</v>
+        <v>6943357</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,76 +6585,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69">
+        <v>2.875</v>
+      </c>
+      <c r="L69">
+        <v>3.3</v>
+      </c>
+      <c r="M69">
+        <v>2.4</v>
+      </c>
+      <c r="N69">
+        <v>2.4</v>
+      </c>
+      <c r="O69">
+        <v>3.4</v>
+      </c>
+      <c r="P69">
+        <v>2.875</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69">
-        <v>2.05</v>
-      </c>
-      <c r="L69">
-        <v>3.4</v>
-      </c>
-      <c r="M69">
-        <v>3.4</v>
-      </c>
-      <c r="N69">
-        <v>1.75</v>
-      </c>
-      <c r="O69">
-        <v>3.8</v>
-      </c>
-      <c r="P69">
-        <v>4.5</v>
-      </c>
-      <c r="Q69">
-        <v>-0.75</v>
-      </c>
       <c r="R69">
+        <v>1.725</v>
+      </c>
+      <c r="S69">
+        <v>2.075</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
         <v>1.875</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.925</v>
       </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>2</v>
-      </c>
-      <c r="V69">
-        <v>1.8</v>
-      </c>
       <c r="W69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6943357</v>
+        <v>6942193</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,76 +6674,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA70">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>37</v>
@@ -6852,10 +6852,10 @@
         <v>45240.625</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6941,10 +6941,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7122,7 +7122,7 @@
         <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7285,7 +7285,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6943362</v>
+        <v>6943358</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7297,76 +7297,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="N77">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6943358</v>
+        <v>6943362</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7386,76 +7386,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M78">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="N78">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P78">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6942195</v>
+        <v>6943364</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7490,43 +7490,43 @@
         <v>43</v>
       </c>
       <c r="K79">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L79">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M79">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N79">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q79">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.181</v>
+        <v>1.25</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6943364</v>
+        <v>6942195</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7579,43 +7579,43 @@
         <v>43</v>
       </c>
       <c r="K80">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M80">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N80">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P80">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6943366</v>
+        <v>6943367</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81">
+        <v>1.3</v>
+      </c>
+      <c r="L81">
+        <v>4.8</v>
+      </c>
+      <c r="M81">
+        <v>8.5</v>
+      </c>
+      <c r="N81">
+        <v>1.363</v>
+      </c>
+      <c r="O81">
+        <v>4.75</v>
+      </c>
+      <c r="P81">
+        <v>8.5</v>
+      </c>
+      <c r="Q81">
+        <v>-1.5</v>
+      </c>
+      <c r="R81">
         <v>2</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81" t="s">
-        <v>44</v>
-      </c>
-      <c r="K81">
-        <v>3.2</v>
-      </c>
-      <c r="L81">
-        <v>3.5</v>
-      </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>3.8</v>
-      </c>
-      <c r="O81">
-        <v>3.6</v>
-      </c>
-      <c r="P81">
-        <v>1.909</v>
-      </c>
-      <c r="Q81">
-        <v>0.5</v>
-      </c>
-      <c r="R81">
-        <v>1.9</v>
-      </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6943367</v>
+        <v>6943366</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="L82">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q82">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7831,10 +7831,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6943369</v>
+        <v>6943365</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M84">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N84">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
         <v>1.95</v>
       </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
       <c r="W84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6943365</v>
+        <v>6943369</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,73 +8009,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>43</v>
+      </c>
+      <c r="K85">
+        <v>1.615</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.75</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <v>4.2</v>
+      </c>
+      <c r="P85">
+        <v>7</v>
+      </c>
+      <c r="Q85">
+        <v>-1</v>
+      </c>
+      <c r="R85">
+        <v>1.8</v>
+      </c>
+      <c r="S85">
         <v>2</v>
-      </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85" t="s">
-        <v>44</v>
-      </c>
-      <c r="K85">
-        <v>2.625</v>
-      </c>
-      <c r="L85">
-        <v>3.25</v>
-      </c>
-      <c r="M85">
-        <v>2.45</v>
-      </c>
-      <c r="N85">
-        <v>3.6</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>2.1</v>
-      </c>
-      <c r="Q85">
-        <v>0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.975</v>
-      </c>
-      <c r="S85">
-        <v>1.825</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8101,7 +8101,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8187,7 +8187,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
         <v>40</v>
@@ -8279,7 +8279,7 @@
         <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8454,7 +8454,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8546,7 +8546,7 @@
         <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -8632,10 +8632,10 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6943377</v>
+        <v>6943378</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,58 +8899,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N95">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P95">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
         <v>1.8</v>
       </c>
-      <c r="S95">
-        <v>2</v>
-      </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
+        <v>1.85</v>
+      </c>
+      <c r="V95">
         <v>1.95</v>
       </c>
-      <c r="V95">
-        <v>1.85</v>
-      </c>
       <c r="W95">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6943378</v>
+        <v>6943377</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,58 +8988,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="L96">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q96">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
         <v>2</v>
       </c>
-      <c r="S96">
-        <v>1.8</v>
-      </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
+        <v>1.95</v>
+      </c>
+      <c r="V96">
         <v>1.85</v>
       </c>
-      <c r="V96">
-        <v>1.95</v>
-      </c>
       <c r="W96">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9048,16 +9048,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9080,7 +9080,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9522,7 +9522,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9614,7 +9614,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9789,10 +9789,10 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F106" t="s">
+        <v>33</v>
+      </c>
+      <c r="G106" t="s">
         <v>34</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6943387</v>
+        <v>6943390</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108">
+        <v>4</v>
+      </c>
+      <c r="J108" t="s">
+        <v>45</v>
+      </c>
+      <c r="K108">
+        <v>5</v>
+      </c>
+      <c r="L108">
+        <v>3.8</v>
+      </c>
+      <c r="M108">
+        <v>1.571</v>
+      </c>
+      <c r="N108">
+        <v>6.5</v>
+      </c>
+      <c r="O108">
+        <v>3.4</v>
+      </c>
+      <c r="P108">
+        <v>1.666</v>
+      </c>
+      <c r="Q108">
+        <v>0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>1.85</v>
+      </c>
+      <c r="T108">
         <v>2</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-      <c r="J108" t="s">
-        <v>43</v>
-      </c>
-      <c r="K108">
-        <v>1.25</v>
-      </c>
-      <c r="L108">
-        <v>5.2</v>
-      </c>
-      <c r="M108">
-        <v>10</v>
-      </c>
-      <c r="N108">
-        <v>1.222</v>
-      </c>
-      <c r="O108">
-        <v>7</v>
-      </c>
-      <c r="P108">
-        <v>11</v>
-      </c>
-      <c r="Q108">
-        <v>-1.75</v>
-      </c>
-      <c r="R108">
-        <v>1.8</v>
-      </c>
-      <c r="S108">
-        <v>2</v>
-      </c>
-      <c r="T108">
-        <v>3</v>
-      </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6943390</v>
+        <v>6943388</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>43</v>
+      </c>
+      <c r="K109">
+        <v>1.166</v>
+      </c>
+      <c r="L109">
+        <v>6.5</v>
+      </c>
+      <c r="M109">
+        <v>12</v>
+      </c>
+      <c r="N109">
+        <v>1.111</v>
+      </c>
+      <c r="O109">
+        <v>9.5</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.75</v>
+      </c>
+      <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
+        <v>1.825</v>
+      </c>
+      <c r="T109">
         <v>4</v>
       </c>
-      <c r="J109" t="s">
-        <v>45</v>
-      </c>
-      <c r="K109">
-        <v>5</v>
-      </c>
-      <c r="L109">
-        <v>3.8</v>
-      </c>
-      <c r="M109">
-        <v>1.571</v>
-      </c>
-      <c r="N109">
-        <v>6.5</v>
-      </c>
-      <c r="O109">
-        <v>3.4</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.95</v>
-      </c>
-      <c r="S109">
-        <v>1.85</v>
-      </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6943388</v>
+        <v>6943387</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,58 +10234,58 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>1</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>43</v>
       </c>
       <c r="K110">
-        <v>1.166</v>
+        <v>1.25</v>
       </c>
       <c r="L110">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="M110">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N110">
-        <v>1.111</v>
+        <v>1.222</v>
       </c>
       <c r="O110">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q110">
-        <v>-2.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>0.111</v>
+        <v>0.222</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10297,13 +10297,13 @@
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6943389</v>
+        <v>6942199</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45283.5</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>1.952</v>
+        <v>5.5</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M111">
-        <v>3.9</v>
+        <v>1.533</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P111">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q111">
+        <v>1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
+        <v>1.825</v>
+      </c>
+      <c r="V111">
+        <v>1.975</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>0.5</v>
+      </c>
+      <c r="Z111">
+        <v>0.4</v>
+      </c>
+      <c r="AA111">
         <v>-0.5</v>
       </c>
-      <c r="R111">
-        <v>2</v>
-      </c>
-      <c r="S111">
-        <v>1.8</v>
-      </c>
-      <c r="T111">
-        <v>2.25</v>
-      </c>
-      <c r="U111">
-        <v>1.975</v>
-      </c>
-      <c r="V111">
-        <v>1.825</v>
-      </c>
-      <c r="W111">
-        <v>1.05</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>1</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6942199</v>
+        <v>6943389</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45283.5</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <v>1.952</v>
+      </c>
+      <c r="L112">
+        <v>3.3</v>
+      </c>
+      <c r="M112">
+        <v>3.9</v>
+      </c>
+      <c r="N112">
+        <v>2.05</v>
+      </c>
+      <c r="O112">
+        <v>3.4</v>
+      </c>
+      <c r="P112">
+        <v>3.75</v>
+      </c>
+      <c r="Q112">
+        <v>-0.5</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
+        <v>1.975</v>
+      </c>
+      <c r="V112">
+        <v>1.825</v>
+      </c>
+      <c r="W112">
+        <v>1.05</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
-      <c r="J112" t="s">
-        <v>45</v>
-      </c>
-      <c r="K112">
-        <v>5.5</v>
-      </c>
-      <c r="L112">
-        <v>3.8</v>
-      </c>
-      <c r="M112">
-        <v>1.533</v>
-      </c>
-      <c r="N112">
-        <v>6.5</v>
-      </c>
-      <c r="O112">
-        <v>4.333</v>
-      </c>
-      <c r="P112">
-        <v>1.5</v>
-      </c>
-      <c r="Q112">
-        <v>1.25</v>
-      </c>
-      <c r="R112">
-        <v>1.8</v>
-      </c>
-      <c r="S112">
-        <v>2</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>0.5</v>
-      </c>
-      <c r="Z112">
-        <v>0.4</v>
-      </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,10 +10501,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>45293.5</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10679,7 +10679,7 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
         <v>37</v>
@@ -10768,10 +10768,10 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6943394</v>
+        <v>6942200</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L118">
         <v>3.3</v>
       </c>
       <c r="M118">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O118">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6942200</v>
+        <v>6943394</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L119">
         <v>3.3</v>
       </c>
       <c r="M119">
+        <v>2.55</v>
+      </c>
+      <c r="N119">
+        <v>2.875</v>
+      </c>
+      <c r="O119">
         <v>2.9</v>
       </c>
-      <c r="N119">
-        <v>2.2</v>
-      </c>
-      <c r="O119">
-        <v>3.4</v>
-      </c>
       <c r="P119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W119">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11216,7 +11216,7 @@
         <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11302,10 +11302,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11480,7 +11480,7 @@
         <v>45298.5</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>36</v>
@@ -11569,10 +11569,10 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
         <v>35</v>
-      </c>
-      <c r="G125" t="s">
-        <v>33</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11747,7 +11747,7 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>29</v>
@@ -11824,7 +11824,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6943408</v>
+        <v>6943410</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11836,76 +11836,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N128">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="O128">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11913,7 +11913,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6943410</v>
+        <v>6943408</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11925,76 +11925,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K129">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="N129">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P129">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q129">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC129">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12103,10 +12103,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F131" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" t="s">
         <v>33</v>
-      </c>
-      <c r="G131" t="s">
-        <v>34</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12192,10 +12192,10 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12370,10 +12370,10 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12459,10 +12459,10 @@
         <v>45311.5</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6943411</v>
+        <v>6943416</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,76 +12726,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>45</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>3.3</v>
+      </c>
+      <c r="M138">
+        <v>2.4</v>
+      </c>
+      <c r="N138">
+        <v>2.45</v>
+      </c>
+      <c r="O138">
+        <v>3.3</v>
+      </c>
+      <c r="P138">
+        <v>2.9</v>
+      </c>
+      <c r="Q138">
         <v>0</v>
       </c>
-      <c r="J138" t="s">
-        <v>44</v>
-      </c>
-      <c r="K138">
-        <v>7</v>
-      </c>
-      <c r="L138">
-        <v>4.5</v>
-      </c>
-      <c r="M138">
-        <v>1.444</v>
-      </c>
-      <c r="N138">
-        <v>8</v>
-      </c>
-      <c r="O138">
-        <v>4.75</v>
-      </c>
-      <c r="P138">
-        <v>1.4</v>
-      </c>
-      <c r="Q138">
-        <v>1.5</v>
-      </c>
       <c r="R138">
+        <v>1.775</v>
+      </c>
+      <c r="S138">
+        <v>2.025</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
         <v>1.8</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>2</v>
       </c>
-      <c r="T138">
-        <v>3.25</v>
-      </c>
-      <c r="U138">
-        <v>2.025</v>
-      </c>
-      <c r="V138">
-        <v>1.775</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12803,7 +12803,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6943416</v>
+        <v>6943411</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12815,76 +12815,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L139">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M139">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="N139">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P139">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R139">
+        <v>1.8</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
+        <v>2.025</v>
+      </c>
+      <c r="V139">
         <v>1.775</v>
       </c>
-      <c r="S139">
-        <v>2.025</v>
-      </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y139">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6942203</v>
+        <v>6943413</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,58 +12904,58 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>43</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>2.025</v>
+      </c>
+      <c r="S140">
+        <v>1.775</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.75</v>
+      </c>
+      <c r="V140">
         <v>2.05</v>
       </c>
-      <c r="S140">
-        <v>1.75</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.925</v>
-      </c>
-      <c r="V140">
-        <v>1.875</v>
-      </c>
       <c r="W140">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12964,16 +12964,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6943413</v>
+        <v>6942203</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>43</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="N141">
+        <v>2.5</v>
+      </c>
+      <c r="O141">
+        <v>3.2</v>
+      </c>
+      <c r="P141">
+        <v>3</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
         <v>2.05</v>
       </c>
-      <c r="O141">
-        <v>3.3</v>
-      </c>
-      <c r="P141">
-        <v>3.75</v>
-      </c>
-      <c r="Q141">
-        <v>-0.5</v>
-      </c>
-      <c r="R141">
-        <v>2.025</v>
-      </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
+        <v>1.5</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
         <v>1.05</v>
       </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
-      <c r="Z141">
-        <v>1.025</v>
-      </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6943420</v>
+        <v>6943422</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,16 +13082,16 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>45</v>
@@ -13106,32 +13106,32 @@
         <v>1.571</v>
       </c>
       <c r="N142">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O142">
         <v>4.333</v>
       </c>
       <c r="P142">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q142">
         <v>1.25</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13139,16 +13139,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6943422</v>
+        <v>6943420</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,16 +13171,16 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
         <v>45</v>
@@ -13195,32 +13195,32 @@
         <v>1.571</v>
       </c>
       <c r="N143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O143">
         <v>4.333</v>
       </c>
       <c r="P143">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q143">
         <v>1.25</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
@@ -13228,16 +13228,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>45318.5</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13349,10 +13349,10 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>32</v>
@@ -13530,7 +13530,7 @@
         <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13616,7 +13616,7 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13708,7 +13708,7 @@
         <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13797,7 +13797,7 @@
         <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13960,7 +13960,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6943425</v>
+        <v>6943427</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13972,76 +13972,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K152">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L152">
         <v>3.4</v>
       </c>
       <c r="M152">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N152">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA152">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14049,7 +14049,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6943427</v>
+        <v>6943425</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14061,76 +14061,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153" t="s">
+        <v>45</v>
+      </c>
+      <c r="K153">
         <v>3</v>
-      </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-      <c r="J153" t="s">
-        <v>43</v>
-      </c>
-      <c r="K153">
-        <v>2.5</v>
       </c>
       <c r="L153">
         <v>3.4</v>
       </c>
       <c r="M153">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N153">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W153">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB153">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14150,7 +14150,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14239,10 +14239,10 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6943431</v>
+        <v>6943430</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,40 +14328,40 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K156">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N156">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
         <v>1.9</v>
@@ -14370,34 +14370,34 @@
         <v>1.9</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
+        <v>-0.5</v>
+      </c>
+      <c r="AA156">
+        <v>0.45</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14494,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6943430</v>
+        <v>6943431</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14506,40 +14506,40 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
         <v>1.9</v>
@@ -14548,34 +14548,34 @@
         <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14684,10 +14684,10 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14761,7 +14761,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6943437</v>
+        <v>6943436</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14773,73 +14773,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>3</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L161">
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N161">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O161">
         <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
+        <v>2</v>
+      </c>
+      <c r="V161">
         <v>1.8</v>
       </c>
-      <c r="V161">
-        <v>2</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X161">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA161">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14850,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6943436</v>
+        <v>6943437</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14862,73 +14862,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K162">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L162">
         <v>3.4</v>
       </c>
       <c r="M162">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O162">
         <v>3.4</v>
       </c>
       <c r="P162">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
+        <v>1.8</v>
+      </c>
+      <c r="V162">
         <v>2</v>
       </c>
-      <c r="V162">
-        <v>1.8</v>
-      </c>
       <c r="W162">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB162">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15040,7 +15040,7 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>37</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15218,10 +15218,10 @@
         <v>45333.5</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
         <v>42</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943445</v>
+        <v>6943444</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,76 +15485,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>43</v>
+      </c>
+      <c r="K169">
+        <v>2.45</v>
+      </c>
+      <c r="L169">
         <v>3</v>
       </c>
-      <c r="J169" t="s">
-        <v>45</v>
-      </c>
-      <c r="K169">
-        <v>4</v>
-      </c>
-      <c r="L169">
-        <v>3.75</v>
-      </c>
       <c r="M169">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N169">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S169">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943444</v>
+        <v>6943443</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K170">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="L170">
+        <v>4</v>
+      </c>
+      <c r="M170">
+        <v>1.571</v>
+      </c>
+      <c r="N170">
+        <v>4.333</v>
+      </c>
+      <c r="O170">
+        <v>3.75</v>
+      </c>
+      <c r="P170">
+        <v>1.8</v>
+      </c>
+      <c r="Q170">
+        <v>0.75</v>
+      </c>
+      <c r="R170">
+        <v>1.825</v>
+      </c>
+      <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
         <v>3</v>
       </c>
-      <c r="M170">
-        <v>2.8</v>
-      </c>
-      <c r="N170">
-        <v>2.5</v>
-      </c>
-      <c r="O170">
-        <v>3.1</v>
-      </c>
-      <c r="P170">
-        <v>3</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>1.725</v>
-      </c>
-      <c r="S170">
-        <v>2.075</v>
-      </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943443</v>
+        <v>6943445</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,73 +15663,73 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K171">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
+        <v>1.75</v>
+      </c>
+      <c r="N171">
+        <v>5.5</v>
+      </c>
+      <c r="O171">
+        <v>4.2</v>
+      </c>
+      <c r="P171">
         <v>1.571</v>
       </c>
-      <c r="N171">
-        <v>4.333</v>
-      </c>
-      <c r="O171">
-        <v>3.75</v>
-      </c>
-      <c r="P171">
-        <v>1.8</v>
-      </c>
       <c r="Q171">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.925</v>
+      </c>
+      <c r="T171">
+        <v>2.75</v>
+      </c>
+      <c r="U171">
         <v>1.825</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.975</v>
       </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>2</v>
-      </c>
-      <c r="V171">
-        <v>1.8</v>
-      </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>-0</v>
+      </c>
+      <c r="AB171">
         <v>0.825</v>
-      </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>1</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15755,7 +15755,7 @@
         <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15841,7 +15841,7 @@
         <v>45337.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
         <v>32</v>
@@ -15933,7 +15933,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16019,7 +16019,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>36</v>
@@ -16111,7 +16111,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16197,7 +16197,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>41</v>
@@ -16375,7 +16375,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16464,10 +16464,10 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>4</v>
@@ -16556,7 +16556,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16645,7 +16645,7 @@
         <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16909,7 +16909,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
         <v>36</v>
@@ -16998,7 +16998,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17087,10 +17087,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F187" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" t="s">
         <v>35</v>
-      </c>
-      <c r="G187" t="s">
-        <v>33</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17265,10 +17265,10 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17354,11 +17354,20 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
         <v>37</v>
       </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>4</v>
+      </c>
+      <c r="J190" t="s">
+        <v>45</v>
+      </c>
       <c r="K190">
         <v>3</v>
       </c>
@@ -17378,13 +17387,13 @@
         <v>2.5</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S190">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T190">
         <v>2.5</v>
@@ -17396,19 +17405,25 @@
         <v>1.85</v>
       </c>
       <c r="W190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB190">
+        <v>0.95</v>
+      </c>
+      <c r="AC190">
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17431,7 +17446,16 @@
         <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>44</v>
       </c>
       <c r="K191">
         <v>3.2</v>
@@ -17443,13 +17467,13 @@
         <v>2.1</v>
       </c>
       <c r="N191">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O191">
         <v>3.5</v>
       </c>
       <c r="P191">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q191">
         <v>0.25</v>
@@ -17470,19 +17494,25 @@
         <v>1.95</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17591,13 +17621,13 @@
         <v>2.15</v>
       </c>
       <c r="N193">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O193">
         <v>3.5</v>
       </c>
       <c r="P193">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q193">
         <v>0.25</v>
@@ -17609,13 +17639,13 @@
         <v>1.85</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17653,7 +17683,7 @@
         <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K194">
         <v>2.2</v>
@@ -17677,10 +17707,10 @@
         <v>0</v>
       </c>
       <c r="R194">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T194">
         <v>2.5</v>
@@ -17724,10 +17754,10 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K195">
         <v>1.5</v>
@@ -17798,10 +17828,10 @@
         <v>45355.64583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K196">
         <v>2.15</v>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Pafos FC</t>
   </si>
   <si>
-    <t>Apollon Limassol</t>
+    <t>Anorthosis Famagusta</t>
   </si>
   <si>
-    <t>Anorthosis Famagusta</t>
+    <t>Apollon Limassol</t>
   </si>
   <si>
     <t>AE Zakakiou</t>
@@ -124,10 +124,10 @@
     <t>Omonia Nicosia</t>
   </si>
   <si>
-    <t>Othellos Athienou</t>
+    <t>APK Karmotissa</t>
   </si>
   <si>
-    <t>APK Karmotissa</t>
+    <t>Othellos Athienou</t>
   </si>
   <si>
     <t>Nea Salamis Famagusta</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC196"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6997344</v>
+        <v>6997345</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>5.5</v>
+      </c>
+      <c r="N3">
+        <v>1.75</v>
+      </c>
+      <c r="O3">
+        <v>3.8</v>
+      </c>
+      <c r="P3">
         <v>4.75</v>
       </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>1.363</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6997345</v>
+        <v>6997344</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L4">
+        <v>4.75</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>1.363</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>-1.5</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
+        <v>1.825</v>
+      </c>
+      <c r="V4">
+        <v>1.975</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>5.5</v>
-      </c>
-      <c r="N4">
-        <v>1.75</v>
-      </c>
-      <c r="O4">
-        <v>3.8</v>
-      </c>
-      <c r="P4">
-        <v>4.75</v>
-      </c>
-      <c r="Q4">
-        <v>-0.75</v>
-      </c>
-      <c r="R4">
-        <v>1.925</v>
-      </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>0.75</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6943306</v>
+        <v>7105152</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="N9">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7105152</v>
+        <v>6943306</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1426,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6943309</v>
+        <v>6943305</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1601,73 +1601,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>1.45</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>1.4</v>
+      </c>
+      <c r="O13">
         <v>5</v>
       </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13">
-        <v>1.285</v>
-      </c>
-      <c r="L13">
-        <v>4.6</v>
-      </c>
-      <c r="M13">
-        <v>9</v>
-      </c>
-      <c r="N13">
-        <v>1.333</v>
-      </c>
-      <c r="O13">
-        <v>4.5</v>
-      </c>
       <c r="P13">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
+        <v>1.8</v>
+      </c>
+      <c r="V13">
         <v>2</v>
       </c>
-      <c r="V13">
-        <v>1.8</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X13">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6943305</v>
+        <v>6943309</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1690,73 +1690,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>1.285</v>
+      </c>
+      <c r="L14">
+        <v>4.6</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>1.333</v>
+      </c>
+      <c r="O14">
+        <v>4.5</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>-1.5</v>
+      </c>
+      <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
+        <v>1.85</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="V14">
+        <v>1.8</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>3.5</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB14">
         <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14">
-        <v>1.45</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="N14">
-        <v>1.4</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>7.5</v>
-      </c>
-      <c r="Q14">
-        <v>-1.25</v>
-      </c>
-      <c r="R14">
-        <v>1.825</v>
-      </c>
-      <c r="S14">
-        <v>1.975</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
-      <c r="U14">
-        <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.4875</v>
-      </c>
-      <c r="AB14">
-        <v>0.8</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1779,7 +1779,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>38</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6943310</v>
+        <v>6943315</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16">
+        <v>1.909</v>
+      </c>
+      <c r="L16">
+        <v>3.25</v>
+      </c>
+      <c r="M16">
+        <v>3.75</v>
+      </c>
+      <c r="N16">
+        <v>1.85</v>
+      </c>
+      <c r="O16">
+        <v>3.5</v>
+      </c>
+      <c r="P16">
+        <v>4.333</v>
+      </c>
+      <c r="Q16">
+        <v>-0.5</v>
+      </c>
+      <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
         <v>2</v>
       </c>
-      <c r="J16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>3.4</v>
-      </c>
-      <c r="M16">
-        <v>1.666</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>1.75</v>
-      </c>
-      <c r="Q16">
-        <v>0.75</v>
-      </c>
-      <c r="R16">
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
+        <v>1.925</v>
+      </c>
+      <c r="V16">
         <v>1.875</v>
       </c>
-      <c r="S16">
-        <v>1.925</v>
-      </c>
-      <c r="T16">
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>2.5</v>
       </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6942186</v>
+        <v>6943310</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="N17">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q17">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.925</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>1</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.925</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6943315</v>
+        <v>6942186</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,49 +2046,49 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L18">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N18">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P18">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2097,25 +2097,25 @@
         <v>1.875</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6943311</v>
+        <v>6943313</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
+        <v>6.5</v>
+      </c>
+      <c r="N19">
         <v>1.45</v>
       </c>
-      <c r="N19">
-        <v>15</v>
-      </c>
       <c r="O19">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="Q19">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R19">
-        <v>2.425</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.525</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.5249999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6943313</v>
+        <v>6943311</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,76 +2224,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="N20">
-        <v>1.45</v>
+        <v>15</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P20">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>2.425</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.525</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.425</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2669,10 +2669,10 @@
         <v>45186.5</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3117,7 +3117,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3203,7 +3203,7 @@
         <v>45192.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6943324</v>
+        <v>6943327</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3292,49 +3292,49 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3.3</v>
+      </c>
+      <c r="M32">
+        <v>2.2</v>
+      </c>
+      <c r="N32">
+        <v>2.75</v>
+      </c>
+      <c r="O32">
+        <v>3.25</v>
+      </c>
+      <c r="P32">
+        <v>2.625</v>
+      </c>
+      <c r="Q32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32">
-        <v>1.615</v>
-      </c>
-      <c r="L32">
-        <v>3.6</v>
-      </c>
-      <c r="M32">
-        <v>4.5</v>
-      </c>
-      <c r="N32">
-        <v>1.833</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
-      <c r="P32">
-        <v>4.5</v>
-      </c>
-      <c r="Q32">
-        <v>-0.5</v>
-      </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
         <v>1.825</v>
@@ -3343,25 +3343,25 @@
         <v>1.975</v>
       </c>
       <c r="W32">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6943327</v>
+        <v>6943324</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,49 +3381,49 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N33">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.825</v>
@@ -3432,25 +3432,25 @@
         <v>1.975</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6943330</v>
+        <v>6943328</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,34 +3737,34 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L37">
         <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
         <v>4</v>
@@ -3773,40 +3773,40 @@
         <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
         <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6943328</v>
+        <v>6943330</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,34 +3826,34 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N38">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
         <v>4</v>
@@ -3862,40 +3862,40 @@
         <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y38">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4007,7 +4007,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6943331</v>
+        <v>6942189</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,73 +4093,73 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+      <c r="L41">
         <v>5</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41">
-        <v>1.3</v>
-      </c>
-      <c r="L41">
-        <v>5.5</v>
-      </c>
       <c r="M41">
+        <v>1.333</v>
+      </c>
+      <c r="N41">
         <v>9</v>
       </c>
-      <c r="N41">
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
         <v>1.363</v>
       </c>
-      <c r="O41">
-        <v>6</v>
-      </c>
-      <c r="P41">
-        <v>7</v>
-      </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>-1</v>
+      </c>
+      <c r="Y41">
         <v>0.363</v>
       </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>-1</v>
-      </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
+        <v>0.95</v>
+      </c>
+      <c r="AB41">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6942189</v>
+        <v>6943331</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,73 +4182,73 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42">
+        <v>1.3</v>
+      </c>
+      <c r="L42">
+        <v>5.5</v>
+      </c>
+      <c r="M42">
         <v>9</v>
       </c>
-      <c r="L42">
-        <v>5</v>
-      </c>
-      <c r="M42">
-        <v>1.333</v>
-      </c>
       <c r="N42">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P42">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q42">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4274,7 +4274,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6943334</v>
+        <v>6943338</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,76 +4449,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="L45">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M45">
-        <v>8</v>
+        <v>1.363</v>
       </c>
       <c r="N45">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="O45">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q45">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6943338</v>
+        <v>6943334</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,76 +4538,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="L46">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M46">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="N46">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P46">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y46">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943337</v>
+        <v>6943336</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,76 +4627,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
         <v>2.1</v>
       </c>
       <c r="N47">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W47">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6943336</v>
+        <v>6943337</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,76 +4805,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K49">
+        <v>3.1</v>
+      </c>
+      <c r="L49">
         <v>3.4</v>
-      </c>
-      <c r="L49">
-        <v>3.2</v>
       </c>
       <c r="M49">
         <v>2.1</v>
       </c>
       <c r="N49">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P49">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
+        <v>1.775</v>
+      </c>
+      <c r="S49">
+        <v>2.025</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
         <v>1.925</v>
       </c>
-      <c r="S49">
+      <c r="V49">
         <v>1.875</v>
       </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.975</v>
-      </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
+        <v>-1</v>
+      </c>
+      <c r="AC49">
         <v>0.875</v>
-      </c>
-      <c r="AB49">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC49">
-        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -5164,7 +5164,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5253,7 +5253,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>42</v>
@@ -5962,7 +5962,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6051,7 +6051,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -6140,7 +6140,7 @@
         <v>45229.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>34</v>
@@ -6321,7 +6321,7 @@
         <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6943355</v>
+        <v>6943352</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,58 +6407,58 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N67">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6467,16 +6467,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6943352</v>
+        <v>6943355</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,58 +6496,58 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6556,16 +6556,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6766,7 +6766,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6852,7 +6852,7 @@
         <v>45240.625</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6942194</v>
+        <v>6943363</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,46 +7030,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M74">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N74">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>1.533</v>
+        <v>9.5</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
         <v>2.5</v>
@@ -7081,25 +7081,25 @@
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6943363</v>
+        <v>6942194</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,46 +7119,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N75">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>9.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>2.5</v>
@@ -7170,25 +7170,25 @@
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45242.5</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
@@ -7297,7 +7297,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7386,7 +7386,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7567,7 +7567,7 @@
         <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7831,10 +7831,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
         <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7923,7 +7923,7 @@
         <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8098,7 +8098,7 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>35</v>
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6943370</v>
+        <v>6943371</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
         <v>31</v>
       </c>
-      <c r="G87" t="s">
-        <v>40</v>
-      </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N87">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
         <v>1.925</v>
       </c>
-      <c r="S87">
-        <v>1.875</v>
-      </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6943371</v>
+        <v>6943370</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
         <v>1.875</v>
       </c>
-      <c r="S88">
+      <c r="T88">
+        <v>2.5</v>
+      </c>
+      <c r="U88">
         <v>1.925</v>
       </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>-0.5</v>
+      </c>
+      <c r="AA88">
+        <v>0.4375</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.875</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>45263.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -8721,10 +8721,10 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6943378</v>
+        <v>6943377</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,58 +8899,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O95">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q95">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R95">
+        <v>1.8</v>
+      </c>
+      <c r="S95">
         <v>2</v>
       </c>
-      <c r="S95">
-        <v>1.8</v>
-      </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
+        <v>1.95</v>
+      </c>
+      <c r="V95">
         <v>1.85</v>
       </c>
-      <c r="V95">
-        <v>1.95</v>
-      </c>
       <c r="W95">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6943377</v>
+        <v>6943378</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,58 +8988,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N96">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P96">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
         <v>1.8</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
       <c r="W96">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9048,16 +9048,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9080,7 +9080,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9332,7 +9332,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6943455</v>
+        <v>6943386</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9344,73 +9344,73 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>45</v>
+      </c>
+      <c r="K100">
+        <v>4.75</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>1.615</v>
+      </c>
+      <c r="N100">
+        <v>5.75</v>
+      </c>
+      <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>1.571</v>
+      </c>
+      <c r="Q100">
         <v>1</v>
       </c>
-      <c r="J100" t="s">
-        <v>43</v>
-      </c>
-      <c r="K100">
-        <v>1.25</v>
-      </c>
-      <c r="L100">
-        <v>5.25</v>
-      </c>
-      <c r="M100">
-        <v>10</v>
-      </c>
-      <c r="N100">
-        <v>1.333</v>
-      </c>
-      <c r="O100">
-        <v>5</v>
-      </c>
-      <c r="P100">
-        <v>9.5</v>
-      </c>
-      <c r="Q100">
-        <v>-1.25</v>
-      </c>
       <c r="R100">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AC100">
         <v>-0.5</v>
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6943386</v>
+        <v>6943455</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,73 +9433,73 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M101">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="N101">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>9.5</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AC101">
         <v>-0.5</v>
@@ -9522,10 +9522,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9789,7 +9789,7 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>38</v>
@@ -9967,7 +9967,7 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>41</v>
@@ -10056,10 +10056,10 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>3</v>
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6943388</v>
+        <v>6943387</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,58 +10145,58 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
         <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
       </c>
       <c r="K109">
-        <v>1.166</v>
+        <v>1.25</v>
       </c>
       <c r="L109">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="M109">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N109">
-        <v>1.111</v>
+        <v>1.222</v>
       </c>
       <c r="O109">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q109">
-        <v>-2.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>0.111</v>
+        <v>0.222</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10208,13 +10208,13 @@
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6943387</v>
+        <v>6943388</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,58 +10234,58 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>43</v>
       </c>
       <c r="K110">
-        <v>1.25</v>
+        <v>1.166</v>
       </c>
       <c r="L110">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="M110">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N110">
-        <v>1.222</v>
+        <v>1.111</v>
       </c>
       <c r="O110">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P110">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>0.222</v>
+        <v>0.111</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10297,13 +10297,13 @@
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6942199</v>
+        <v>6943389</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45283.5</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>1.952</v>
+      </c>
+      <c r="L111">
+        <v>3.3</v>
+      </c>
+      <c r="M111">
+        <v>3.9</v>
+      </c>
+      <c r="N111">
+        <v>2.05</v>
+      </c>
+      <c r="O111">
+        <v>3.4</v>
+      </c>
+      <c r="P111">
+        <v>3.75</v>
+      </c>
+      <c r="Q111">
+        <v>-0.5</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>1.8</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
+        <v>1.975</v>
+      </c>
+      <c r="V111">
+        <v>1.825</v>
+      </c>
+      <c r="W111">
+        <v>1.05</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>2</v>
-      </c>
-      <c r="J111" t="s">
-        <v>45</v>
-      </c>
-      <c r="K111">
-        <v>5.5</v>
-      </c>
-      <c r="L111">
-        <v>3.8</v>
-      </c>
-      <c r="M111">
-        <v>1.533</v>
-      </c>
-      <c r="N111">
-        <v>6.5</v>
-      </c>
-      <c r="O111">
-        <v>4.333</v>
-      </c>
-      <c r="P111">
-        <v>1.5</v>
-      </c>
-      <c r="Q111">
-        <v>1.25</v>
-      </c>
-      <c r="R111">
-        <v>1.8</v>
-      </c>
-      <c r="S111">
-        <v>2</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.825</v>
-      </c>
-      <c r="V111">
-        <v>1.975</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>0.5</v>
-      </c>
-      <c r="Z111">
-        <v>0.4</v>
-      </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6943389</v>
+        <v>6942199</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45283.5</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>1.952</v>
+        <v>5.5</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>3.9</v>
+        <v>1.533</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P112">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q112">
+        <v>1.25</v>
+      </c>
+      <c r="R112">
+        <v>1.8</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>1.825</v>
+      </c>
+      <c r="V112">
+        <v>1.975</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>0.5</v>
+      </c>
+      <c r="Z112">
+        <v>0.4</v>
+      </c>
+      <c r="AA112">
         <v>-0.5</v>
       </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>1.8</v>
-      </c>
-      <c r="T112">
-        <v>2.25</v>
-      </c>
-      <c r="U112">
-        <v>1.975</v>
-      </c>
-      <c r="V112">
-        <v>1.825</v>
-      </c>
-      <c r="W112">
-        <v>1.05</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>1</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>45293.5</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6943395</v>
+        <v>6943397</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,58 +10679,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>43</v>
       </c>
       <c r="K115">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L115">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N115">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="O115">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q115">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.333</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10739,16 +10739,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6943397</v>
+        <v>6943395</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,58 +10768,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L116">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N116">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P116">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.5329999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10828,16 +10828,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6943398</v>
+        <v>6942200</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,67 +10857,67 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="L117">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M117">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="N117">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
+        <v>1.85</v>
+      </c>
+      <c r="V117">
         <v>1.95</v>
       </c>
-      <c r="V117">
-        <v>1.85</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X117">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10926,7 +10926,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6942200</v>
+        <v>6943398</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,67 +10946,67 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M118">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="N118">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P118">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
+        <v>1.95</v>
+      </c>
+      <c r="V118">
         <v>1.85</v>
       </c>
-      <c r="V118">
-        <v>1.95</v>
-      </c>
       <c r="W118">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
         <v>-1</v>
@@ -11015,7 +11015,7 @@
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11305,7 +11305,7 @@
         <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6943403</v>
+        <v>6943404</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,76 +11391,76 @@
         <v>45298.5</v>
       </c>
       <c r="F123" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s">
         <v>37</v>
       </c>
-      <c r="G123" t="s">
-        <v>41</v>
-      </c>
       <c r="H123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L123">
         <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N123">
+        <v>1.8</v>
+      </c>
+      <c r="O123">
+        <v>3.6</v>
+      </c>
+      <c r="P123">
+        <v>4.75</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>3.6</v>
-      </c>
-      <c r="Q123">
+      <c r="W123">
+        <v>0.8</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.5</v>
+      </c>
+      <c r="AA123">
         <v>-0.5</v>
       </c>
-      <c r="R123">
-        <v>1.925</v>
-      </c>
-      <c r="S123">
-        <v>1.875</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>1.825</v>
-      </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>2.75</v>
-      </c>
-      <c r="Y123">
-        <v>-1</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
-      <c r="AA123">
-        <v>0.875</v>
-      </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6943404</v>
+        <v>6943403</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,76 +11480,76 @@
         <v>45298.5</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
         <v>3.6</v>
       </c>
-      <c r="P124">
-        <v>4.75</v>
-      </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11646,7 +11646,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6943399</v>
+        <v>6942201</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11658,13 +11658,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11673,43 +11673,43 @@
         <v>43</v>
       </c>
       <c r="K126">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="L126">
         <v>5.5</v>
       </c>
       <c r="M126">
-        <v>13</v>
+        <v>1.285</v>
       </c>
       <c r="N126">
+        <v>11</v>
+      </c>
+      <c r="O126">
+        <v>6.5</v>
+      </c>
+      <c r="P126">
         <v>1.222</v>
       </c>
-      <c r="O126">
-        <v>6</v>
-      </c>
-      <c r="P126">
-        <v>15</v>
-      </c>
       <c r="Q126">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
+        <v>1.975</v>
+      </c>
+      <c r="V126">
         <v>1.825</v>
       </c>
-      <c r="V126">
-        <v>1.975</v>
-      </c>
       <c r="W126">
-        <v>0.222</v>
+        <v>10</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,16 +11718,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11735,7 +11735,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6942201</v>
+        <v>6943399</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11747,13 +11747,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11762,43 +11762,43 @@
         <v>43</v>
       </c>
       <c r="K127">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L127">
         <v>5.5</v>
       </c>
       <c r="M127">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="N127">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="O127">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P127">
-        <v>1.222</v>
+        <v>15</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
+        <v>1.825</v>
+      </c>
+      <c r="V127">
         <v>1.975</v>
       </c>
-      <c r="V127">
-        <v>1.825</v>
-      </c>
       <c r="W127">
-        <v>10</v>
+        <v>0.222</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,16 +11807,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11824,7 +11824,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6943410</v>
+        <v>6943408</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11836,76 +11836,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="N128">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P128">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11913,7 +11913,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6943408</v>
+        <v>6943410</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11925,76 +11925,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K129">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N129">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="O129">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q129">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W129">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,10 +12014,10 @@
         <v>45304.5</v>
       </c>
       <c r="F130" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s">
         <v>36</v>
-      </c>
-      <c r="G130" t="s">
-        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12192,7 +12192,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
         <v>39</v>
@@ -12370,7 +12370,7 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>34</v>
@@ -12462,7 +12462,7 @@
         <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12640,7 +12640,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>6</v>
@@ -12726,7 +12726,7 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
         <v>38</v>
@@ -12907,7 +12907,7 @@
         <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6943422</v>
+        <v>6943420</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,16 +13082,16 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
         <v>45</v>
@@ -13106,32 +13106,32 @@
         <v>1.571</v>
       </c>
       <c r="N142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O142">
         <v>4.333</v>
       </c>
       <c r="P142">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q142">
         <v>1.25</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13139,16 +13139,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6943420</v>
+        <v>6943422</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,16 +13171,16 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
         <v>45</v>
@@ -13195,32 +13195,32 @@
         <v>1.571</v>
       </c>
       <c r="N143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O143">
         <v>4.333</v>
       </c>
       <c r="P143">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q143">
         <v>1.25</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
@@ -13228,16 +13228,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>33</v>
@@ -13438,7 +13438,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
         <v>32</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6943426</v>
+        <v>6942205</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="L148">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N148">
-        <v>1.181</v>
+        <v>1.85</v>
       </c>
       <c r="O148">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13782,7 +13782,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6942205</v>
+        <v>6943426</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13794,76 +13794,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K150">
-        <v>1.85</v>
+        <v>1.222</v>
       </c>
       <c r="L150">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M150">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N150">
-        <v>1.85</v>
+        <v>1.181</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P150">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X150">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13886,7 +13886,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -14150,7 +14150,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14239,7 +14239,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>35</v>
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6943430</v>
+        <v>6943434</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,55 +14328,55 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>44</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L156">
         <v>3.4</v>
       </c>
       <c r="M156">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N156">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O156">
         <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14388,16 +14388,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14405,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6943434</v>
+        <v>6943430</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,55 +14417,55 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>44</v>
       </c>
       <c r="K157">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L157">
         <v>3.4</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N157">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O157">
         <v>3.4</v>
       </c>
       <c r="P157">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14477,16 +14477,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14583,7 +14583,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6943433</v>
+        <v>7647734</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14595,13 +14595,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>3</v>
@@ -14610,41 +14610,41 @@
         <v>45</v>
       </c>
       <c r="K159">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M159">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N159">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R159">
+        <v>2.025</v>
+      </c>
+      <c r="S159">
+        <v>1.775</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
         <v>1.8</v>
       </c>
-      <c r="S159">
+      <c r="V159">
         <v>2</v>
       </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.85</v>
-      </c>
-      <c r="V159">
-        <v>1.95</v>
-      </c>
       <c r="W159">
         <v>-1</v>
       </c>
@@ -14652,19 +14652,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14672,7 +14672,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7647734</v>
+        <v>6943433</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14684,13 +14684,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>3</v>
@@ -14699,40 +14699,40 @@
         <v>45</v>
       </c>
       <c r="K160">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="L160">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M160">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N160">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q160">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14741,19 +14741,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB160">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14776,7 +14776,7 @@
         <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14865,7 +14865,7 @@
         <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -15043,7 +15043,7 @@
         <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15396,7 +15396,7 @@
         <v>45335.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943444</v>
+        <v>6943443</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,76 +15485,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K169">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>1.571</v>
+      </c>
+      <c r="N169">
+        <v>4.333</v>
+      </c>
+      <c r="O169">
+        <v>3.75</v>
+      </c>
+      <c r="P169">
+        <v>1.8</v>
+      </c>
+      <c r="Q169">
+        <v>0.75</v>
+      </c>
+      <c r="R169">
+        <v>1.825</v>
+      </c>
+      <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
         <v>3</v>
       </c>
-      <c r="M169">
-        <v>2.8</v>
-      </c>
-      <c r="N169">
-        <v>2.5</v>
-      </c>
-      <c r="O169">
-        <v>3.1</v>
-      </c>
-      <c r="P169">
-        <v>3</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>1.725</v>
-      </c>
-      <c r="S169">
-        <v>2.075</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W169">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC169">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943443</v>
+        <v>6943445</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,73 +15574,73 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
+        <v>1.75</v>
+      </c>
+      <c r="N170">
+        <v>5.5</v>
+      </c>
+      <c r="O170">
+        <v>4.2</v>
+      </c>
+      <c r="P170">
         <v>1.571</v>
       </c>
-      <c r="N170">
-        <v>4.333</v>
-      </c>
-      <c r="O170">
-        <v>3.75</v>
-      </c>
-      <c r="P170">
-        <v>1.8</v>
-      </c>
       <c r="Q170">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
+        <v>1.925</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
         <v>1.825</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.975</v>
       </c>
-      <c r="T170">
-        <v>3</v>
-      </c>
-      <c r="U170">
-        <v>2</v>
-      </c>
-      <c r="V170">
-        <v>1.8</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>-0</v>
+      </c>
+      <c r="AB170">
         <v>0.825</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>1</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943445</v>
+        <v>6943444</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171" t="s">
+        <v>43</v>
+      </c>
+      <c r="K171">
+        <v>2.45</v>
+      </c>
+      <c r="L171">
         <v>3</v>
       </c>
-      <c r="J171" t="s">
-        <v>45</v>
-      </c>
-      <c r="K171">
-        <v>4</v>
-      </c>
-      <c r="L171">
-        <v>3.75</v>
-      </c>
       <c r="M171">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N171">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P171">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA171">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>45337.5</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
         <v>33</v>
@@ -16022,7 +16022,7 @@
         <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16111,7 +16111,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16197,7 +16197,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
         <v>41</v>
@@ -16289,7 +16289,7 @@
         <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16645,7 +16645,7 @@
         <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16734,7 +16734,7 @@
         <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H183">
         <v>2</v>
@@ -16912,7 +16912,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16998,7 +16998,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17265,7 +17265,7 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
         <v>33</v>
@@ -17357,7 +17357,7 @@
         <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17443,7 +17443,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
         <v>39</v>
@@ -17537,6 +17537,15 @@
       <c r="G192" t="s">
         <v>29</v>
       </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>43</v>
+      </c>
       <c r="K192">
         <v>1.95</v>
       </c>
@@ -17568,28 +17577,34 @@
         <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
+        <v>-1</v>
+      </c>
+      <c r="AC192">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17611,6 +17626,15 @@
       <c r="G193" t="s">
         <v>41</v>
       </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>45</v>
+      </c>
       <c r="K193">
         <v>2.9</v>
       </c>
@@ -17621,49 +17645,55 @@
         <v>2.15</v>
       </c>
       <c r="N193">
+        <v>3.4</v>
+      </c>
+      <c r="O193">
         <v>3.3</v>
       </c>
-      <c r="O193">
-        <v>3.5</v>
-      </c>
       <c r="P193">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q193">
         <v>0.25</v>
       </c>
       <c r="R193">
+        <v>1.925</v>
+      </c>
+      <c r="S193">
+        <v>1.875</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
+        <v>1.85</v>
+      </c>
+      <c r="V193">
         <v>1.95</v>
       </c>
-      <c r="S193">
-        <v>1.85</v>
-      </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.8</v>
-      </c>
-      <c r="V193">
-        <v>2</v>
-      </c>
       <c r="W193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
+        <v>0.875</v>
+      </c>
+      <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -17685,6 +17715,15 @@
       <c r="G194" t="s">
         <v>34</v>
       </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" t="s">
+        <v>44</v>
+      </c>
       <c r="K194">
         <v>2.2</v>
       </c>
@@ -17695,49 +17734,55 @@
         <v>2.9</v>
       </c>
       <c r="N194">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="O194">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P194">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q194">
         <v>0</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
         <v>0</v>
       </c>
       <c r="AA194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -17754,11 +17799,20 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
         <v>38</v>
       </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>43</v>
+      </c>
       <c r="K195">
         <v>1.5</v>
       </c>
@@ -17769,49 +17823,55 @@
         <v>6</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O195">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P195">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q195">
         <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -17831,7 +17891,16 @@
         <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196" t="s">
+        <v>43</v>
       </c>
       <c r="K196">
         <v>2.15</v>
@@ -17843,45 +17912,525 @@
         <v>3.1</v>
       </c>
       <c r="N196">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O196">
         <v>3.5</v>
       </c>
       <c r="P196">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q196">
         <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
         <v>2.5</v>
       </c>
       <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>1.8</v>
+      </c>
+      <c r="W196">
+        <v>1.15</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>1</v>
+      </c>
+      <c r="AC196">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7879057</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45357.58333333334</v>
+      </c>
+      <c r="F197" t="s">
+        <v>36</v>
+      </c>
+      <c r="G197" t="s">
+        <v>32</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>44</v>
+      </c>
+      <c r="K197">
+        <v>1.909</v>
+      </c>
+      <c r="L197">
+        <v>3.5</v>
+      </c>
+      <c r="M197">
+        <v>3.75</v>
+      </c>
+      <c r="N197">
+        <v>2.1</v>
+      </c>
+      <c r="O197">
+        <v>3.3</v>
+      </c>
+      <c r="P197">
+        <v>3.6</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>1.775</v>
+      </c>
+      <c r="S197">
+        <v>2.025</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>1.9</v>
+      </c>
+      <c r="V197">
+        <v>1.9</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>2.3</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>-0.5</v>
+      </c>
+      <c r="AA197">
+        <v>0.5125</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>7879056</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45357.58333333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>41</v>
+      </c>
+      <c r="G198" t="s">
+        <v>37</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>43</v>
+      </c>
+      <c r="K198">
+        <v>1.65</v>
+      </c>
+      <c r="L198">
+        <v>3.75</v>
+      </c>
+      <c r="M198">
+        <v>4.75</v>
+      </c>
+      <c r="N198">
+        <v>1.7</v>
+      </c>
+      <c r="O198">
+        <v>3.8</v>
+      </c>
+      <c r="P198">
+        <v>5</v>
+      </c>
+      <c r="Q198">
+        <v>-0.75</v>
+      </c>
+      <c r="R198">
+        <v>1.825</v>
+      </c>
+      <c r="S198">
+        <v>1.975</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>1.975</v>
+      </c>
+      <c r="V198">
+        <v>1.825</v>
+      </c>
+      <c r="W198">
+        <v>0.7</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
+        <v>0.4125</v>
+      </c>
+      <c r="AA198">
+        <v>-0.5</v>
+      </c>
+      <c r="AB198">
+        <v>0.4875</v>
+      </c>
+      <c r="AC198">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7879059</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45359.58333333334</v>
+      </c>
+      <c r="F199" t="s">
+        <v>39</v>
+      </c>
+      <c r="G199" t="s">
+        <v>31</v>
+      </c>
+      <c r="K199">
+        <v>3.5</v>
+      </c>
+      <c r="L199">
+        <v>3.5</v>
+      </c>
+      <c r="M199">
+        <v>1.833</v>
+      </c>
+      <c r="N199">
+        <v>3.75</v>
+      </c>
+      <c r="O199">
+        <v>3.75</v>
+      </c>
+      <c r="P199">
+        <v>1.909</v>
+      </c>
+      <c r="Q199">
+        <v>0.5</v>
+      </c>
+      <c r="R199">
+        <v>1.9</v>
+      </c>
+      <c r="S199">
+        <v>1.9</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
+        <v>1.9</v>
+      </c>
+      <c r="V199">
+        <v>1.9</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7879046</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45360.5</v>
+      </c>
+      <c r="F200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G200" t="s">
+        <v>40</v>
+      </c>
+      <c r="K200">
+        <v>2.3</v>
+      </c>
+      <c r="L200">
+        <v>3.2</v>
+      </c>
+      <c r="M200">
+        <v>2.75</v>
+      </c>
+      <c r="N200">
+        <v>2.375</v>
+      </c>
+      <c r="O200">
+        <v>3.2</v>
+      </c>
+      <c r="P200">
+        <v>2.7</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>1.775</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.975</v>
+      </c>
+      <c r="V200">
+        <v>1.825</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7879047</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F201" t="s">
+        <v>30</v>
+      </c>
+      <c r="G201" t="s">
+        <v>29</v>
+      </c>
+      <c r="K201">
+        <v>2.75</v>
+      </c>
+      <c r="L201">
+        <v>3.2</v>
+      </c>
+      <c r="M201">
+        <v>2.3</v>
+      </c>
+      <c r="N201">
+        <v>2.8</v>
+      </c>
+      <c r="O201">
+        <v>3.2</v>
+      </c>
+      <c r="P201">
+        <v>2.25</v>
+      </c>
+      <c r="Q201">
+        <v>0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.775</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
         <v>1.95</v>
       </c>
-      <c r="V196">
+      <c r="V201">
         <v>1.85</v>
       </c>
-      <c r="W196">
+      <c r="W201">
         <v>0</v>
       </c>
-      <c r="X196">
+      <c r="X201">
         <v>0</v>
       </c>
-      <c r="Y196">
+      <c r="Y201">
         <v>0</v>
       </c>
-      <c r="Z196">
+      <c r="Z201">
         <v>0</v>
       </c>
-      <c r="AA196">
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7879048</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>34</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="K202">
+        <v>2.3</v>
+      </c>
+      <c r="L202">
+        <v>3.2</v>
+      </c>
+      <c r="M202">
+        <v>2.75</v>
+      </c>
+      <c r="N202">
+        <v>2.2</v>
+      </c>
+      <c r="O202">
+        <v>3.25</v>
+      </c>
+      <c r="P202">
+        <v>2.875</v>
+      </c>
+      <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.8</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
+        <v>1.925</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
         <v>0</v>
       </c>
     </row>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Pafos FC</t>
   </si>
   <si>
-    <t>Anorthosis Famagusta</t>
+    <t>Apollon Limassol</t>
   </si>
   <si>
-    <t>Apollon Limassol</t>
+    <t>Anorthosis Famagusta</t>
   </si>
   <si>
     <t>AE Zakakiou</t>
@@ -130,10 +130,10 @@
     <t>Othellos Athienou</t>
   </si>
   <si>
-    <t>Nea Salamis Famagusta</t>
+    <t>AEL Limassol</t>
   </si>
   <si>
-    <t>AEL Limassol</t>
+    <t>Nea Salamis Famagusta</t>
   </si>
   <si>
     <t>AEK Larnaca</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6997345</v>
+        <v>6997344</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L3">
+        <v>4.75</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>1.363</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <v>-1.5</v>
+      </c>
+      <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
+        <v>1.975</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>5.5</v>
-      </c>
-      <c r="N3">
-        <v>1.75</v>
-      </c>
-      <c r="O3">
-        <v>3.8</v>
-      </c>
-      <c r="P3">
-        <v>4.75</v>
-      </c>
-      <c r="Q3">
-        <v>-0.75</v>
-      </c>
-      <c r="R3">
-        <v>1.925</v>
-      </c>
-      <c r="S3">
-        <v>1.875</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6997344</v>
+        <v>6997345</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5.5</v>
+      </c>
+      <c r="N4">
+        <v>1.75</v>
+      </c>
+      <c r="O4">
+        <v>3.8</v>
+      </c>
+      <c r="P4">
         <v>4.75</v>
       </c>
-      <c r="M4">
-        <v>11</v>
-      </c>
-      <c r="N4">
-        <v>1.363</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -981,7 +981,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6943307</v>
+        <v>6943308</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,46 +1426,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>1.4</v>
+      </c>
+      <c r="O11">
+        <v>4.5</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>-1.25</v>
+      </c>
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="N11">
-        <v>4.75</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>1.7</v>
-      </c>
-      <c r="Q11">
-        <v>0.75</v>
-      </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -1474,25 +1474,25 @@
         <v>1.8</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6943308</v>
+        <v>6943307</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,46 +1515,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>3.4</v>
+      </c>
+      <c r="L12">
+        <v>3.25</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>4.75</v>
+      </c>
+      <c r="O12">
         <v>4</v>
       </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12">
-        <v>1.6</v>
-      </c>
-      <c r="L12">
-        <v>3.6</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>1.4</v>
-      </c>
-      <c r="O12">
-        <v>4.5</v>
-      </c>
       <c r="P12">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -1563,25 +1563,25 @@
         <v>1.8</v>
       </c>
       <c r="W12">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6943305</v>
+        <v>6943309</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1601,73 +1601,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>1.285</v>
+      </c>
+      <c r="L13">
+        <v>4.6</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>1.333</v>
+      </c>
+      <c r="O13">
+        <v>4.5</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>-1.5</v>
+      </c>
+      <c r="R13">
+        <v>1.95</v>
+      </c>
+      <c r="S13">
+        <v>1.85</v>
+      </c>
+      <c r="T13">
+        <v>2.75</v>
+      </c>
+      <c r="U13">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="V13">
+        <v>1.8</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>3.5</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB13">
         <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13">
-        <v>1.45</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>1.4</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>7.5</v>
-      </c>
-      <c r="Q13">
-        <v>-1.25</v>
-      </c>
-      <c r="R13">
-        <v>1.825</v>
-      </c>
-      <c r="S13">
-        <v>1.975</v>
-      </c>
-      <c r="T13">
-        <v>2.5</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-      <c r="W13">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0.4875</v>
-      </c>
-      <c r="AB13">
-        <v>0.8</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6943309</v>
+        <v>6943305</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1690,73 +1690,73 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>1.45</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>1.4</v>
+      </c>
+      <c r="O14">
         <v>5</v>
       </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14">
-        <v>1.285</v>
-      </c>
-      <c r="L14">
-        <v>4.6</v>
-      </c>
-      <c r="M14">
-        <v>9</v>
-      </c>
-      <c r="N14">
-        <v>1.333</v>
-      </c>
-      <c r="O14">
-        <v>4.5</v>
-      </c>
       <c r="P14">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Q14">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
+        <v>1.8</v>
+      </c>
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="V14">
-        <v>1.8</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X14">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1779,10 +1779,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6943315</v>
+        <v>6942186</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,49 +1868,49 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P16">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
         <v>1.8</v>
       </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
         <v>1.925</v>
@@ -1919,25 +1919,25 @@
         <v>1.875</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6942186</v>
+        <v>6943315</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,49 +2046,49 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N18">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q18">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
         <v>2</v>
       </c>
-      <c r="S18">
-        <v>1.8</v>
-      </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2097,25 +2097,25 @@
         <v>1.875</v>
       </c>
       <c r="W18">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
         <v>1</v>
       </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7168372</v>
+        <v>7168377</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,73 +2402,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>1.4</v>
+      </c>
+      <c r="L22">
+        <v>4.333</v>
+      </c>
+      <c r="M22">
+        <v>6.5</v>
+      </c>
+      <c r="N22">
+        <v>1.285</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>-1.75</v>
+      </c>
+      <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
+        <v>1.825</v>
+      </c>
+      <c r="T22">
         <v>3</v>
       </c>
-      <c r="J22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>1.95</v>
-      </c>
-      <c r="L22">
-        <v>3.1</v>
-      </c>
-      <c r="M22">
-        <v>3.8</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>3.5</v>
-      </c>
-      <c r="P22">
-        <v>3.8</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.9</v>
-      </c>
-      <c r="S22">
-        <v>1.9</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7168377</v>
+        <v>7168372</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2491,73 +2491,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="I23">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <v>1.95</v>
+      </c>
+      <c r="L23">
+        <v>3.1</v>
+      </c>
+      <c r="M23">
+        <v>3.8</v>
+      </c>
+      <c r="N23">
         <v>2</v>
       </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>1.4</v>
-      </c>
-      <c r="L23">
-        <v>4.333</v>
-      </c>
-      <c r="M23">
-        <v>6.5</v>
-      </c>
-      <c r="N23">
-        <v>1.285</v>
-      </c>
       <c r="O23">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q23">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
@@ -2672,7 +2672,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>45192.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3381,10 +3381,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3651,7 +3651,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4004,10 +4004,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6942189</v>
+        <v>6943331</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,73 +4093,73 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41">
+        <v>1.3</v>
+      </c>
+      <c r="L41">
+        <v>5.5</v>
+      </c>
+      <c r="M41">
         <v>9</v>
       </c>
-      <c r="L41">
-        <v>5</v>
-      </c>
-      <c r="M41">
-        <v>1.333</v>
-      </c>
       <c r="N41">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P41">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q41">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6943331</v>
+        <v>6942189</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,73 +4182,73 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
         <v>5</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42">
-        <v>1.3</v>
-      </c>
-      <c r="L42">
-        <v>5.5</v>
-      </c>
       <c r="M42">
+        <v>1.333</v>
+      </c>
+      <c r="N42">
         <v>9</v>
       </c>
-      <c r="N42">
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
         <v>1.363</v>
       </c>
-      <c r="O42">
-        <v>6</v>
-      </c>
-      <c r="P42">
-        <v>7</v>
-      </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
         <v>0.363</v>
       </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>-1</v>
-      </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
+        <v>0.95</v>
+      </c>
+      <c r="AB42">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4271,7 +4271,7 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
         <v>36</v>
@@ -4627,7 +4627,7 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6943335</v>
+        <v>6943337</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,13 +4716,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4731,43 +4731,43 @@
         <v>43</v>
       </c>
       <c r="K48">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L48">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N48">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R48">
+        <v>1.775</v>
+      </c>
+      <c r="S48">
+        <v>2.025</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.825</v>
-      </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
       <c r="W48">
-        <v>0.333</v>
+        <v>1.6</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4776,16 +4776,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6943337</v>
+        <v>6943335</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,13 +4805,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4820,43 +4820,43 @@
         <v>43</v>
       </c>
       <c r="K49">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M49">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N49">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>1.6</v>
+        <v>0.333</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4865,16 +4865,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4882,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6943340</v>
+        <v>6943343</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4894,13 +4894,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4909,43 +4909,43 @@
         <v>43</v>
       </c>
       <c r="K50">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="L50">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N50">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O50">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q50">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4954,16 +4954,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6943343</v>
+        <v>6943340</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,13 +4983,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4998,43 +4998,43 @@
         <v>43</v>
       </c>
       <c r="K51">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="L51">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N51">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O51">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R51">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5043,16 +5043,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>37</v>
@@ -5253,7 +5253,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45224.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -5695,10 +5695,10 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s">
         <v>38</v>
-      </c>
-      <c r="G59" t="s">
-        <v>39</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5950,7 +5950,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6943347</v>
+        <v>6942192</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5965,73 +5965,73 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K62">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N62">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O62">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
+        <v>1.95</v>
+      </c>
+      <c r="T62">
+        <v>2.25</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
+        <v>1.925</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
         <v>1.8</v>
       </c>
-      <c r="T62">
-        <v>3.5</v>
-      </c>
-      <c r="U62">
-        <v>1.9</v>
-      </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>5.5</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6942192</v>
+        <v>6943347</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6054,73 +6054,73 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M63">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N63">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P63">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y63">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6499,7 +6499,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6943357</v>
+        <v>6942193</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,76 +6585,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA69">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6942193</v>
+        <v>6943357</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,76 +6674,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70">
+        <v>2.875</v>
+      </c>
+      <c r="L70">
+        <v>3.3</v>
+      </c>
+      <c r="M70">
+        <v>2.4</v>
+      </c>
+      <c r="N70">
+        <v>2.4</v>
+      </c>
+      <c r="O70">
+        <v>3.4</v>
+      </c>
+      <c r="P70">
+        <v>2.875</v>
+      </c>
+      <c r="Q70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>43</v>
-      </c>
-      <c r="K70">
-        <v>2.05</v>
-      </c>
-      <c r="L70">
-        <v>3.4</v>
-      </c>
-      <c r="M70">
-        <v>3.4</v>
-      </c>
-      <c r="N70">
-        <v>1.75</v>
-      </c>
-      <c r="O70">
-        <v>3.8</v>
-      </c>
-      <c r="P70">
-        <v>4.5</v>
-      </c>
-      <c r="Q70">
-        <v>-0.75</v>
-      </c>
       <c r="R70">
+        <v>1.725</v>
+      </c>
+      <c r="S70">
+        <v>2.075</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
         <v>1.875</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.925</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>2</v>
-      </c>
-      <c r="V70">
-        <v>1.8</v>
-      </c>
       <c r="W70">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
@@ -6852,7 +6852,7 @@
         <v>45240.625</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -6941,7 +6941,7 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
         <v>33</v>
@@ -7033,7 +7033,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6943367</v>
+        <v>6943366</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="L81">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O81">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q81">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6943366</v>
+        <v>6943367</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82">
+        <v>1.3</v>
+      </c>
+      <c r="L82">
+        <v>4.8</v>
+      </c>
+      <c r="M82">
+        <v>8.5</v>
+      </c>
+      <c r="N82">
+        <v>1.363</v>
+      </c>
+      <c r="O82">
+        <v>4.75</v>
+      </c>
+      <c r="P82">
+        <v>8.5</v>
+      </c>
+      <c r="Q82">
+        <v>-1.5</v>
+      </c>
+      <c r="R82">
         <v>2</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82" t="s">
-        <v>44</v>
-      </c>
-      <c r="K82">
-        <v>3.2</v>
-      </c>
-      <c r="L82">
-        <v>3.5</v>
-      </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="N82">
-        <v>3.8</v>
-      </c>
-      <c r="O82">
-        <v>3.6</v>
-      </c>
-      <c r="P82">
-        <v>1.909</v>
-      </c>
-      <c r="Q82">
-        <v>0.5</v>
-      </c>
-      <c r="R82">
-        <v>1.9</v>
-      </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7831,10 +7831,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6943365</v>
+        <v>6943369</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>43</v>
+      </c>
+      <c r="K84">
+        <v>1.615</v>
+      </c>
+      <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
+        <v>4.75</v>
+      </c>
+      <c r="N84">
+        <v>1.5</v>
+      </c>
+      <c r="O84">
+        <v>4.2</v>
+      </c>
+      <c r="P84">
+        <v>7</v>
+      </c>
+      <c r="Q84">
+        <v>-1</v>
+      </c>
+      <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
         <v>2</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84" t="s">
-        <v>44</v>
-      </c>
-      <c r="K84">
-        <v>2.625</v>
-      </c>
-      <c r="L84">
-        <v>3.25</v>
-      </c>
-      <c r="M84">
-        <v>2.45</v>
-      </c>
-      <c r="N84">
-        <v>3.6</v>
-      </c>
-      <c r="O84">
-        <v>3.4</v>
-      </c>
-      <c r="P84">
-        <v>2.1</v>
-      </c>
-      <c r="Q84">
-        <v>0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
+        <v>1.95</v>
+      </c>
+      <c r="V84">
         <v>1.85</v>
       </c>
-      <c r="V84">
-        <v>1.95</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6943369</v>
+        <v>6943365</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,73 +8009,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
       <c r="W85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6943371</v>
+        <v>6943370</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
+        <v>1.925</v>
+      </c>
+      <c r="S87">
         <v>1.875</v>
       </c>
-      <c r="S87">
+      <c r="T87">
+        <v>2.5</v>
+      </c>
+      <c r="U87">
         <v>1.925</v>
       </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.975</v>
-      </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>-0.5</v>
+      </c>
+      <c r="AA87">
+        <v>0.4375</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.875</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6943370</v>
+        <v>6943371</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F88" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" t="s">
         <v>30</v>
       </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N88">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
         <v>1.925</v>
       </c>
-      <c r="S88">
-        <v>1.875</v>
-      </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6942196</v>
+        <v>6943374</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,49 +8454,49 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
         <v>0</v>
       </c>
-      <c r="I90">
+      <c r="J90" t="s">
+        <v>43</v>
+      </c>
+      <c r="K90">
+        <v>1.2</v>
+      </c>
+      <c r="L90">
+        <v>5.5</v>
+      </c>
+      <c r="M90">
+        <v>13</v>
+      </c>
+      <c r="N90">
+        <v>1.166</v>
+      </c>
+      <c r="O90">
+        <v>8</v>
+      </c>
+      <c r="P90">
+        <v>17</v>
+      </c>
+      <c r="Q90">
+        <v>-2</v>
+      </c>
+      <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
         <v>2</v>
       </c>
-      <c r="J90" t="s">
-        <v>45</v>
-      </c>
-      <c r="K90">
-        <v>5</v>
-      </c>
-      <c r="L90">
-        <v>3.8</v>
-      </c>
-      <c r="M90">
-        <v>1.571</v>
-      </c>
-      <c r="N90">
-        <v>7.5</v>
-      </c>
-      <c r="O90">
-        <v>4.2</v>
-      </c>
-      <c r="P90">
-        <v>1.5</v>
-      </c>
-      <c r="Q90">
-        <v>1.25</v>
-      </c>
-      <c r="R90">
-        <v>1.75</v>
-      </c>
-      <c r="S90">
-        <v>2.05</v>
-      </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
         <v>1.85</v>
@@ -8505,25 +8505,25 @@
         <v>1.95</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6943374</v>
+        <v>6942196</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,49 +8543,49 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>45</v>
+      </c>
+      <c r="K91">
         <v>5</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>43</v>
-      </c>
-      <c r="K91">
-        <v>1.2</v>
-      </c>
       <c r="L91">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M91">
-        <v>13</v>
+        <v>1.571</v>
       </c>
       <c r="N91">
-        <v>1.166</v>
+        <v>7.5</v>
       </c>
       <c r="O91">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="Q91">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
         <v>1.85</v>
@@ -8594,25 +8594,25 @@
         <v>1.95</v>
       </c>
       <c r="W91">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
         <v>34</v>
@@ -8724,7 +8724,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6943377</v>
+        <v>6943378</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,58 +8899,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N95">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P95">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
         <v>1.8</v>
       </c>
-      <c r="S95">
-        <v>2</v>
-      </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
+        <v>1.85</v>
+      </c>
+      <c r="V95">
         <v>1.95</v>
       </c>
-      <c r="V95">
-        <v>1.85</v>
-      </c>
       <c r="W95">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6943378</v>
+        <v>6943377</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,58 +8988,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="L96">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q96">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
         <v>2</v>
       </c>
-      <c r="S96">
-        <v>1.8</v>
-      </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
+        <v>1.95</v>
+      </c>
+      <c r="V96">
         <v>1.85</v>
       </c>
-      <c r="V96">
-        <v>1.95</v>
-      </c>
       <c r="W96">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9048,16 +9048,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9080,7 +9080,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9332,7 +9332,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6943386</v>
+        <v>6943455</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9344,73 +9344,73 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M100">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="N100">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>1.571</v>
+        <v>9.5</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AC100">
         <v>-0.5</v>
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6943455</v>
+        <v>6943386</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,73 +9433,73 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>45</v>
+      </c>
+      <c r="K101">
+        <v>4.75</v>
+      </c>
+      <c r="L101">
+        <v>3.75</v>
+      </c>
+      <c r="M101">
+        <v>1.615</v>
+      </c>
+      <c r="N101">
+        <v>5.75</v>
+      </c>
+      <c r="O101">
+        <v>4.2</v>
+      </c>
+      <c r="P101">
+        <v>1.571</v>
+      </c>
+      <c r="Q101">
         <v>1</v>
       </c>
-      <c r="J101" t="s">
-        <v>43</v>
-      </c>
-      <c r="K101">
-        <v>1.25</v>
-      </c>
-      <c r="L101">
-        <v>5.25</v>
-      </c>
-      <c r="M101">
-        <v>10</v>
-      </c>
-      <c r="N101">
-        <v>1.333</v>
-      </c>
-      <c r="O101">
-        <v>5</v>
-      </c>
-      <c r="P101">
-        <v>9.5</v>
-      </c>
-      <c r="Q101">
-        <v>-1.25</v>
-      </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AC101">
         <v>-0.5</v>
@@ -9522,7 +9522,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9614,7 +9614,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9789,10 +9789,10 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6943390</v>
+        <v>6943388</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108">
+        <v>1.166</v>
+      </c>
+      <c r="L108">
+        <v>6.5</v>
+      </c>
+      <c r="M108">
+        <v>12</v>
+      </c>
+      <c r="N108">
+        <v>1.111</v>
+      </c>
+      <c r="O108">
+        <v>9.5</v>
+      </c>
+      <c r="P108">
+        <v>19</v>
+      </c>
+      <c r="Q108">
+        <v>-2.75</v>
+      </c>
+      <c r="R108">
+        <v>1.975</v>
+      </c>
+      <c r="S108">
+        <v>1.825</v>
+      </c>
+      <c r="T108">
         <v>4</v>
       </c>
-      <c r="J108" t="s">
-        <v>45</v>
-      </c>
-      <c r="K108">
-        <v>5</v>
-      </c>
-      <c r="L108">
-        <v>3.8</v>
-      </c>
-      <c r="M108">
-        <v>1.571</v>
-      </c>
-      <c r="N108">
-        <v>6.5</v>
-      </c>
-      <c r="O108">
-        <v>3.4</v>
-      </c>
-      <c r="P108">
-        <v>1.666</v>
-      </c>
-      <c r="Q108">
-        <v>0.75</v>
-      </c>
-      <c r="R108">
-        <v>1.95</v>
-      </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
-      <c r="T108">
-        <v>2</v>
-      </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6943388</v>
+        <v>6943390</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="L110">
+        <v>3.8</v>
+      </c>
+      <c r="M110">
+        <v>1.571</v>
+      </c>
+      <c r="N110">
         <v>6.5</v>
       </c>
-      <c r="M110">
-        <v>12</v>
-      </c>
-      <c r="N110">
-        <v>1.111</v>
-      </c>
       <c r="O110">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.75</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>1.85</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>1.825</v>
+      </c>
+      <c r="V110">
         <v>1.975</v>
       </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>4</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
-      <c r="V110">
-        <v>1.875</v>
-      </c>
       <c r="W110">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
+        <v>0.425</v>
+      </c>
+      <c r="AB110">
         <v>0.825</v>
       </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6943389</v>
+        <v>6942199</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45283.5</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>1.952</v>
+        <v>5.5</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M111">
-        <v>3.9</v>
+        <v>1.533</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P111">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q111">
+        <v>1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
+        <v>1.825</v>
+      </c>
+      <c r="V111">
+        <v>1.975</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>0.5</v>
+      </c>
+      <c r="Z111">
+        <v>0.4</v>
+      </c>
+      <c r="AA111">
         <v>-0.5</v>
       </c>
-      <c r="R111">
-        <v>2</v>
-      </c>
-      <c r="S111">
-        <v>1.8</v>
-      </c>
-      <c r="T111">
-        <v>2.25</v>
-      </c>
-      <c r="U111">
-        <v>1.975</v>
-      </c>
-      <c r="V111">
-        <v>1.825</v>
-      </c>
-      <c r="W111">
-        <v>1.05</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>1</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6942199</v>
+        <v>6943389</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45283.5</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <v>1.952</v>
+      </c>
+      <c r="L112">
+        <v>3.3</v>
+      </c>
+      <c r="M112">
+        <v>3.9</v>
+      </c>
+      <c r="N112">
+        <v>2.05</v>
+      </c>
+      <c r="O112">
+        <v>3.4</v>
+      </c>
+      <c r="P112">
+        <v>3.75</v>
+      </c>
+      <c r="Q112">
+        <v>-0.5</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
+        <v>1.975</v>
+      </c>
+      <c r="V112">
+        <v>1.825</v>
+      </c>
+      <c r="W112">
+        <v>1.05</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
-      <c r="J112" t="s">
-        <v>45</v>
-      </c>
-      <c r="K112">
-        <v>5.5</v>
-      </c>
-      <c r="L112">
-        <v>3.8</v>
-      </c>
-      <c r="M112">
-        <v>1.533</v>
-      </c>
-      <c r="N112">
-        <v>6.5</v>
-      </c>
-      <c r="O112">
-        <v>4.333</v>
-      </c>
-      <c r="P112">
-        <v>1.5</v>
-      </c>
-      <c r="Q112">
-        <v>1.25</v>
-      </c>
-      <c r="R112">
-        <v>1.8</v>
-      </c>
-      <c r="S112">
-        <v>2</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>0.5</v>
-      </c>
-      <c r="Z112">
-        <v>0.4</v>
-      </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,10 +10501,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>45293.5</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6943397</v>
+        <v>6943395</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,58 +10679,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>43</v>
       </c>
       <c r="K115">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L115">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N115">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P115">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.5329999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10739,16 +10739,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6943395</v>
+        <v>6943397</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,58 +10768,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>1</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L116">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M116">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N116">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="O116">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q116">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.333</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10828,16 +10828,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6942200</v>
+        <v>6943398</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,67 +10857,67 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="L117">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M117">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="N117">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
         <v>1.85</v>
       </c>
-      <c r="V117">
-        <v>1.95</v>
-      </c>
       <c r="W117">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10926,7 +10926,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6943398</v>
+        <v>6943394</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118" t="s">
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <v>2.8</v>
+      </c>
+      <c r="L118">
+        <v>3.3</v>
+      </c>
+      <c r="M118">
+        <v>2.55</v>
+      </c>
+      <c r="N118">
+        <v>2.875</v>
+      </c>
+      <c r="O118">
+        <v>2.9</v>
+      </c>
+      <c r="P118">
+        <v>2.75</v>
+      </c>
+      <c r="Q118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>44</v>
-      </c>
-      <c r="K118">
-        <v>6.5</v>
-      </c>
-      <c r="L118">
-        <v>4.75</v>
-      </c>
-      <c r="M118">
-        <v>1.45</v>
-      </c>
-      <c r="N118">
-        <v>5.25</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
-      <c r="P118">
-        <v>1.55</v>
-      </c>
-      <c r="Q118">
-        <v>1</v>
-      </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6943394</v>
+        <v>6942200</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L119">
         <v>3.3</v>
       </c>
       <c r="M119">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O119">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11302,10 +11302,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6943404</v>
+        <v>6943403</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,76 +11391,76 @@
         <v>45298.5</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
         <v>3.4</v>
       </c>
       <c r="M123">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O123">
+        <v>3.75</v>
+      </c>
+      <c r="P123">
         <v>3.6</v>
       </c>
-      <c r="P123">
-        <v>4.75</v>
-      </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6943403</v>
+        <v>6943404</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,76 +11480,76 @@
         <v>45298.5</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L124">
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N124">
+        <v>1.8</v>
+      </c>
+      <c r="O124">
+        <v>3.6</v>
+      </c>
+      <c r="P124">
+        <v>4.75</v>
+      </c>
+      <c r="Q124">
+        <v>-0.75</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
         <v>1.95</v>
       </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>3.6</v>
-      </c>
-      <c r="Q124">
+      <c r="W124">
+        <v>0.8</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.5</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>1.825</v>
-      </c>
-      <c r="V124">
-        <v>1.975</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>2.75</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.875</v>
-      </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11646,7 +11646,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6942201</v>
+        <v>6943399</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11658,13 +11658,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11673,43 +11673,43 @@
         <v>43</v>
       </c>
       <c r="K126">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L126">
         <v>5.5</v>
       </c>
       <c r="M126">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="N126">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="O126">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P126">
-        <v>1.222</v>
+        <v>15</v>
       </c>
       <c r="Q126">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R126">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
+        <v>1.825</v>
+      </c>
+      <c r="V126">
         <v>1.975</v>
       </c>
-      <c r="V126">
-        <v>1.825</v>
-      </c>
       <c r="W126">
-        <v>10</v>
+        <v>0.222</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,16 +11718,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11735,7 +11735,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6943399</v>
+        <v>6942201</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11747,13 +11747,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11762,43 +11762,43 @@
         <v>43</v>
       </c>
       <c r="K127">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="L127">
         <v>5.5</v>
       </c>
       <c r="M127">
-        <v>13</v>
+        <v>1.285</v>
       </c>
       <c r="N127">
+        <v>11</v>
+      </c>
+      <c r="O127">
+        <v>6.5</v>
+      </c>
+      <c r="P127">
         <v>1.222</v>
       </c>
-      <c r="O127">
-        <v>6</v>
-      </c>
-      <c r="P127">
-        <v>15</v>
-      </c>
       <c r="Q127">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R127">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
+        <v>1.975</v>
+      </c>
+      <c r="V127">
         <v>1.825</v>
       </c>
-      <c r="V127">
-        <v>1.975</v>
-      </c>
       <c r="W127">
-        <v>0.222</v>
+        <v>10</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,16 +11807,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA127">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -12192,10 +12192,10 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12370,7 +12370,7 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>34</v>
@@ -12462,7 +12462,7 @@
         <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -12729,7 +12729,7 @@
         <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6943413</v>
+        <v>6942203</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>43</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
+        <v>2.5</v>
+      </c>
+      <c r="O140">
+        <v>3.2</v>
+      </c>
+      <c r="P140">
+        <v>3</v>
+      </c>
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
         <v>2.05</v>
       </c>
-      <c r="O140">
-        <v>3.3</v>
-      </c>
-      <c r="P140">
-        <v>3.75</v>
-      </c>
-      <c r="Q140">
-        <v>-0.5</v>
-      </c>
-      <c r="R140">
-        <v>2.025</v>
-      </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
+        <v>1.5</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
         <v>1.05</v>
       </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>1.025</v>
-      </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6942203</v>
+        <v>6943413</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,58 +12993,58 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>43</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="N141">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
+        <v>2.025</v>
+      </c>
+      <c r="S141">
+        <v>1.775</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
+        <v>1.75</v>
+      </c>
+      <c r="V141">
         <v>2.05</v>
       </c>
-      <c r="S141">
-        <v>1.75</v>
-      </c>
-      <c r="T141">
-        <v>2.25</v>
-      </c>
-      <c r="U141">
-        <v>1.925</v>
-      </c>
-      <c r="V141">
-        <v>1.875</v>
-      </c>
       <c r="W141">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13053,16 +13053,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6943420</v>
+        <v>6943422</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,16 +13082,16 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>45</v>
@@ -13106,32 +13106,32 @@
         <v>1.571</v>
       </c>
       <c r="N142">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O142">
         <v>4.333</v>
       </c>
       <c r="P142">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q142">
         <v>1.25</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13139,16 +13139,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6943422</v>
+        <v>6943420</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,16 +13171,16 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
         <v>45</v>
@@ -13195,32 +13195,32 @@
         <v>1.571</v>
       </c>
       <c r="N143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O143">
         <v>4.333</v>
       </c>
       <c r="P143">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q143">
         <v>1.25</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
@@ -13228,16 +13228,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>33</v>
@@ -13438,7 +13438,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>32</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6942205</v>
+        <v>6943426</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
-        <v>1.85</v>
+        <v>1.222</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M148">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N148">
-        <v>1.85</v>
+        <v>1.181</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X148">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6943423</v>
+        <v>6942205</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,76 +13705,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K149">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L149">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N149">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
+        <v>2.25</v>
+      </c>
+      <c r="U149">
+        <v>1.85</v>
+      </c>
+      <c r="V149">
+        <v>1.95</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
         <v>2.5</v>
       </c>
-      <c r="U149">
-        <v>1.925</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>0.75</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB149">
         <v>-0.5</v>
       </c>
-      <c r="AB149">
-        <v>0.925</v>
-      </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13782,7 +13782,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6943426</v>
+        <v>6943423</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13794,58 +13794,58 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>43</v>
       </c>
       <c r="K150">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N150">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O150">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q150">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W150">
-        <v>0.181</v>
+        <v>0.75</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13854,13 +13854,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13972,10 +13972,10 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F152" t="s">
+        <v>38</v>
+      </c>
+      <c r="G152" t="s">
         <v>39</v>
-      </c>
-      <c r="G152" t="s">
-        <v>38</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14150,7 +14150,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14239,7 +14239,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
         <v>35</v>
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6943434</v>
+        <v>6943431</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,34 +14328,34 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
         <v>4</v>
       </c>
       <c r="N156">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P156">
         <v>3.8</v>
@@ -14364,37 +14364,37 @@
         <v>-0.5</v>
       </c>
       <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>1.9</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
+        <v>1.775</v>
+      </c>
+      <c r="V156">
         <v>2.025</v>
       </c>
-      <c r="S156">
-        <v>1.775</v>
-      </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
-      <c r="U156">
-        <v>1.85</v>
-      </c>
-      <c r="V156">
-        <v>1.95</v>
-      </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X156">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB156">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14405,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6943430</v>
+        <v>6943434</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,55 +14417,55 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>44</v>
       </c>
       <c r="K157">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L157">
         <v>3.4</v>
       </c>
       <c r="M157">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O157">
         <v>3.4</v>
       </c>
       <c r="P157">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14477,16 +14477,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14494,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6943431</v>
+        <v>6943430</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14506,40 +14506,40 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
         <v>1.9</v>
@@ -14548,34 +14548,34 @@
         <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>-0.5</v>
+      </c>
+      <c r="AA158">
+        <v>0.45</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC158">
-        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14583,7 +14583,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7647734</v>
+        <v>6943433</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14595,13 +14595,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F159" t="s">
+        <v>36</v>
+      </c>
+      <c r="G159" t="s">
         <v>38</v>
       </c>
-      <c r="G159" t="s">
-        <v>34</v>
-      </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>3</v>
@@ -14610,40 +14610,40 @@
         <v>45</v>
       </c>
       <c r="K159">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="L159">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q159">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14652,19 +14652,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB159">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14672,7 +14672,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6943433</v>
+        <v>7647734</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14684,13 +14684,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>3</v>
@@ -14699,41 +14699,41 @@
         <v>45</v>
       </c>
       <c r="K160">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M160">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N160">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
+        <v>1.775</v>
+      </c>
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
         <v>1.8</v>
       </c>
-      <c r="S160">
+      <c r="V160">
         <v>2</v>
       </c>
-      <c r="T160">
-        <v>2.5</v>
-      </c>
-      <c r="U160">
-        <v>1.85</v>
-      </c>
-      <c r="V160">
-        <v>1.95</v>
-      </c>
       <c r="W160">
         <v>-1</v>
       </c>
@@ -14741,19 +14741,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB160">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14761,7 +14761,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6943436</v>
+        <v>6943437</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14773,73 +14773,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>3</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O161">
         <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
+        <v>1.8</v>
+      </c>
+      <c r="V161">
         <v>2</v>
       </c>
-      <c r="V161">
-        <v>1.8</v>
-      </c>
       <c r="W161">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14850,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6943437</v>
+        <v>6943436</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14862,73 +14862,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K162">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
         <v>3.4</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N162">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O162">
         <v>3.4</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
         <v>1.8</v>
       </c>
-      <c r="V162">
-        <v>2</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X162">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15221,7 +15221,7 @@
         <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>42</v>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943445</v>
+        <v>6943444</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>43</v>
+      </c>
+      <c r="K170">
+        <v>2.45</v>
+      </c>
+      <c r="L170">
         <v>3</v>
       </c>
-      <c r="J170" t="s">
-        <v>45</v>
-      </c>
-      <c r="K170">
-        <v>4</v>
-      </c>
-      <c r="L170">
-        <v>3.75</v>
-      </c>
       <c r="M170">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N170">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P170">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S170">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943444</v>
+        <v>6943445</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
+        <v>3</v>
+      </c>
+      <c r="J171" t="s">
+        <v>45</v>
+      </c>
+      <c r="K171">
+        <v>4</v>
+      </c>
+      <c r="L171">
+        <v>3.75</v>
+      </c>
+      <c r="M171">
+        <v>1.75</v>
+      </c>
+      <c r="N171">
+        <v>5.5</v>
+      </c>
+      <c r="O171">
+        <v>4.2</v>
+      </c>
+      <c r="P171">
+        <v>1.571</v>
+      </c>
+      <c r="Q171">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.925</v>
+      </c>
+      <c r="T171">
+        <v>2.75</v>
+      </c>
+      <c r="U171">
+        <v>1.825</v>
+      </c>
+      <c r="V171">
+        <v>1.975</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>0.571</v>
+      </c>
+      <c r="Z171">
         <v>0</v>
       </c>
-      <c r="J171" t="s">
-        <v>43</v>
-      </c>
-      <c r="K171">
-        <v>2.45</v>
-      </c>
-      <c r="L171">
-        <v>3</v>
-      </c>
-      <c r="M171">
-        <v>2.8</v>
-      </c>
-      <c r="N171">
-        <v>2.5</v>
-      </c>
-      <c r="O171">
-        <v>3.1</v>
-      </c>
-      <c r="P171">
-        <v>3</v>
-      </c>
-      <c r="Q171">
-        <v>0</v>
-      </c>
-      <c r="R171">
-        <v>1.725</v>
-      </c>
-      <c r="S171">
-        <v>2.075</v>
-      </c>
-      <c r="T171">
-        <v>2.25</v>
-      </c>
-      <c r="U171">
-        <v>1.95</v>
-      </c>
-      <c r="V171">
-        <v>1.85</v>
-      </c>
-      <c r="W171">
-        <v>1.5</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>-1</v>
-      </c>
-      <c r="Z171">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>45337.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
         <v>32</v>
@@ -16096,7 +16096,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6943446</v>
+        <v>6943447</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16108,76 +16108,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K176">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N176">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="O176">
+        <v>4.75</v>
+      </c>
+      <c r="P176">
+        <v>5</v>
+      </c>
+      <c r="Q176">
+        <v>-1</v>
+      </c>
+      <c r="R176">
+        <v>1.85</v>
+      </c>
+      <c r="S176">
+        <v>1.95</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>1.9</v>
+      </c>
+      <c r="V176">
+        <v>1.9</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>3.75</v>
       </c>
-      <c r="P176">
-        <v>4.75</v>
-      </c>
-      <c r="Q176">
-        <v>-0.75</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>1.9</v>
-      </c>
-      <c r="T176">
-        <v>2.5</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.8</v>
-      </c>
-      <c r="W176">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6943447</v>
+        <v>6943446</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,76 +16197,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F177" t="s">
+        <v>40</v>
+      </c>
+      <c r="G177" t="s">
         <v>31</v>
       </c>
-      <c r="G177" t="s">
-        <v>41</v>
-      </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L177">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="O177">
+        <v>3.75</v>
+      </c>
+      <c r="P177">
         <v>4.75</v>
       </c>
-      <c r="P177">
-        <v>5</v>
-      </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X177">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16467,7 +16467,7 @@
         <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H180">
         <v>4</v>
@@ -16556,7 +16556,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16645,7 +16645,7 @@
         <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16909,7 +16909,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
         <v>37</v>
@@ -16998,7 +16998,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17265,7 +17265,7 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
         <v>33</v>
@@ -17446,7 +17446,7 @@
         <v>37</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17799,10 +17799,10 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17891,7 +17891,7 @@
         <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7879057</v>
+        <v>7879056</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,76 +17977,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M197">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N197">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O197">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R197">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X197">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
+        <v>0.4125</v>
+      </c>
+      <c r="AA197">
         <v>-0.5</v>
       </c>
-      <c r="AA197">
-        <v>0.5125</v>
-      </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC197">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18054,7 +18054,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7879056</v>
+        <v>7879057</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18066,76 +18066,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K198">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L198">
+        <v>3.5</v>
+      </c>
+      <c r="M198">
         <v>3.75</v>
       </c>
-      <c r="M198">
-        <v>4.75</v>
-      </c>
       <c r="N198">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O198">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P198">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB198">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18143,7 +18143,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7879059</v>
+        <v>7879058</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,64 +18152,79 @@
         <v>28</v>
       </c>
       <c r="E199" s="2">
-        <v>45359.58333333334</v>
+        <v>45358.58333333334</v>
       </c>
       <c r="F199" t="s">
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>45</v>
       </c>
       <c r="K199">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
         <v>3.5</v>
       </c>
       <c r="M199">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N199">
+        <v>1.85</v>
+      </c>
+      <c r="O199">
+        <v>4</v>
+      </c>
+      <c r="P199">
         <v>3.75</v>
       </c>
-      <c r="O199">
-        <v>3.75</v>
-      </c>
-      <c r="P199">
-        <v>1.909</v>
-      </c>
       <c r="Q199">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
+        <v>0.825</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18217,7 +18232,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7879046</v>
+        <v>7879059</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18226,64 +18241,79 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45360.5</v>
+        <v>45359.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>43</v>
       </c>
       <c r="K200">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L200">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M200">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="N200">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="O200">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P200">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T200">
         <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB200">
+        <v>0.95</v>
+      </c>
+      <c r="AC200">
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18291,7 +18321,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7879047</v>
+        <v>7879046</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18300,49 +18330,49 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45361.5</v>
+        <v>45360.5</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K201">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L201">
         <v>3.2</v>
       </c>
       <c r="M201">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N201">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O201">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P201">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R201">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18365,7 +18395,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7879048</v>
+        <v>7879047</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18374,49 +18404,49 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45361.58333333334</v>
+        <v>45361.5</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K202">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L202">
         <v>3.2</v>
       </c>
       <c r="M202">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N202">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O202">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P202">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S202">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18431,6 +18461,154 @@
         <v>0</v>
       </c>
       <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7879060</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45361.54166666666</v>
+      </c>
+      <c r="F203" t="s">
+        <v>37</v>
+      </c>
+      <c r="G203" t="s">
+        <v>36</v>
+      </c>
+      <c r="K203">
+        <v>2.8</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
+        <v>2.45</v>
+      </c>
+      <c r="N203">
+        <v>2.875</v>
+      </c>
+      <c r="O203">
+        <v>3.4</v>
+      </c>
+      <c r="P203">
+        <v>2.4</v>
+      </c>
+      <c r="Q203">
+        <v>0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.75</v>
+      </c>
+      <c r="S203">
+        <v>2.05</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
+        <v>1.95</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7879048</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>34</v>
+      </c>
+      <c r="G204" t="s">
+        <v>42</v>
+      </c>
+      <c r="K204">
+        <v>2.3</v>
+      </c>
+      <c r="L204">
+        <v>3.2</v>
+      </c>
+      <c r="M204">
+        <v>2.75</v>
+      </c>
+      <c r="N204">
+        <v>2.375</v>
+      </c>
+      <c r="O204">
+        <v>3.3</v>
+      </c>
+      <c r="P204">
+        <v>3.1</v>
+      </c>
+      <c r="Q204">
+        <v>-0.25</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>1.8</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>1.9</v>
+      </c>
+      <c r="V204">
+        <v>1.9</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
         <v>0</v>
       </c>
     </row>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -115,25 +115,25 @@
     <t>AE Zakakiou</t>
   </si>
   <si>
+    <t>Omonia Nicosia</t>
+  </si>
+  <si>
     <t>Doxa Katokopias</t>
   </si>
   <si>
     <t>Aris Limassol</t>
   </si>
   <si>
-    <t>Omonia Nicosia</t>
+    <t>Othellos Athienou</t>
   </si>
   <si>
     <t>APK Karmotissa</t>
   </si>
   <si>
-    <t>Othellos Athienou</t>
+    <t>Nea Salamis Famagusta</t>
   </si>
   <si>
     <t>AEL Limassol</t>
-  </si>
-  <si>
-    <t>Nea Salamis Famagusta</t>
   </si>
   <si>
     <t>AEK Larnaca</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997342</v>
+        <v>6997355</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,70 +984,70 @@
         <v>38</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6997341</v>
+        <v>6997342</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,73 +1070,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6997355</v>
+        <v>6997341</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,10 +1159,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1171,43 +1171,43 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1216,16 +1216,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7105152</v>
+        <v>6943306</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6943306</v>
+        <v>7105152</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="N10">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6943308</v>
+        <v>6943307</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,46 +1426,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>3.4</v>
+      </c>
+      <c r="L11">
+        <v>3.25</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>4.75</v>
+      </c>
+      <c r="O11">
         <v>4</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11">
-        <v>1.6</v>
-      </c>
-      <c r="L11">
-        <v>3.6</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>1.4</v>
-      </c>
-      <c r="O11">
-        <v>4.5</v>
-      </c>
       <c r="P11">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -1474,25 +1474,25 @@
         <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6943307</v>
+        <v>6943308</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,46 +1515,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L12">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>1.4</v>
+      </c>
+      <c r="O12">
+        <v>4.5</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>-1.25</v>
+      </c>
+      <c r="R12">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>4.75</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>1.7</v>
-      </c>
-      <c r="Q12">
-        <v>0.75</v>
-      </c>
-      <c r="R12">
-        <v>1.95</v>
-      </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -1563,25 +1563,25 @@
         <v>1.8</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1690,10 +1690,10 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
         <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1782,7 +1782,7 @@
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6942186</v>
+        <v>6943315</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,49 +1868,49 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L16">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="O16">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q16">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
+        <v>1.8</v>
+      </c>
+      <c r="S16">
         <v>2</v>
       </c>
-      <c r="S16">
-        <v>1.8</v>
-      </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
         <v>1.925</v>
@@ -1919,25 +1919,25 @@
         <v>1.875</v>
       </c>
       <c r="W16">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
         <v>1</v>
       </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6943310</v>
+        <v>6942186</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17">
+        <v>1.4</v>
+      </c>
+      <c r="L17">
+        <v>4.2</v>
+      </c>
+      <c r="M17">
+        <v>6.5</v>
+      </c>
+      <c r="N17">
+        <v>1.444</v>
+      </c>
+      <c r="O17">
+        <v>4.5</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>-1.25</v>
+      </c>
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>3.4</v>
-      </c>
-      <c r="M17">
-        <v>1.666</v>
-      </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>1.75</v>
-      </c>
-      <c r="Q17">
-        <v>0.75</v>
-      </c>
-      <c r="R17">
-        <v>1.875</v>
-      </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
         <v>0.925</v>
       </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
       <c r="AC17">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6943315</v>
+        <v>6943310</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,76 +2046,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>3.4</v>
+      </c>
+      <c r="M18">
+        <v>1.666</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>3.6</v>
+      </c>
+      <c r="P18">
+        <v>1.75</v>
+      </c>
+      <c r="Q18">
+        <v>0.75</v>
+      </c>
+      <c r="R18">
+        <v>1.875</v>
+      </c>
+      <c r="S18">
+        <v>1.925</v>
+      </c>
+      <c r="T18">
+        <v>2.5</v>
+      </c>
+      <c r="U18">
+        <v>1.8</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>0.75</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>0.925</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>1.909</v>
-      </c>
-      <c r="L18">
-        <v>3.25</v>
-      </c>
-      <c r="M18">
-        <v>3.75</v>
-      </c>
-      <c r="N18">
-        <v>1.85</v>
-      </c>
-      <c r="O18">
-        <v>3.5</v>
-      </c>
-      <c r="P18">
-        <v>4.333</v>
-      </c>
-      <c r="Q18">
-        <v>-0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.8</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
-      <c r="U18">
-        <v>1.925</v>
-      </c>
-      <c r="V18">
-        <v>1.875</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>2.5</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>-1</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
-      <c r="AC18">
-        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,7 +2138,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>45172.625</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -2405,7 +2405,7 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2491,7 +2491,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -2580,10 +2580,10 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>45186.5</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -2758,7 +2758,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -3028,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3117,7 +3117,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6943327</v>
+        <v>6943324</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3292,7 +3292,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -3301,40 +3301,40 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N32">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="O32">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
         <v>1.825</v>
@@ -3343,25 +3343,25 @@
         <v>1.975</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6943324</v>
+        <v>6943327</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,7 +3381,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3390,40 +3390,40 @@
         <v>2</v>
       </c>
       <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>3.3</v>
+      </c>
+      <c r="M33">
+        <v>2.2</v>
+      </c>
+      <c r="N33">
+        <v>2.75</v>
+      </c>
+      <c r="O33">
+        <v>3.25</v>
+      </c>
+      <c r="P33">
+        <v>2.625</v>
+      </c>
+      <c r="Q33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33">
-        <v>1.615</v>
-      </c>
-      <c r="L33">
-        <v>3.6</v>
-      </c>
-      <c r="M33">
-        <v>4.5</v>
-      </c>
-      <c r="N33">
-        <v>1.833</v>
-      </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
-      <c r="P33">
-        <v>4.5</v>
-      </c>
-      <c r="Q33">
-        <v>-0.5</v>
-      </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
         <v>1.825</v>
@@ -3432,25 +3432,25 @@
         <v>1.975</v>
       </c>
       <c r="W33">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC33">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,10 +3470,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
         <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3651,7 +3651,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
@@ -3826,10 +3826,10 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
         <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6943329</v>
+        <v>6943332</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,10 +3915,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3930,25 +3930,25 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
         <v>1.95</v>
@@ -3957,13 +3957,13 @@
         <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3972,7 +3972,7 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z39">
         <v>-1</v>
@@ -3981,7 +3981,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6943332</v>
+        <v>6943329</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,10 +4004,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4019,25 +4019,25 @@
         <v>45</v>
       </c>
       <c r="K40">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N40">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>1.95</v>
@@ -4046,13 +4046,13 @@
         <v>1.85</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4061,7 +4061,7 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="Z40">
         <v>-1</v>
@@ -4070,7 +4070,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4271,10 +4271,10 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6942190</v>
+        <v>6943338</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,46 +4360,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="L44">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="N44">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
         <v>2.5</v>
@@ -4414,16 +4414,16 @@
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
         <v>-1</v>
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6943338</v>
+        <v>6943334</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,76 +4449,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M45">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="N45">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P45">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC45">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6943334</v>
+        <v>6942190</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,40 +4538,40 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>44</v>
       </c>
       <c r="K46">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="N46">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O46">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
         <v>2</v>
@@ -4580,19 +4580,19 @@
         <v>1.8</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
@@ -4604,10 +4604,10 @@
         <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943336</v>
+        <v>6943335</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,40 +4627,40 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N47">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P47">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R47">
         <v>1.925</v>
@@ -4672,28 +4672,28 @@
         <v>2.75</v>
       </c>
       <c r="U47">
+        <v>1.825</v>
+      </c>
+      <c r="V47">
         <v>1.975</v>
       </c>
-      <c r="V47">
-        <v>1.825</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6943337</v>
+        <v>6943336</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,76 +4716,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
         <v>2.1</v>
       </c>
       <c r="N48">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z48">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6943335</v>
+        <v>6943337</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,13 +4805,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4820,43 +4820,43 @@
         <v>43</v>
       </c>
       <c r="K49">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N49">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O49">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P49">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q49">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R49">
+        <v>1.775</v>
+      </c>
+      <c r="S49">
+        <v>2.025</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
         <v>1.925</v>
       </c>
-      <c r="S49">
+      <c r="V49">
         <v>1.875</v>
       </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.825</v>
-      </c>
-      <c r="V49">
-        <v>1.975</v>
-      </c>
       <c r="W49">
-        <v>0.333</v>
+        <v>1.6</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4865,16 +4865,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4882,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6943343</v>
+        <v>6943345</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4894,13 +4894,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4909,43 +4909,43 @@
         <v>43</v>
       </c>
       <c r="K50">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L50">
         <v>4.75</v>
       </c>
       <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>1.444</v>
+      </c>
+      <c r="O50">
+        <v>5</v>
+      </c>
+      <c r="P50">
         <v>6.5</v>
-      </c>
-      <c r="N50">
-        <v>1.363</v>
-      </c>
-      <c r="O50">
-        <v>4.75</v>
-      </c>
-      <c r="P50">
-        <v>10</v>
       </c>
       <c r="Q50">
         <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.363</v>
+        <v>0.444</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4954,16 +4954,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6943340</v>
+        <v>6943343</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,13 +4983,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4998,43 +4998,43 @@
         <v>43</v>
       </c>
       <c r="K51">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="L51">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M51">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N51">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5043,16 +5043,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6943345</v>
+        <v>6943340</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,13 +5072,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5087,43 +5087,43 @@
         <v>43</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="L52">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M52">
         <v>6</v>
       </c>
       <c r="N52">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q52">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.444</v>
+        <v>0.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5132,16 +5132,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,10 +5161,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5238,7 +5238,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6943341</v>
+        <v>6943342</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5250,76 +5250,76 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q54">
+        <v>1.5</v>
+      </c>
+      <c r="R54">
+        <v>1.8</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>3.25</v>
+      </c>
+      <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
+        <v>1.85</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
         <v>1</v>
       </c>
-      <c r="R54">
-        <v>1.85</v>
-      </c>
-      <c r="S54">
-        <v>1.95</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
-      <c r="V54">
-        <v>1.875</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
-      <c r="Y54">
-        <v>0.55</v>
-      </c>
-      <c r="Z54">
-        <v>-1</v>
-      </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>0.95</v>
       </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
       <c r="AC54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5327,7 +5327,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6943342</v>
+        <v>6943341</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5339,55 +5339,55 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>1.571</v>
+      </c>
+      <c r="N55">
+        <v>6.5</v>
+      </c>
+      <c r="O55">
         <v>4</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>8</v>
-      </c>
-      <c r="O55">
-        <v>5</v>
-      </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q55">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5396,19 +5396,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45224.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -5609,7 +5609,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5695,10 +5695,10 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" t="s">
         <v>39</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5784,7 +5784,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
         <v>42</v>
@@ -5873,7 +5873,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -5950,7 +5950,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6942192</v>
+        <v>6943347</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5962,76 +5962,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M62">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N62">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P62">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y62">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6943347</v>
+        <v>6942192</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N63">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O63">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q63">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
+        <v>1.95</v>
+      </c>
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
+        <v>1.925</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
         <v>1.8</v>
       </c>
-      <c r="T63">
-        <v>3.5</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
-      <c r="V63">
-        <v>1.9</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>5.5</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,10 +6140,10 @@
         <v>45229.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6318,10 +6318,10 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6943352</v>
+        <v>6943355</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,58 +6407,58 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6467,16 +6467,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6943355</v>
+        <v>6943352</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,55 +6499,55 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N68">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6556,16 +6556,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6763,10 +6763,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6855,7 +6855,7 @@
         <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6941,10 +6941,10 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6943363</v>
+        <v>6942194</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,46 +7030,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N74">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>9.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>2.5</v>
@@ -7081,25 +7081,25 @@
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6942194</v>
+        <v>6943363</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,46 +7119,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>1.533</v>
+        <v>9.5</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
         <v>2.5</v>
@@ -7170,25 +7170,25 @@
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45242.5</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
@@ -7386,10 +7386,10 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7475,7 +7475,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>42</v>
@@ -7567,7 +7567,7 @@
         <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7656,7 +7656,7 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>41</v>
@@ -7923,7 +7923,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8009,10 +8009,10 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8098,10 +8098,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6943370</v>
+        <v>6943371</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N87">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
         <v>1.925</v>
       </c>
-      <c r="S87">
-        <v>1.875</v>
-      </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6943371</v>
+        <v>6943370</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
         <v>1.875</v>
       </c>
-      <c r="S88">
+      <c r="T88">
+        <v>2.5</v>
+      </c>
+      <c r="U88">
         <v>1.925</v>
       </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>-0.5</v>
+      </c>
+      <c r="AA88">
+        <v>0.4375</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.875</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>45263.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -8457,7 +8457,7 @@
         <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>5</v>
@@ -8543,7 +8543,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8632,10 +8632,10 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
@@ -8813,7 +8813,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8988,10 +8988,10 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9166,7 +9166,7 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9255,10 +9255,10 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6943455</v>
+        <v>6943386</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9344,73 +9344,73 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>45</v>
+      </c>
+      <c r="K100">
+        <v>4.75</v>
+      </c>
+      <c r="L100">
+        <v>3.75</v>
+      </c>
+      <c r="M100">
+        <v>1.615</v>
+      </c>
+      <c r="N100">
+        <v>5.75</v>
+      </c>
+      <c r="O100">
+        <v>4.2</v>
+      </c>
+      <c r="P100">
+        <v>1.571</v>
+      </c>
+      <c r="Q100">
         <v>1</v>
       </c>
-      <c r="J100" t="s">
-        <v>43</v>
-      </c>
-      <c r="K100">
-        <v>1.25</v>
-      </c>
-      <c r="L100">
-        <v>5.25</v>
-      </c>
-      <c r="M100">
-        <v>10</v>
-      </c>
-      <c r="N100">
-        <v>1.333</v>
-      </c>
-      <c r="O100">
-        <v>5</v>
-      </c>
-      <c r="P100">
-        <v>9.5</v>
-      </c>
-      <c r="Q100">
-        <v>-1.25</v>
-      </c>
       <c r="R100">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AC100">
         <v>-0.5</v>
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6943386</v>
+        <v>6943455</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,73 +9433,73 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M101">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="N101">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>9.5</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AC101">
         <v>-0.5</v>
@@ -9525,7 +9525,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9614,7 +9614,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9792,7 +9792,7 @@
         <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>41</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6943388</v>
+        <v>6943390</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="L108">
+        <v>3.8</v>
+      </c>
+      <c r="M108">
+        <v>1.571</v>
+      </c>
+      <c r="N108">
         <v>6.5</v>
       </c>
-      <c r="M108">
-        <v>12</v>
-      </c>
-      <c r="N108">
-        <v>1.111</v>
-      </c>
       <c r="O108">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q108">
-        <v>-2.75</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>1.85</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.825</v>
+      </c>
+      <c r="V108">
         <v>1.975</v>
       </c>
-      <c r="S108">
-        <v>1.825</v>
-      </c>
-      <c r="T108">
-        <v>4</v>
-      </c>
-      <c r="U108">
-        <v>1.925</v>
-      </c>
-      <c r="V108">
-        <v>1.875</v>
-      </c>
       <c r="W108">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
+        <v>0.425</v>
+      </c>
+      <c r="AB108">
         <v>0.825</v>
       </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10148,7 +10148,7 @@
         <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6943390</v>
+        <v>6943388</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110">
+        <v>1.166</v>
+      </c>
+      <c r="L110">
+        <v>6.5</v>
+      </c>
+      <c r="M110">
+        <v>12</v>
+      </c>
+      <c r="N110">
+        <v>1.111</v>
+      </c>
+      <c r="O110">
+        <v>9.5</v>
+      </c>
+      <c r="P110">
+        <v>19</v>
+      </c>
+      <c r="Q110">
+        <v>-2.75</v>
+      </c>
+      <c r="R110">
+        <v>1.975</v>
+      </c>
+      <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
         <v>4</v>
       </c>
-      <c r="J110" t="s">
-        <v>45</v>
-      </c>
-      <c r="K110">
-        <v>5</v>
-      </c>
-      <c r="L110">
-        <v>3.8</v>
-      </c>
-      <c r="M110">
-        <v>1.571</v>
-      </c>
-      <c r="N110">
-        <v>6.5</v>
-      </c>
-      <c r="O110">
-        <v>3.4</v>
-      </c>
-      <c r="P110">
-        <v>1.666</v>
-      </c>
-      <c r="Q110">
-        <v>0.75</v>
-      </c>
-      <c r="R110">
-        <v>1.95</v>
-      </c>
-      <c r="S110">
-        <v>1.85</v>
-      </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
       <c r="U110">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6942199</v>
+        <v>6943389</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45283.5</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>1.952</v>
+      </c>
+      <c r="L111">
+        <v>3.3</v>
+      </c>
+      <c r="M111">
+        <v>3.9</v>
+      </c>
+      <c r="N111">
+        <v>2.05</v>
+      </c>
+      <c r="O111">
+        <v>3.4</v>
+      </c>
+      <c r="P111">
+        <v>3.75</v>
+      </c>
+      <c r="Q111">
+        <v>-0.5</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>1.8</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
+        <v>1.975</v>
+      </c>
+      <c r="V111">
+        <v>1.825</v>
+      </c>
+      <c r="W111">
+        <v>1.05</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>2</v>
-      </c>
-      <c r="J111" t="s">
-        <v>45</v>
-      </c>
-      <c r="K111">
-        <v>5.5</v>
-      </c>
-      <c r="L111">
-        <v>3.8</v>
-      </c>
-      <c r="M111">
-        <v>1.533</v>
-      </c>
-      <c r="N111">
-        <v>6.5</v>
-      </c>
-      <c r="O111">
-        <v>4.333</v>
-      </c>
-      <c r="P111">
-        <v>1.5</v>
-      </c>
-      <c r="Q111">
-        <v>1.25</v>
-      </c>
-      <c r="R111">
-        <v>1.8</v>
-      </c>
-      <c r="S111">
-        <v>2</v>
-      </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.825</v>
-      </c>
-      <c r="V111">
-        <v>1.975</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>0.5</v>
-      </c>
-      <c r="Z111">
-        <v>0.4</v>
-      </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6943389</v>
+        <v>6942199</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45283.5</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>1.952</v>
+        <v>5.5</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>3.9</v>
+        <v>1.533</v>
       </c>
       <c r="N112">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P112">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q112">
+        <v>1.25</v>
+      </c>
+      <c r="R112">
+        <v>1.8</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>1.825</v>
+      </c>
+      <c r="V112">
+        <v>1.975</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>0.5</v>
+      </c>
+      <c r="Z112">
+        <v>0.4</v>
+      </c>
+      <c r="AA112">
         <v>-0.5</v>
       </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>1.8</v>
-      </c>
-      <c r="T112">
-        <v>2.25</v>
-      </c>
-      <c r="U112">
-        <v>1.975</v>
-      </c>
-      <c r="V112">
-        <v>1.825</v>
-      </c>
-      <c r="W112">
-        <v>1.05</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>1</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
         <v>31</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6943395</v>
+        <v>6943397</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,58 +10679,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>43</v>
       </c>
       <c r="K115">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L115">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N115">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="O115">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q115">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.333</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10739,16 +10739,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6943397</v>
+        <v>6943395</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,58 +10768,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L116">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N116">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P116">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.5329999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10828,16 +10828,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6943398</v>
+        <v>6943394</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,76 +10857,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117" t="s">
+        <v>45</v>
+      </c>
+      <c r="K117">
+        <v>2.8</v>
+      </c>
+      <c r="L117">
+        <v>3.3</v>
+      </c>
+      <c r="M117">
+        <v>2.55</v>
+      </c>
+      <c r="N117">
+        <v>2.875</v>
+      </c>
+      <c r="O117">
+        <v>2.9</v>
+      </c>
+      <c r="P117">
+        <v>2.75</v>
+      </c>
+      <c r="Q117">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>44</v>
-      </c>
-      <c r="K117">
-        <v>6.5</v>
-      </c>
-      <c r="L117">
-        <v>4.75</v>
-      </c>
-      <c r="M117">
-        <v>1.45</v>
-      </c>
-      <c r="N117">
-        <v>5.25</v>
-      </c>
-      <c r="O117">
-        <v>4.5</v>
-      </c>
-      <c r="P117">
-        <v>1.55</v>
-      </c>
-      <c r="Q117">
-        <v>1</v>
-      </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6943394</v>
+        <v>6943398</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M118">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="O118">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="P118">
+        <v>1.55</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
         <v>2.75</v>
       </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>2</v>
-      </c>
-      <c r="S118">
-        <v>1.8</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y118">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11038,7 +11038,7 @@
         <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11127,7 +11127,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
         <v>30</v>
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6943403</v>
+        <v>6943404</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,76 +11391,76 @@
         <v>45298.5</v>
       </c>
       <c r="F123" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s">
         <v>36</v>
       </c>
-      <c r="G123" t="s">
-        <v>41</v>
-      </c>
       <c r="H123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L123">
         <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N123">
+        <v>1.8</v>
+      </c>
+      <c r="O123">
+        <v>3.6</v>
+      </c>
+      <c r="P123">
+        <v>4.75</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>3.6</v>
-      </c>
-      <c r="Q123">
+      <c r="W123">
+        <v>0.8</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.5</v>
+      </c>
+      <c r="AA123">
         <v>-0.5</v>
       </c>
-      <c r="R123">
-        <v>1.925</v>
-      </c>
-      <c r="S123">
-        <v>1.875</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>1.825</v>
-      </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>2.75</v>
-      </c>
-      <c r="Y123">
-        <v>-1</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
-      <c r="AA123">
-        <v>0.875</v>
-      </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6943404</v>
+        <v>6943403</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,76 +11480,76 @@
         <v>45298.5</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
         <v>3.6</v>
       </c>
-      <c r="P124">
-        <v>4.75</v>
-      </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,10 +11569,10 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11747,7 +11747,7 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>29</v>
@@ -11824,7 +11824,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6943408</v>
+        <v>6943410</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11836,76 +11836,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N128">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="O128">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q128">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB128">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11913,7 +11913,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6943410</v>
+        <v>6943408</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11925,76 +11925,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K129">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="N129">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P129">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q129">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC129">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,10 +12014,10 @@
         <v>45304.5</v>
       </c>
       <c r="F130" t="s">
+        <v>36</v>
+      </c>
+      <c r="G130" t="s">
         <v>37</v>
-      </c>
-      <c r="G130" t="s">
-        <v>36</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12103,10 +12103,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12195,7 +12195,7 @@
         <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12373,7 +12373,7 @@
         <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12459,7 +12459,7 @@
         <v>45311.5</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12548,7 +12548,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -12640,7 +12640,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>6</v>
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6943416</v>
+        <v>6943411</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,76 +12726,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M138">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="N138">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P138">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R138">
+        <v>1.8</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>3.25</v>
+      </c>
+      <c r="U138">
+        <v>2.025</v>
+      </c>
+      <c r="V138">
         <v>1.775</v>
       </c>
-      <c r="S138">
-        <v>2.025</v>
-      </c>
-      <c r="T138">
-        <v>2.5</v>
-      </c>
-      <c r="U138">
-        <v>1.8</v>
-      </c>
-      <c r="V138">
-        <v>2</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y138">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA138">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12803,7 +12803,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6943411</v>
+        <v>6943416</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12815,76 +12815,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>45</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
+        <v>3.3</v>
+      </c>
+      <c r="M139">
+        <v>2.4</v>
+      </c>
+      <c r="N139">
+        <v>2.45</v>
+      </c>
+      <c r="O139">
+        <v>3.3</v>
+      </c>
+      <c r="P139">
+        <v>2.9</v>
+      </c>
+      <c r="Q139">
         <v>0</v>
       </c>
-      <c r="J139" t="s">
-        <v>44</v>
-      </c>
-      <c r="K139">
-        <v>7</v>
-      </c>
-      <c r="L139">
-        <v>4.5</v>
-      </c>
-      <c r="M139">
-        <v>1.444</v>
-      </c>
-      <c r="N139">
-        <v>8</v>
-      </c>
-      <c r="O139">
-        <v>4.75</v>
-      </c>
-      <c r="P139">
-        <v>1.4</v>
-      </c>
-      <c r="Q139">
-        <v>1.5</v>
-      </c>
       <c r="R139">
+        <v>1.775</v>
+      </c>
+      <c r="S139">
+        <v>2.025</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
         <v>1.8</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>2</v>
       </c>
-      <c r="T139">
-        <v>3.25</v>
-      </c>
-      <c r="U139">
-        <v>2.025</v>
-      </c>
-      <c r="V139">
-        <v>1.775</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6942203</v>
+        <v>6943413</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,58 +12904,58 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>43</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>2.025</v>
+      </c>
+      <c r="S140">
+        <v>1.775</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.75</v>
+      </c>
+      <c r="V140">
         <v>2.05</v>
       </c>
-      <c r="S140">
-        <v>1.75</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.925</v>
-      </c>
-      <c r="V140">
-        <v>1.875</v>
-      </c>
       <c r="W140">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12964,16 +12964,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6943413</v>
+        <v>6942203</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>43</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="N141">
+        <v>2.5</v>
+      </c>
+      <c r="O141">
+        <v>3.2</v>
+      </c>
+      <c r="P141">
+        <v>3</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
         <v>2.05</v>
       </c>
-      <c r="O141">
-        <v>3.3</v>
-      </c>
-      <c r="P141">
-        <v>3.75</v>
-      </c>
-      <c r="Q141">
-        <v>-0.5</v>
-      </c>
-      <c r="R141">
-        <v>2.025</v>
-      </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
+        <v>1.5</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
         <v>1.05</v>
       </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
-      <c r="Z141">
-        <v>1.025</v>
-      </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13171,7 +13171,7 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
         <v>42</v>
@@ -13260,7 +13260,7 @@
         <v>45318.5</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13352,7 +13352,7 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6943426</v>
+        <v>6943423</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,58 +13616,58 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>43</v>
       </c>
       <c r="K148">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="L148">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N148">
-        <v>1.181</v>
+        <v>1.75</v>
       </c>
       <c r="O148">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q148">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>0.181</v>
+        <v>0.75</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13676,13 +13676,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13782,7 +13782,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6943423</v>
+        <v>6943426</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13794,58 +13794,58 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>43</v>
       </c>
       <c r="K150">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="L150">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M150">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N150">
-        <v>1.75</v>
+        <v>1.181</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P150">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.75</v>
+        <v>0.181</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13854,13 +13854,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13886,7 +13886,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -13972,10 +13972,10 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F152" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" t="s">
         <v>38</v>
-      </c>
-      <c r="G152" t="s">
-        <v>39</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14061,7 +14061,7 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
         <v>41</v>
@@ -14242,7 +14242,7 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6943431</v>
+        <v>6943430</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,40 +14328,40 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K156">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N156">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
         <v>1.9</v>
@@ -14370,34 +14370,34 @@
         <v>1.9</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
+        <v>-0.5</v>
+      </c>
+      <c r="AA156">
+        <v>0.45</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14405,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6943434</v>
+        <v>6943431</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,34 +14417,34 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K157">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
         <v>4</v>
       </c>
       <c r="N157">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
         <v>3.8</v>
@@ -14453,37 +14453,37 @@
         <v>-0.5</v>
       </c>
       <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>2.75</v>
+      </c>
+      <c r="U157">
+        <v>1.775</v>
+      </c>
+      <c r="V157">
         <v>2.025</v>
       </c>
-      <c r="S157">
-        <v>1.775</v>
-      </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>1.85</v>
-      </c>
-      <c r="V157">
-        <v>1.95</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB157">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14494,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6943430</v>
+        <v>6943434</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14506,55 +14506,55 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="K158">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L158">
         <v>3.4</v>
       </c>
       <c r="M158">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O158">
         <v>3.4</v>
       </c>
       <c r="P158">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T158">
         <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14566,16 +14566,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14595,10 +14595,10 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14684,10 +14684,10 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14761,7 +14761,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6943437</v>
+        <v>6943436</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14773,73 +14773,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>3</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L161">
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N161">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O161">
         <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
+        <v>2</v>
+      </c>
+      <c r="V161">
         <v>1.8</v>
       </c>
-      <c r="V161">
-        <v>2</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X161">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA161">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14850,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6943436</v>
+        <v>6943437</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14862,73 +14862,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K162">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L162">
         <v>3.4</v>
       </c>
       <c r="M162">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O162">
         <v>3.4</v>
       </c>
       <c r="P162">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
+        <v>1.8</v>
+      </c>
+      <c r="V162">
         <v>2</v>
       </c>
-      <c r="V162">
-        <v>1.8</v>
-      </c>
       <c r="W162">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB162">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15040,10 +15040,10 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15218,10 +15218,10 @@
         <v>45333.5</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
         <v>42</v>
@@ -15396,7 +15396,7 @@
         <v>45335.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943443</v>
+        <v>6943444</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,76 +15485,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K169">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N169">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O169">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T169">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X169">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943444</v>
+        <v>6943443</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K170">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="L170">
+        <v>4</v>
+      </c>
+      <c r="M170">
+        <v>1.571</v>
+      </c>
+      <c r="N170">
+        <v>4.333</v>
+      </c>
+      <c r="O170">
+        <v>3.75</v>
+      </c>
+      <c r="P170">
+        <v>1.8</v>
+      </c>
+      <c r="Q170">
+        <v>0.75</v>
+      </c>
+      <c r="R170">
+        <v>1.825</v>
+      </c>
+      <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
         <v>3</v>
       </c>
-      <c r="M170">
-        <v>2.8</v>
-      </c>
-      <c r="N170">
-        <v>2.5</v>
-      </c>
-      <c r="O170">
-        <v>3.1</v>
-      </c>
-      <c r="P170">
-        <v>3</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>1.725</v>
-      </c>
-      <c r="S170">
-        <v>2.075</v>
-      </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
         <v>40</v>
@@ -15752,10 +15752,10 @@
         <v>45337.5</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15841,7 +15841,7 @@
         <v>45337.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
         <v>32</v>
@@ -15933,7 +15933,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16019,10 +16019,10 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16096,7 +16096,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6943447</v>
+        <v>6943446</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16108,76 +16108,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K176">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L176">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N176">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="O176">
+        <v>3.75</v>
+      </c>
+      <c r="P176">
         <v>4.75</v>
       </c>
-      <c r="P176">
-        <v>5</v>
-      </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X176">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6943446</v>
+        <v>6943447</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,76 +16197,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K177">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N177">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="O177">
+        <v>4.75</v>
+      </c>
+      <c r="P177">
+        <v>5</v>
+      </c>
+      <c r="Q177">
+        <v>-1</v>
+      </c>
+      <c r="R177">
+        <v>1.85</v>
+      </c>
+      <c r="S177">
+        <v>1.95</v>
+      </c>
+      <c r="T177">
+        <v>3</v>
+      </c>
+      <c r="U177">
+        <v>1.9</v>
+      </c>
+      <c r="V177">
+        <v>1.9</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
         <v>3.75</v>
       </c>
-      <c r="P177">
-        <v>4.75</v>
-      </c>
-      <c r="Q177">
-        <v>-0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>2</v>
-      </c>
-      <c r="V177">
-        <v>1.8</v>
-      </c>
-      <c r="W177">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16289,7 +16289,7 @@
         <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6943450</v>
+        <v>6943451</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H179">
+        <v>4</v>
+      </c>
+      <c r="I179">
         <v>0</v>
       </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K179">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>10</v>
+        <v>1.363</v>
       </c>
       <c r="O179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P179">
-        <v>1.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q179">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6943451</v>
+        <v>6943450</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16467,73 +16467,73 @@
         <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K180">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="L180">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M180">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="N180">
-        <v>1.363</v>
+        <v>10</v>
       </c>
       <c r="O180">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P180">
-        <v>8.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q180">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W180">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z180">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16556,7 +16556,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16734,7 +16734,7 @@
         <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H183">
         <v>2</v>
@@ -16820,7 +16820,7 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16909,10 +16909,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17075,7 +17075,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7864306</v>
+        <v>7864515</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17087,55 +17087,55 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
         <v>1</v>
-      </c>
-      <c r="I187">
-        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>45</v>
       </c>
       <c r="K187">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N187">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O187">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17144,19 +17144,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB187">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17164,7 +17164,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7864515</v>
+        <v>7864306</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17176,55 +17176,55 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>45</v>
       </c>
       <c r="K188">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N188">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q188">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17233,19 +17233,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17268,7 +17268,7 @@
         <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17354,10 +17354,10 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17443,10 +17443,10 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17713,7 +17713,7 @@
         <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17802,7 +17802,7 @@
         <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17888,7 +17888,7 @@
         <v>45355.64583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
         <v>31</v>
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7879056</v>
+        <v>7879057</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,76 +17977,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K197">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L197">
+        <v>3.5</v>
+      </c>
+      <c r="M197">
         <v>3.75</v>
       </c>
-      <c r="M197">
-        <v>4.75</v>
-      </c>
       <c r="N197">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q197">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB197">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18054,7 +18054,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7879057</v>
+        <v>7879056</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18066,76 +18066,76 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F198" t="s">
+        <v>41</v>
+      </c>
+      <c r="G198" t="s">
         <v>36</v>
       </c>
-      <c r="G198" t="s">
-        <v>32</v>
-      </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L198">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N198">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P198">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X198">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
+        <v>0.4125</v>
+      </c>
+      <c r="AA198">
         <v>-0.5</v>
       </c>
-      <c r="AA198">
-        <v>0.5125</v>
-      </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18155,10 +18155,10 @@
         <v>45358.58333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18244,7 +18244,7 @@
         <v>45359.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G200" t="s">
         <v>30</v>
@@ -18333,11 +18333,20 @@
         <v>45360.5</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
         <v>40</v>
       </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" t="s">
+        <v>45</v>
+      </c>
       <c r="K201">
         <v>2.3</v>
       </c>
@@ -18375,19 +18384,25 @@
         <v>2</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18412,6 +18427,15 @@
       <c r="G202" t="s">
         <v>29</v>
       </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>3</v>
+      </c>
+      <c r="J202" t="s">
+        <v>45</v>
+      </c>
       <c r="K202">
         <v>2.75</v>
       </c>
@@ -18422,46 +18446,52 @@
         <v>2.3</v>
       </c>
       <c r="N202">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O202">
         <v>3.4</v>
       </c>
       <c r="P202">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="Q202">
         <v>0.25</v>
       </c>
       <c r="R202">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S202">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB202">
+        <v>0.925</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18481,10 +18511,19 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F203" t="s">
+        <v>36</v>
+      </c>
+      <c r="G203" t="s">
         <v>37</v>
       </c>
-      <c r="G203" t="s">
-        <v>36</v>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203" t="s">
+        <v>45</v>
       </c>
       <c r="K203">
         <v>2.8</v>
@@ -18496,46 +18535,52 @@
         <v>2.45</v>
       </c>
       <c r="N203">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P203">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q203">
         <v>0.25</v>
       </c>
       <c r="R203">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
+        <v>1.95</v>
+      </c>
+      <c r="V203">
         <v>1.85</v>
       </c>
-      <c r="V203">
-        <v>1.95</v>
-      </c>
       <c r="W203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB203">
+        <v>0.95</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18555,11 +18600,20 @@
         <v>45361.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
         <v>42</v>
       </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>43</v>
+      </c>
       <c r="K204">
         <v>2.3</v>
       </c>
@@ -18570,45 +18624,614 @@
         <v>2.75</v>
       </c>
       <c r="N204">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O204">
         <v>3.3</v>
       </c>
       <c r="P204">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q204">
         <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T204">
         <v>2.25</v>
       </c>
       <c r="U204">
+        <v>2.025</v>
+      </c>
+      <c r="V204">
+        <v>1.775</v>
+      </c>
+      <c r="W204">
+        <v>1.3</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.925</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>1.025</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7879061</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45362.5</v>
+      </c>
+      <c r="F205" t="s">
+        <v>34</v>
+      </c>
+      <c r="G205" t="s">
+        <v>32</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>43</v>
+      </c>
+      <c r="K205">
+        <v>2.15</v>
+      </c>
+      <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
+        <v>3.8</v>
+      </c>
+      <c r="N205">
+        <v>2.25</v>
+      </c>
+      <c r="O205">
+        <v>3.2</v>
+      </c>
+      <c r="P205">
+        <v>3.4</v>
+      </c>
+      <c r="Q205">
+        <v>-0.25</v>
+      </c>
+      <c r="R205">
+        <v>1.95</v>
+      </c>
+      <c r="S205">
+        <v>1.85</v>
+      </c>
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
+        <v>1.85</v>
+      </c>
+      <c r="V205">
+        <v>1.95</v>
+      </c>
+      <c r="W205">
+        <v>1.25</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.95</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7879062</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45362.58333333334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>30</v>
+      </c>
+      <c r="G206" t="s">
+        <v>41</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206" t="s">
+        <v>44</v>
+      </c>
+      <c r="K206">
+        <v>1.8</v>
+      </c>
+      <c r="L206">
+        <v>3.6</v>
+      </c>
+      <c r="M206">
+        <v>4.5</v>
+      </c>
+      <c r="N206">
+        <v>1.7</v>
+      </c>
+      <c r="O206">
+        <v>4</v>
+      </c>
+      <c r="P206">
+        <v>4.75</v>
+      </c>
+      <c r="Q206">
+        <v>-0.75</v>
+      </c>
+      <c r="R206">
+        <v>1.85</v>
+      </c>
+      <c r="S206">
+        <v>1.95</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.875</v>
+      </c>
+      <c r="V206">
+        <v>1.925</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>3</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
+        <v>0.95</v>
+      </c>
+      <c r="AB206">
+        <v>0.875</v>
+      </c>
+      <c r="AC206">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7879063</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45362.60416666666</v>
+      </c>
+      <c r="F207" t="s">
+        <v>38</v>
+      </c>
+      <c r="G207" t="s">
+        <v>39</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>44</v>
+      </c>
+      <c r="K207">
+        <v>2.45</v>
+      </c>
+      <c r="L207">
+        <v>3.2</v>
+      </c>
+      <c r="M207">
+        <v>3</v>
+      </c>
+      <c r="N207">
+        <v>2.625</v>
+      </c>
+      <c r="O207">
+        <v>3.2</v>
+      </c>
+      <c r="P207">
+        <v>2.75</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>1.85</v>
+      </c>
+      <c r="S207">
+        <v>1.95</v>
+      </c>
+      <c r="T207">
+        <v>2.5</v>
+      </c>
+      <c r="U207">
         <v>1.9</v>
       </c>
-      <c r="V204">
+      <c r="V207">
         <v>1.9</v>
       </c>
-      <c r="W204">
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>2.2</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
         <v>0</v>
       </c>
-      <c r="X204">
+      <c r="AA207">
+        <v>-0</v>
+      </c>
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7879065</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45366.58333333334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>39</v>
+      </c>
+      <c r="G208" t="s">
+        <v>34</v>
+      </c>
+      <c r="K208">
+        <v>1.55</v>
+      </c>
+      <c r="L208">
+        <v>4</v>
+      </c>
+      <c r="M208">
+        <v>6.5</v>
+      </c>
+      <c r="N208">
+        <v>1.833</v>
+      </c>
+      <c r="O208">
+        <v>3.6</v>
+      </c>
+      <c r="P208">
+        <v>3.6</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
+        <v>1.95</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>1.825</v>
+      </c>
+      <c r="V208">
+        <v>1.975</v>
+      </c>
+      <c r="W208">
         <v>0</v>
       </c>
-      <c r="Y204">
+      <c r="X208">
         <v>0</v>
       </c>
-      <c r="Z204">
+      <c r="Y208">
         <v>0</v>
       </c>
-      <c r="AA204">
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>7879049</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F209" t="s">
+        <v>42</v>
+      </c>
+      <c r="G209" t="s">
+        <v>33</v>
+      </c>
+      <c r="K209">
+        <v>1.8</v>
+      </c>
+      <c r="L209">
+        <v>3.6</v>
+      </c>
+      <c r="M209">
+        <v>4.75</v>
+      </c>
+      <c r="N209">
+        <v>1.909</v>
+      </c>
+      <c r="O209">
+        <v>3.4</v>
+      </c>
+      <c r="P209">
+        <v>4.2</v>
+      </c>
+      <c r="Q209">
+        <v>-0.5</v>
+      </c>
+      <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
+        <v>1.975</v>
+      </c>
+      <c r="V209">
+        <v>1.825</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>7879050</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45367.58333333334</v>
+      </c>
+      <c r="F210" t="s">
+        <v>29</v>
+      </c>
+      <c r="G210" t="s">
+        <v>35</v>
+      </c>
+      <c r="K210">
+        <v>2.45</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.9</v>
+      </c>
+      <c r="N210">
+        <v>2.45</v>
+      </c>
+      <c r="O210">
+        <v>3.2</v>
+      </c>
+      <c r="P210">
+        <v>3</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>1.775</v>
+      </c>
+      <c r="S210">
+        <v>2.025</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>1.85</v>
+      </c>
+      <c r="V210">
+        <v>1.95</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7879051</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45368.5</v>
+      </c>
+      <c r="F211" t="s">
+        <v>31</v>
+      </c>
+      <c r="G211" t="s">
+        <v>40</v>
+      </c>
+      <c r="K211">
+        <v>3</v>
+      </c>
+      <c r="L211">
+        <v>3.2</v>
+      </c>
+      <c r="M211">
+        <v>2.375</v>
+      </c>
+      <c r="N211">
+        <v>3.3</v>
+      </c>
+      <c r="O211">
+        <v>3.2</v>
+      </c>
+      <c r="P211">
+        <v>2.25</v>
+      </c>
+      <c r="Q211">
+        <v>0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.9</v>
+      </c>
+      <c r="S211">
+        <v>1.9</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>1.9</v>
+      </c>
+      <c r="V211">
+        <v>1.9</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
         <v>0</v>
       </c>
     </row>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,34 +106,34 @@
     <t>Pafos FC</t>
   </si>
   <si>
-    <t>Apollon Limassol</t>
+    <t>Anorthosis Famagusta</t>
   </si>
   <si>
-    <t>Anorthosis Famagusta</t>
+    <t>Apollon Limassol</t>
   </si>
   <si>
     <t>AE Zakakiou</t>
   </si>
   <si>
-    <t>Omonia Nicosia</t>
+    <t>Aris Limassol</t>
   </si>
   <si>
     <t>Doxa Katokopias</t>
   </si>
   <si>
-    <t>Aris Limassol</t>
+    <t>Omonia Nicosia</t>
+  </si>
+  <si>
+    <t>APK Karmotissa</t>
   </si>
   <si>
     <t>Othellos Athienou</t>
   </si>
   <si>
-    <t>APK Karmotissa</t>
+    <t>AEL Limassol</t>
   </si>
   <si>
     <t>Nea Salamis Famagusta</t>
-  </si>
-  <si>
-    <t>AEL Limassol</t>
   </si>
   <si>
     <t>AEK Larnaca</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6997344</v>
+        <v>6997345</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>5.5</v>
+      </c>
+      <c r="N3">
+        <v>1.75</v>
+      </c>
+      <c r="O3">
+        <v>3.8</v>
+      </c>
+      <c r="P3">
         <v>4.75</v>
       </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>1.363</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
       <c r="Q3">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6997345</v>
+        <v>6997344</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L4">
+        <v>4.75</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>1.363</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>-1.5</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
+        <v>1.825</v>
+      </c>
+      <c r="V4">
+        <v>1.975</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>5.5</v>
-      </c>
-      <c r="N4">
-        <v>1.75</v>
-      </c>
-      <c r="O4">
-        <v>3.8</v>
-      </c>
-      <c r="P4">
-        <v>4.75</v>
-      </c>
-      <c r="Q4">
-        <v>-0.75</v>
-      </c>
-      <c r="R4">
-        <v>1.925</v>
-      </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>0.75</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997355</v>
+        <v>6997341</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,10 +981,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -993,43 +993,43 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6997341</v>
+        <v>6997355</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,10 +1159,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1171,43 +1171,43 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1216,16 +1216,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6943306</v>
+        <v>7105152</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="N9">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7105152</v>
+        <v>6943306</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6943307</v>
+        <v>6943308</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,46 +1426,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>1.4</v>
+      </c>
+      <c r="O11">
+        <v>4.5</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>-1.25</v>
+      </c>
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="N11">
-        <v>4.75</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>1.7</v>
-      </c>
-      <c r="Q11">
-        <v>0.75</v>
-      </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -1474,25 +1474,25 @@
         <v>1.8</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6943308</v>
+        <v>6943307</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,46 +1515,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>3.4</v>
+      </c>
+      <c r="L12">
+        <v>3.25</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>4.75</v>
+      </c>
+      <c r="O12">
         <v>4</v>
       </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12">
-        <v>1.6</v>
-      </c>
-      <c r="L12">
-        <v>3.6</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>1.4</v>
-      </c>
-      <c r="O12">
-        <v>4.5</v>
-      </c>
       <c r="P12">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -1563,25 +1563,25 @@
         <v>1.8</v>
       </c>
       <c r="W12">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
@@ -1779,10 +1779,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6943315</v>
+        <v>6942186</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,49 +1868,49 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M16">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P16">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
         <v>1.8</v>
       </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
         <v>1.925</v>
@@ -1919,25 +1919,25 @@
         <v>1.875</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6942186</v>
+        <v>6943310</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="N17">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q17">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.925</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>1</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>0.925</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6943310</v>
+        <v>6943315</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,76 +2046,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>1.909</v>
+      </c>
+      <c r="L18">
+        <v>3.25</v>
+      </c>
+      <c r="M18">
+        <v>3.75</v>
+      </c>
+      <c r="N18">
+        <v>1.85</v>
+      </c>
+      <c r="O18">
+        <v>3.5</v>
+      </c>
+      <c r="P18">
+        <v>4.333</v>
+      </c>
+      <c r="Q18">
+        <v>-0.5</v>
+      </c>
+      <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
         <v>2</v>
       </c>
-      <c r="J18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>3.4</v>
-      </c>
-      <c r="M18">
-        <v>1.666</v>
-      </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>1.75</v>
-      </c>
-      <c r="Q18">
-        <v>0.75</v>
-      </c>
-      <c r="R18">
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="S18">
-        <v>1.925</v>
-      </c>
-      <c r="T18">
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
         <v>2.5</v>
       </c>
-      <c r="U18">
-        <v>1.8</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
       <c r="Y18">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,10 +2135,10 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>45172.625</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -2405,7 +2405,7 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2580,10 +2580,10 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         <v>45186.5</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2850,7 +2850,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3117,7 +3117,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3203,7 +3203,7 @@
         <v>45192.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -3292,10 +3292,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3381,10 +3381,10 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3470,10 +3470,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
         <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3651,7 +3651,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3737,10 +3737,10 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3826,10 +3826,10 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
         <v>37</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4007,7 +4007,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4271,10 +4271,10 @@
         <v>45205.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6943338</v>
+        <v>6942190</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,46 +4360,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
+        <v>3.25</v>
+      </c>
+      <c r="M44">
+        <v>3.1</v>
+      </c>
+      <c r="N44">
+        <v>1.833</v>
+      </c>
+      <c r="O44">
+        <v>3.5</v>
+      </c>
+      <c r="P44">
         <v>4.5</v>
       </c>
-      <c r="M44">
-        <v>1.363</v>
-      </c>
-      <c r="N44">
-        <v>7.5</v>
-      </c>
-      <c r="O44">
-        <v>4.2</v>
-      </c>
-      <c r="P44">
-        <v>1.5</v>
-      </c>
       <c r="Q44">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
         <v>2.5</v>
@@ -4414,16 +4414,16 @@
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB44">
         <v>-1</v>
@@ -4449,7 +4449,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6942190</v>
+        <v>6943338</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,46 +4538,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M46">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="N46">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
         <v>2.5</v>
@@ -4592,16 +4592,16 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943335</v>
+        <v>6943336</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,37 +4630,37 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="L47">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N47">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P47">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q47">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
         <v>1.925</v>
@@ -4672,28 +4672,28 @@
         <v>2.75</v>
       </c>
       <c r="U47">
+        <v>1.975</v>
+      </c>
+      <c r="V47">
         <v>1.825</v>
       </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
       <c r="W47">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6943336</v>
+        <v>6943335</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4719,37 +4719,37 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M48">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N48">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P48">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R48">
         <v>1.925</v>
@@ -4761,28 +4761,28 @@
         <v>2.75</v>
       </c>
       <c r="U48">
+        <v>1.825</v>
+      </c>
+      <c r="V48">
         <v>1.975</v>
       </c>
-      <c r="V48">
-        <v>1.825</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4808,7 +4808,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4882,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6943345</v>
+        <v>6943340</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4894,13 +4894,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4909,43 +4909,43 @@
         <v>43</v>
       </c>
       <c r="K50">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="L50">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M50">
         <v>6</v>
       </c>
       <c r="N50">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.444</v>
+        <v>0.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4954,16 +4954,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4986,7 +4986,7 @@
         <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6943340</v>
+        <v>6943345</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,13 +5072,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5087,43 +5087,43 @@
         <v>43</v>
       </c>
       <c r="K52">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M52">
         <v>6</v>
       </c>
       <c r="N52">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>3</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>0.444</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5132,16 +5132,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5161,10 +5161,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5238,7 +5238,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6943342</v>
+        <v>6943341</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5250,7 +5250,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
@@ -5259,46 +5259,46 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>1.571</v>
+      </c>
+      <c r="N54">
+        <v>6.5</v>
+      </c>
+      <c r="O54">
         <v>4</v>
       </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
-        <v>8</v>
-      </c>
-      <c r="O54">
-        <v>5</v>
-      </c>
       <c r="P54">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q54">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5307,19 +5307,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5327,7 +5327,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6943341</v>
+        <v>6943342</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5339,7 +5339,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>31</v>
@@ -5348,67 +5348,67 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="N55">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q55">
+        <v>1.5</v>
+      </c>
+      <c r="R55">
+        <v>1.8</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>3.25</v>
+      </c>
+      <c r="U55">
+        <v>1.95</v>
+      </c>
+      <c r="V55">
+        <v>1.85</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
         <v>1</v>
       </c>
-      <c r="R55">
-        <v>1.85</v>
-      </c>
-      <c r="S55">
-        <v>1.95</v>
-      </c>
-      <c r="T55">
-        <v>2.75</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
-      <c r="V55">
-        <v>1.875</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
-      <c r="Y55">
-        <v>0.55</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>0.95</v>
       </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
       <c r="AC55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>45224.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>41</v>
@@ -5683,7 +5683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6943350</v>
+        <v>6943351</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5695,76 +5695,76 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
         <v>2</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="M59">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="N59">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5772,7 +5772,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6943351</v>
+        <v>6943350</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5784,76 +5784,76 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
-      <c r="I60">
+      <c r="J60" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60">
+        <v>2.25</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>3.2</v>
+      </c>
+      <c r="N60">
+        <v>2.5</v>
+      </c>
+      <c r="O60">
+        <v>3.3</v>
+      </c>
+      <c r="P60">
+        <v>2.875</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1.775</v>
+      </c>
+      <c r="S60">
+        <v>2.025</v>
+      </c>
+      <c r="T60">
+        <v>2.5</v>
+      </c>
+      <c r="U60">
         <v>2</v>
       </c>
-      <c r="J60" t="s">
-        <v>45</v>
-      </c>
-      <c r="K60">
-        <v>8</v>
-      </c>
-      <c r="L60">
-        <v>4.6</v>
-      </c>
-      <c r="M60">
-        <v>1.333</v>
-      </c>
-      <c r="N60">
-        <v>8</v>
-      </c>
-      <c r="O60">
-        <v>5</v>
-      </c>
-      <c r="P60">
-        <v>1.363</v>
-      </c>
-      <c r="Q60">
-        <v>1.25</v>
-      </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60">
+      <c r="V60">
         <v>1.8</v>
       </c>
-      <c r="T60">
-        <v>2.75</v>
-      </c>
-      <c r="U60">
-        <v>1.95</v>
-      </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5873,7 +5873,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -5962,7 +5962,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6051,7 +6051,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -6140,10 +6140,10 @@
         <v>45229.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6321,7 +6321,7 @@
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6943355</v>
+        <v>6943352</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,55 +6410,55 @@
         <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N67">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6467,16 +6467,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6943352</v>
+        <v>6943355</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,55 +6499,55 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6556,16 +6556,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6942193</v>
+        <v>6943357</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,76 +6585,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69">
+        <v>2.875</v>
+      </c>
+      <c r="L69">
+        <v>3.3</v>
+      </c>
+      <c r="M69">
+        <v>2.4</v>
+      </c>
+      <c r="N69">
+        <v>2.4</v>
+      </c>
+      <c r="O69">
+        <v>3.4</v>
+      </c>
+      <c r="P69">
+        <v>2.875</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69">
-        <v>2.05</v>
-      </c>
-      <c r="L69">
-        <v>3.4</v>
-      </c>
-      <c r="M69">
-        <v>3.4</v>
-      </c>
-      <c r="N69">
-        <v>1.75</v>
-      </c>
-      <c r="O69">
-        <v>3.8</v>
-      </c>
-      <c r="P69">
-        <v>4.5</v>
-      </c>
-      <c r="Q69">
-        <v>-0.75</v>
-      </c>
       <c r="R69">
+        <v>1.725</v>
+      </c>
+      <c r="S69">
+        <v>2.075</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
         <v>1.875</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.925</v>
       </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>2</v>
-      </c>
-      <c r="V69">
-        <v>1.8</v>
-      </c>
       <c r="W69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6943357</v>
+        <v>6942193</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,76 +6674,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA70">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,10 +6763,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6852,10 +6852,10 @@
         <v>45240.625</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6941,7 +6941,7 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -7122,7 +7122,7 @@
         <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7208,7 +7208,7 @@
         <v>45242.5</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
@@ -7285,7 +7285,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6943358</v>
+        <v>6943362</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7297,76 +7297,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M77">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="N77">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6943362</v>
+        <v>6943358</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7386,76 +7386,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="L78">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="N78">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="O78">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="Q78">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6943364</v>
+        <v>6942195</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7490,43 +7490,43 @@
         <v>43</v>
       </c>
       <c r="K79">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M79">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N79">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P79">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W79">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6942195</v>
+        <v>6943364</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7579,43 +7579,43 @@
         <v>43</v>
       </c>
       <c r="K80">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L80">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N80">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q80">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>0.181</v>
+        <v>1.25</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6943366</v>
+        <v>6943367</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81">
+        <v>1.3</v>
+      </c>
+      <c r="L81">
+        <v>4.8</v>
+      </c>
+      <c r="M81">
+        <v>8.5</v>
+      </c>
+      <c r="N81">
+        <v>1.363</v>
+      </c>
+      <c r="O81">
+        <v>4.75</v>
+      </c>
+      <c r="P81">
+        <v>8.5</v>
+      </c>
+      <c r="Q81">
+        <v>-1.5</v>
+      </c>
+      <c r="R81">
         <v>2</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81" t="s">
-        <v>44</v>
-      </c>
-      <c r="K81">
-        <v>3.2</v>
-      </c>
-      <c r="L81">
-        <v>3.5</v>
-      </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>3.8</v>
-      </c>
-      <c r="O81">
-        <v>3.6</v>
-      </c>
-      <c r="P81">
-        <v>1.909</v>
-      </c>
-      <c r="Q81">
-        <v>0.5</v>
-      </c>
-      <c r="R81">
-        <v>1.9</v>
-      </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6943367</v>
+        <v>6943366</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="L82">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q82">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7831,10 +7831,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
         <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6943369</v>
+        <v>6943365</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M84">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N84">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
         <v>1.95</v>
       </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
       <c r="W84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6943365</v>
+        <v>6943369</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,73 +8009,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>43</v>
+      </c>
+      <c r="K85">
+        <v>1.615</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.75</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <v>4.2</v>
+      </c>
+      <c r="P85">
+        <v>7</v>
+      </c>
+      <c r="Q85">
+        <v>-1</v>
+      </c>
+      <c r="R85">
+        <v>1.8</v>
+      </c>
+      <c r="S85">
         <v>2</v>
-      </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85" t="s">
-        <v>44</v>
-      </c>
-      <c r="K85">
-        <v>2.625</v>
-      </c>
-      <c r="L85">
-        <v>3.25</v>
-      </c>
-      <c r="M85">
-        <v>2.45</v>
-      </c>
-      <c r="N85">
-        <v>3.6</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>2.1</v>
-      </c>
-      <c r="Q85">
-        <v>0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.975</v>
-      </c>
-      <c r="S85">
-        <v>1.825</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8098,10 +8098,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6943371</v>
+        <v>6943370</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
+        <v>1.925</v>
+      </c>
+      <c r="S87">
         <v>1.875</v>
       </c>
-      <c r="S87">
+      <c r="T87">
+        <v>2.5</v>
+      </c>
+      <c r="U87">
         <v>1.925</v>
       </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.975</v>
-      </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>-0.5</v>
+      </c>
+      <c r="AA87">
+        <v>0.4375</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.875</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6943370</v>
+        <v>6943371</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F88" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" t="s">
         <v>31</v>
       </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N88">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
+        <v>1.875</v>
+      </c>
+      <c r="S88">
         <v>1.925</v>
       </c>
-      <c r="S88">
-        <v>1.875</v>
-      </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>45263.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -8543,7 +8543,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8632,10 +8632,10 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8721,10 +8721,10 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6943378</v>
+        <v>6943377</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,58 +8899,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O95">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q95">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R95">
+        <v>1.8</v>
+      </c>
+      <c r="S95">
         <v>2</v>
       </c>
-      <c r="S95">
-        <v>1.8</v>
-      </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
+        <v>1.95</v>
+      </c>
+      <c r="V95">
         <v>1.85</v>
       </c>
-      <c r="V95">
-        <v>1.95</v>
-      </c>
       <c r="W95">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6943377</v>
+        <v>6943378</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,58 +8988,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N96">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P96">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
         <v>1.8</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
       <c r="W96">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9048,16 +9048,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9080,7 +9080,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9255,10 +9255,10 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6943386</v>
+        <v>6943455</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9344,73 +9344,73 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="M100">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="N100">
-        <v>5.75</v>
+        <v>1.333</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>1.571</v>
+        <v>9.5</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AC100">
         <v>-0.5</v>
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6943455</v>
+        <v>6943386</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,73 +9433,73 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>45</v>
+      </c>
+      <c r="K101">
+        <v>4.75</v>
+      </c>
+      <c r="L101">
+        <v>3.75</v>
+      </c>
+      <c r="M101">
+        <v>1.615</v>
+      </c>
+      <c r="N101">
+        <v>5.75</v>
+      </c>
+      <c r="O101">
+        <v>4.2</v>
+      </c>
+      <c r="P101">
+        <v>1.571</v>
+      </c>
+      <c r="Q101">
         <v>1</v>
       </c>
-      <c r="J101" t="s">
-        <v>43</v>
-      </c>
-      <c r="K101">
-        <v>1.25</v>
-      </c>
-      <c r="L101">
-        <v>5.25</v>
-      </c>
-      <c r="M101">
-        <v>10</v>
-      </c>
-      <c r="N101">
-        <v>1.333</v>
-      </c>
-      <c r="O101">
-        <v>5</v>
-      </c>
-      <c r="P101">
-        <v>9.5</v>
-      </c>
-      <c r="Q101">
-        <v>-1.25</v>
-      </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AC101">
         <v>-0.5</v>
@@ -9522,10 +9522,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9614,7 +9614,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9789,10 +9789,10 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>41</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6943390</v>
+        <v>6943387</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,76 +10056,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108">
+        <v>1.25</v>
+      </c>
+      <c r="L108">
+        <v>5.2</v>
+      </c>
+      <c r="M108">
+        <v>10</v>
+      </c>
+      <c r="N108">
+        <v>1.222</v>
+      </c>
+      <c r="O108">
+        <v>7</v>
+      </c>
+      <c r="P108">
+        <v>11</v>
+      </c>
+      <c r="Q108">
+        <v>-1.75</v>
+      </c>
+      <c r="R108">
+        <v>1.8</v>
+      </c>
+      <c r="S108">
+        <v>2</v>
+      </c>
+      <c r="T108">
         <v>3</v>
       </c>
-      <c r="I108">
-        <v>4</v>
-      </c>
-      <c r="J108" t="s">
-        <v>45</v>
-      </c>
-      <c r="K108">
-        <v>5</v>
-      </c>
-      <c r="L108">
-        <v>3.8</v>
-      </c>
-      <c r="M108">
-        <v>1.571</v>
-      </c>
-      <c r="N108">
-        <v>6.5</v>
-      </c>
-      <c r="O108">
-        <v>3.4</v>
-      </c>
-      <c r="P108">
-        <v>1.666</v>
-      </c>
-      <c r="Q108">
-        <v>0.75</v>
-      </c>
-      <c r="R108">
-        <v>1.95</v>
-      </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
-      <c r="T108">
-        <v>2</v>
-      </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6943387</v>
+        <v>6943390</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
+        <v>4</v>
+      </c>
+      <c r="J109" t="s">
+        <v>45</v>
+      </c>
+      <c r="K109">
+        <v>5</v>
+      </c>
+      <c r="L109">
+        <v>3.8</v>
+      </c>
+      <c r="M109">
+        <v>1.571</v>
+      </c>
+      <c r="N109">
+        <v>6.5</v>
+      </c>
+      <c r="O109">
+        <v>3.4</v>
+      </c>
+      <c r="P109">
+        <v>1.666</v>
+      </c>
+      <c r="Q109">
+        <v>0.75</v>
+      </c>
+      <c r="R109">
+        <v>1.95</v>
+      </c>
+      <c r="S109">
+        <v>1.85</v>
+      </c>
+      <c r="T109">
         <v>2</v>
       </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="J109" t="s">
-        <v>43</v>
-      </c>
-      <c r="K109">
-        <v>1.25</v>
-      </c>
-      <c r="L109">
-        <v>5.2</v>
-      </c>
-      <c r="M109">
-        <v>10</v>
-      </c>
-      <c r="N109">
-        <v>1.222</v>
-      </c>
-      <c r="O109">
-        <v>7</v>
-      </c>
-      <c r="P109">
-        <v>11</v>
-      </c>
-      <c r="Q109">
-        <v>-1.75</v>
-      </c>
-      <c r="R109">
-        <v>1.8</v>
-      </c>
-      <c r="S109">
-        <v>2</v>
-      </c>
-      <c r="T109">
-        <v>3</v>
-      </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6943389</v>
+        <v>6942199</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45283.5</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>1.952</v>
+        <v>5.5</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M111">
-        <v>3.9</v>
+        <v>1.533</v>
       </c>
       <c r="N111">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P111">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q111">
+        <v>1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
+        <v>1.825</v>
+      </c>
+      <c r="V111">
+        <v>1.975</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>0.5</v>
+      </c>
+      <c r="Z111">
+        <v>0.4</v>
+      </c>
+      <c r="AA111">
         <v>-0.5</v>
       </c>
-      <c r="R111">
-        <v>2</v>
-      </c>
-      <c r="S111">
-        <v>1.8</v>
-      </c>
-      <c r="T111">
-        <v>2.25</v>
-      </c>
-      <c r="U111">
-        <v>1.975</v>
-      </c>
-      <c r="V111">
-        <v>1.825</v>
-      </c>
-      <c r="W111">
-        <v>1.05</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>1</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6942199</v>
+        <v>6943389</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45283.5</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <v>1.952</v>
+      </c>
+      <c r="L112">
+        <v>3.3</v>
+      </c>
+      <c r="M112">
+        <v>3.9</v>
+      </c>
+      <c r="N112">
+        <v>2.05</v>
+      </c>
+      <c r="O112">
+        <v>3.4</v>
+      </c>
+      <c r="P112">
+        <v>3.75</v>
+      </c>
+      <c r="Q112">
+        <v>-0.5</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>1.8</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
+        <v>1.975</v>
+      </c>
+      <c r="V112">
+        <v>1.825</v>
+      </c>
+      <c r="W112">
+        <v>1.05</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
-      <c r="J112" t="s">
-        <v>45</v>
-      </c>
-      <c r="K112">
-        <v>5.5</v>
-      </c>
-      <c r="L112">
-        <v>3.8</v>
-      </c>
-      <c r="M112">
-        <v>1.533</v>
-      </c>
-      <c r="N112">
-        <v>6.5</v>
-      </c>
-      <c r="O112">
-        <v>4.333</v>
-      </c>
-      <c r="P112">
-        <v>1.5</v>
-      </c>
-      <c r="Q112">
-        <v>1.25</v>
-      </c>
-      <c r="R112">
-        <v>1.8</v>
-      </c>
-      <c r="S112">
-        <v>2</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>0.5</v>
-      </c>
-      <c r="Z112">
-        <v>0.4</v>
-      </c>
       <c r="AA112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,10 +10501,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>45293.5</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6943397</v>
+        <v>6943395</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,58 +10679,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>43</v>
       </c>
       <c r="K115">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L115">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N115">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P115">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.5329999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10739,16 +10739,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6943395</v>
+        <v>6943397</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,58 +10768,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
         <v>1</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L116">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M116">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N116">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="O116">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q116">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.333</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10828,16 +10828,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10860,7 +10860,7 @@
         <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10946,7 +10946,7 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
         <v>40</v>
@@ -11038,7 +11038,7 @@
         <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11216,7 +11216,7 @@
         <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11302,10 +11302,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6943404</v>
+        <v>6943403</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,76 +11391,76 @@
         <v>45298.5</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
         <v>3.4</v>
       </c>
       <c r="M123">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O123">
+        <v>3.75</v>
+      </c>
+      <c r="P123">
         <v>3.6</v>
       </c>
-      <c r="P123">
-        <v>4.75</v>
-      </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6943403</v>
+        <v>6943404</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,76 +11480,76 @@
         <v>45298.5</v>
       </c>
       <c r="F124" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124" t="s">
         <v>37</v>
       </c>
-      <c r="G124" t="s">
-        <v>41</v>
-      </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L124">
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N124">
+        <v>1.8</v>
+      </c>
+      <c r="O124">
+        <v>3.6</v>
+      </c>
+      <c r="P124">
+        <v>4.75</v>
+      </c>
+      <c r="Q124">
+        <v>-0.75</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
         <v>1.95</v>
       </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>3.6</v>
-      </c>
-      <c r="Q124">
+      <c r="W124">
+        <v>0.8</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.5</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>1.825</v>
-      </c>
-      <c r="V124">
-        <v>1.975</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>2.75</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.875</v>
-      </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,10 +11569,10 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F125" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" t="s">
         <v>35</v>
-      </c>
-      <c r="G125" t="s">
-        <v>33</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11836,7 +11836,7 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
         <v>40</v>
@@ -12014,10 +12014,10 @@
         <v>45304.5</v>
       </c>
       <c r="F130" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s">
         <v>36</v>
-      </c>
-      <c r="G130" t="s">
-        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
@@ -12192,10 +12192,10 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12370,10 +12370,10 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -12640,7 +12640,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>6</v>
@@ -12729,7 +12729,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12815,10 +12815,10 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6943413</v>
+        <v>6942203</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>43</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
+        <v>2.5</v>
+      </c>
+      <c r="O140">
+        <v>3.2</v>
+      </c>
+      <c r="P140">
+        <v>3</v>
+      </c>
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
         <v>2.05</v>
       </c>
-      <c r="O140">
-        <v>3.3</v>
-      </c>
-      <c r="P140">
-        <v>3.75</v>
-      </c>
-      <c r="Q140">
-        <v>-0.5</v>
-      </c>
-      <c r="R140">
-        <v>2.025</v>
-      </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
+        <v>1.5</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
         <v>1.05</v>
       </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>1.025</v>
-      </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6942203</v>
+        <v>6943413</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,58 +12993,58 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>43</v>
       </c>
       <c r="K141">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="N141">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
+        <v>2.025</v>
+      </c>
+      <c r="S141">
+        <v>1.775</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
+        <v>1.75</v>
+      </c>
+      <c r="V141">
         <v>2.05</v>
       </c>
-      <c r="S141">
-        <v>1.75</v>
-      </c>
-      <c r="T141">
-        <v>2.25</v>
-      </c>
-      <c r="U141">
-        <v>1.925</v>
-      </c>
-      <c r="V141">
-        <v>1.875</v>
-      </c>
       <c r="W141">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13053,16 +13053,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6943422</v>
+        <v>6943420</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,16 +13082,16 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J142" t="s">
         <v>45</v>
@@ -13106,32 +13106,32 @@
         <v>1.571</v>
       </c>
       <c r="N142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O142">
         <v>4.333</v>
       </c>
       <c r="P142">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q142">
         <v>1.25</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="V142">
-        <v>1.975</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13139,16 +13139,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6943420</v>
+        <v>6943422</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,16 +13171,16 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
         <v>45</v>
@@ -13195,32 +13195,32 @@
         <v>1.571</v>
       </c>
       <c r="N143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O143">
         <v>4.333</v>
       </c>
       <c r="P143">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q143">
         <v>1.25</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
@@ -13228,16 +13228,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>45318.5</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13349,7 +13349,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
@@ -13438,7 +13438,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
         <v>32</v>
@@ -13530,7 +13530,7 @@
         <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13619,7 +13619,7 @@
         <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13708,7 +13708,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13794,10 +13794,10 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13886,7 +13886,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -13972,10 +13972,10 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F152" t="s">
+        <v>38</v>
+      </c>
+      <c r="G152" t="s">
         <v>39</v>
-      </c>
-      <c r="G152" t="s">
-        <v>38</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14150,7 +14150,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14239,10 +14239,10 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6943430</v>
+        <v>6943434</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,55 +14328,55 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>44</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L156">
         <v>3.4</v>
       </c>
       <c r="M156">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N156">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O156">
         <v>3.4</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14388,16 +14388,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14405,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6943431</v>
+        <v>6943430</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,40 +14417,40 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K157">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
         <v>1.9</v>
@@ -14459,34 +14459,34 @@
         <v>1.9</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
+        <v>-0.5</v>
+      </c>
+      <c r="AA157">
+        <v>0.45</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
-      <c r="AB157">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC157">
-        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14494,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6943434</v>
+        <v>6943431</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14506,34 +14506,34 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
         <v>4</v>
       </c>
       <c r="N158">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
         <v>3.8</v>
@@ -14542,37 +14542,37 @@
         <v>-0.5</v>
       </c>
       <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>2.75</v>
+      </c>
+      <c r="U158">
+        <v>1.775</v>
+      </c>
+      <c r="V158">
         <v>2.025</v>
       </c>
-      <c r="S158">
-        <v>1.775</v>
-      </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>1.85</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X158">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB158">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14595,10 +14595,10 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14684,10 +14684,10 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14761,7 +14761,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6943436</v>
+        <v>6943437</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14773,73 +14773,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>3</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O161">
         <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
+        <v>1.8</v>
+      </c>
+      <c r="V161">
         <v>2</v>
       </c>
-      <c r="V161">
-        <v>1.8</v>
-      </c>
       <c r="W161">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14850,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6943437</v>
+        <v>6943436</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14862,73 +14862,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K162">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
         <v>3.4</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N162">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O162">
         <v>3.4</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
         <v>1.8</v>
       </c>
-      <c r="V162">
-        <v>2</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X162">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15040,10 +15040,10 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15221,7 +15221,7 @@
         <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>42</v>
@@ -15396,7 +15396,7 @@
         <v>45335.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943444</v>
+        <v>6943445</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,76 +15485,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169" t="s">
+        <v>45</v>
+      </c>
+      <c r="K169">
+        <v>4</v>
+      </c>
+      <c r="L169">
+        <v>3.75</v>
+      </c>
+      <c r="M169">
+        <v>1.75</v>
+      </c>
+      <c r="N169">
+        <v>5.5</v>
+      </c>
+      <c r="O169">
+        <v>4.2</v>
+      </c>
+      <c r="P169">
+        <v>1.571</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
+        <v>1.925</v>
+      </c>
+      <c r="T169">
+        <v>2.75</v>
+      </c>
+      <c r="U169">
+        <v>1.825</v>
+      </c>
+      <c r="V169">
+        <v>1.975</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
+        <v>0.571</v>
+      </c>
+      <c r="Z169">
         <v>0</v>
       </c>
-      <c r="J169" t="s">
-        <v>43</v>
-      </c>
-      <c r="K169">
-        <v>2.45</v>
-      </c>
-      <c r="L169">
-        <v>3</v>
-      </c>
-      <c r="M169">
-        <v>2.8</v>
-      </c>
-      <c r="N169">
-        <v>2.5</v>
-      </c>
-      <c r="O169">
-        <v>3.1</v>
-      </c>
-      <c r="P169">
-        <v>3</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>1.725</v>
-      </c>
-      <c r="S169">
-        <v>2.075</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
-      <c r="U169">
-        <v>1.95</v>
-      </c>
-      <c r="V169">
-        <v>1.85</v>
-      </c>
-      <c r="W169">
-        <v>1.5</v>
-      </c>
-      <c r="X169">
-        <v>-1</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
-      <c r="Z169">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC169">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943443</v>
+        <v>6943444</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K170">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N170">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O170">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P170">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q170">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X170">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943445</v>
+        <v>6943443</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,73 +15663,73 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171" t="s">
+        <v>44</v>
+      </c>
+      <c r="K171">
+        <v>5</v>
+      </c>
+      <c r="L171">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>1.571</v>
+      </c>
+      <c r="N171">
+        <v>4.333</v>
+      </c>
+      <c r="O171">
+        <v>3.75</v>
+      </c>
+      <c r="P171">
+        <v>1.8</v>
+      </c>
+      <c r="Q171">
+        <v>0.75</v>
+      </c>
+      <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
         <v>3</v>
       </c>
-      <c r="J171" t="s">
-        <v>45</v>
-      </c>
-      <c r="K171">
-        <v>4</v>
-      </c>
-      <c r="L171">
-        <v>3.75</v>
-      </c>
-      <c r="M171">
-        <v>1.75</v>
-      </c>
-      <c r="N171">
-        <v>5.5</v>
-      </c>
-      <c r="O171">
-        <v>4.2</v>
-      </c>
-      <c r="P171">
-        <v>1.571</v>
-      </c>
-      <c r="Q171">
+      <c r="U171">
+        <v>2</v>
+      </c>
+      <c r="V171">
+        <v>1.8</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>2.75</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
+        <v>0.825</v>
+      </c>
+      <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
         <v>1</v>
-      </c>
-      <c r="R171">
-        <v>1.875</v>
-      </c>
-      <c r="S171">
-        <v>1.925</v>
-      </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.825</v>
-      </c>
-      <c r="V171">
-        <v>1.975</v>
-      </c>
-      <c r="W171">
-        <v>-1</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>0.571</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
-        <v>-0</v>
-      </c>
-      <c r="AB171">
-        <v>0.825</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15752,7 +15752,7 @@
         <v>45337.5</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
         <v>34</v>
@@ -15841,7 +15841,7 @@
         <v>45337.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
         <v>32</v>
@@ -15933,7 +15933,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16019,10 +16019,10 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16111,7 +16111,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16197,7 +16197,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
         <v>41</v>
@@ -16289,7 +16289,7 @@
         <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6943451</v>
+        <v>6943450</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="N179">
-        <v>1.363</v>
+        <v>10</v>
       </c>
       <c r="O179">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P179">
-        <v>8.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z179">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6943450</v>
+        <v>6943451</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H180">
+        <v>4</v>
+      </c>
+      <c r="I180">
         <v>0</v>
       </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="L180">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M180">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="N180">
-        <v>10</v>
+        <v>1.363</v>
       </c>
       <c r="O180">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P180">
-        <v>1.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q180">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16556,7 +16556,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16645,7 +16645,7 @@
         <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16734,7 +16734,7 @@
         <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H183">
         <v>2</v>
@@ -16820,7 +16820,7 @@
         <v>45346.54166666666</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16909,10 +16909,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16998,7 +16998,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17075,7 +17075,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7864515</v>
+        <v>7864306</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17087,55 +17087,55 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>45</v>
       </c>
       <c r="K187">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N187">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P187">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17144,19 +17144,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17164,7 +17164,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7864306</v>
+        <v>7864515</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17176,55 +17176,55 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>1</v>
-      </c>
-      <c r="I188">
-        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>45</v>
       </c>
       <c r="K188">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N188">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17233,19 +17233,19 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB188">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
         <v>34</v>
@@ -17357,7 +17357,7 @@
         <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17443,10 +17443,10 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17713,7 +17713,7 @@
         <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17799,10 +17799,10 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -17888,10 +17888,10 @@
         <v>45355.64583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17977,7 +17977,7 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
         <v>32</v>
@@ -18069,7 +18069,7 @@
         <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18155,7 +18155,7 @@
         <v>45358.58333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
         <v>34</v>
@@ -18244,10 +18244,10 @@
         <v>45359.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18333,7 +18333,7 @@
         <v>45360.5</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
         <v>40</v>
@@ -18422,7 +18422,7 @@
         <v>45361.5</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>29</v>
@@ -18511,10 +18511,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F203" t="s">
+        <v>37</v>
+      </c>
+      <c r="G203" t="s">
         <v>36</v>
-      </c>
-      <c r="G203" t="s">
-        <v>37</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18600,7 +18600,7 @@
         <v>45361.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
         <v>42</v>
@@ -18778,7 +18778,7 @@
         <v>45362.58333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -18867,10 +18867,10 @@
         <v>45362.60416666666</v>
       </c>
       <c r="F207" t="s">
+        <v>39</v>
+      </c>
+      <c r="G207" t="s">
         <v>38</v>
-      </c>
-      <c r="G207" t="s">
-        <v>39</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18956,11 +18956,20 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
         <v>34</v>
       </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" t="s">
+        <v>44</v>
+      </c>
       <c r="K208">
         <v>1.55</v>
       </c>
@@ -18971,10 +18980,10 @@
         <v>6.5</v>
       </c>
       <c r="N208">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O208">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
         <v>3.6</v>
@@ -18983,42 +18992,48 @@
         <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
+        <v>1.975</v>
+      </c>
+      <c r="V208">
         <v>1.825</v>
       </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
       <c r="W208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7879049</v>
+        <v>7879064</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19027,72 +19042,87 @@
         <v>28</v>
       </c>
       <c r="E209" s="2">
-        <v>45367.45833333334</v>
+        <v>45366.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>44</v>
       </c>
       <c r="K209">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="L209">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N209">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7879050</v>
+        <v>7879049</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19101,137 +19131,404 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45367.58333333334</v>
+        <v>45367.45833333334</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
         <v>35</v>
       </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210" t="s">
+        <v>45</v>
+      </c>
       <c r="K210">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M210">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N210">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S210">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
+        <v>7879066</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45367.58333333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>32</v>
+      </c>
+      <c r="G211" t="s">
+        <v>37</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>4</v>
+      </c>
+      <c r="J211" t="s">
+        <v>45</v>
+      </c>
+      <c r="K211">
+        <v>2.2</v>
+      </c>
+      <c r="L211">
+        <v>3.4</v>
+      </c>
+      <c r="M211">
+        <v>3.3</v>
+      </c>
+      <c r="N211">
+        <v>2.45</v>
+      </c>
+      <c r="O211">
+        <v>3.4</v>
+      </c>
+      <c r="P211">
+        <v>2.9</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>1.75</v>
+      </c>
+      <c r="S211">
+        <v>2.05</v>
+      </c>
+      <c r="T211">
+        <v>2.75</v>
+      </c>
+      <c r="U211">
+        <v>1.875</v>
+      </c>
+      <c r="V211">
+        <v>1.925</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>1.9</v>
+      </c>
+      <c r="Z211">
+        <v>-1</v>
+      </c>
+      <c r="AA211">
+        <v>1.05</v>
+      </c>
+      <c r="AB211">
+        <v>0.875</v>
+      </c>
+      <c r="AC211">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7879050</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45367.58333333334</v>
+      </c>
+      <c r="F212" t="s">
+        <v>29</v>
+      </c>
+      <c r="G212" t="s">
+        <v>33</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>43</v>
+      </c>
+      <c r="K212">
+        <v>2.45</v>
+      </c>
+      <c r="L212">
+        <v>3.2</v>
+      </c>
+      <c r="M212">
+        <v>2.9</v>
+      </c>
+      <c r="N212">
+        <v>2.5</v>
+      </c>
+      <c r="O212">
+        <v>3.3</v>
+      </c>
+      <c r="P212">
+        <v>2.875</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1.75</v>
+      </c>
+      <c r="S212">
+        <v>2.05</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>1.95</v>
+      </c>
+      <c r="W212">
+        <v>1.5</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.75</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7879067</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45368.5</v>
+      </c>
+      <c r="F213" t="s">
+        <v>41</v>
+      </c>
+      <c r="G213" t="s">
+        <v>39</v>
+      </c>
+      <c r="K213">
+        <v>2.7</v>
+      </c>
+      <c r="L213">
+        <v>3.2</v>
+      </c>
+      <c r="M213">
+        <v>2.75</v>
+      </c>
+      <c r="N213">
+        <v>1.95</v>
+      </c>
+      <c r="O213">
+        <v>3.6</v>
+      </c>
+      <c r="P213">
+        <v>3.8</v>
+      </c>
+      <c r="Q213">
+        <v>-0.5</v>
+      </c>
+      <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.85</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>1.825</v>
+      </c>
+      <c r="V213">
+        <v>1.975</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
         <v>7879051</v>
       </c>
-      <c r="C211" t="s">
-        <v>28</v>
-      </c>
-      <c r="D211" t="s">
-        <v>28</v>
-      </c>
-      <c r="E211" s="2">
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
         <v>45368.5</v>
       </c>
-      <c r="F211" t="s">
-        <v>31</v>
-      </c>
-      <c r="G211" t="s">
+      <c r="F214" t="s">
+        <v>30</v>
+      </c>
+      <c r="G214" t="s">
         <v>40</v>
       </c>
-      <c r="K211">
+      <c r="K214">
         <v>3</v>
       </c>
-      <c r="L211">
+      <c r="L214">
         <v>3.2</v>
       </c>
-      <c r="M211">
+      <c r="M214">
         <v>2.375</v>
       </c>
-      <c r="N211">
+      <c r="N214">
+        <v>4</v>
+      </c>
+      <c r="O214">
         <v>3.3</v>
       </c>
-      <c r="O211">
-        <v>3.2</v>
-      </c>
-      <c r="P211">
+      <c r="P214">
+        <v>2</v>
+      </c>
+      <c r="Q214">
+        <v>0.5</v>
+      </c>
+      <c r="R214">
+        <v>1.85</v>
+      </c>
+      <c r="S214">
+        <v>1.95</v>
+      </c>
+      <c r="T214">
         <v>2.25</v>
       </c>
-      <c r="Q211">
-        <v>0.25</v>
-      </c>
-      <c r="R211">
+      <c r="U214">
         <v>1.9</v>
       </c>
-      <c r="S211">
+      <c r="V214">
         <v>1.9</v>
       </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>1.9</v>
-      </c>
-      <c r="V211">
-        <v>1.9</v>
-      </c>
-      <c r="W211">
+      <c r="W214">
         <v>0</v>
       </c>
-      <c r="X211">
+      <c r="X214">
         <v>0</v>
       </c>
-      <c r="Y211">
+      <c r="Y214">
         <v>0</v>
       </c>
-      <c r="Z211">
+      <c r="Z214">
         <v>0</v>
       </c>
-      <c r="AA211">
+      <c r="AA214">
         <v>0</v>
       </c>
     </row>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>AE Zakakiou</t>
   </si>
   <si>
+    <t>Omonia Nicosia</t>
+  </si>
+  <si>
     <t>Aris Limassol</t>
   </si>
   <si>
     <t>Doxa Katokopias</t>
-  </si>
-  <si>
-    <t>Omonia Nicosia</t>
   </si>
   <si>
     <t>APK Karmotissa</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC214"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997341</v>
+        <v>6997355</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,10 +981,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -993,43 +993,43 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6997342</v>
+        <v>6997341</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,73 +1070,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6997355</v>
+        <v>6997342</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1159,73 +1159,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N8">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1248,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1690,10 +1690,10 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6942186</v>
+        <v>6943310</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="N16">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q16">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.925</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>0.925</v>
-      </c>
-      <c r="AC16">
-        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6943310</v>
+        <v>6943315</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17">
+        <v>1.909</v>
+      </c>
+      <c r="L17">
+        <v>3.25</v>
+      </c>
+      <c r="M17">
+        <v>3.75</v>
+      </c>
+      <c r="N17">
+        <v>1.85</v>
+      </c>
+      <c r="O17">
+        <v>3.5</v>
+      </c>
+      <c r="P17">
+        <v>4.333</v>
+      </c>
+      <c r="Q17">
+        <v>-0.5</v>
+      </c>
+      <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
         <v>2</v>
       </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>3.4</v>
-      </c>
-      <c r="M17">
-        <v>1.666</v>
-      </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>1.75</v>
-      </c>
-      <c r="Q17">
-        <v>0.75</v>
-      </c>
-      <c r="R17">
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>1.925</v>
+      </c>
+      <c r="V17">
         <v>1.875</v>
       </c>
-      <c r="S17">
-        <v>1.925</v>
-      </c>
-      <c r="T17">
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
         <v>2.5</v>
       </c>
-      <c r="U17">
-        <v>1.8</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
       <c r="Y17">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6943315</v>
+        <v>6942186</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,49 +2046,49 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L18">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N18">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P18">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2097,25 +2097,25 @@
         <v>1.875</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>45172.625</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -2491,7 +2491,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -2583,7 +2583,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -3028,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3470,10 +3470,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3737,7 +3737,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -4004,10 +4004,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6943331</v>
+        <v>6942189</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,73 +4093,73 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+      <c r="L41">
         <v>5</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41">
-        <v>1.3</v>
-      </c>
-      <c r="L41">
-        <v>5.5</v>
-      </c>
       <c r="M41">
+        <v>1.333</v>
+      </c>
+      <c r="N41">
         <v>9</v>
       </c>
-      <c r="N41">
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
         <v>1.363</v>
       </c>
-      <c r="O41">
-        <v>6</v>
-      </c>
-      <c r="P41">
-        <v>7</v>
-      </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>-1</v>
+      </c>
+      <c r="Y41">
         <v>0.363</v>
       </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>-1</v>
-      </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
+        <v>0.95</v>
+      </c>
+      <c r="AB41">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6942189</v>
+        <v>6943331</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,73 +4182,73 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42">
+        <v>1.3</v>
+      </c>
+      <c r="L42">
+        <v>5.5</v>
+      </c>
+      <c r="M42">
         <v>9</v>
       </c>
-      <c r="L42">
-        <v>5</v>
-      </c>
-      <c r="M42">
-        <v>1.333</v>
-      </c>
       <c r="N42">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P42">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q42">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4449,7 +4449,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943336</v>
+        <v>6943335</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,40 +4627,40 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N47">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P47">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R47">
         <v>1.925</v>
@@ -4672,28 +4672,28 @@
         <v>2.75</v>
       </c>
       <c r="U47">
+        <v>1.825</v>
+      </c>
+      <c r="V47">
         <v>1.975</v>
       </c>
-      <c r="V47">
-        <v>1.825</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6943335</v>
+        <v>6943336</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,40 +4716,40 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="L48">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N48">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q48">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
         <v>1.925</v>
@@ -4761,28 +4761,28 @@
         <v>2.75</v>
       </c>
       <c r="U48">
+        <v>1.975</v>
+      </c>
+      <c r="V48">
         <v>1.825</v>
       </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
       <c r="W48">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB48">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4894,7 +4894,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6943343</v>
+        <v>6943345</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,13 +4983,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4998,43 +4998,43 @@
         <v>43</v>
       </c>
       <c r="K51">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L51">
         <v>4.75</v>
       </c>
       <c r="M51">
+        <v>6</v>
+      </c>
+      <c r="N51">
+        <v>1.444</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+      <c r="P51">
         <v>6.5</v>
-      </c>
-      <c r="N51">
-        <v>1.363</v>
-      </c>
-      <c r="O51">
-        <v>4.75</v>
-      </c>
-      <c r="P51">
-        <v>10</v>
       </c>
       <c r="Q51">
         <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
-        <v>0.363</v>
+        <v>0.444</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5043,16 +5043,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6943345</v>
+        <v>6943343</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,13 +5072,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5087,43 +5087,43 @@
         <v>43</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L52">
         <v>4.75</v>
       </c>
       <c r="M52">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N52">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q52">
         <v>-1.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5132,16 +5132,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5238,7 +5238,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6943341</v>
+        <v>6943342</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5250,76 +5250,76 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M54">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q54">
+        <v>1.5</v>
+      </c>
+      <c r="R54">
+        <v>1.8</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>3.25</v>
+      </c>
+      <c r="U54">
+        <v>1.95</v>
+      </c>
+      <c r="V54">
+        <v>1.85</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
         <v>1</v>
       </c>
-      <c r="R54">
-        <v>1.85</v>
-      </c>
-      <c r="S54">
-        <v>1.95</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
-      <c r="V54">
-        <v>1.875</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
-      <c r="Y54">
-        <v>0.55</v>
-      </c>
-      <c r="Z54">
-        <v>-1</v>
-      </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>0.95</v>
       </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
       <c r="AC54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5327,7 +5327,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6943342</v>
+        <v>6943341</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5339,55 +5339,55 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>1.571</v>
+      </c>
+      <c r="N55">
+        <v>6.5</v>
+      </c>
+      <c r="O55">
         <v>4</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>8</v>
-      </c>
-      <c r="O55">
-        <v>5</v>
-      </c>
       <c r="P55">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q55">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5396,19 +5396,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5873,7 +5873,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -5950,7 +5950,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6943347</v>
+        <v>6942192</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5962,76 +5962,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K62">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M62">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N62">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O62">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
+        <v>1.95</v>
+      </c>
+      <c r="T62">
+        <v>2.25</v>
+      </c>
+      <c r="U62">
+        <v>1.875</v>
+      </c>
+      <c r="V62">
+        <v>1.925</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
         <v>1.8</v>
       </c>
-      <c r="T62">
-        <v>3.5</v>
-      </c>
-      <c r="U62">
-        <v>1.9</v>
-      </c>
-      <c r="V62">
-        <v>1.9</v>
-      </c>
-      <c r="W62">
-        <v>-1</v>
-      </c>
-      <c r="X62">
-        <v>5.5</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6942192</v>
+        <v>6943347</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M63">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N63">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P63">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y63">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6143,7 +6143,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>45234.54166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
         <v>37</v>
@@ -6407,7 +6407,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>39</v>
@@ -6496,7 +6496,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6943357</v>
+        <v>6942193</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,76 +6585,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA69">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6942193</v>
+        <v>6943357</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,76 +6674,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70">
+        <v>2.875</v>
+      </c>
+      <c r="L70">
+        <v>3.3</v>
+      </c>
+      <c r="M70">
+        <v>2.4</v>
+      </c>
+      <c r="N70">
+        <v>2.4</v>
+      </c>
+      <c r="O70">
+        <v>3.4</v>
+      </c>
+      <c r="P70">
+        <v>2.875</v>
+      </c>
+      <c r="Q70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>43</v>
-      </c>
-      <c r="K70">
-        <v>2.05</v>
-      </c>
-      <c r="L70">
-        <v>3.4</v>
-      </c>
-      <c r="M70">
-        <v>3.4</v>
-      </c>
-      <c r="N70">
-        <v>1.75</v>
-      </c>
-      <c r="O70">
-        <v>3.8</v>
-      </c>
-      <c r="P70">
-        <v>4.5</v>
-      </c>
-      <c r="Q70">
-        <v>-0.75</v>
-      </c>
       <c r="R70">
+        <v>1.725</v>
+      </c>
+      <c r="S70">
+        <v>2.075</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
         <v>1.875</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.925</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>2</v>
-      </c>
-      <c r="V70">
-        <v>1.8</v>
-      </c>
       <c r="W70">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6855,7 +6855,7 @@
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6944,7 +6944,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6942194</v>
+        <v>6943363</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,46 +7030,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M74">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N74">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>1.533</v>
+        <v>9.5</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
         <v>2.5</v>
@@ -7081,25 +7081,25 @@
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6943363</v>
+        <v>6942194</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,46 +7119,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N75">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>9.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>2.5</v>
@@ -7170,25 +7170,25 @@
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7285,7 +7285,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6943362</v>
+        <v>6943358</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7297,76 +7297,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="N77">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6943358</v>
+        <v>6943362</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7386,76 +7386,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M78">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="N78">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P78">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>42</v>
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6943367</v>
+        <v>6943366</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,73 +7653,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="L81">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O81">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q81">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
         <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6943366</v>
+        <v>6943367</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,73 +7742,73 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82">
+        <v>1.3</v>
+      </c>
+      <c r="L82">
+        <v>4.8</v>
+      </c>
+      <c r="M82">
+        <v>8.5</v>
+      </c>
+      <c r="N82">
+        <v>1.363</v>
+      </c>
+      <c r="O82">
+        <v>4.75</v>
+      </c>
+      <c r="P82">
+        <v>8.5</v>
+      </c>
+      <c r="Q82">
+        <v>-1.5</v>
+      </c>
+      <c r="R82">
         <v>2</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82" t="s">
-        <v>44</v>
-      </c>
-      <c r="K82">
-        <v>3.2</v>
-      </c>
-      <c r="L82">
-        <v>3.5</v>
-      </c>
-      <c r="M82">
-        <v>2</v>
-      </c>
-      <c r="N82">
-        <v>3.8</v>
-      </c>
-      <c r="O82">
-        <v>3.6</v>
-      </c>
-      <c r="P82">
-        <v>1.909</v>
-      </c>
-      <c r="Q82">
-        <v>0.5</v>
-      </c>
-      <c r="R82">
-        <v>1.9</v>
-      </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6943365</v>
+        <v>6943369</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>43</v>
+      </c>
+      <c r="K84">
+        <v>1.615</v>
+      </c>
+      <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
+        <v>4.75</v>
+      </c>
+      <c r="N84">
+        <v>1.5</v>
+      </c>
+      <c r="O84">
+        <v>4.2</v>
+      </c>
+      <c r="P84">
+        <v>7</v>
+      </c>
+      <c r="Q84">
+        <v>-1</v>
+      </c>
+      <c r="R84">
+        <v>1.8</v>
+      </c>
+      <c r="S84">
         <v>2</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84" t="s">
-        <v>44</v>
-      </c>
-      <c r="K84">
-        <v>2.625</v>
-      </c>
-      <c r="L84">
-        <v>3.25</v>
-      </c>
-      <c r="M84">
-        <v>2.45</v>
-      </c>
-      <c r="N84">
-        <v>3.6</v>
-      </c>
-      <c r="O84">
-        <v>3.4</v>
-      </c>
-      <c r="P84">
-        <v>2.1</v>
-      </c>
-      <c r="Q84">
-        <v>0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
+        <v>1.95</v>
+      </c>
+      <c r="V84">
         <v>1.85</v>
       </c>
-      <c r="V84">
-        <v>1.95</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6943369</v>
+        <v>6943365</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,73 +8009,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N85">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O85">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
       <c r="W85">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8101,7 +8101,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>5</v>
@@ -8635,7 +8635,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6943377</v>
+        <v>6943378</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,58 +8899,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N95">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P95">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
         <v>1.8</v>
       </c>
-      <c r="S95">
-        <v>2</v>
-      </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
+        <v>1.85</v>
+      </c>
+      <c r="V95">
         <v>1.95</v>
       </c>
-      <c r="V95">
-        <v>1.85</v>
-      </c>
       <c r="W95">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6943378</v>
+        <v>6943377</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,58 +8988,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="L96">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q96">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
         <v>2</v>
       </c>
-      <c r="S96">
-        <v>1.8</v>
-      </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
+        <v>1.95</v>
+      </c>
+      <c r="V96">
         <v>1.85</v>
       </c>
-      <c r="V96">
-        <v>1.95</v>
-      </c>
       <c r="W96">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9048,16 +9048,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>36</v>
@@ -9878,10 +9878,10 @@
         <v>45278.58333333334</v>
       </c>
       <c r="F106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s">
         <v>34</v>
-      </c>
-      <c r="G106" t="s">
-        <v>33</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10059,7 +10059,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6943390</v>
+        <v>6943388</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,76 +10145,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>43</v>
+      </c>
+      <c r="K109">
+        <v>1.166</v>
+      </c>
+      <c r="L109">
+        <v>6.5</v>
+      </c>
+      <c r="M109">
+        <v>12</v>
+      </c>
+      <c r="N109">
+        <v>1.111</v>
+      </c>
+      <c r="O109">
+        <v>9.5</v>
+      </c>
+      <c r="P109">
+        <v>19</v>
+      </c>
+      <c r="Q109">
+        <v>-2.75</v>
+      </c>
+      <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
+        <v>1.825</v>
+      </c>
+      <c r="T109">
         <v>4</v>
       </c>
-      <c r="J109" t="s">
-        <v>45</v>
-      </c>
-      <c r="K109">
-        <v>5</v>
-      </c>
-      <c r="L109">
-        <v>3.8</v>
-      </c>
-      <c r="M109">
-        <v>1.571</v>
-      </c>
-      <c r="N109">
-        <v>6.5</v>
-      </c>
-      <c r="O109">
-        <v>3.4</v>
-      </c>
-      <c r="P109">
-        <v>1.666</v>
-      </c>
-      <c r="Q109">
-        <v>0.75</v>
-      </c>
-      <c r="R109">
-        <v>1.95</v>
-      </c>
-      <c r="S109">
-        <v>1.85</v>
-      </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AB109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6943388</v>
+        <v>6943390</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="L110">
+        <v>3.8</v>
+      </c>
+      <c r="M110">
+        <v>1.571</v>
+      </c>
+      <c r="N110">
         <v>6.5</v>
       </c>
-      <c r="M110">
-        <v>12</v>
-      </c>
-      <c r="N110">
-        <v>1.111</v>
-      </c>
       <c r="O110">
-        <v>9.5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>-2.75</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>1.85</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>1.825</v>
+      </c>
+      <c r="V110">
         <v>1.975</v>
       </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>4</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
-      <c r="V110">
-        <v>1.875</v>
-      </c>
       <c r="W110">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
+        <v>0.425</v>
+      </c>
+      <c r="AB110">
         <v>0.825</v>
       </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10415,7 +10415,7 @@
         <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10768,7 +10768,7 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>38</v>
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6943394</v>
+        <v>6942200</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,76 +10857,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L117">
         <v>3.3</v>
       </c>
       <c r="M117">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N117">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O117">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6943398</v>
+        <v>6943394</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118" t="s">
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <v>2.8</v>
+      </c>
+      <c r="L118">
+        <v>3.3</v>
+      </c>
+      <c r="M118">
+        <v>2.55</v>
+      </c>
+      <c r="N118">
+        <v>2.875</v>
+      </c>
+      <c r="O118">
+        <v>2.9</v>
+      </c>
+      <c r="P118">
+        <v>2.75</v>
+      </c>
+      <c r="Q118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>44</v>
-      </c>
-      <c r="K118">
-        <v>6.5</v>
-      </c>
-      <c r="L118">
-        <v>4.75</v>
-      </c>
-      <c r="M118">
-        <v>1.45</v>
-      </c>
-      <c r="N118">
-        <v>5.25</v>
-      </c>
-      <c r="O118">
-        <v>4.5</v>
-      </c>
-      <c r="P118">
-        <v>1.55</v>
-      </c>
-      <c r="Q118">
-        <v>1</v>
-      </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6942200</v>
+        <v>6943398</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,67 +11035,67 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="N119">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P119">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="V119">
-        <v>1.95</v>
-      </c>
       <c r="W119">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -11104,7 +11104,7 @@
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11569,10 +11569,10 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
         <v>33</v>
-      </c>
-      <c r="G125" t="s">
-        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11747,7 +11747,7 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>29</v>
@@ -11824,7 +11824,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6943410</v>
+        <v>6943408</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11836,76 +11836,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="N128">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P128">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>2.75</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11913,7 +11913,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6943408</v>
+        <v>6943410</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11925,76 +11925,76 @@
         <v>45303.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K129">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N129">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="O129">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Q129">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W129">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12103,10 +12103,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F131" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" t="s">
         <v>35</v>
-      </c>
-      <c r="G131" t="s">
-        <v>34</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12373,7 +12373,7 @@
         <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12459,7 +12459,7 @@
         <v>45311.5</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
         <v>31</v>
@@ -12729,7 +12729,7 @@
         <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12993,7 +12993,7 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
         <v>30</v>
@@ -13260,7 +13260,7 @@
         <v>45318.5</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13352,7 +13352,7 @@
         <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13619,7 +13619,7 @@
         <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6942205</v>
+        <v>6943426</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,76 +13705,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>1.85</v>
+        <v>1.222</v>
       </c>
       <c r="L149">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M149">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N149">
-        <v>1.85</v>
+        <v>1.181</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>17</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X149">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13782,7 +13782,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6943426</v>
+        <v>6942205</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13794,76 +13794,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K150">
-        <v>1.222</v>
+        <v>1.85</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="N150">
-        <v>1.181</v>
+        <v>1.85</v>
       </c>
       <c r="O150">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>17</v>
+        <v>4.2</v>
       </c>
       <c r="Q150">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>41</v>
@@ -14242,7 +14242,7 @@
         <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6943434</v>
+        <v>6943431</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,34 +14328,34 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
         <v>4</v>
       </c>
       <c r="N156">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P156">
         <v>3.8</v>
@@ -14364,37 +14364,37 @@
         <v>-0.5</v>
       </c>
       <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>1.9</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
+        <v>1.775</v>
+      </c>
+      <c r="V156">
         <v>2.025</v>
       </c>
-      <c r="S156">
-        <v>1.775</v>
-      </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
-      <c r="U156">
-        <v>1.85</v>
-      </c>
-      <c r="V156">
-        <v>1.95</v>
-      </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X156">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB156">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14420,7 +14420,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14494,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6943431</v>
+        <v>6943434</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14506,34 +14506,34 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
         <v>4</v>
       </c>
       <c r="N158">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
         <v>3.8</v>
@@ -14542,37 +14542,37 @@
         <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB158">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14687,7 +14687,7 @@
         <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14862,7 +14862,7 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>30</v>
@@ -15040,7 +15040,7 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>36</v>
@@ -15218,7 +15218,7 @@
         <v>45333.5</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>39</v>
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943445</v>
+        <v>6943444</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,76 +15485,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>43</v>
+      </c>
+      <c r="K169">
+        <v>2.45</v>
+      </c>
+      <c r="L169">
         <v>3</v>
       </c>
-      <c r="J169" t="s">
-        <v>45</v>
-      </c>
-      <c r="K169">
-        <v>4</v>
-      </c>
-      <c r="L169">
-        <v>3.75</v>
-      </c>
       <c r="M169">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="N169">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S169">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943444</v>
+        <v>6943443</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,76 +15574,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K170">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="L170">
+        <v>4</v>
+      </c>
+      <c r="M170">
+        <v>1.571</v>
+      </c>
+      <c r="N170">
+        <v>4.333</v>
+      </c>
+      <c r="O170">
+        <v>3.75</v>
+      </c>
+      <c r="P170">
+        <v>1.8</v>
+      </c>
+      <c r="Q170">
+        <v>0.75</v>
+      </c>
+      <c r="R170">
+        <v>1.825</v>
+      </c>
+      <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
         <v>3</v>
       </c>
-      <c r="M170">
-        <v>2.8</v>
-      </c>
-      <c r="N170">
-        <v>2.5</v>
-      </c>
-      <c r="O170">
-        <v>3.1</v>
-      </c>
-      <c r="P170">
-        <v>3</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>1.725</v>
-      </c>
-      <c r="S170">
-        <v>2.075</v>
-      </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943443</v>
+        <v>6943445</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,73 +15663,73 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K171">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M171">
+        <v>1.75</v>
+      </c>
+      <c r="N171">
+        <v>5.5</v>
+      </c>
+      <c r="O171">
+        <v>4.2</v>
+      </c>
+      <c r="P171">
         <v>1.571</v>
       </c>
-      <c r="N171">
-        <v>4.333</v>
-      </c>
-      <c r="O171">
-        <v>3.75</v>
-      </c>
-      <c r="P171">
-        <v>1.8</v>
-      </c>
       <c r="Q171">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.925</v>
+      </c>
+      <c r="T171">
+        <v>2.75</v>
+      </c>
+      <c r="U171">
         <v>1.825</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.975</v>
       </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>2</v>
-      </c>
-      <c r="V171">
-        <v>1.8</v>
-      </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>-0</v>
+      </c>
+      <c r="AB171">
         <v>0.825</v>
-      </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>1</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15755,7 +15755,7 @@
         <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15933,7 +15933,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16019,7 +16019,7 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
         <v>37</v>
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6943450</v>
+        <v>6943451</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16378,73 +16378,73 @@
         <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H179">
+        <v>4</v>
+      </c>
+      <c r="I179">
         <v>0</v>
       </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K179">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>10</v>
+        <v>1.363</v>
       </c>
       <c r="O179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P179">
-        <v>1.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q179">
-        <v>1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6943451</v>
+        <v>6943450</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K180">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="L180">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M180">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="N180">
-        <v>1.363</v>
+        <v>10</v>
       </c>
       <c r="O180">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P180">
-        <v>8.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q180">
-        <v>-1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W180">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z180">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17087,10 +17087,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F187" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" t="s">
         <v>33</v>
-      </c>
-      <c r="G187" t="s">
-        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17268,7 +17268,7 @@
         <v>31</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17354,7 +17354,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
         <v>36</v>
@@ -17713,7 +17713,7 @@
         <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17888,7 +17888,7 @@
         <v>45355.64583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
         <v>30</v>
@@ -18158,7 +18158,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18333,7 +18333,7 @@
         <v>45360.5</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
         <v>40</v>
@@ -18600,7 +18600,7 @@
         <v>45361.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G204" t="s">
         <v>42</v>
@@ -18689,7 +18689,7 @@
         <v>45362.5</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -18944,7 +18944,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7879065</v>
+        <v>7879064</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18956,10 +18956,10 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -18971,61 +18971,61 @@
         <v>44</v>
       </c>
       <c r="K208">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="N208">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA208">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19033,7 +19033,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7879064</v>
+        <v>7879065</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19045,10 +19045,10 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19060,61 +19060,61 @@
         <v>44</v>
       </c>
       <c r="K209">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="N209">
+        <v>2.05</v>
+      </c>
+      <c r="O209">
         <v>3.4</v>
       </c>
-      <c r="O209">
-        <v>3.5</v>
-      </c>
       <c r="P209">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V209">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19137,7 +19137,7 @@
         <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19211,7 +19211,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7879066</v>
+        <v>7879050</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19223,37 +19223,37 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
         <v>0</v>
       </c>
-      <c r="I211">
-        <v>4</v>
-      </c>
       <c r="J211" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K211">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L211">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
+        <v>2.9</v>
+      </c>
+      <c r="N211">
+        <v>2.5</v>
+      </c>
+      <c r="O211">
         <v>3.3</v>
       </c>
-      <c r="N211">
-        <v>2.45</v>
-      </c>
-      <c r="O211">
-        <v>3.4</v>
-      </c>
       <c r="P211">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q211">
         <v>0</v>
@@ -19265,34 +19265,34 @@
         <v>2.05</v>
       </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA211">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19300,7 +19300,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7879050</v>
+        <v>7879066</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19312,37 +19312,37 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J212" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K212">
+        <v>2.2</v>
+      </c>
+      <c r="L212">
+        <v>3.4</v>
+      </c>
+      <c r="M212">
+        <v>3.3</v>
+      </c>
+      <c r="N212">
         <v>2.45</v>
       </c>
-      <c r="L212">
-        <v>3.2</v>
-      </c>
-      <c r="M212">
+      <c r="O212">
+        <v>3.4</v>
+      </c>
+      <c r="P212">
         <v>2.9</v>
-      </c>
-      <c r="N212">
-        <v>2.5</v>
-      </c>
-      <c r="O212">
-        <v>3.3</v>
-      </c>
-      <c r="P212">
-        <v>2.875</v>
       </c>
       <c r="Q212">
         <v>0</v>
@@ -19354,34 +19354,34 @@
         <v>2.05</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z212">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19389,7 +19389,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7879067</v>
+        <v>7879051</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19401,61 +19401,76 @@
         <v>45368.5</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>45</v>
       </c>
       <c r="K213">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L213">
         <v>3.2</v>
       </c>
       <c r="M213">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N213">
+        <v>4</v>
+      </c>
+      <c r="O213">
+        <v>3.3</v>
+      </c>
+      <c r="P213">
+        <v>2</v>
+      </c>
+      <c r="Q213">
+        <v>0.5</v>
+      </c>
+      <c r="R213">
+        <v>1.85</v>
+      </c>
+      <c r="S213">
         <v>1.95</v>
       </c>
-      <c r="O213">
-        <v>3.6</v>
-      </c>
-      <c r="P213">
-        <v>3.8</v>
-      </c>
-      <c r="Q213">
-        <v>-0.5</v>
-      </c>
-      <c r="R213">
-        <v>1.95</v>
-      </c>
-      <c r="S213">
-        <v>1.85</v>
-      </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19463,7 +19478,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7879051</v>
+        <v>7879067</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19475,60 +19490,593 @@
         <v>45368.5</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>43</v>
       </c>
       <c r="K214">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L214">
         <v>3.2</v>
       </c>
       <c r="M214">
+        <v>2.75</v>
+      </c>
+      <c r="N214">
+        <v>1.95</v>
+      </c>
+      <c r="O214">
+        <v>3.6</v>
+      </c>
+      <c r="P214">
+        <v>3.8</v>
+      </c>
+      <c r="Q214">
+        <v>-0.5</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>1.8</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.825</v>
+      </c>
+      <c r="V214">
+        <v>1.975</v>
+      </c>
+      <c r="W214">
+        <v>0.95</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>1</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7968555</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F215" t="s">
+        <v>31</v>
+      </c>
+      <c r="G215" t="s">
+        <v>32</v>
+      </c>
+      <c r="K215">
+        <v>1.3</v>
+      </c>
+      <c r="L215">
+        <v>5</v>
+      </c>
+      <c r="M215">
+        <v>8</v>
+      </c>
+      <c r="N215">
+        <v>1.285</v>
+      </c>
+      <c r="O215">
+        <v>5.25</v>
+      </c>
+      <c r="P215">
+        <v>8.5</v>
+      </c>
+      <c r="Q215">
+        <v>-1.75</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>1.8</v>
+      </c>
+      <c r="T215">
+        <v>3</v>
+      </c>
+      <c r="U215">
+        <v>1.8</v>
+      </c>
+      <c r="V215">
+        <v>2</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7968554</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F216" t="s">
+        <v>35</v>
+      </c>
+      <c r="G216" t="s">
+        <v>37</v>
+      </c>
+      <c r="K216">
+        <v>2.2</v>
+      </c>
+      <c r="L216">
+        <v>3.25</v>
+      </c>
+      <c r="M216">
+        <v>3</v>
+      </c>
+      <c r="N216">
+        <v>2.05</v>
+      </c>
+      <c r="O216">
+        <v>3.3</v>
+      </c>
+      <c r="P216">
+        <v>3.2</v>
+      </c>
+      <c r="Q216">
+        <v>-0.25</v>
+      </c>
+      <c r="R216">
+        <v>1.875</v>
+      </c>
+      <c r="S216">
+        <v>1.925</v>
+      </c>
+      <c r="T216">
+        <v>2.5</v>
+      </c>
+      <c r="U216">
+        <v>1.9</v>
+      </c>
+      <c r="V216">
+        <v>1.9</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>7968556</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45381.58333333334</v>
+      </c>
+      <c r="F217" t="s">
+        <v>39</v>
+      </c>
+      <c r="G217" t="s">
+        <v>36</v>
+      </c>
+      <c r="K217">
+        <v>2.625</v>
+      </c>
+      <c r="L217">
+        <v>3.2</v>
+      </c>
+      <c r="M217">
+        <v>2.5</v>
+      </c>
+      <c r="N217">
+        <v>2.8</v>
+      </c>
+      <c r="O217">
+        <v>3.2</v>
+      </c>
+      <c r="P217">
         <v>2.375</v>
       </c>
-      <c r="N214">
+      <c r="Q217">
+        <v>0.25</v>
+      </c>
+      <c r="R217">
+        <v>1.775</v>
+      </c>
+      <c r="S217">
+        <v>2.025</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
+        <v>1.95</v>
+      </c>
+      <c r="V217">
+        <v>1.85</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>7968557</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45381.58333333334</v>
+      </c>
+      <c r="F218" t="s">
+        <v>38</v>
+      </c>
+      <c r="G218" t="s">
+        <v>41</v>
+      </c>
+      <c r="K218">
+        <v>2.15</v>
+      </c>
+      <c r="L218">
+        <v>3.25</v>
+      </c>
+      <c r="M218">
+        <v>3.1</v>
+      </c>
+      <c r="N218">
+        <v>2.15</v>
+      </c>
+      <c r="O218">
+        <v>3.25</v>
+      </c>
+      <c r="P218">
+        <v>3.1</v>
+      </c>
+      <c r="Q218">
+        <v>-0.25</v>
+      </c>
+      <c r="R218">
+        <v>1.9</v>
+      </c>
+      <c r="S218">
+        <v>1.9</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>1.9</v>
+      </c>
+      <c r="V218">
+        <v>1.9</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>7968548</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45382.45833333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>40</v>
+      </c>
+      <c r="G219" t="s">
+        <v>42</v>
+      </c>
+      <c r="K219">
+        <v>2.5</v>
+      </c>
+      <c r="L219">
+        <v>3.2</v>
+      </c>
+      <c r="M219">
+        <v>2.625</v>
+      </c>
+      <c r="N219">
+        <v>2.375</v>
+      </c>
+      <c r="O219">
+        <v>3.2</v>
+      </c>
+      <c r="P219">
+        <v>2.75</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>1.75</v>
+      </c>
+      <c r="S219">
+        <v>2.05</v>
+      </c>
+      <c r="T219">
+        <v>2.25</v>
+      </c>
+      <c r="U219">
+        <v>2</v>
+      </c>
+      <c r="V219">
+        <v>1.8</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7968262</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45382.54166666666</v>
+      </c>
+      <c r="F220" t="s">
+        <v>34</v>
+      </c>
+      <c r="G220" t="s">
+        <v>30</v>
+      </c>
+      <c r="K220">
+        <v>1.727</v>
+      </c>
+      <c r="L220">
+        <v>3.4</v>
+      </c>
+      <c r="M220">
+        <v>4.5</v>
+      </c>
+      <c r="N220">
+        <v>1.444</v>
+      </c>
+      <c r="O220">
         <v>4</v>
       </c>
-      <c r="O214">
-        <v>3.3</v>
-      </c>
-      <c r="P214">
+      <c r="P220">
+        <v>6.5</v>
+      </c>
+      <c r="Q220">
+        <v>-1.25</v>
+      </c>
+      <c r="R220">
         <v>2</v>
       </c>
-      <c r="Q214">
-        <v>0.5</v>
-      </c>
-      <c r="R214">
-        <v>1.85</v>
-      </c>
-      <c r="S214">
-        <v>1.95</v>
-      </c>
-      <c r="T214">
+      <c r="S220">
+        <v>1.8</v>
+      </c>
+      <c r="T220">
+        <v>2.75</v>
+      </c>
+      <c r="U220">
+        <v>1.975</v>
+      </c>
+      <c r="V220">
+        <v>1.825</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7968549</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45382.5625</v>
+      </c>
+      <c r="F221" t="s">
+        <v>33</v>
+      </c>
+      <c r="G221" t="s">
+        <v>29</v>
+      </c>
+      <c r="K221">
+        <v>2.45</v>
+      </c>
+      <c r="L221">
+        <v>3.2</v>
+      </c>
+      <c r="M221">
+        <v>2.7</v>
+      </c>
+      <c r="N221">
+        <v>2.45</v>
+      </c>
+      <c r="O221">
+        <v>3.2</v>
+      </c>
+      <c r="P221">
+        <v>2.75</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>1.775</v>
+      </c>
+      <c r="S221">
+        <v>2.025</v>
+      </c>
+      <c r="T221">
         <v>2.25</v>
       </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
-      <c r="W214">
+      <c r="U221">
+        <v>1.825</v>
+      </c>
+      <c r="V221">
+        <v>1.975</v>
+      </c>
+      <c r="W221">
         <v>0</v>
       </c>
-      <c r="X214">
+      <c r="X221">
         <v>0</v>
       </c>
-      <c r="Y214">
+      <c r="Y221">
         <v>0</v>
       </c>
-      <c r="Z214">
+      <c r="Z221">
         <v>0</v>
       </c>
-      <c r="AA214">
+      <c r="AA221">
         <v>0</v>
       </c>
     </row>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -106,28 +106,28 @@
     <t>Pafos FC</t>
   </si>
   <si>
-    <t>Anorthosis Famagusta</t>
+    <t>Apollon Limassol</t>
   </si>
   <si>
-    <t>Apollon Limassol</t>
+    <t>Anorthosis Famagusta</t>
   </si>
   <si>
     <t>AE Zakakiou</t>
   </si>
   <si>
-    <t>Omonia Nicosia</t>
+    <t>Aris Limassol</t>
   </si>
   <si>
-    <t>Aris Limassol</t>
+    <t>Omonia Nicosia</t>
   </si>
   <si>
     <t>Doxa Katokopias</t>
   </si>
   <si>
-    <t>APK Karmotissa</t>
+    <t>Othellos Athienou</t>
   </si>
   <si>
-    <t>Othellos Athienou</t>
+    <t>APK Karmotissa</t>
   </si>
   <si>
     <t>AEL Limassol</t>
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6997345</v>
+        <v>6997344</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L3">
+        <v>4.75</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>1.363</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <v>-1.5</v>
+      </c>
+      <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>2.75</v>
+      </c>
+      <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
+        <v>1.975</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>5.5</v>
-      </c>
-      <c r="N3">
-        <v>1.75</v>
-      </c>
-      <c r="O3">
-        <v>3.8</v>
-      </c>
-      <c r="P3">
-        <v>4.75</v>
-      </c>
-      <c r="Q3">
-        <v>-0.75</v>
-      </c>
-      <c r="R3">
-        <v>1.925</v>
-      </c>
-      <c r="S3">
-        <v>1.875</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
-      <c r="W3">
-        <v>0.75</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6997344</v>
+        <v>6997345</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5.5</v>
+      </c>
+      <c r="N4">
+        <v>1.75</v>
+      </c>
+      <c r="O4">
+        <v>3.8</v>
+      </c>
+      <c r="P4">
         <v>4.75</v>
       </c>
-      <c r="M4">
-        <v>11</v>
-      </c>
-      <c r="N4">
-        <v>1.363</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997355</v>
+        <v>6997341</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,10 +981,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -993,43 +993,43 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6997341</v>
+        <v>6997355</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,10 +1070,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1082,43 +1082,43 @@
         <v>43</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1127,16 +1127,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7105152</v>
+        <v>6943306</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1248,73 +1248,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6943306</v>
+        <v>7105152</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,73 +1337,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="N10">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1779,7 +1779,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>39</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6943310</v>
+        <v>6942186</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16">
+        <v>1.4</v>
+      </c>
+      <c r="L16">
+        <v>4.2</v>
+      </c>
+      <c r="M16">
+        <v>6.5</v>
+      </c>
+      <c r="N16">
+        <v>1.444</v>
+      </c>
+      <c r="O16">
+        <v>4.5</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>-1.25</v>
+      </c>
+      <c r="R16">
         <v>2</v>
       </c>
-      <c r="J16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>3.4</v>
-      </c>
-      <c r="M16">
-        <v>1.666</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>1.75</v>
-      </c>
-      <c r="Q16">
-        <v>0.75</v>
-      </c>
-      <c r="R16">
-        <v>1.875</v>
-      </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>0.925</v>
       </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
       <c r="AC16">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6943315</v>
+        <v>6943310</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>3.4</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>3.6</v>
+      </c>
+      <c r="P17">
+        <v>1.75</v>
+      </c>
+      <c r="Q17">
+        <v>0.75</v>
+      </c>
+      <c r="R17">
+        <v>1.875</v>
+      </c>
+      <c r="S17">
+        <v>1.925</v>
+      </c>
+      <c r="T17">
+        <v>2.5</v>
+      </c>
+      <c r="U17">
+        <v>1.8</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>0.75</v>
+      </c>
+      <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.925</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17">
-        <v>1.909</v>
-      </c>
-      <c r="L17">
-        <v>3.25</v>
-      </c>
-      <c r="M17">
-        <v>3.75</v>
-      </c>
-      <c r="N17">
-        <v>1.85</v>
-      </c>
-      <c r="O17">
-        <v>3.5</v>
-      </c>
-      <c r="P17">
-        <v>4.333</v>
-      </c>
-      <c r="Q17">
-        <v>-0.5</v>
-      </c>
-      <c r="R17">
-        <v>1.8</v>
-      </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
-      <c r="U17">
-        <v>1.925</v>
-      </c>
-      <c r="V17">
-        <v>1.875</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>2.5</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>-1</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
-      <c r="AC17">
-        <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6942186</v>
+        <v>6943315</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,49 +2046,49 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N18">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q18">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
         <v>2</v>
       </c>
-      <c r="S18">
-        <v>1.8</v>
-      </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2097,25 +2097,25 @@
         <v>1.875</v>
       </c>
       <c r="W18">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
         <v>1</v>
       </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6943313</v>
+        <v>6943311</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="N19">
-        <v>1.45</v>
+        <v>15</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P19">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>2.425</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.525</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.425</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6943311</v>
+        <v>6943313</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,76 +2224,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
+        <v>6.5</v>
+      </c>
+      <c r="N20">
         <v>1.45</v>
       </c>
-      <c r="N20">
-        <v>15</v>
-      </c>
       <c r="O20">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P20">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="Q20">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2.425</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.525</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.5249999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>45172.625</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7168377</v>
+        <v>7168372</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,73 +2402,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22">
+        <v>1.95</v>
+      </c>
+      <c r="L22">
+        <v>3.1</v>
+      </c>
+      <c r="M22">
+        <v>3.8</v>
+      </c>
+      <c r="N22">
         <v>2</v>
       </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>1.4</v>
-      </c>
-      <c r="L22">
-        <v>4.333</v>
-      </c>
-      <c r="M22">
-        <v>6.5</v>
-      </c>
-      <c r="N22">
-        <v>1.285</v>
-      </c>
       <c r="O22">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q22">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7168372</v>
+        <v>7168377</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2491,73 +2491,73 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>1.4</v>
+      </c>
+      <c r="L23">
+        <v>4.333</v>
+      </c>
+      <c r="M23">
+        <v>6.5</v>
+      </c>
+      <c r="N23">
+        <v>1.285</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>-1.75</v>
+      </c>
+      <c r="R23">
+        <v>1.975</v>
+      </c>
+      <c r="S23">
+        <v>1.825</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>1.95</v>
-      </c>
-      <c r="L23">
-        <v>3.1</v>
-      </c>
-      <c r="M23">
-        <v>3.8</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>3.8</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.9</v>
-      </c>
-      <c r="S23">
-        <v>1.9</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2583,7 +2583,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         <v>45186.5</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2850,7 +2850,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3117,7 +3117,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3203,7 +3203,7 @@
         <v>45192.60416666666</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>42</v>
@@ -3292,7 +3292,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -3381,7 +3381,7 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3470,10 +3470,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
         <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6943328</v>
+        <v>6943330</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,34 +3737,34 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L37">
         <v>3.4</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N37">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
         <v>4</v>
@@ -3773,40 +3773,40 @@
         <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
         <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y37">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6943330</v>
+        <v>6943328</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,34 +3826,34 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
         <v>4</v>
@@ -3862,40 +3862,40 @@
         <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6943332</v>
+        <v>6943329</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,10 +3915,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3930,25 +3930,25 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N39">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>1.95</v>
@@ -3957,13 +3957,13 @@
         <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3972,7 +3972,7 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="Z39">
         <v>-1</v>
@@ -3981,7 +3981,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6943329</v>
+        <v>6943332</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,10 +4004,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4019,25 +4019,25 @@
         <v>45</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O40">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
         <v>1.95</v>
@@ -4046,13 +4046,13 @@
         <v>1.85</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
@@ -4061,7 +4061,7 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="Z40">
         <v>-1</v>
@@ -4070,7 +4070,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4274,7 +4274,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6942190</v>
+        <v>6943334</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,40 +4360,40 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
         <v>44</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L44">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="N44">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P44">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4402,19 +4402,19 @@
         <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4426,10 +4426,10 @@
         <v>0.8</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6943334</v>
+        <v>6943338</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,76 +4449,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="L45">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M45">
-        <v>8</v>
+        <v>1.363</v>
       </c>
       <c r="N45">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="O45">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q45">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6943338</v>
+        <v>6942190</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,46 +4538,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="L46">
+        <v>3.25</v>
+      </c>
+      <c r="M46">
+        <v>3.1</v>
+      </c>
+      <c r="N46">
+        <v>1.833</v>
+      </c>
+      <c r="O46">
+        <v>3.5</v>
+      </c>
+      <c r="P46">
         <v>4.5</v>
       </c>
-      <c r="M46">
-        <v>1.363</v>
-      </c>
-      <c r="N46">
-        <v>7.5</v>
-      </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>1.5</v>
-      </c>
       <c r="Q46">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
         <v>2.5</v>
@@ -4592,16 +4592,16 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943335</v>
+        <v>6943337</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,13 +4627,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4642,43 +4642,43 @@
         <v>43</v>
       </c>
       <c r="K47">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L47">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N47">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R47">
+        <v>1.775</v>
+      </c>
+      <c r="S47">
+        <v>2.025</v>
+      </c>
+      <c r="T47">
+        <v>2.5</v>
+      </c>
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.825</v>
-      </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
       <c r="W47">
-        <v>0.333</v>
+        <v>1.6</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4687,16 +4687,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,10 +4716,10 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6943337</v>
+        <v>6943335</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,13 +4805,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4820,43 +4820,43 @@
         <v>43</v>
       </c>
       <c r="K49">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M49">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N49">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>1.6</v>
+        <v>0.333</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4865,16 +4865,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4882,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6943340</v>
+        <v>6943345</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4894,13 +4894,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4909,43 +4909,43 @@
         <v>43</v>
       </c>
       <c r="K50">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L50">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M50">
         <v>6</v>
       </c>
       <c r="N50">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="O50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P50">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q50">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>0.3</v>
+        <v>0.444</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4954,16 +4954,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6943345</v>
+        <v>6943343</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,13 +4983,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4998,43 +4998,43 @@
         <v>43</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L51">
         <v>4.75</v>
       </c>
       <c r="M51">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N51">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q51">
         <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.444</v>
+        <v>0.363</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5043,16 +5043,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6943343</v>
+        <v>6943340</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,13 +5072,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5087,43 +5087,43 @@
         <v>43</v>
       </c>
       <c r="K52">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="L52">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M52">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N52">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O52">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q52">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R52">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5132,16 +5132,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5253,7 +5253,7 @@
         <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
         <v>42</v>
@@ -5873,7 +5873,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -5962,7 +5962,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6051,7 +6051,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -6140,10 +6140,10 @@
         <v>45229.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6321,7 +6321,7 @@
         <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6943352</v>
+        <v>6943355</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,55 +6410,55 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>0.363</v>
+        <v>1.375</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6467,16 +6467,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6943355</v>
+        <v>6943352</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,55 +6499,55 @@
         <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N68">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>1.375</v>
+        <v>0.363</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6556,16 +6556,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6573,7 +6573,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6942193</v>
+        <v>6943357</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,76 +6585,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69">
+        <v>2.875</v>
+      </c>
+      <c r="L69">
+        <v>3.3</v>
+      </c>
+      <c r="M69">
+        <v>2.4</v>
+      </c>
+      <c r="N69">
+        <v>2.4</v>
+      </c>
+      <c r="O69">
+        <v>3.4</v>
+      </c>
+      <c r="P69">
+        <v>2.875</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69">
-        <v>2.05</v>
-      </c>
-      <c r="L69">
-        <v>3.4</v>
-      </c>
-      <c r="M69">
-        <v>3.4</v>
-      </c>
-      <c r="N69">
-        <v>1.75</v>
-      </c>
-      <c r="O69">
-        <v>3.8</v>
-      </c>
-      <c r="P69">
-        <v>4.5</v>
-      </c>
-      <c r="Q69">
-        <v>-0.75</v>
-      </c>
       <c r="R69">
+        <v>1.725</v>
+      </c>
+      <c r="S69">
+        <v>2.075</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
         <v>1.875</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.925</v>
       </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>2</v>
-      </c>
-      <c r="V69">
-        <v>1.8</v>
-      </c>
       <c r="W69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>1.075</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6662,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6943357</v>
+        <v>6942193</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6674,76 +6674,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P70">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA70">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6852,10 +6852,10 @@
         <v>45240.625</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6943363</v>
+        <v>6942194</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,46 +7030,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="N74">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>9.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>2.5</v>
@@ -7081,25 +7081,25 @@
         <v>1.95</v>
       </c>
       <c r="W74">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6942194</v>
+        <v>6943363</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,46 +7119,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>1.363</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>1.533</v>
+        <v>9.5</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
         <v>2.5</v>
@@ -7170,25 +7170,25 @@
         <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45242.5</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
@@ -7297,7 +7297,7 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7386,10 +7386,10 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6942195</v>
+        <v>6943364</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7490,43 +7490,43 @@
         <v>43</v>
       </c>
       <c r="K79">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L79">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M79">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N79">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q79">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.181</v>
+        <v>1.25</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6943364</v>
+        <v>6942195</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7579,43 +7579,43 @@
         <v>43</v>
       </c>
       <c r="K80">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M80">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N80">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P80">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W80">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>41</v>
@@ -7831,10 +7831,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6943369</v>
+        <v>6943365</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M84">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N84">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
         <v>1.95</v>
       </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
       <c r="W84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6943365</v>
+        <v>6943369</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,73 +8009,73 @@
         <v>45257.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>43</v>
+      </c>
+      <c r="K85">
+        <v>1.615</v>
+      </c>
+      <c r="L85">
+        <v>3.75</v>
+      </c>
+      <c r="M85">
+        <v>4.75</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
+        <v>4.2</v>
+      </c>
+      <c r="P85">
+        <v>7</v>
+      </c>
+      <c r="Q85">
+        <v>-1</v>
+      </c>
+      <c r="R85">
+        <v>1.8</v>
+      </c>
+      <c r="S85">
         <v>2</v>
-      </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85" t="s">
-        <v>44</v>
-      </c>
-      <c r="K85">
-        <v>2.625</v>
-      </c>
-      <c r="L85">
-        <v>3.25</v>
-      </c>
-      <c r="M85">
-        <v>2.45</v>
-      </c>
-      <c r="N85">
-        <v>3.6</v>
-      </c>
-      <c r="O85">
-        <v>3.4</v>
-      </c>
-      <c r="P85">
-        <v>2.1</v>
-      </c>
-      <c r="Q85">
-        <v>0.25</v>
-      </c>
-      <c r="R85">
-        <v>1.975</v>
-      </c>
-      <c r="S85">
-        <v>1.825</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8098,10 +8098,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8175,7 +8175,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6943370</v>
+        <v>6943371</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,76 +8187,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
         <v>30</v>
       </c>
-      <c r="G87" t="s">
-        <v>40</v>
-      </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N87">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
+        <v>1.875</v>
+      </c>
+      <c r="S87">
         <v>1.925</v>
       </c>
-      <c r="S87">
-        <v>1.875</v>
-      </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6943371</v>
+        <v>6943370</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
         <v>1.875</v>
       </c>
-      <c r="S88">
+      <c r="T88">
+        <v>2.5</v>
+      </c>
+      <c r="U88">
         <v>1.925</v>
       </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>-0.5</v>
+      </c>
+      <c r="AA88">
+        <v>0.4375</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.875</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>45263.47916666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -8635,7 +8635,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8721,10 +8721,10 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6943378</v>
+        <v>6943377</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,58 +8899,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="L95">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O95">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q95">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R95">
+        <v>1.8</v>
+      </c>
+      <c r="S95">
         <v>2</v>
       </c>
-      <c r="S95">
-        <v>1.8</v>
-      </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
+        <v>1.95</v>
+      </c>
+      <c r="V95">
         <v>1.85</v>
       </c>
-      <c r="V95">
-        <v>1.95</v>
-      </c>
       <c r="W95">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6943377</v>
+        <v>6943378</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,58 +8988,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N96">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P96">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
         <v>1.8</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
       <c r="W96">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9048,16 +9048,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9080,7 +9080,7 @@
         <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>45270.54166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9258,7 +9258,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9344,10 +9344,10 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9522,10 +9522,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9789,7 +9789,7 @@
         <v>45277.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
         <v>39</v>
@@ -9881,7 +9881,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>45281.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>41</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6943387</v>
+        <v>6943388</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,58 +10056,58 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108">
-        <v>1.25</v>
+        <v>1.166</v>
       </c>
       <c r="L108">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="M108">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N108">
-        <v>1.222</v>
+        <v>1.111</v>
       </c>
       <c r="O108">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P108">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q108">
-        <v>-1.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>0.222</v>
+        <v>0.111</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10119,13 +10119,13 @@
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10133,7 +10133,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6943388</v>
+        <v>6943387</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10145,58 +10145,58 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
         <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
       </c>
       <c r="K109">
-        <v>1.166</v>
+        <v>1.25</v>
       </c>
       <c r="L109">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="M109">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N109">
-        <v>1.111</v>
+        <v>1.222</v>
       </c>
       <c r="O109">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P109">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q109">
-        <v>-2.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>0.111</v>
+        <v>0.222</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10208,13 +10208,13 @@
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,10 +10234,10 @@
         <v>45282.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -10415,7 +10415,7 @@
         <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10504,7 +10504,7 @@
         <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>45293.5</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6943395</v>
+        <v>6943397</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,58 +10679,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>43</v>
       </c>
       <c r="K115">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L115">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N115">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="O115">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q115">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.333</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10739,16 +10739,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6943397</v>
+        <v>6943395</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,58 +10768,58 @@
         <v>45293.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L116">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M116">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N116">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P116">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.5329999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10828,16 +10828,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6942200</v>
+        <v>6943398</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,67 +10857,67 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="L117">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M117">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="N117">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
         <v>1.85</v>
       </c>
-      <c r="V117">
-        <v>1.95</v>
-      </c>
       <c r="W117">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10926,7 +10926,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6943398</v>
+        <v>6942200</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,67 +11035,67 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="L119">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="N119">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O119">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
+        <v>1.85</v>
+      </c>
+      <c r="V119">
         <v>1.95</v>
       </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X119">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -11104,7 +11104,7 @@
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11305,7 +11305,7 @@
         <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6943403</v>
+        <v>6943404</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,76 +11391,76 @@
         <v>45298.5</v>
       </c>
       <c r="F123" t="s">
+        <v>39</v>
+      </c>
+      <c r="G123" t="s">
         <v>36</v>
       </c>
-      <c r="G123" t="s">
-        <v>41</v>
-      </c>
       <c r="H123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L123">
         <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N123">
+        <v>1.8</v>
+      </c>
+      <c r="O123">
+        <v>3.6</v>
+      </c>
+      <c r="P123">
+        <v>4.75</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>3.6</v>
-      </c>
-      <c r="Q123">
+      <c r="W123">
+        <v>0.8</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.5</v>
+      </c>
+      <c r="AA123">
         <v>-0.5</v>
       </c>
-      <c r="R123">
-        <v>1.925</v>
-      </c>
-      <c r="S123">
-        <v>1.875</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>1.825</v>
-      </c>
-      <c r="V123">
-        <v>1.975</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>2.75</v>
-      </c>
-      <c r="Y123">
-        <v>-1</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
-      <c r="AA123">
-        <v>0.875</v>
-      </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6943404</v>
+        <v>6943403</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,76 +11480,76 @@
         <v>45298.5</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L124">
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
         <v>3.6</v>
       </c>
-      <c r="P124">
-        <v>4.75</v>
-      </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,10 +11569,10 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F125" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" t="s">
         <v>34</v>
-      </c>
-      <c r="G125" t="s">
-        <v>33</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -12014,10 +12014,10 @@
         <v>45304.5</v>
       </c>
       <c r="F130" t="s">
+        <v>36</v>
+      </c>
+      <c r="G130" t="s">
         <v>37</v>
-      </c>
-      <c r="G130" t="s">
-        <v>36</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12192,7 +12192,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>38</v>
@@ -12370,10 +12370,10 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12640,7 +12640,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>6</v>
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6943411</v>
+        <v>6943416</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,76 +12726,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>45</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>3.3</v>
+      </c>
+      <c r="M138">
+        <v>2.4</v>
+      </c>
+      <c r="N138">
+        <v>2.45</v>
+      </c>
+      <c r="O138">
+        <v>3.3</v>
+      </c>
+      <c r="P138">
+        <v>2.9</v>
+      </c>
+      <c r="Q138">
         <v>0</v>
       </c>
-      <c r="J138" t="s">
-        <v>44</v>
-      </c>
-      <c r="K138">
-        <v>7</v>
-      </c>
-      <c r="L138">
-        <v>4.5</v>
-      </c>
-      <c r="M138">
-        <v>1.444</v>
-      </c>
-      <c r="N138">
-        <v>8</v>
-      </c>
-      <c r="O138">
-        <v>4.75</v>
-      </c>
-      <c r="P138">
-        <v>1.4</v>
-      </c>
-      <c r="Q138">
-        <v>1.5</v>
-      </c>
       <c r="R138">
+        <v>1.775</v>
+      </c>
+      <c r="S138">
+        <v>2.025</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
         <v>1.8</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>2</v>
       </c>
-      <c r="T138">
-        <v>3.25</v>
-      </c>
-      <c r="U138">
-        <v>2.025</v>
-      </c>
-      <c r="V138">
-        <v>1.775</v>
-      </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12803,7 +12803,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6943416</v>
+        <v>6943411</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12815,76 +12815,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L139">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M139">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="N139">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P139">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R139">
+        <v>1.8</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
+        <v>2.025</v>
+      </c>
+      <c r="V139">
         <v>1.775</v>
       </c>
-      <c r="S139">
-        <v>2.025</v>
-      </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y139">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12993,10 +12993,10 @@
         <v>45313.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6943420</v>
+        <v>6943422</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,16 +13082,16 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
         <v>45</v>
@@ -13106,32 +13106,32 @@
         <v>1.571</v>
       </c>
       <c r="N142">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O142">
         <v>4.333</v>
       </c>
       <c r="P142">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q142">
         <v>1.25</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
@@ -13139,16 +13139,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6943422</v>
+        <v>6943420</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,16 +13171,16 @@
         <v>45317.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
         <v>45</v>
@@ -13195,32 +13195,32 @@
         <v>1.571</v>
       </c>
       <c r="N143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O143">
         <v>4.333</v>
       </c>
       <c r="P143">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q143">
         <v>1.25</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
@@ -13228,16 +13228,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>45318.5</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>29</v>
@@ -13349,7 +13349,7 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>35</v>
@@ -13438,7 +13438,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>32</v>
@@ -13530,7 +13530,7 @@
         <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6943423</v>
+        <v>6942205</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L148">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N148">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.85</v>
+      </c>
+      <c r="V148">
+        <v>1.95</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
         <v>2.5</v>
       </c>
-      <c r="U148">
-        <v>1.925</v>
-      </c>
-      <c r="V148">
-        <v>1.875</v>
-      </c>
-      <c r="W148">
-        <v>0.75</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB148">
         <v>-0.5</v>
       </c>
-      <c r="AB148">
-        <v>0.925</v>
-      </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,10 +13705,10 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -13782,7 +13782,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6942205</v>
+        <v>6943423</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13794,76 +13794,76 @@
         <v>45322.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K150">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L150">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N150">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.925</v>
+      </c>
+      <c r="S150">
+        <v>1.875</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.925</v>
+      </c>
+      <c r="V150">
+        <v>1.875</v>
+      </c>
+      <c r="W150">
+        <v>0.75</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
+        <v>0.4625</v>
+      </c>
+      <c r="AA150">
         <v>-0.5</v>
       </c>
-      <c r="R150">
-        <v>1.9</v>
-      </c>
-      <c r="S150">
-        <v>1.9</v>
-      </c>
-      <c r="T150">
-        <v>2.25</v>
-      </c>
-      <c r="U150">
-        <v>1.85</v>
-      </c>
-      <c r="V150">
-        <v>1.95</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>2.5</v>
-      </c>
-      <c r="Y150">
-        <v>-1</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
-      <c r="AA150">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC150">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13886,7 +13886,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -14150,7 +14150,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14239,10 +14239,10 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14417,7 +14417,7 @@
         <v>45327.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>35</v>
@@ -14583,7 +14583,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6943433</v>
+        <v>7647734</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14595,13 +14595,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>3</v>
@@ -14610,41 +14610,41 @@
         <v>45</v>
       </c>
       <c r="K159">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M159">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N159">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R159">
+        <v>2.025</v>
+      </c>
+      <c r="S159">
+        <v>1.775</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
         <v>1.8</v>
       </c>
-      <c r="S159">
+      <c r="V159">
         <v>2</v>
       </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.85</v>
-      </c>
-      <c r="V159">
-        <v>1.95</v>
-      </c>
       <c r="W159">
         <v>-1</v>
       </c>
@@ -14652,19 +14652,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14672,7 +14672,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7647734</v>
+        <v>6943433</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14684,13 +14684,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>3</v>
@@ -14699,40 +14699,40 @@
         <v>45</v>
       </c>
       <c r="K160">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="L160">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M160">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N160">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q160">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14741,19 +14741,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB160">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14761,7 +14761,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6943437</v>
+        <v>6943436</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14773,73 +14773,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>3</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L161">
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N161">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O161">
         <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T161">
         <v>2.5</v>
       </c>
       <c r="U161">
+        <v>2</v>
+      </c>
+      <c r="V161">
         <v>1.8</v>
       </c>
-      <c r="V161">
-        <v>2</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X161">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA161">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14850,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6943436</v>
+        <v>6943437</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14862,73 +14862,73 @@
         <v>45331.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K162">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L162">
         <v>3.4</v>
       </c>
       <c r="M162">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O162">
         <v>3.4</v>
       </c>
       <c r="P162">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
+        <v>1.8</v>
+      </c>
+      <c r="V162">
         <v>2</v>
       </c>
-      <c r="V162">
-        <v>1.8</v>
-      </c>
       <c r="W162">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB162">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15040,10 +15040,10 @@
         <v>45332.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15132,7 +15132,7 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15396,7 +15396,7 @@
         <v>45335.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15485,10 +15485,10 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F169" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" t="s">
         <v>30</v>
-      </c>
-      <c r="G169" t="s">
-        <v>31</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15562,7 +15562,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6943443</v>
+        <v>6943445</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15574,73 +15574,73 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
+        <v>1.75</v>
+      </c>
+      <c r="N170">
+        <v>5.5</v>
+      </c>
+      <c r="O170">
+        <v>4.2</v>
+      </c>
+      <c r="P170">
         <v>1.571</v>
       </c>
-      <c r="N170">
-        <v>4.333</v>
-      </c>
-      <c r="O170">
-        <v>3.75</v>
-      </c>
-      <c r="P170">
-        <v>1.8</v>
-      </c>
       <c r="Q170">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
+        <v>1.925</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
         <v>1.825</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.975</v>
       </c>
-      <c r="T170">
-        <v>3</v>
-      </c>
-      <c r="U170">
-        <v>2</v>
-      </c>
-      <c r="V170">
-        <v>1.8</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>-0</v>
+      </c>
+      <c r="AB170">
         <v>0.825</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>1</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943445</v>
+        <v>6943443</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,73 +15663,73 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171" t="s">
+        <v>44</v>
+      </c>
+      <c r="K171">
+        <v>5</v>
+      </c>
+      <c r="L171">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>1.571</v>
+      </c>
+      <c r="N171">
+        <v>4.333</v>
+      </c>
+      <c r="O171">
+        <v>3.75</v>
+      </c>
+      <c r="P171">
+        <v>1.8</v>
+      </c>
+      <c r="Q171">
+        <v>0.75</v>
+      </c>
+      <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
         <v>3</v>
       </c>
-      <c r="J171" t="s">
-        <v>45</v>
-      </c>
-      <c r="K171">
-        <v>4</v>
-      </c>
-      <c r="L171">
-        <v>3.75</v>
-      </c>
-      <c r="M171">
-        <v>1.75</v>
-      </c>
-      <c r="N171">
-        <v>5.5</v>
-      </c>
-      <c r="O171">
-        <v>4.2</v>
-      </c>
-      <c r="P171">
-        <v>1.571</v>
-      </c>
-      <c r="Q171">
+      <c r="U171">
+        <v>2</v>
+      </c>
+      <c r="V171">
+        <v>1.8</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>2.75</v>
+      </c>
+      <c r="Y171">
+        <v>-1</v>
+      </c>
+      <c r="Z171">
+        <v>0.825</v>
+      </c>
+      <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
         <v>1</v>
-      </c>
-      <c r="R171">
-        <v>1.875</v>
-      </c>
-      <c r="S171">
-        <v>1.925</v>
-      </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.825</v>
-      </c>
-      <c r="V171">
-        <v>1.975</v>
-      </c>
-      <c r="W171">
-        <v>-1</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
-      <c r="Y171">
-        <v>0.571</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
-        <v>-0</v>
-      </c>
-      <c r="AB171">
-        <v>0.825</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15752,7 +15752,7 @@
         <v>45337.5</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
         <v>35</v>
@@ -15933,7 +15933,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16019,10 +16019,10 @@
         <v>45339.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16096,7 +16096,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6943446</v>
+        <v>6943447</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16108,76 +16108,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K176">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N176">
-        <v>1.727</v>
+        <v>1.55</v>
       </c>
       <c r="O176">
+        <v>4.75</v>
+      </c>
+      <c r="P176">
+        <v>5</v>
+      </c>
+      <c r="Q176">
+        <v>-1</v>
+      </c>
+      <c r="R176">
+        <v>1.85</v>
+      </c>
+      <c r="S176">
+        <v>1.95</v>
+      </c>
+      <c r="T176">
+        <v>3</v>
+      </c>
+      <c r="U176">
+        <v>1.9</v>
+      </c>
+      <c r="V176">
+        <v>1.9</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>3.75</v>
       </c>
-      <c r="P176">
-        <v>4.75</v>
-      </c>
-      <c r="Q176">
-        <v>-0.75</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>1.9</v>
-      </c>
-      <c r="T176">
-        <v>2.5</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.8</v>
-      </c>
-      <c r="W176">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6943447</v>
+        <v>6943446</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,76 +16197,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F177" t="s">
+        <v>40</v>
+      </c>
+      <c r="G177" t="s">
         <v>31</v>
       </c>
-      <c r="G177" t="s">
-        <v>41</v>
-      </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="L177">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N177">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="O177">
+        <v>3.75</v>
+      </c>
+      <c r="P177">
         <v>4.75</v>
       </c>
-      <c r="P177">
-        <v>5</v>
-      </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X177">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16289,7 +16289,7 @@
         <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16375,7 +16375,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>38</v>
@@ -16645,7 +16645,7 @@
         <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16734,7 +16734,7 @@
         <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H183">
         <v>2</v>
@@ -16912,7 +16912,7 @@
         <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16998,7 +16998,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17087,10 +17087,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F187" t="s">
+        <v>33</v>
+      </c>
+      <c r="G187" t="s">
         <v>34</v>
-      </c>
-      <c r="G187" t="s">
-        <v>33</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17265,7 +17265,7 @@
         <v>45348.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
         <v>35</v>
@@ -17357,7 +17357,7 @@
         <v>35</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17443,7 +17443,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
         <v>38</v>
@@ -17713,7 +17713,7 @@
         <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17799,7 +17799,7 @@
         <v>45355.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
         <v>39</v>
@@ -17888,10 +17888,10 @@
         <v>45355.64583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17977,7 +17977,7 @@
         <v>45357.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
         <v>32</v>
@@ -18069,7 +18069,7 @@
         <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18247,7 +18247,7 @@
         <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18333,7 +18333,7 @@
         <v>45360.5</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G201" t="s">
         <v>40</v>
@@ -18422,7 +18422,7 @@
         <v>45361.5</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>29</v>
@@ -18511,10 +18511,10 @@
         <v>45361.54166666666</v>
       </c>
       <c r="F203" t="s">
+        <v>36</v>
+      </c>
+      <c r="G203" t="s">
         <v>37</v>
-      </c>
-      <c r="G203" t="s">
-        <v>36</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18600,7 +18600,7 @@
         <v>45361.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
         <v>42</v>
@@ -18778,7 +18778,7 @@
         <v>45362.58333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -18944,7 +18944,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7879064</v>
+        <v>7879065</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18956,10 +18956,10 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -18971,61 +18971,61 @@
         <v>44</v>
       </c>
       <c r="K208">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="N208">
+        <v>2.05</v>
+      </c>
+      <c r="O208">
         <v>3.4</v>
       </c>
-      <c r="O208">
-        <v>3.5</v>
-      </c>
       <c r="P208">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q208">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V208">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19033,7 +19033,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7879065</v>
+        <v>7879064</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19045,10 +19045,10 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19060,61 +19060,61 @@
         <v>44</v>
       </c>
       <c r="K209">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="N209">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA209">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19137,7 +19137,7 @@
         <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19211,7 +19211,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7879050</v>
+        <v>7879066</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19223,37 +19223,37 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J211" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K211">
+        <v>2.2</v>
+      </c>
+      <c r="L211">
+        <v>3.4</v>
+      </c>
+      <c r="M211">
+        <v>3.3</v>
+      </c>
+      <c r="N211">
         <v>2.45</v>
       </c>
-      <c r="L211">
-        <v>3.2</v>
-      </c>
-      <c r="M211">
+      <c r="O211">
+        <v>3.4</v>
+      </c>
+      <c r="P211">
         <v>2.9</v>
-      </c>
-      <c r="N211">
-        <v>2.5</v>
-      </c>
-      <c r="O211">
-        <v>3.3</v>
-      </c>
-      <c r="P211">
-        <v>2.875</v>
       </c>
       <c r="Q211">
         <v>0</v>
@@ -19265,34 +19265,34 @@
         <v>2.05</v>
       </c>
       <c r="T211">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W211">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z211">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19300,7 +19300,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7879066</v>
+        <v>7879050</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19312,37 +19312,37 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
         <v>0</v>
       </c>
-      <c r="I212">
-        <v>4</v>
-      </c>
       <c r="J212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K212">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L212">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M212">
+        <v>2.9</v>
+      </c>
+      <c r="N212">
+        <v>2.5</v>
+      </c>
+      <c r="O212">
         <v>3.3</v>
       </c>
-      <c r="N212">
-        <v>2.45</v>
-      </c>
-      <c r="O212">
-        <v>3.4</v>
-      </c>
       <c r="P212">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q212">
         <v>0</v>
@@ -19354,34 +19354,34 @@
         <v>2.05</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA212">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>45368.5</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G213" t="s">
         <v>40</v>
@@ -19579,7 +19579,7 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G215" t="s">
         <v>32</v>
@@ -19594,31 +19594,31 @@
         <v>8</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="O215">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P215">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Q215">
         <v>-1.75</v>
       </c>
       <c r="R215">
+        <v>1.8</v>
+      </c>
+      <c r="S215">
         <v>2</v>
       </c>
-      <c r="S215">
-        <v>1.8</v>
-      </c>
       <c r="T215">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19656,7 +19656,7 @@
         <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K216">
         <v>2.2</v>
@@ -19668,10 +19668,10 @@
         <v>3</v>
       </c>
       <c r="N216">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O216">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
         <v>3.2</v>
@@ -19680,19 +19680,19 @@
         <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V216">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19730,7 +19730,7 @@
         <v>39</v>
       </c>
       <c r="G217" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K217">
         <v>2.625</v>
@@ -19742,31 +19742,31 @@
         <v>2.5</v>
       </c>
       <c r="N217">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O217">
         <v>3.2</v>
       </c>
       <c r="P217">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
       </c>
       <c r="R217">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T217">
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19816,31 +19816,31 @@
         <v>3.1</v>
       </c>
       <c r="N218">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O218">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q218">
         <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19893,19 +19893,19 @@
         <v>2.375</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P219">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
+        <v>2.05</v>
+      </c>
+      <c r="S219">
         <v>1.75</v>
-      </c>
-      <c r="S219">
-        <v>2.05</v>
       </c>
       <c r="T219">
         <v>2.25</v>
@@ -19949,10 +19949,10 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K220">
         <v>1.727</v>
@@ -19964,31 +19964,31 @@
         <v>4.5</v>
       </c>
       <c r="N220">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O220">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P220">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q220">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
         <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20023,7 +20023,7 @@
         <v>45382.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
         <v>29</v>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6942189</v>
+        <v>6943331</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,73 +4093,73 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41">
+        <v>1.3</v>
+      </c>
+      <c r="L41">
+        <v>5.5</v>
+      </c>
+      <c r="M41">
         <v>9</v>
       </c>
-      <c r="L41">
-        <v>5</v>
-      </c>
-      <c r="M41">
-        <v>1.333</v>
-      </c>
       <c r="N41">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P41">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q41">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6943331</v>
+        <v>6942189</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,73 +4182,73 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
         <v>5</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42">
-        <v>1.3</v>
-      </c>
-      <c r="L42">
-        <v>5.5</v>
-      </c>
       <c r="M42">
+        <v>1.333</v>
+      </c>
+      <c r="N42">
         <v>9</v>
       </c>
-      <c r="N42">
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
         <v>1.363</v>
       </c>
-      <c r="O42">
-        <v>6</v>
-      </c>
-      <c r="P42">
-        <v>7</v>
-      </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R42">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
         <v>0.363</v>
       </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>-1</v>
-      </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
+        <v>0.95</v>
+      </c>
+      <c r="AB42">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
-      <c r="AB42">
-        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943337</v>
+        <v>6943335</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,13 +4627,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4642,43 +4642,43 @@
         <v>43</v>
       </c>
       <c r="K47">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M47">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N47">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P47">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.6</v>
+        <v>0.333</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4687,16 +4687,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6943336</v>
+        <v>6943337</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,76 +4716,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48">
+        <v>3.1</v>
+      </c>
+      <c r="L48">
         <v>3.4</v>
-      </c>
-      <c r="L48">
-        <v>3.2</v>
       </c>
       <c r="M48">
         <v>2.1</v>
       </c>
       <c r="N48">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
+        <v>1.775</v>
+      </c>
+      <c r="S48">
+        <v>2.025</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
         <v>1.925</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.825</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA48">
+        <v>-1</v>
+      </c>
+      <c r="AB48">
+        <v>-1</v>
+      </c>
+      <c r="AC48">
         <v>0.875</v>
-      </c>
-      <c r="AB48">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC48">
-        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6943335</v>
+        <v>6943336</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,40 +4805,40 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="L49">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N49">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O49">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q49">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
         <v>1.925</v>
@@ -4850,28 +4850,28 @@
         <v>2.75</v>
       </c>
       <c r="U49">
+        <v>1.975</v>
+      </c>
+      <c r="V49">
         <v>1.825</v>
       </c>
-      <c r="V49">
-        <v>1.975</v>
-      </c>
       <c r="W49">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -7285,7 +7285,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6943358</v>
+        <v>6943362</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7297,76 +7297,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M77">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="N77">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6943362</v>
+        <v>6943358</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7386,76 +7386,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="L78">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="N78">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="O78">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="Q78">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7463,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6943364</v>
+        <v>6942195</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7475,13 +7475,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7490,43 +7490,43 @@
         <v>43</v>
       </c>
       <c r="K79">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M79">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N79">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P79">
-        <v>3.1</v>
+        <v>15</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W79">
-        <v>1.25</v>
+        <v>0.181</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7535,16 +7535,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6942195</v>
+        <v>6943364</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,13 +7564,13 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7579,43 +7579,43 @@
         <v>43</v>
       </c>
       <c r="K80">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L80">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N80">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Q80">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>0.181</v>
+        <v>1.25</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7624,16 +7624,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6943398</v>
+        <v>6942200</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,67 +10857,67 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="L117">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M117">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="N117">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="O117">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
+        <v>1.85</v>
+      </c>
+      <c r="V117">
         <v>1.95</v>
       </c>
-      <c r="V117">
-        <v>1.85</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X117">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10926,7 +10926,7 @@
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6942200</v>
+        <v>6943398</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,67 +11035,67 @@
         <v>45294.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="N119">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P119">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="V119">
-        <v>1.95</v>
-      </c>
       <c r="W119">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -11104,7 +11104,7 @@
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6943404</v>
+        <v>6943403</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,76 +11391,76 @@
         <v>45298.5</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L123">
         <v>3.4</v>
       </c>
       <c r="M123">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N123">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O123">
+        <v>3.75</v>
+      </c>
+      <c r="P123">
         <v>3.6</v>
       </c>
-      <c r="P123">
-        <v>4.75</v>
-      </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6943403</v>
+        <v>6943404</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,76 +11480,76 @@
         <v>45298.5</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L124">
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N124">
+        <v>1.8</v>
+      </c>
+      <c r="O124">
+        <v>3.6</v>
+      </c>
+      <c r="P124">
+        <v>4.75</v>
+      </c>
+      <c r="Q124">
+        <v>-0.75</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
         <v>1.95</v>
       </c>
-      <c r="O124">
-        <v>3.75</v>
-      </c>
-      <c r="P124">
-        <v>3.6</v>
-      </c>
-      <c r="Q124">
+      <c r="W124">
+        <v>0.8</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.5</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>1.825</v>
-      </c>
-      <c r="V124">
-        <v>1.975</v>
-      </c>
-      <c r="W124">
-        <v>-1</v>
-      </c>
-      <c r="X124">
-        <v>2.75</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>-1</v>
-      </c>
-      <c r="AA124">
-        <v>0.875</v>
-      </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11646,7 +11646,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6943399</v>
+        <v>6942201</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11658,13 +11658,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11673,43 +11673,43 @@
         <v>43</v>
       </c>
       <c r="K126">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="L126">
         <v>5.5</v>
       </c>
       <c r="M126">
-        <v>13</v>
+        <v>1.285</v>
       </c>
       <c r="N126">
+        <v>11</v>
+      </c>
+      <c r="O126">
+        <v>6.5</v>
+      </c>
+      <c r="P126">
         <v>1.222</v>
       </c>
-      <c r="O126">
-        <v>6</v>
-      </c>
-      <c r="P126">
-        <v>15</v>
-      </c>
       <c r="Q126">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T126">
         <v>3.25</v>
       </c>
       <c r="U126">
+        <v>1.975</v>
+      </c>
+      <c r="V126">
         <v>1.825</v>
       </c>
-      <c r="V126">
-        <v>1.975</v>
-      </c>
       <c r="W126">
-        <v>0.222</v>
+        <v>10</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11718,16 +11718,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11735,7 +11735,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6942201</v>
+        <v>6943399</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11747,13 +11747,13 @@
         <v>45299.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11762,43 +11762,43 @@
         <v>43</v>
       </c>
       <c r="K127">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L127">
         <v>5.5</v>
       </c>
       <c r="M127">
-        <v>1.285</v>
+        <v>13</v>
       </c>
       <c r="N127">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="O127">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P127">
-        <v>1.222</v>
+        <v>15</v>
       </c>
       <c r="Q127">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
+        <v>1.825</v>
+      </c>
+      <c r="V127">
         <v>1.975</v>
       </c>
-      <c r="V127">
-        <v>1.825</v>
-      </c>
       <c r="W127">
-        <v>10</v>
+        <v>0.222</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11807,16 +11807,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -13960,7 +13960,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6943427</v>
+        <v>6943425</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13972,76 +13972,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>45</v>
+      </c>
+      <c r="K152">
         <v>3</v>
-      </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-      <c r="J152" t="s">
-        <v>43</v>
-      </c>
-      <c r="K152">
-        <v>2.5</v>
       </c>
       <c r="L152">
         <v>3.4</v>
       </c>
       <c r="M152">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N152">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P152">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S152">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W152">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14049,7 +14049,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6943425</v>
+        <v>6943427</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14061,76 +14061,76 @@
         <v>45323.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K153">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L153">
         <v>3.4</v>
       </c>
       <c r="M153">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N153">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC153">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14583,7 +14583,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7647734</v>
+        <v>6943433</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14595,13 +14595,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>3</v>
@@ -14610,40 +14610,40 @@
         <v>45</v>
       </c>
       <c r="K159">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="L159">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q159">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14652,19 +14652,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.6499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB159">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14672,7 +14672,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6943433</v>
+        <v>7647734</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14684,13 +14684,13 @@
         <v>45328.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>3</v>
@@ -14699,41 +14699,41 @@
         <v>45</v>
       </c>
       <c r="K160">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M160">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N160">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
+        <v>1.775</v>
+      </c>
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
         <v>1.8</v>
       </c>
-      <c r="S160">
+      <c r="V160">
         <v>2</v>
       </c>
-      <c r="T160">
-        <v>2.5</v>
-      </c>
-      <c r="U160">
-        <v>1.85</v>
-      </c>
-      <c r="V160">
-        <v>1.95</v>
-      </c>
       <c r="W160">
         <v>-1</v>
       </c>
@@ -14741,19 +14741,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB160">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15473,7 +15473,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6943444</v>
+        <v>6943443</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15485,76 +15485,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K169">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>1.571</v>
+      </c>
+      <c r="N169">
+        <v>4.333</v>
+      </c>
+      <c r="O169">
+        <v>3.75</v>
+      </c>
+      <c r="P169">
+        <v>1.8</v>
+      </c>
+      <c r="Q169">
+        <v>0.75</v>
+      </c>
+      <c r="R169">
+        <v>1.825</v>
+      </c>
+      <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
         <v>3</v>
       </c>
-      <c r="M169">
-        <v>2.8</v>
-      </c>
-      <c r="N169">
-        <v>2.5</v>
-      </c>
-      <c r="O169">
-        <v>3.1</v>
-      </c>
-      <c r="P169">
-        <v>3</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>1.725</v>
-      </c>
-      <c r="S169">
-        <v>2.075</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W169">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC169">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6943443</v>
+        <v>6943444</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45336.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N171">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O171">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P171">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q171">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T171">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X171">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -18944,7 +18944,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7879065</v>
+        <v>7879064</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18956,10 +18956,10 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -18971,61 +18971,61 @@
         <v>44</v>
       </c>
       <c r="K208">
-        <v>1.55</v>
+        <v>5</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>6.5</v>
+        <v>1.833</v>
       </c>
       <c r="N208">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA208">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19033,7 +19033,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7879064</v>
+        <v>7879065</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19045,10 +19045,10 @@
         <v>45366.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19060,61 +19060,61 @@
         <v>44</v>
       </c>
       <c r="K209">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="N209">
+        <v>2.05</v>
+      </c>
+      <c r="O209">
         <v>3.4</v>
       </c>
-      <c r="O209">
-        <v>3.5</v>
-      </c>
       <c r="P209">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S209">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T209">
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V209">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19211,7 +19211,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7879066</v>
+        <v>7879050</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19223,37 +19223,37 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
         <v>0</v>
       </c>
-      <c r="I211">
-        <v>4</v>
-      </c>
       <c r="J211" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K211">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L211">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
+        <v>2.9</v>
+      </c>
+      <c r="N211">
+        <v>2.5</v>
+      </c>
+      <c r="O211">
         <v>3.3</v>
       </c>
-      <c r="N211">
-        <v>2.45</v>
-      </c>
-      <c r="O211">
-        <v>3.4</v>
-      </c>
       <c r="P211">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q211">
         <v>0</v>
@@ -19265,34 +19265,34 @@
         <v>2.05</v>
       </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA211">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19300,7 +19300,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7879050</v>
+        <v>7879066</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19312,37 +19312,37 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J212" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K212">
+        <v>2.2</v>
+      </c>
+      <c r="L212">
+        <v>3.4</v>
+      </c>
+      <c r="M212">
+        <v>3.3</v>
+      </c>
+      <c r="N212">
         <v>2.45</v>
       </c>
-      <c r="L212">
-        <v>3.2</v>
-      </c>
-      <c r="M212">
+      <c r="O212">
+        <v>3.4</v>
+      </c>
+      <c r="P212">
         <v>2.9</v>
-      </c>
-      <c r="N212">
-        <v>2.5</v>
-      </c>
-      <c r="O212">
-        <v>3.3</v>
-      </c>
-      <c r="P212">
-        <v>2.875</v>
       </c>
       <c r="Q212">
         <v>0</v>
@@ -19354,34 +19354,34 @@
         <v>2.05</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z212">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19567,7 +19567,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7968555</v>
+        <v>7968556</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19576,49 +19576,49 @@
         <v>28</v>
       </c>
       <c r="E215" s="2">
-        <v>45380.58333333334</v>
+        <v>45381.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K215">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="L215">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N215">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O215">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P215">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19641,7 +19641,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7968554</v>
+        <v>7968557</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19650,22 +19650,22 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45380.58333333334</v>
+        <v>45381.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K216">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L216">
         <v>3.25</v>
       </c>
       <c r="M216">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N216">
         <v>2.2</v>
@@ -19674,25 +19674,25 @@
         <v>3.4</v>
       </c>
       <c r="P216">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q216">
         <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19715,7 +19715,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7968556</v>
+        <v>7968548</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19724,49 +19724,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45381.58333333334</v>
+        <v>45382.45833333334</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G217" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K217">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L217">
         <v>3.2</v>
       </c>
       <c r="M217">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N217">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P217">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
+        <v>2.05</v>
+      </c>
+      <c r="S217">
         <v>1.75</v>
       </c>
-      <c r="S217">
-        <v>2.05</v>
-      </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19789,7 +19789,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7968557</v>
+        <v>7968262</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19798,49 +19798,49 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45381.58333333334</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K218">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L218">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M218">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N218">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="O218">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P218">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R218">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S218">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V218">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19863,7 +19863,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7968548</v>
+        <v>7968549</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19872,49 +19872,49 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45382.45833333334</v>
+        <v>45382.5625</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K219">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L219">
         <v>3.2</v>
       </c>
       <c r="M219">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N219">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P219">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R219">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S219">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T219">
         <v>2.25</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19929,154 +19929,6 @@
         <v>0</v>
       </c>
       <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>7968262</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45382.54166666666</v>
-      </c>
-      <c r="F220" t="s">
-        <v>33</v>
-      </c>
-      <c r="G220" t="s">
-        <v>31</v>
-      </c>
-      <c r="K220">
-        <v>1.727</v>
-      </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
-      <c r="M220">
-        <v>4.5</v>
-      </c>
-      <c r="N220">
-        <v>1.25</v>
-      </c>
-      <c r="O220">
-        <v>4.75</v>
-      </c>
-      <c r="P220">
-        <v>9.5</v>
-      </c>
-      <c r="Q220">
-        <v>-1.5</v>
-      </c>
-      <c r="R220">
-        <v>1.875</v>
-      </c>
-      <c r="S220">
-        <v>1.925</v>
-      </c>
-      <c r="T220">
-        <v>2.75</v>
-      </c>
-      <c r="U220">
-        <v>1.9</v>
-      </c>
-      <c r="V220">
-        <v>1.9</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>7968549</v>
-      </c>
-      <c r="C221" t="s">
-        <v>28</v>
-      </c>
-      <c r="D221" t="s">
-        <v>28</v>
-      </c>
-      <c r="E221" s="2">
-        <v>45382.5625</v>
-      </c>
-      <c r="F221" t="s">
-        <v>34</v>
-      </c>
-      <c r="G221" t="s">
-        <v>29</v>
-      </c>
-      <c r="K221">
-        <v>2.45</v>
-      </c>
-      <c r="L221">
-        <v>3.2</v>
-      </c>
-      <c r="M221">
-        <v>2.7</v>
-      </c>
-      <c r="N221">
-        <v>2.45</v>
-      </c>
-      <c r="O221">
-        <v>3.2</v>
-      </c>
-      <c r="P221">
-        <v>2.75</v>
-      </c>
-      <c r="Q221">
-        <v>0</v>
-      </c>
-      <c r="R221">
-        <v>1.775</v>
-      </c>
-      <c r="S221">
-        <v>2.025</v>
-      </c>
-      <c r="T221">
-        <v>2.25</v>
-      </c>
-      <c r="U221">
-        <v>1.825</v>
-      </c>
-      <c r="V221">
-        <v>1.975</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-      <c r="AA221">
         <v>0</v>
       </c>
     </row>

--- a/Cyprus Division 1/Cyprus Division 1.xlsx
+++ b/Cyprus Division 1/Cyprus Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>AE Zakakiou</t>
   </si>
   <si>
-    <t>Aris Limassol</t>
+    <t>Omonia Nicosia</t>
   </si>
   <si>
-    <t>Omonia Nicosia</t>
+    <t>Aris Limassol</t>
   </si>
   <si>
     <t>Doxa Katokopias</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC219"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997341</v>
+        <v>6997355</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,10 +981,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -993,43 +993,43 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6997355</v>
+        <v>6997341</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1070,10 +1070,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1082,43 +1082,43 @@
         <v>43</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P7">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1127,16 +1127,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -2138,7 +2138,7 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>45172.625</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
@@ -2583,7 +2583,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6943324</v>
+        <v>6943327</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3292,49 +3292,49 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3.3</v>
+      </c>
+      <c r="M32">
+        <v>2.2</v>
+      </c>
+      <c r="N32">
+        <v>2.75</v>
+      </c>
+      <c r="O32">
+        <v>3.25</v>
+      </c>
+      <c r="P32">
+        <v>2.625</v>
+      </c>
+      <c r="Q32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32">
-        <v>1.615</v>
-      </c>
-      <c r="L32">
-        <v>3.6</v>
-      </c>
-      <c r="M32">
-        <v>4.5</v>
-      </c>
-      <c r="N32">
-        <v>1.833</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
-      <c r="P32">
-        <v>4.5</v>
-      </c>
-      <c r="Q32">
-        <v>-0.5</v>
-      </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
         <v>1.825</v>
@@ -3343,25 +3343,25 @@
         <v>1.975</v>
       </c>
       <c r="W32">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6943327</v>
+        <v>6943324</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,49 +3381,49 @@
         <v>45193.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N33">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.825</v>
@@ -3432,25 +3432,25 @@
         <v>1.975</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,10 +3470,10 @@
         <v>45194.54166666666</v>
       </c>
       <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
         <v>34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3826,7 +3826,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>30</v>
@@ -3918,7 +3918,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6943331</v>
+        <v>6942189</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,73 +4093,73 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+      <c r="L41">
         <v>5</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41">
-        <v>1.3</v>
-      </c>
-      <c r="L41">
-        <v>5.5</v>
-      </c>
       <c r="M41">
+        <v>1.333</v>
+      </c>
+      <c r="N41">
         <v>9</v>
       </c>
-      <c r="N41">
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
         <v>1.363</v>
       </c>
-      <c r="O41">
-        <v>6</v>
-      </c>
-      <c r="P41">
-        <v>7</v>
-      </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>-1</v>
+      </c>
+      <c r="Y41">
         <v>0.363</v>
       </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>-1</v>
-      </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
+        <v>0.95</v>
+      </c>
+      <c r="AB41">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6942189</v>
+        <v>6943331</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,73 +4182,73 @@
         <v>45201.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42">
+        <v>1.3</v>
+      </c>
+      <c r="L42">
+        <v>5.5</v>
+      </c>
+      <c r="M42">
         <v>9</v>
       </c>
-      <c r="L42">
-        <v>5</v>
-      </c>
-      <c r="M42">
-        <v>1.333</v>
-      </c>
       <c r="N42">
-        <v>9</v>
+        <v>1.363</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P42">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="Q42">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
         <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6943335</v>
+        <v>6943337</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,13 +4627,13 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4642,43 +4642,43 @@
         <v>43</v>
       </c>
       <c r="K47">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L47">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="N47">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R47">
+        <v>1.775</v>
+      </c>
+      <c r="S47">
+        <v>2.025</v>
+      </c>
+      <c r="T47">
+        <v>2.5</v>
+      </c>
+      <c r="U47">
         <v>1.925</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.825</v>
-      </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
       <c r="W47">
-        <v>0.333</v>
+        <v>1.6</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4687,16 +4687,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6943337</v>
+        <v>6943336</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,76 +4716,76 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
         <v>2.1</v>
       </c>
       <c r="N48">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W48">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z48">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6943336</v>
+        <v>6943335</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,40 +4805,40 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="M49">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="N49">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P49">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R49">
         <v>1.925</v>
@@ -4850,28 +4850,28 @@
         <v>2.75</v>
       </c>
       <c r="U49">
+        <v>1.825</v>
+      </c>
+      <c r="V49">
         <v>1.975</v>
       </c>
-      <c r="V49">
-        <v>1.825</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -5072,7 +5072,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5431,7 +5431,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>45228.54166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>30</v>
@@ -6496,7 +6496,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6855,7 +6855,7 @@
         <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7285,7 +7285,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6943362</v>
+        <v>6943358</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7297,76 +7297,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="N77">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6943358</v>
+        <v>6943362</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7386,76 +7386,76 @@
         <v>45242.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M78">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="N78">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P78">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>42</v>
@@ -7742,7 +7742,7 @@
         <v>45256.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>41</v>
@@ -8101,7 +8101,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6943377</v>
+        <v>6943378</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,58 +8899,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N95">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P95">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
         <v>1.8</v>
       </c>
-      <c r="S95">
-        <v>2</v>
-      </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
+        <v>1.85</v>
+      </c>
+      <c r="V95">
         <v>1.95</v>
       </c>
-      <c r="V95">
-        <v>1.85</v>
-      </c>
       <c r="W95">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8959,16 +8959,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6943378</v>
+        <v>6943377</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,58 +8988,58 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="L96">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q96">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
         <v>2</v>
       </c>
-      <c r="S96">
-        <v>1.8</v>
-      </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
+        <v>1.95</v>
+      </c>
+      <c r="V96">
         <v>1.85</v>
       </c>
-      <c r="V96">
-        <v>1.95</v>
-      </c>
       <c r="W96">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9048,16 +9048,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>45276.54166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</